--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
+          <t>nugua:</t>
         </r>
         <r>
           <rPr>
@@ -84,11 +84,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+最小等级，最大等级
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="224">
   <si>
     <t>_Id</t>
   </si>
@@ -129,16 +130,16 @@
     <t>周围地图ID</t>
   </si>
   <si>
-    <t>怪物等级范围</t>
-  </si>
-  <si>
-    <t>怪物ID</t>
-  </si>
-  <si>
-    <t>NPC</t>
-  </si>
-  <si>
-    <t>地图掉落</t>
+    <t>怪物最小等级</t>
+  </si>
+  <si>
+    <t>怪物最大等级</t>
+  </si>
+  <si>
+    <t>地图Id掉落</t>
+  </si>
+  <si>
+    <t>掉落概率列表</t>
   </si>
   <si>
     <t>BossId</t>
@@ -150,19 +151,22 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>LevelRequired</t>
   </si>
   <si>
     <t>MapAfter</t>
   </si>
   <si>
-    <t>MonterLvl</t>
-  </si>
-  <si>
-    <t>MonsterId</t>
-  </si>
-  <si>
-    <t>DropId</t>
+    <t>MonsterLevelMin</t>
+  </si>
+  <si>
+    <t>MonsterLevelMax</t>
+  </si>
+  <si>
+    <t>DropIdList</t>
+  </si>
+  <si>
+    <t>DropRateList</t>
   </si>
   <si>
     <t>BoosId</t>
@@ -177,52 +181,613 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>银杏小村</t>
   </si>
   <si>
-    <t>0,0,10002,0</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>200000,300001</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>银杏村南</t>
   </si>
   <si>
-    <t>0,0,11001,0</t>
-  </si>
-  <si>
-    <t>11,20</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>200010,300001,300010</t>
+  </si>
+  <si>
+    <t>2,100,10</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
   <si>
     <t>比奇村北</t>
   </si>
   <si>
-    <t>0,0,11002,0</t>
-  </si>
-  <si>
-    <t>21,30</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>200020,300001,300010,300020</t>
+  </si>
+  <si>
+    <t>2,100,100,10</t>
+  </si>
+  <si>
+    <t>1003</t>
   </si>
   <si>
     <t>比奇城</t>
   </si>
   <si>
-    <t>0,0,11003,0</t>
-  </si>
-  <si>
-    <t>31,40</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>200030,300001,300010,300020,300030</t>
+  </si>
+  <si>
+    <t>2,100,100,100,10</t>
+  </si>
+  <si>
+    <t>1004</t>
   </si>
   <si>
     <t>比奇村南</t>
   </si>
   <si>
-    <t>0,0,11004,0</t>
-  </si>
-  <si>
-    <t>41,50</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>200040,300001,300010,300020,300030,300040</t>
+  </si>
+  <si>
+    <t>2,100,100,100,100,10</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>200050,300001,300010,300020,300030,300040,300050</t>
+  </si>
+  <si>
+    <t>2,100,100,100,100,100,10</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>骷髅洞一</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>200060,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>2,100,100,100,100,100,100,10</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>骷髅洞二</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>200070,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>骷髅洞三</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>200080,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>自然洞穴一</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>200090,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>自然洞穴二</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>200100,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>自然洞穴三</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>200110,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>僵尸洞一</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>200120,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>僵尸洞二</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>200130,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>僵尸洞三</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>200140,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>沃玛森林</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>200150,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>沃玛寺庙入口</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>200160,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>沃玛寺庙一</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>200170,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>沃玛寺庙二</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>200180,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>沃玛寺庙三</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200190,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>沃玛大厅</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>200200,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>毒蛇山谷</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>200210,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>盟重土城</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>200220,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>地牢一层东</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>200230,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>地牢一层南</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>200240,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>地牢一层西</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>200250,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>地牢一层北</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>200260,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>铁灯笼屋</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>200270,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>黑暗地带</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>200280,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>阴森石屋</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>200290,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>生死之间</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>200300,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>紫水晶屋</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>200310,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>邪恶势力</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>200320,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>幽名圣域</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>200330,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>石墓小溪</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>200340,300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>传奇部落</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>300001,300010,300020,300030,300040,300050,300060</t>
+  </si>
+  <si>
+    <t>100,100,100,100,100,100,10</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>恐怖空间</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>一线天</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>死亡棺材</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>399</t>
   </si>
 </sst>
 </file>
@@ -427,115 +992,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,10 +1289,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,16 +1301,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,52 +1322,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -811,24 +1376,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,33 +1431,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1251,261 +1798,1275 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K10"/>
+  <dimension ref="C3:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.75" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.5" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.375" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" style="1" width="45.25" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="2" width="13.5" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="24.0" customHeight="true">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="2">
-        <v>1000001</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
-      <c r="C7" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1000002</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="I20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="7">
-        <v>11001</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1000003</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="7">
-        <v>11002</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1000004</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="7">
-        <v>11003</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1000005</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="E21" t="s">
         <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" t="s">
+        <v>197</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" ht="24.0" customHeight="true">
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" ht="24.0" customHeight="true">
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" ht="24.0" customHeight="true">
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" t="s">
+        <v>207</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" ht="24.0" customHeight="true">
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" ht="24.0" customHeight="true">
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +3074,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C10 C11:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="237">
   <si>
     <t>_Id</t>
   </si>
@@ -202,6 +202,9 @@
     <t>2,10</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>2,100,10</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>1002</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
     <t>2,100,100,10</t>
   </si>
   <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>2,100,100,100,10</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>1004</t>
   </si>
   <si>
@@ -274,6 +286,9 @@
     <t>2,100,100,100,100,10</t>
   </si>
   <si>
+    <t>10004</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
@@ -289,6 +304,9 @@
     <t>2,100,100,100,100,100,10</t>
   </si>
   <si>
+    <t>10005</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
@@ -307,6 +325,9 @@
     <t>2,100,100,100,100,100,100,10</t>
   </si>
   <si>
+    <t>10006</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
@@ -322,6 +343,9 @@
     <t>200070,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10007</t>
+  </si>
+  <si>
     <t>1008</t>
   </si>
   <si>
@@ -337,6 +361,9 @@
     <t>200080,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10008</t>
+  </si>
+  <si>
     <t>1009</t>
   </si>
   <si>
@@ -352,6 +379,9 @@
     <t>200090,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10009</t>
+  </si>
+  <si>
     <t>1010</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t>200100,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10010</t>
+  </si>
+  <si>
     <t>1011</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>200110,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10011</t>
+  </si>
+  <si>
     <t>1012</t>
   </si>
   <si>
@@ -397,6 +433,9 @@
     <t>200120,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10012</t>
+  </si>
+  <si>
     <t>1013</t>
   </si>
   <si>
@@ -412,6 +451,9 @@
     <t>200130,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10013</t>
+  </si>
+  <si>
     <t>1014</t>
   </si>
   <si>
@@ -427,6 +469,9 @@
     <t>200140,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10014</t>
+  </si>
+  <si>
     <t>1015</t>
   </si>
   <si>
@@ -442,6 +487,9 @@
     <t>200150,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10015</t>
+  </si>
+  <si>
     <t>1016</t>
   </si>
   <si>
@@ -457,6 +505,9 @@
     <t>200160,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10016</t>
+  </si>
+  <si>
     <t>1017</t>
   </si>
   <si>
@@ -472,6 +523,9 @@
     <t>200170,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10017</t>
+  </si>
+  <si>
     <t>1018</t>
   </si>
   <si>
@@ -487,6 +541,9 @@
     <t>200180,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10018</t>
+  </si>
+  <si>
     <t>1019</t>
   </si>
   <si>
@@ -502,6 +559,9 @@
     <t>200190,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10019</t>
+  </si>
+  <si>
     <t>1020</t>
   </si>
   <si>
@@ -517,6 +577,9 @@
     <t>200200,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10020</t>
+  </si>
+  <si>
     <t>1021</t>
   </si>
   <si>
@@ -532,6 +595,9 @@
     <t>200210,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10021</t>
+  </si>
+  <si>
     <t>1022</t>
   </si>
   <si>
@@ -547,10 +613,13 @@
     <t>200220,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10022</t>
+  </si>
+  <si>
     <t>1023</t>
   </si>
   <si>
-    <t>地牢一层东</t>
+    <t>地牢一层</t>
   </si>
   <si>
     <t>230</t>
@@ -562,10 +631,13 @@
     <t>200230,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10023</t>
+  </si>
+  <si>
     <t>1024</t>
   </si>
   <si>
-    <t>地牢一层南</t>
+    <t>铁灯笼屋</t>
   </si>
   <si>
     <t>240</t>
@@ -577,10 +649,13 @@
     <t>200240,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10024</t>
+  </si>
+  <si>
     <t>1025</t>
   </si>
   <si>
-    <t>地牢一层西</t>
+    <t>黑暗地带</t>
   </si>
   <si>
     <t>250</t>
@@ -592,10 +667,13 @@
     <t>200250,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10025</t>
+  </si>
+  <si>
     <t>1026</t>
   </si>
   <si>
-    <t>地牢一层北</t>
+    <t>阴森石屋</t>
   </si>
   <si>
     <t>260</t>
@@ -607,10 +685,13 @@
     <t>200260,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10026</t>
+  </si>
+  <si>
     <t>1027</t>
   </si>
   <si>
-    <t>铁灯笼屋</t>
+    <t>生死之间</t>
   </si>
   <si>
     <t>270</t>
@@ -622,10 +703,13 @@
     <t>200270,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10027</t>
+  </si>
+  <si>
     <t>1028</t>
   </si>
   <si>
-    <t>黑暗地带</t>
+    <t>邪恶势力</t>
   </si>
   <si>
     <t>280</t>
@@ -637,10 +721,13 @@
     <t>200280,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10028</t>
+  </si>
+  <si>
     <t>1029</t>
   </si>
   <si>
-    <t>阴森石屋</t>
+    <t>幽名圣域</t>
   </si>
   <si>
     <t>290</t>
@@ -652,10 +739,13 @@
     <t>200290,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10029</t>
+  </si>
+  <si>
     <t>1030</t>
   </si>
   <si>
-    <t>生死之间</t>
+    <t>传奇部落</t>
   </si>
   <si>
     <t>300</t>
@@ -667,12 +757,12 @@
     <t>200300,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10030</t>
+  </si>
+  <si>
     <t>1031</t>
   </si>
   <si>
-    <t>紫水晶屋</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
@@ -682,10 +772,13 @@
     <t>200310,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10031</t>
+  </si>
+  <si>
     <t>1032</t>
   </si>
   <si>
-    <t>邪恶势力</t>
+    <t>恐怖空间</t>
   </si>
   <si>
     <t>320</t>
@@ -697,10 +790,13 @@
     <t>200320,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10032</t>
+  </si>
+  <si>
     <t>1033</t>
   </si>
   <si>
-    <t>幽名圣域</t>
+    <t>一线天</t>
   </si>
   <si>
     <t>330</t>
@@ -712,10 +808,13 @@
     <t>200330,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
+    <t>10033</t>
+  </si>
+  <si>
     <t>1034</t>
   </si>
   <si>
-    <t>石墓小溪</t>
+    <t>死亡棺材</t>
   </si>
   <si>
     <t>340</t>
@@ -727,67 +826,7 @@
     <t>200340,300001,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>传奇部落</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>300001,300010,300020,300030,300040,300050,300060</t>
-  </si>
-  <si>
-    <t>100,100,100,100,100,100,10</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>恐怖空间</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>1038</t>
-  </si>
-  <si>
-    <t>一线天</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>死亡棺材</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>399</t>
+    <t>10034</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1837,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K45"/>
+  <dimension ref="C3:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
@@ -1935,1138 +1974,993 @@
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="H33" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
         <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="I40" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" ht="24.0" customHeight="true">
-      <c r="C41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" t="s">
-        <v>207</v>
-      </c>
-      <c r="J41" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" ht="24.0" customHeight="true">
-      <c r="C42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" t="s">
-        <v>207</v>
-      </c>
-      <c r="J42" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" ht="24.0" customHeight="true">
-      <c r="C43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>214</v>
-      </c>
-      <c r="H43" t="s">
-        <v>215</v>
-      </c>
-      <c r="I43" t="s">
-        <v>207</v>
-      </c>
-      <c r="J43" t="s">
-        <v>208</v>
-      </c>
-      <c r="K43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" ht="24.0" customHeight="true">
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>218</v>
-      </c>
-      <c r="H44" t="s">
-        <v>219</v>
-      </c>
-      <c r="I44" t="s">
-        <v>207</v>
-      </c>
-      <c r="J44" t="s">
-        <v>208</v>
-      </c>
-      <c r="K44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" ht="24.0" customHeight="true">
-      <c r="C45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>222</v>
-      </c>
-      <c r="H45" t="s">
-        <v>223</v>
-      </c>
-      <c r="I45" t="s">
-        <v>207</v>
-      </c>
-      <c r="J45" t="s">
-        <v>208</v>
-      </c>
-      <c r="K45" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="271">
   <si>
     <t>_Id</t>
   </si>
@@ -190,7 +190,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0,0,0,0</t>
+    <t>0,0,1001,0</t>
   </si>
   <si>
     <t>9</t>
@@ -214,6 +214,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>1000,0,1004,1002</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>0,1001,1003,0</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>1002,1004,0,0</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
@@ -277,6 +286,9 @@
     <t>40</t>
   </si>
   <si>
+    <t>1001,0,1005,1003</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -295,6 +307,9 @@
     <t>50</t>
   </si>
   <si>
+    <t>1004,1006,1008,0</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -316,6 +331,9 @@
     <t>60</t>
   </si>
   <si>
+    <t>0,0,1007,1005</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -337,6 +355,9 @@
     <t>70</t>
   </si>
   <si>
+    <t>1006,0,0,1008</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
@@ -355,6 +376,9 @@
     <t>80</t>
   </si>
   <si>
+    <t>1005,1007,1011,1009</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>90</t>
   </si>
   <si>
+    <t>0,1008,1010,0</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
@@ -391,6 +418,9 @@
     <t>100</t>
   </si>
   <si>
+    <t>1009,1011,0,0</t>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
@@ -409,6 +439,9 @@
     <t>110</t>
   </si>
   <si>
+    <t>1008,0,1012,1010</t>
+  </si>
+  <si>
     <t>119</t>
   </si>
   <si>
@@ -427,6 +460,9 @@
     <t>120</t>
   </si>
   <si>
+    <t>1011,0,1013,0</t>
+  </si>
+  <si>
     <t>129</t>
   </si>
   <si>
@@ -445,6 +481,9 @@
     <t>130</t>
   </si>
   <si>
+    <t>1012,0,0,1014</t>
+  </si>
+  <si>
     <t>139</t>
   </si>
   <si>
@@ -463,6 +502,9 @@
     <t>140</t>
   </si>
   <si>
+    <t>0,1013,0,1015</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
@@ -481,6 +523,9 @@
     <t>150</t>
   </si>
   <si>
+    <t>0,1014,1016,0</t>
+  </si>
+  <si>
     <t>159</t>
   </si>
   <si>
@@ -499,6 +544,9 @@
     <t>160</t>
   </si>
   <si>
+    <t>1015,0,1017,0</t>
+  </si>
+  <si>
     <t>169</t>
   </si>
   <si>
@@ -517,6 +565,9 @@
     <t>170</t>
   </si>
   <si>
+    <t>1016,0,1018,0</t>
+  </si>
+  <si>
     <t>179</t>
   </si>
   <si>
@@ -535,6 +586,9 @@
     <t>180</t>
   </si>
   <si>
+    <t>1017,1019,0,0</t>
+  </si>
+  <si>
     <t>189</t>
   </si>
   <si>
@@ -553,6 +607,9 @@
     <t>190</t>
   </si>
   <si>
+    <t>0,1020,0,1018</t>
+  </si>
+  <si>
     <t>199</t>
   </si>
   <si>
@@ -571,6 +628,9 @@
     <t>200</t>
   </si>
   <si>
+    <t>0,1021,0,1019</t>
+  </si>
+  <si>
     <t>209</t>
   </si>
   <si>
@@ -589,6 +649,9 @@
     <t>210</t>
   </si>
   <si>
+    <t>0,0,1022,1020</t>
+  </si>
+  <si>
     <t>219</t>
   </si>
   <si>
@@ -607,6 +670,9 @@
     <t>220</t>
   </si>
   <si>
+    <t>1021,0,1023,0</t>
+  </si>
+  <si>
     <t>229</t>
   </si>
   <si>
@@ -625,6 +691,9 @@
     <t>230</t>
   </si>
   <si>
+    <t>1022,0,0,1024</t>
+  </si>
+  <si>
     <t>239</t>
   </si>
   <si>
@@ -643,6 +712,9 @@
     <t>240</t>
   </si>
   <si>
+    <t>0,1023,1025,0</t>
+  </si>
+  <si>
     <t>249</t>
   </si>
   <si>
@@ -661,6 +733,9 @@
     <t>250</t>
   </si>
   <si>
+    <t>1024,0,0,1026</t>
+  </si>
+  <si>
     <t>259</t>
   </si>
   <si>
@@ -679,6 +754,9 @@
     <t>260</t>
   </si>
   <si>
+    <t>0,1025,1027,0</t>
+  </si>
+  <si>
     <t>269</t>
   </si>
   <si>
@@ -697,6 +775,9 @@
     <t>270</t>
   </si>
   <si>
+    <t>1026,0,1028,0</t>
+  </si>
+  <si>
     <t>279</t>
   </si>
   <si>
@@ -715,6 +796,9 @@
     <t>280</t>
   </si>
   <si>
+    <t>1027,0,0,1029</t>
+  </si>
+  <si>
     <t>289</t>
   </si>
   <si>
@@ -733,6 +817,9 @@
     <t>290</t>
   </si>
   <si>
+    <t>0,1028,1030,0</t>
+  </si>
+  <si>
     <t>299</t>
   </si>
   <si>
@@ -751,6 +838,9 @@
     <t>300</t>
   </si>
   <si>
+    <t>1029,0,1031,0</t>
+  </si>
+  <si>
     <t>309</t>
   </si>
   <si>
@@ -766,6 +856,9 @@
     <t>310</t>
   </si>
   <si>
+    <t>1030,0,1032,0</t>
+  </si>
+  <si>
     <t>319</t>
   </si>
   <si>
@@ -784,6 +877,9 @@
     <t>320</t>
   </si>
   <si>
+    <t>1031,0,1033,0</t>
+  </si>
+  <si>
     <t>329</t>
   </si>
   <si>
@@ -802,6 +898,9 @@
     <t>330</t>
   </si>
   <si>
+    <t>1032,0,1034,0</t>
+  </si>
+  <si>
     <t>339</t>
   </si>
   <si>
@@ -818,6 +917,9 @@
   </si>
   <si>
     <t>340</t>
+  </si>
+  <si>
+    <t>1033,0,0,0</t>
   </si>
   <si>
     <t>349</t>
@@ -1988,979 +2090,979 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
         <v>74</v>
       </c>
-      <c r="J13" t="s">
-        <v>68</v>
-      </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="I36" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="I38" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="I39" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="H40" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="273">
   <si>
     <t>_Id</t>
   </si>
@@ -145,6 +145,9 @@
     <t>BossId</t>
   </si>
   <si>
+    <t>刷新间隔分钟</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>BoosId</t>
   </si>
   <si>
+    <t>BossInterval</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -196,7 +202,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>200000,300001</t>
+    <t>200000,300000</t>
   </si>
   <si>
     <t>2,10</t>
@@ -205,22 +211,22 @@
     <t>10000</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
     <t>银杏村南</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>1000,0,1004,1002</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>200010,300001,300010</t>
+    <t>200010,300000,300010</t>
   </si>
   <si>
     <t>2,100,10</t>
@@ -229,22 +235,22 @@
     <t>10001</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>1002</t>
   </si>
   <si>
     <t>比奇村北</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>0,1001,1003,0</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>200020,300001,300010,300020</t>
+    <t>200020,300000,300010,300020</t>
   </si>
   <si>
     <t>2,100,100,10</t>
@@ -253,22 +259,22 @@
     <t>10002</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
     <t>比奇城</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>1002,1004,0,0</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>200030,300001,300010,300020,300030</t>
+    <t>200030,300000,300010,300020,300030</t>
   </si>
   <si>
     <t>2,100,100,100,10</t>
@@ -277,22 +283,22 @@
     <t>10003</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>1004</t>
   </si>
   <si>
     <t>比奇村南</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>1001,0,1005,1003</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>200040,300001,300010,300020,300030,300040</t>
+    <t>200040,300000,300010,300020,300030,300040</t>
   </si>
   <si>
     <t>2,100,100,100,100,10</t>
@@ -301,19 +307,19 @@
     <t>10004</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>1004,1006,1008,0</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>200050,300001,300010,300020,300030,300040,300050</t>
+    <t>200050,300000,300010,300020,300030,300040,300050</t>
   </si>
   <si>
     <t>2,100,100,100,100,100,10</t>
@@ -322,22 +328,22 @@
     <t>10005</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
     <t>骷髅洞一</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>0,0,1007,1005</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>200060,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200060,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>2,100,100,100,100,100,100,10</t>
@@ -346,253 +352,253 @@
     <t>10006</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
     <t>骷髅洞二</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>1006,0,0,1008</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>200070,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200070,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10007</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>1008</t>
   </si>
   <si>
     <t>骷髅洞三</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>1005,1007,1011,1009</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>200080,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200080,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10008</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>1009</t>
   </si>
   <si>
     <t>自然洞穴一</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>0,1008,1010,0</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>200090,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200090,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10009</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>1010</t>
   </si>
   <si>
     <t>自然洞穴二</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>1009,1011,0,0</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>200100,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200100,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10010</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>1011</t>
   </si>
   <si>
     <t>自然洞穴三</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>1008,0,1012,1010</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>200110,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200110,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10011</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>1012</t>
   </si>
   <si>
     <t>僵尸洞一</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>1011,0,1013,0</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
-    <t>200120,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200120,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10012</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>1013</t>
   </si>
   <si>
     <t>僵尸洞二</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>1012,0,0,1014</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
-    <t>200130,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200130,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10013</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>1014</t>
   </si>
   <si>
     <t>僵尸洞三</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>0,1013,0,1015</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>200140,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200140,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10014</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>1015</t>
   </si>
   <si>
     <t>沃玛森林</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>0,1014,1016,0</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>200150,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200150,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10015</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>1016</t>
   </si>
   <si>
     <t>沃玛寺庙入口</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>1015,0,1017,0</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>200160,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200160,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10016</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>1017</t>
   </si>
   <si>
     <t>沃玛寺庙一</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
     <t>1016,0,1018,0</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>200170,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200170,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10017</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>1018</t>
   </si>
   <si>
     <t>沃玛寺庙二</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>1017,1019,0,0</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>200180,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200180,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10018</t>
@@ -613,7 +619,7 @@
     <t>199</t>
   </si>
   <si>
-    <t>200190,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200190,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10019</t>
@@ -634,7 +640,7 @@
     <t>209</t>
   </si>
   <si>
-    <t>200200,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200200,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10020</t>
@@ -655,7 +661,7 @@
     <t>219</t>
   </si>
   <si>
-    <t>200210,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200210,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10021</t>
@@ -676,7 +682,7 @@
     <t>229</t>
   </si>
   <si>
-    <t>200220,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200220,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10022</t>
@@ -697,7 +703,7 @@
     <t>239</t>
   </si>
   <si>
-    <t>200230,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200230,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10023</t>
@@ -718,7 +724,7 @@
     <t>249</t>
   </si>
   <si>
-    <t>200240,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200240,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10024</t>
@@ -739,7 +745,7 @@
     <t>259</t>
   </si>
   <si>
-    <t>200250,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200250,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10025</t>
@@ -760,7 +766,7 @@
     <t>269</t>
   </si>
   <si>
-    <t>200260,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200260,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10026</t>
@@ -781,7 +787,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>200270,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200270,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10027</t>
@@ -802,7 +808,7 @@
     <t>289</t>
   </si>
   <si>
-    <t>200280,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200280,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10028</t>
@@ -823,7 +829,7 @@
     <t>299</t>
   </si>
   <si>
-    <t>200290,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200290,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10029</t>
@@ -844,7 +850,7 @@
     <t>309</t>
   </si>
   <si>
-    <t>200300,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200300,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10030</t>
@@ -862,7 +868,7 @@
     <t>319</t>
   </si>
   <si>
-    <t>200310,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200310,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10031</t>
@@ -883,7 +889,7 @@
     <t>329</t>
   </si>
   <si>
-    <t>200320,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200320,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10032</t>
@@ -904,7 +910,7 @@
     <t>339</t>
   </si>
   <si>
-    <t>200330,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200330,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10033</t>
@@ -925,7 +931,7 @@
     <t>349</t>
   </si>
   <si>
-    <t>200340,300001,300010,300020,300030,300040,300050,300060</t>
+    <t>200340,300000,300010,300020,300030,300040,300050,300060</t>
   </si>
   <si>
     <t>10034</t>
@@ -1939,14 +1945,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K40"/>
+  <dimension ref="C3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1960,10 +1966,11 @@
     <col min="8" max="8" customWidth="true" style="1" width="14.375" collapsed="false"/>
     <col min="9" max="10" customWidth="true" style="1" width="45.25" collapsed="false"/>
     <col min="11" max="11" customWidth="true" style="2" width="13.5" collapsed="false"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="12.375" collapsed="false"/>
+    <col min="13" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1991,1078 +1998,1192 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:11">
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
         <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="L15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
         <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="L16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
         <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
         <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
         <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="L18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
         <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
         <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="L20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
         <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
         <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="L21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
         <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
         <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="L22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
         <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
         <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="L23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
         <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
         <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="L24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="L25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="L26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="L27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="L28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="L33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="L34" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="L35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="L36" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="L37" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="L38" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="L39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="L40" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -202,10 +202,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>200000,300000</t>
-  </si>
-  <si>
-    <t>2,10</t>
+    <t>200000,300000,101</t>
+  </si>
+  <si>
+    <t>2,10,100</t>
   </si>
   <si>
     <t>10000</t>
@@ -226,10 +226,10 @@
     <t>19</t>
   </si>
   <si>
-    <t>200010,300000,300010</t>
-  </si>
-  <si>
-    <t>2,100,10</t>
+    <t>200010,300000,300010,101</t>
+  </si>
+  <si>
+    <t>2,100,10,100</t>
   </si>
   <si>
     <t>10001</t>
@@ -250,10 +250,10 @@
     <t>29</t>
   </si>
   <si>
-    <t>200020,300000,300010,300020</t>
-  </si>
-  <si>
-    <t>2,100,100,10</t>
+    <t>200020,300000,300010,300020,101</t>
+  </si>
+  <si>
+    <t>2,100,100,10,100</t>
   </si>
   <si>
     <t>10002</t>
@@ -274,10 +274,10 @@
     <t>39</t>
   </si>
   <si>
-    <t>200030,300000,300010,300020,300030</t>
-  </si>
-  <si>
-    <t>2,100,100,100,10</t>
+    <t>200030,300000,300010,300020,300030,101</t>
+  </si>
+  <si>
+    <t>2,100,100,100,10,100</t>
   </si>
   <si>
     <t>10003</t>
@@ -298,10 +298,10 @@
     <t>49</t>
   </si>
   <si>
-    <t>200040,300000,300010,300020,300030,300040</t>
-  </si>
-  <si>
-    <t>2,100,100,100,100,10</t>
+    <t>200040,300000,300010,300020,300030,300040,101</t>
+  </si>
+  <si>
+    <t>2,100,100,100,100,10,100</t>
   </si>
   <si>
     <t>10004</t>
@@ -319,10 +319,10 @@
     <t>59</t>
   </si>
   <si>
-    <t>200050,300000,300010,300020,300030,300040,300050</t>
-  </si>
-  <si>
-    <t>2,100,100,100,100,100,10</t>
+    <t>200050,300000,300010,300020,300030,300040,300050,101</t>
+  </si>
+  <si>
+    <t>2,100,100,100,100,100,10,100</t>
   </si>
   <si>
     <t>10005</t>
@@ -343,10 +343,10 @@
     <t>69</t>
   </si>
   <si>
-    <t>200060,300000,300010,300020,300030,300040,300050,300060</t>
-  </si>
-  <si>
-    <t>2,100,100,100,100,100,100,10</t>
+    <t>200060,300000,300010,300020,300030,300040,300050,300060,101</t>
+  </si>
+  <si>
+    <t>2,100,100,100,100,100,100,10,100</t>
   </si>
   <si>
     <t>10006</t>
@@ -367,7 +367,7 @@
     <t>79</t>
   </si>
   <si>
-    <t>200070,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200070,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10007</t>
@@ -388,7 +388,7 @@
     <t>89</t>
   </si>
   <si>
-    <t>200080,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200080,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10008</t>
@@ -409,7 +409,7 @@
     <t>99</t>
   </si>
   <si>
-    <t>200090,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200090,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10009</t>
@@ -430,7 +430,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>200100,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200100,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10010</t>
@@ -451,7 +451,7 @@
     <t>119</t>
   </si>
   <si>
-    <t>200110,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200110,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10011</t>
@@ -472,7 +472,7 @@
     <t>129</t>
   </si>
   <si>
-    <t>200120,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200120,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10012</t>
@@ -493,7 +493,7 @@
     <t>139</t>
   </si>
   <si>
-    <t>200130,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200130,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10013</t>
@@ -514,7 +514,7 @@
     <t>149</t>
   </si>
   <si>
-    <t>200140,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200140,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10014</t>
@@ -535,7 +535,7 @@
     <t>159</t>
   </si>
   <si>
-    <t>200150,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200150,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10015</t>
@@ -556,7 +556,7 @@
     <t>169</t>
   </si>
   <si>
-    <t>200160,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200160,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10016</t>
@@ -577,7 +577,7 @@
     <t>179</t>
   </si>
   <si>
-    <t>200170,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200170,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10017</t>
@@ -598,7 +598,7 @@
     <t>189</t>
   </si>
   <si>
-    <t>200180,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200180,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10018</t>
@@ -619,7 +619,7 @@
     <t>199</t>
   </si>
   <si>
-    <t>200190,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200190,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10019</t>
@@ -640,7 +640,7 @@
     <t>209</t>
   </si>
   <si>
-    <t>200200,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200200,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10020</t>
@@ -661,7 +661,7 @@
     <t>219</t>
   </si>
   <si>
-    <t>200210,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200210,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10021</t>
@@ -682,7 +682,7 @@
     <t>229</t>
   </si>
   <si>
-    <t>200220,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200220,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10022</t>
@@ -703,7 +703,7 @@
     <t>239</t>
   </si>
   <si>
-    <t>200230,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200230,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10023</t>
@@ -724,7 +724,7 @@
     <t>249</t>
   </si>
   <si>
-    <t>200240,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200240,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10024</t>
@@ -745,7 +745,7 @@
     <t>259</t>
   </si>
   <si>
-    <t>200250,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200250,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10025</t>
@@ -766,7 +766,7 @@
     <t>269</t>
   </si>
   <si>
-    <t>200260,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200260,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10026</t>
@@ -787,7 +787,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>200270,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200270,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10027</t>
@@ -808,7 +808,7 @@
     <t>289</t>
   </si>
   <si>
-    <t>200280,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200280,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10028</t>
@@ -829,7 +829,7 @@
     <t>299</t>
   </si>
   <si>
-    <t>200290,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200290,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10029</t>
@@ -850,7 +850,7 @@
     <t>309</t>
   </si>
   <si>
-    <t>200300,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200300,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10030</t>
@@ -868,7 +868,7 @@
     <t>319</t>
   </si>
   <si>
-    <t>200310,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200310,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10031</t>
@@ -889,7 +889,7 @@
     <t>329</t>
   </si>
   <si>
-    <t>200320,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200320,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10032</t>
@@ -910,7 +910,7 @@
     <t>339</t>
   </si>
   <si>
-    <t>200330,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200330,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10033</t>
@@ -931,7 +931,7 @@
     <t>349</t>
   </si>
   <si>
-    <t>200340,300000,300010,300020,300030,300040,300050,300060</t>
+    <t>200340,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10034</t>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="274">
   <si>
     <t>_Id</t>
   </si>
@@ -202,10 +202,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>200000,300000,101</t>
-  </si>
-  <si>
-    <t>2,10,100</t>
+    <t>200000,200010,300000,101</t>
+  </si>
+  <si>
+    <t>5,50,50,500</t>
   </si>
   <si>
     <t>10000</t>
@@ -226,10 +226,10 @@
     <t>19</t>
   </si>
   <si>
-    <t>200010,300000,300010,101</t>
-  </si>
-  <si>
-    <t>2,100,10,100</t>
+    <t>200010,200020,300000,300010,101</t>
+  </si>
+  <si>
+    <t>5,50,500,50,500</t>
   </si>
   <si>
     <t>10001</t>
@@ -250,10 +250,10 @@
     <t>29</t>
   </si>
   <si>
-    <t>200020,300000,300010,300020,101</t>
-  </si>
-  <si>
-    <t>2,100,100,10,100</t>
+    <t>200020,200030,300000,300010,300020,101</t>
+  </si>
+  <si>
+    <t>5,50,500,500,50,500</t>
   </si>
   <si>
     <t>10002</t>
@@ -274,10 +274,10 @@
     <t>39</t>
   </si>
   <si>
-    <t>200030,300000,300010,300020,300030,101</t>
-  </si>
-  <si>
-    <t>2,100,100,100,10,100</t>
+    <t>200030,200040,300000,300010,300020,300030,101</t>
+  </si>
+  <si>
+    <t>5,50,500,500,500,50,500</t>
   </si>
   <si>
     <t>10003</t>
@@ -298,10 +298,10 @@
     <t>49</t>
   </si>
   <si>
-    <t>200040,300000,300010,300020,300030,300040,101</t>
-  </si>
-  <si>
-    <t>2,100,100,100,100,10,100</t>
+    <t>200040,200050,300000,300010,300020,300030,300040,101</t>
+  </si>
+  <si>
+    <t>5,50,500,500,500,500,50,500</t>
   </si>
   <si>
     <t>10004</t>
@@ -319,10 +319,10 @@
     <t>59</t>
   </si>
   <si>
-    <t>200050,300000,300010,300020,300030,300040,300050,101</t>
-  </si>
-  <si>
-    <t>2,100,100,100,100,100,10,100</t>
+    <t>200050,200060,300000,300010,300020,300030,300040,300050,101</t>
+  </si>
+  <si>
+    <t>5,50,500,500,500,500,500,50,500</t>
   </si>
   <si>
     <t>10005</t>
@@ -343,10 +343,10 @@
     <t>69</t>
   </si>
   <si>
-    <t>200060,300000,300010,300020,300030,300040,300050,300060,101</t>
-  </si>
-  <si>
-    <t>2,100,100,100,100,100,100,10,100</t>
+    <t>200060,200070,300000,300010,300020,300030,300040,300050,300060,101</t>
+  </si>
+  <si>
+    <t>5,50,500,500,500,500,500,500,50,500</t>
   </si>
   <si>
     <t>10006</t>
@@ -367,7 +367,7 @@
     <t>79</t>
   </si>
   <si>
-    <t>200070,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200070,200080,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10007</t>
@@ -388,7 +388,7 @@
     <t>89</t>
   </si>
   <si>
-    <t>200080,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200080,200090,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10008</t>
@@ -409,7 +409,7 @@
     <t>99</t>
   </si>
   <si>
-    <t>200090,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200090,200100,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10009</t>
@@ -430,7 +430,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>200100,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200100,200110,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10010</t>
@@ -451,7 +451,7 @@
     <t>119</t>
   </si>
   <si>
-    <t>200110,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200110,200120,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10011</t>
@@ -472,7 +472,7 @@
     <t>129</t>
   </si>
   <si>
-    <t>200120,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200120,200130,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10012</t>
@@ -493,7 +493,7 @@
     <t>139</t>
   </si>
   <si>
-    <t>200130,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200130,200140,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10013</t>
@@ -514,7 +514,7 @@
     <t>149</t>
   </si>
   <si>
-    <t>200140,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200140,200150,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10014</t>
@@ -535,7 +535,7 @@
     <t>159</t>
   </si>
   <si>
-    <t>200150,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200150,200160,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10015</t>
@@ -556,7 +556,7 @@
     <t>169</t>
   </si>
   <si>
-    <t>200160,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200160,200170,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10016</t>
@@ -577,7 +577,7 @@
     <t>179</t>
   </si>
   <si>
-    <t>200170,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200170,200180,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10017</t>
@@ -598,7 +598,7 @@
     <t>189</t>
   </si>
   <si>
-    <t>200180,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200180,200190,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10018</t>
@@ -619,7 +619,7 @@
     <t>199</t>
   </si>
   <si>
-    <t>200190,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200190,200200,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10019</t>
@@ -640,7 +640,7 @@
     <t>209</t>
   </si>
   <si>
-    <t>200200,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200200,200210,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10020</t>
@@ -661,7 +661,7 @@
     <t>219</t>
   </si>
   <si>
-    <t>200210,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200210,200220,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10021</t>
@@ -682,7 +682,7 @@
     <t>229</t>
   </si>
   <si>
-    <t>200220,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200220,200230,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10022</t>
@@ -703,7 +703,7 @@
     <t>239</t>
   </si>
   <si>
-    <t>200230,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200230,200240,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10023</t>
@@ -724,7 +724,7 @@
     <t>249</t>
   </si>
   <si>
-    <t>200240,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200240,200250,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10024</t>
@@ -745,7 +745,7 @@
     <t>259</t>
   </si>
   <si>
-    <t>200250,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200250,200260,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10025</t>
@@ -766,7 +766,7 @@
     <t>269</t>
   </si>
   <si>
-    <t>200260,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200260,200270,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10026</t>
@@ -787,7 +787,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>200270,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200270,200280,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10027</t>
@@ -808,7 +808,7 @@
     <t>289</t>
   </si>
   <si>
-    <t>200280,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200280,200290,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10028</t>
@@ -829,7 +829,7 @@
     <t>299</t>
   </si>
   <si>
-    <t>200290,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200290,200300,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10029</t>
@@ -850,7 +850,7 @@
     <t>309</t>
   </si>
   <si>
-    <t>200300,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200300,200310,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10030</t>
@@ -868,7 +868,7 @@
     <t>319</t>
   </si>
   <si>
-    <t>200310,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200310,200320,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10031</t>
@@ -889,7 +889,7 @@
     <t>329</t>
   </si>
   <si>
-    <t>200320,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200320,200330,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10032</t>
@@ -910,7 +910,7 @@
     <t>339</t>
   </si>
   <si>
-    <t>200330,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200330,200340,300000,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10033</t>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>200340,300000,300010,300020,300030,300040,300050,300060,101</t>
+  </si>
+  <si>
+    <t>5,500,500,500,500,500,500,50,500</t>
   </si>
   <si>
     <t>10034</t>
@@ -3177,10 +3180,10 @@
         <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="K40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s">
         <v>155</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -202,7 +202,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>200000,200010,300000,101</t>
+    <t>200001,200010,300000,101</t>
   </si>
   <si>
     <t>5,50,50,500</t>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="273">
   <si>
     <t>_Id</t>
   </si>
@@ -202,10 +202,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>200001,200010,300000,101</t>
-  </si>
-  <si>
-    <t>5,50,50,500</t>
+    <t>200010,300010,101</t>
+  </si>
+  <si>
+    <t>300,100,500</t>
   </si>
   <si>
     <t>10000</t>
@@ -217,7 +217,7 @@
     <t>1001</t>
   </si>
   <si>
-    <t>银杏村南</t>
+    <t>银杏村外</t>
   </si>
   <si>
     <t>1000,0,1004,1002</t>
@@ -226,718 +226,715 @@
     <t>19</t>
   </si>
   <si>
-    <t>200010,200020,300000,300010,101</t>
-  </si>
-  <si>
-    <t>5,50,500,50,500</t>
+    <t>200010,200020,300010,101</t>
+  </si>
+  <si>
+    <t>10,300,100,500</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>比奇城外</t>
+  </si>
+  <si>
+    <t>0,1001,1003,0</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>200020,200030,300010,300020,101</t>
+  </si>
+  <si>
+    <t>10,300,100,215,500</t>
   </si>
   <si>
     <t>10001</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>比奇村北</t>
-  </si>
-  <si>
-    <t>0,1001,1003,0</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>200020,200030,300000,300010,300020,101</t>
-  </si>
-  <si>
-    <t>5,50,500,500,50,500</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>比奇城</t>
+  </si>
+  <si>
+    <t>1002,1004,0,0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>200030,200040,300010,300020,300030,101</t>
+  </si>
+  <si>
+    <t>10,300,100,215,464,500</t>
   </si>
   <si>
     <t>10002</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>比奇城</t>
-  </si>
-  <si>
-    <t>1002,1004,0,0</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>200030,200040,300000,300010,300020,300030,101</t>
-  </si>
-  <si>
-    <t>5,50,500,500,500,50,500</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>沃玛森林</t>
+  </si>
+  <si>
+    <t>1001,0,1005,1003</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>200040,200050,300010,300020,300030,101</t>
   </si>
   <si>
     <t>10003</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>比奇村南</t>
-  </si>
-  <si>
-    <t>1001,0,1005,1003</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>200040,200050,300000,300010,300020,300030,300040,101</t>
-  </si>
-  <si>
-    <t>5,50,500,500,500,500,50,500</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>骷髅一层</t>
+  </si>
+  <si>
+    <t>1004,1006,1008,0</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>200050,200060,300010,300020,300030,300040,101</t>
+  </si>
+  <si>
+    <t>10,300,100,215,464,1000,500</t>
   </si>
   <si>
     <t>10004</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1004,1006,1008,0</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>200050,200060,300000,300010,300020,300030,300040,300050,101</t>
-  </si>
-  <si>
-    <t>5,50,500,500,500,500,500,50,500</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>骷髅二层</t>
+  </si>
+  <si>
+    <t>0,0,1007,1005</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>200060,200070,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10005</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>骷髅洞一</t>
-  </si>
-  <si>
-    <t>0,0,1007,1005</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>200060,200070,300000,300010,300020,300030,300040,300050,300060,101</t>
-  </si>
-  <si>
-    <t>5,50,500,500,500,500,500,500,50,500</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>骷髅三层</t>
+  </si>
+  <si>
+    <t>1006,0,0,1008</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>200070,200080,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10006</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>骷髅洞二</t>
-  </si>
-  <si>
-    <t>1006,0,0,1008</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>200070,200080,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>自然洞穴</t>
+  </si>
+  <si>
+    <t>1005,1007,1011,1009</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>200080,200090,300010,300020,300030,300040,300050,101</t>
+  </si>
+  <si>
+    <t>10,300,100,215,464,1000,2154,500</t>
   </si>
   <si>
     <t>10007</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>骷髅洞三</t>
-  </si>
-  <si>
-    <t>1005,1007,1011,1009</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>200080,200090,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>连接通道</t>
+  </si>
+  <si>
+    <t>0,1008,1010,0</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>200090,200100,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10008</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>自然洞穴一</t>
-  </si>
-  <si>
-    <t>0,1008,1010,0</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>200090,200100,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>僵尸洞一</t>
+  </si>
+  <si>
+    <t>1009,1011,0,0</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>200100,200110,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10009</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>自然洞穴二</t>
-  </si>
-  <si>
-    <t>1009,1011,0,0</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>200100,200110,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>僵尸洞二</t>
+  </si>
+  <si>
+    <t>1008,0,1012,1010</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>200110,200120,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10010</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>自然洞穴三</t>
-  </si>
-  <si>
-    <t>1008,0,1012,1010</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>200110,200120,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>僵尸洞三</t>
+  </si>
+  <si>
+    <t>1011,0,1013,0</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>200120,200130,300010,300020,300030,300040,300050,300060,101</t>
+  </si>
+  <si>
+    <t>10,300,100,215,464,1000,2154,4641,500</t>
   </si>
   <si>
     <t>10011</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>僵尸洞一</t>
-  </si>
-  <si>
-    <t>1011,0,1013,0</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>200120,200130,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>130</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>尸王殿</t>
+  </si>
+  <si>
+    <t>1012,0,0,1014</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>200130,200140,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10012</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>僵尸洞二</t>
-  </si>
-  <si>
-    <t>1012,0,0,1014</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>200130,200140,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>140</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>沃玛寺庙</t>
+  </si>
+  <si>
+    <t>0,1013,0,1015</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>200140,200150,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10013</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>僵尸洞三</t>
-  </si>
-  <si>
-    <t>0,1013,0,1015</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>200140,200150,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>沃玛寺庙一</t>
+  </si>
+  <si>
+    <t>0,1014,1016,0</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>200150,200160,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10014</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>沃玛森林</t>
-  </si>
-  <si>
-    <t>0,1014,1016,0</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>200150,200160,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>160</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>沃玛寺庙二</t>
+  </si>
+  <si>
+    <t>1015,0,1017,0</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>200160,200170,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10,300,100,215,464,1000,2154,4641,10000,500</t>
   </si>
   <si>
     <t>10015</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>沃玛寺庙入口</t>
-  </si>
-  <si>
-    <t>1015,0,1017,0</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>200160,200170,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>170</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>沃玛寺庙三</t>
+  </si>
+  <si>
+    <t>1016,0,1018,0</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>200170,200180,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10016</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>沃玛寺庙一</t>
-  </si>
-  <si>
-    <t>1016,0,1018,0</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>200170,200180,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>180</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>沃玛大厅</t>
+  </si>
+  <si>
+    <t>1017,1019,0,0</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>200180,200190,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10017</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>沃玛寺庙二</t>
-  </si>
-  <si>
-    <t>1017,1019,0,0</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>200180,200190,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>毒蛇山谷</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>0,1020,0,1018</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200190,200200,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10018</t>
   </si>
   <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>沃玛寺庙三</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>0,1020,0,1018</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200190,200200,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>盟重土城</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>0,1021,0,1019</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>200200,200210,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10019</t>
   </si>
   <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>沃玛大厅</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>0,1021,0,1019</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>200200,200210,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>地牢一层</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>0,0,1022,1020</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10020</t>
   </si>
   <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>毒蛇山谷</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>0,0,1022,1020</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>200210,200220,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>铁灯笼屋</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>1021,0,1023,0</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>200220,200230,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10021</t>
   </si>
   <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>盟重土城</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>1021,0,1023,0</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>200220,200230,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>黑暗地带</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1022,0,0,1024</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>200230,200240,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10022</t>
   </si>
   <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>地牢一层</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1022,0,0,1024</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>200230,200240,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>阴森石屋</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>0,1023,1025,0</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>200240,200250,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10023</t>
   </si>
   <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>铁灯笼屋</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>0,1023,1025,0</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>200240,200250,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>生死之间</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1024,0,0,1026</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>200250,200260,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>黑暗地带</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>1024,0,0,1026</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>200250,200260,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>邪恶势力</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>0,1025,1027,0</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>200260,200270,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10025</t>
   </si>
   <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>阴森石屋</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>0,1025,1027,0</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>200260,200270,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>幽名圣域</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>1026,0,1028,0</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>200270,200280,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10026</t>
   </si>
   <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>生死之间</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>1026,0,1028,0</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>200270,200280,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>传奇部落</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>1027,0,0,1029</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>200280,200290,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10027</t>
   </si>
   <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>邪恶势力</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>1027,0,0,1029</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>200280,200290,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>0,1028,1030,0</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>200290,200300,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10028</t>
   </si>
   <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>幽名圣域</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>0,1028,1030,0</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>200290,200300,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>恐怖空间</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1029,0,1031,0</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>200300,200310,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10029</t>
   </si>
   <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>传奇部落</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>1029,0,1031,0</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>200300,200310,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>一线天</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>1030,0,1032,0</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>200310,200320,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10030</t>
   </si>
   <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>1030,0,1032,0</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>200310,200320,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>死亡棺材</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>1031,0,1033,0</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>200320,200330,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10031</t>
   </si>
   <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>恐怖空间</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>1031,0,1033,0</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>200320,200330,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>1032,0,1034,0</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>200330,200340,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10032</t>
   </si>
   <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>一线天</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>1032,0,1034,0</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>200330,200340,300000,300010,300020,300030,300040,300050,300060,101</t>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>火龙殿</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>1033,0,0,0</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>200340,200350,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10033</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>死亡棺材</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>1033,0,0,0</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>200340,300000,300010,300020,300030,300040,300050,300060,101</t>
-  </si>
-  <si>
-    <t>5,500,500,500,500,500,500,50,500</t>
-  </si>
-  <si>
-    <t>10034</t>
   </si>
 </sst>
 </file>
@@ -2127,356 +2124,356 @@
         <v>37</v>
       </c>
       <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
         <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>83</v>
-      </c>
-      <c r="J13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>89</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>90</v>
       </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>96</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
         <v>102</v>
       </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
         <v>104</v>
       </c>
-      <c r="J16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
         <v>109</v>
       </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
         <v>111</v>
       </c>
-      <c r="J17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
         <v>115</v>
       </c>
-      <c r="E18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
         <v>116</v>
       </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>117</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>118</v>
-      </c>
-      <c r="J18" t="s">
-        <v>76</v>
       </c>
       <c r="K18" t="s">
         <v>119</v>
@@ -2508,7 +2505,7 @@
         <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
         <v>126</v>
@@ -2540,7 +2537,7 @@
         <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
         <v>133</v>
@@ -2572,7 +2569,7 @@
         <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s">
         <v>140</v>
@@ -2604,405 +2601,405 @@
         <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
         <v>149</v>
       </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" t="s">
-        <v>148</v>
-      </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
         <v>156</v>
       </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
         <v>165</v>
       </c>
-      <c r="G25" t="s">
-        <v>164</v>
-      </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
         <v>172</v>
       </c>
-      <c r="G26" t="s">
-        <v>171</v>
-      </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
         <v>179</v>
       </c>
-      <c r="G27" t="s">
-        <v>178</v>
-      </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" t="s">
         <v>186</v>
       </c>
-      <c r="G28" t="s">
-        <v>185</v>
-      </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
         <v>193</v>
       </c>
-      <c r="G29" t="s">
-        <v>192</v>
-      </c>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
         <v>200</v>
       </c>
-      <c r="G30" t="s">
-        <v>199</v>
-      </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
         <v>207</v>
       </c>
-      <c r="G31" t="s">
-        <v>206</v>
-      </c>
       <c r="H31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" t="s">
         <v>214</v>
       </c>
-      <c r="G32" t="s">
-        <v>213</v>
-      </c>
       <c r="H32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" t="s">
         <v>221</v>
       </c>
-      <c r="G33" t="s">
-        <v>220</v>
-      </c>
       <c r="H33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" t="s">
         <v>228</v>
       </c>
-      <c r="G34" t="s">
-        <v>227</v>
-      </c>
       <c r="H34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
         <v>234</v>
@@ -3020,13 +3017,13 @@
         <v>237</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s">
         <v>238</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
@@ -3052,13 +3049,13 @@
         <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s">
         <v>245</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
@@ -3066,71 +3063,71 @@
         <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" t="s">
         <v>248</v>
       </c>
-      <c r="G37" t="s">
-        <v>247</v>
-      </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J37" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" t="s">
         <v>255</v>
       </c>
-      <c r="G38" t="s">
-        <v>254</v>
-      </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E39" t="s">
         <v>261</v>
@@ -3148,13 +3145,13 @@
         <v>264</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s">
         <v>265</v>
       </c>
       <c r="L39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
@@ -3180,13 +3177,13 @@
         <v>271</v>
       </c>
       <c r="J40" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" t="s">
         <v>272</v>
       </c>
-      <c r="K40" t="s">
-        <v>273</v>
-      </c>
       <c r="L40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -193,46 +193,40 @@
     <t>银杏小村</t>
   </si>
   <si>
-    <t>0</t>
+    <t>10</t>
   </si>
   <si>
     <t>0,0,1001,0</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>200010,300010,101</t>
-  </si>
-  <si>
-    <t>300,100,500</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>200010,200020,300010,101</t>
+  </si>
+  <si>
+    <t>10,300,250,1000</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>1001</t>
   </si>
   <si>
     <t>银杏村外</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>1000,0,1004,1002</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>200010,200020,300010,101</t>
-  </si>
-  <si>
-    <t>10,300,100,500</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>200020,200030,300010,101</t>
   </si>
   <si>
     <t>1002</t>
@@ -241,367 +235,370 @@
     <t>比奇城外</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>0,1001,1003,0</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>200020,200030,300010,300020,101</t>
-  </si>
-  <si>
-    <t>10,300,100,215,500</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>200030,200040,300010,300020,101</t>
+  </si>
+  <si>
+    <t>10,300,250,538,1000</t>
   </si>
   <si>
     <t>10001</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
     <t>比奇城</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>1002,1004,0,0</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>200030,200040,300010,300020,300030,101</t>
-  </si>
-  <si>
-    <t>10,300,100,215,464,500</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>200040,200050,300010,300020,300030,101</t>
+  </si>
+  <si>
+    <t>10,300,250,538,1160,1000</t>
   </si>
   <si>
     <t>10002</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>1004</t>
   </si>
   <si>
     <t>沃玛森林</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>1001,0,1005,1003</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>200040,200050,300010,300020,300030,101</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>200050,200060,300010,300020,300030,101</t>
   </si>
   <si>
     <t>10003</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>1005</t>
   </si>
   <si>
     <t>骷髅一层</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>1004,1006,1008,0</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>200050,200060,300010,300020,300030,300040,101</t>
-  </si>
-  <si>
-    <t>10,300,100,215,464,1000,500</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>200060,200070,300010,300020,300030,300040,101</t>
+  </si>
+  <si>
+    <t>10,300,250,538,1160,2500,1000</t>
   </si>
   <si>
     <t>10004</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
     <t>骷髅二层</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>0,0,1007,1005</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>200060,200070,300010,300020,300030,300040,101</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>200070,200080,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10005</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
     <t>骷髅三层</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>1006,0,0,1008</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>200070,200080,300010,300020,300030,300040,101</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>200080,200090,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10006</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>1008</t>
   </si>
   <si>
     <t>自然洞穴</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>1005,1007,1011,1009</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>200080,200090,300010,300020,300030,300040,300050,101</t>
-  </si>
-  <si>
-    <t>10,300,100,215,464,1000,2154,500</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>200090,200100,300010,300020,300030,300040,300050,101</t>
+  </si>
+  <si>
+    <t>10,300,250,538,1160,2500,5386,1000</t>
   </si>
   <si>
     <t>10007</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>1009</t>
   </si>
   <si>
     <t>连接通道</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>0,1008,1010,0</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>200090,200100,300010,300020,300030,300040,300050,101</t>
+    <t>109</t>
+  </si>
+  <si>
+    <t>200100,200110,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10008</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>1010</t>
   </si>
   <si>
     <t>僵尸洞一</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>1009,1011,0,0</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>200100,200110,300010,300020,300030,300040,300050,101</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>200110,200120,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10009</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
     <t>僵尸洞二</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>1008,0,1012,1010</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>200110,200120,300010,300020,300030,300040,300050,101</t>
+    <t>129</t>
+  </si>
+  <si>
+    <t>200120,200130,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10010</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>1012</t>
   </si>
   <si>
     <t>僵尸洞三</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>1011,0,1013,0</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>200120,200130,300010,300020,300030,300040,300050,300060,101</t>
-  </si>
-  <si>
-    <t>10,300,100,215,464,1000,2154,4641,500</t>
+    <t>139</t>
+  </si>
+  <si>
+    <t>200130,200140,300010,300020,300030,300040,300050,300060,101</t>
+  </si>
+  <si>
+    <t>10,300,250,538,1160,2500,5386,11603,1000</t>
   </si>
   <si>
     <t>10011</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>1013</t>
   </si>
   <si>
     <t>尸王殿</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>1012,0,0,1014</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>200130,200140,300010,300020,300030,300040,300050,300060,101</t>
+    <t>149</t>
+  </si>
+  <si>
+    <t>200140,200150,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10012</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>1014</t>
   </si>
   <si>
     <t>沃玛寺庙</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>0,1013,0,1015</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>200140,200150,300010,300020,300030,300040,300050,300060,101</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>200150,200160,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10013</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>1015</t>
   </si>
   <si>
     <t>沃玛寺庙一</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>0,1014,1016,0</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>200150,200160,300010,300020,300030,300040,300050,300060,101</t>
+    <t>169</t>
+  </si>
+  <si>
+    <t>200160,200170,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10014</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>1016</t>
   </si>
   <si>
     <t>沃玛寺庙二</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>1015,0,1017,0</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>200160,200170,300010,300020,300030,300040,300050,300060,300070,101</t>
-  </si>
-  <si>
-    <t>10,300,100,215,464,1000,2154,4641,10000,500</t>
+    <t>179</t>
+  </si>
+  <si>
+    <t>200170,200180,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10,300,250,538,1160,2500,5386,11603,25000,1000</t>
   </si>
   <si>
     <t>10015</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
     <t>1017</t>
   </si>
   <si>
     <t>沃玛寺庙三</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>1016,0,1018,0</t>
   </si>
   <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>200170,200180,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>189</t>
+  </si>
+  <si>
+    <t>200180,200190,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10016</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>1018</t>
   </si>
   <si>
     <t>沃玛大厅</t>
   </si>
   <si>
+    <t>190</t>
+  </si>
+  <si>
     <t>1017,1019,0,0</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>200180,200190,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200190,200200,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10017</t>
@@ -613,16 +610,16 @@
     <t>毒蛇山谷</t>
   </si>
   <si>
-    <t>190</t>
+    <t>200</t>
   </si>
   <si>
     <t>0,1020,0,1018</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200190,200200,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>209</t>
+  </si>
+  <si>
+    <t>200200,200210,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10018</t>
@@ -634,16 +631,16 @@
     <t>盟重土城</t>
   </si>
   <si>
-    <t>200</t>
+    <t>210</t>
   </si>
   <si>
     <t>0,1021,0,1019</t>
   </si>
   <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>200200,200210,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>219</t>
+  </si>
+  <si>
+    <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10019</t>
@@ -655,16 +652,16 @@
     <t>地牢一层</t>
   </si>
   <si>
-    <t>210</t>
+    <t>220</t>
   </si>
   <si>
     <t>0,0,1022,1020</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>229</t>
+  </si>
+  <si>
+    <t>200220,200230,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10020</t>
@@ -676,16 +673,16 @@
     <t>铁灯笼屋</t>
   </si>
   <si>
-    <t>220</t>
+    <t>230</t>
   </si>
   <si>
     <t>1021,0,1023,0</t>
   </si>
   <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>200220,200230,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>239</t>
+  </si>
+  <si>
+    <t>200230,200240,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10021</t>
@@ -697,16 +694,16 @@
     <t>黑暗地带</t>
   </si>
   <si>
-    <t>230</t>
+    <t>240</t>
   </si>
   <si>
     <t>1022,0,0,1024</t>
   </si>
   <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>200230,200240,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>249</t>
+  </si>
+  <si>
+    <t>200240,200250,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10022</t>
@@ -718,16 +715,16 @@
     <t>阴森石屋</t>
   </si>
   <si>
-    <t>240</t>
+    <t>250</t>
   </si>
   <si>
     <t>0,1023,1025,0</t>
   </si>
   <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>200240,200250,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>259</t>
+  </si>
+  <si>
+    <t>200250,200260,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10023</t>
@@ -739,16 +736,16 @@
     <t>生死之间</t>
   </si>
   <si>
-    <t>250</t>
+    <t>260</t>
   </si>
   <si>
     <t>1024,0,0,1026</t>
   </si>
   <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>200250,200260,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>269</t>
+  </si>
+  <si>
+    <t>200260,200270,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10024</t>
@@ -760,16 +757,16 @@
     <t>邪恶势力</t>
   </si>
   <si>
-    <t>260</t>
+    <t>270</t>
   </si>
   <si>
     <t>0,1025,1027,0</t>
   </si>
   <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>200260,200270,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>279</t>
+  </si>
+  <si>
+    <t>200270,200280,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10025</t>
@@ -781,16 +778,16 @@
     <t>幽名圣域</t>
   </si>
   <si>
-    <t>270</t>
+    <t>280</t>
   </si>
   <si>
     <t>1026,0,1028,0</t>
   </si>
   <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>200270,200280,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>289</t>
+  </si>
+  <si>
+    <t>200280,200290,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10026</t>
@@ -802,16 +799,16 @@
     <t>传奇部落</t>
   </si>
   <si>
-    <t>280</t>
+    <t>290</t>
   </si>
   <si>
     <t>1027,0,0,1029</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>200280,200290,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>299</t>
+  </si>
+  <si>
+    <t>200290,200300,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10027</t>
@@ -820,16 +817,16 @@
     <t>1029</t>
   </si>
   <si>
-    <t>290</t>
+    <t>300</t>
   </si>
   <si>
     <t>0,1028,1030,0</t>
   </si>
   <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>200290,200300,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>309</t>
+  </si>
+  <si>
+    <t>200300,200310,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10028</t>
@@ -841,16 +838,16 @@
     <t>恐怖空间</t>
   </si>
   <si>
-    <t>300</t>
+    <t>310</t>
   </si>
   <si>
     <t>1029,0,1031,0</t>
   </si>
   <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>200300,200310,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>319</t>
+  </si>
+  <si>
+    <t>200310,200320,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10029</t>
@@ -862,16 +859,16 @@
     <t>一线天</t>
   </si>
   <si>
-    <t>310</t>
+    <t>320</t>
   </si>
   <si>
     <t>1030,0,1032,0</t>
   </si>
   <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>200310,200320,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>329</t>
+  </si>
+  <si>
+    <t>200320,200330,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10030</t>
@@ -883,16 +880,16 @@
     <t>死亡棺材</t>
   </si>
   <si>
-    <t>320</t>
+    <t>330</t>
   </si>
   <si>
     <t>1031,0,1033,0</t>
   </si>
   <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>200320,200330,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>339</t>
+  </si>
+  <si>
+    <t>200330,200340,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10031</t>
@@ -901,16 +898,16 @@
     <t>1033</t>
   </si>
   <si>
-    <t>330</t>
+    <t>340</t>
   </si>
   <si>
     <t>1032,0,1034,0</t>
   </si>
   <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>200330,200340,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>349</t>
+  </si>
+  <si>
+    <t>200340,200350,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10032</t>
@@ -922,16 +919,19 @@
     <t>火龙殿</t>
   </si>
   <si>
-    <t>340</t>
+    <t>350</t>
   </si>
   <si>
     <t>1033,0,0,0</t>
   </si>
   <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>200340,200350,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>359</t>
+  </si>
+  <si>
+    <t>200350,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10,250,538,1160,2500,5386,11603,25000,1000</t>
   </si>
   <si>
     <t>10033</t>
@@ -2095,24 +2095,24 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -2121,1069 +2121,1069 @@
         <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>67</v>
       </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
         <v>81</v>
       </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
         <v>86</v>
       </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>87</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>88</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>89</v>
       </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
         <v>96</v>
       </c>
-      <c r="J15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s">
         <v>103</v>
       </c>
-      <c r="J16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>107</v>
       </c>
-      <c r="E17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>109</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
         <v>110</v>
       </c>
-      <c r="J17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
-      </c>
       <c r="L17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
         <v>115</v>
       </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>116</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>117</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>118</v>
       </c>
-      <c r="K18" t="s">
-        <v>119</v>
-      </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
         <v>121</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>122</v>
       </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
         <v>123</v>
       </c>
-      <c r="G19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>124</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" t="s">
         <v>125</v>
       </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" t="s">
-        <v>126</v>
-      </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
         <v>128</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>131</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" t="s">
         <v>132</v>
       </c>
-      <c r="J20" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" t="s">
-        <v>133</v>
-      </c>
       <c r="L20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
         <v>135</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>136</v>
       </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" t="s">
         <v>137</v>
       </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>138</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s">
         <v>139</v>
       </c>
-      <c r="J21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" t="s">
-        <v>140</v>
-      </c>
       <c r="L21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
         <v>142</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>143</v>
       </c>
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
         <v>144</v>
       </c>
-      <c r="G22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>145</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>146</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>147</v>
       </c>
-      <c r="K22" t="s">
-        <v>148</v>
-      </c>
       <c r="L22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
         <v>150</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>151</v>
       </c>
-      <c r="E23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
         <v>152</v>
       </c>
-      <c r="G23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>153</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" t="s">
         <v>154</v>
       </c>
-      <c r="J23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" t="s">
-        <v>155</v>
-      </c>
       <c r="L23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
         <v>157</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>158</v>
       </c>
-      <c r="E24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" t="s">
         <v>159</v>
       </c>
-      <c r="G24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>160</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" t="s">
-        <v>162</v>
-      </c>
       <c r="L24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
         <v>163</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>164</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>165</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
         <v>166</v>
       </c>
-      <c r="G25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>167</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
         <v>168</v>
       </c>
-      <c r="J25" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" t="s">
-        <v>169</v>
-      </c>
       <c r="L25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
         <v>170</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>171</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>172</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
         <v>173</v>
       </c>
-      <c r="G26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>174</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" t="s">
         <v>175</v>
       </c>
-      <c r="J26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" t="s">
-        <v>176</v>
-      </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
         <v>177</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>178</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>179</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
         <v>180</v>
       </c>
-      <c r="G27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>181</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
         <v>182</v>
       </c>
-      <c r="J27" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" t="s">
-        <v>183</v>
-      </c>
       <c r="L27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
         <v>184</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>185</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>186</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" t="s">
         <v>187</v>
       </c>
-      <c r="G28" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>188</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
         <v>189</v>
       </c>
-      <c r="J28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K28" t="s">
-        <v>190</v>
-      </c>
       <c r="L28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" t="s">
         <v>191</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>192</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>193</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" t="s">
         <v>194</v>
       </c>
-      <c r="G29" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>195</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
         <v>196</v>
       </c>
-      <c r="J29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" t="s">
-        <v>197</v>
-      </c>
       <c r="L29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" t="s">
         <v>198</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>199</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>200</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
         <v>201</v>
       </c>
-      <c r="G30" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>202</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" t="s">
         <v>203</v>
       </c>
-      <c r="J30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" t="s">
-        <v>204</v>
-      </c>
       <c r="L30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
         <v>205</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>206</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>207</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" t="s">
         <v>208</v>
       </c>
-      <c r="G31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>209</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
         <v>210</v>
       </c>
-      <c r="J31" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" t="s">
-        <v>211</v>
-      </c>
       <c r="L31" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s">
         <v>212</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>213</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>214</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
         <v>215</v>
       </c>
-      <c r="G32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>216</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
         <v>217</v>
       </c>
-      <c r="J32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" t="s">
-        <v>218</v>
-      </c>
       <c r="L32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" t="s">
         <v>219</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>220</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>221</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" t="s">
         <v>222</v>
       </c>
-      <c r="G33" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>223</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
         <v>224</v>
       </c>
-      <c r="J33" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" t="s">
-        <v>225</v>
-      </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
         <v>226</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>227</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>228</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" t="s">
         <v>229</v>
       </c>
-      <c r="G34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>230</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" t="s">
         <v>231</v>
       </c>
-      <c r="J34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34" t="s">
-        <v>232</v>
-      </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" t="s">
         <v>233</v>
       </c>
-      <c r="D35" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>234</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" t="s">
         <v>235</v>
       </c>
-      <c r="G35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>236</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
         <v>237</v>
       </c>
-      <c r="J35" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" t="s">
-        <v>238</v>
-      </c>
       <c r="L35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
         <v>239</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>240</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>241</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" t="s">
         <v>242</v>
       </c>
-      <c r="G36" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>243</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" t="s">
         <v>244</v>
       </c>
-      <c r="J36" t="s">
-        <v>147</v>
-      </c>
-      <c r="K36" t="s">
-        <v>245</v>
-      </c>
       <c r="L36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
         <v>246</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>247</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>248</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" t="s">
         <v>249</v>
       </c>
-      <c r="G37" t="s">
-        <v>248</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>250</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" t="s">
         <v>251</v>
       </c>
-      <c r="J37" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" t="s">
-        <v>252</v>
-      </c>
       <c r="L37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" t="s">
         <v>253</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>254</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>255</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
         <v>256</v>
       </c>
-      <c r="G38" t="s">
-        <v>255</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>257</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
         <v>258</v>
       </c>
-      <c r="J38" t="s">
-        <v>147</v>
-      </c>
-      <c r="K38" t="s">
-        <v>259</v>
-      </c>
       <c r="L38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" t="s">
         <v>260</v>
       </c>
-      <c r="D39" t="s">
-        <v>254</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>261</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" t="s">
         <v>262</v>
       </c>
-      <c r="G39" t="s">
-        <v>261</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>263</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
         <v>264</v>
       </c>
-      <c r="J39" t="s">
-        <v>147</v>
-      </c>
-      <c r="K39" t="s">
-        <v>265</v>
-      </c>
       <c r="L39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" t="s">
         <v>266</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>267</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>268</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" t="s">
         <v>269</v>
       </c>
-      <c r="G40" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>270</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>271</v>
-      </c>
-      <c r="J40" t="s">
-        <v>147</v>
       </c>
       <c r="K40" t="s">
         <v>272</v>
       </c>
       <c r="L40" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="240">
   <si>
     <t>_Id</t>
   </si>
@@ -250,9 +250,6 @@
     <t>10,300,250,538,1000</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>10,300,250,538,1160,1000</t>
   </si>
   <si>
-    <t>10002</t>
-  </si>
-  <si>
     <t>1004</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>200050,200060,300010,300020,300030,101</t>
   </si>
   <si>
-    <t>10003</t>
-  </si>
-  <si>
     <t>1005</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>10,300,250,538,1160,2500,1000</t>
   </si>
   <si>
-    <t>10004</t>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>200070,200080,300010,300020,300030,300040,101</t>
   </si>
   <si>
-    <t>10005</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
@@ -361,9 +346,6 @@
     <t>200080,200090,300010,300020,300030,300040,101</t>
   </si>
   <si>
-    <t>10006</t>
-  </si>
-  <si>
     <t>1008</t>
   </si>
   <si>
@@ -385,9 +367,6 @@
     <t>10,300,250,538,1160,2500,5386,1000</t>
   </si>
   <si>
-    <t>10007</t>
-  </si>
-  <si>
     <t>1009</t>
   </si>
   <si>
@@ -406,9 +385,6 @@
     <t>200100,200110,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
-    <t>10008</t>
-  </si>
-  <si>
     <t>1010</t>
   </si>
   <si>
@@ -427,9 +403,6 @@
     <t>200110,200120,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
-    <t>10009</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
@@ -448,9 +421,6 @@
     <t>200120,200130,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
-    <t>10010</t>
-  </si>
-  <si>
     <t>1012</t>
   </si>
   <si>
@@ -472,9 +442,6 @@
     <t>10,300,250,538,1160,2500,5386,11603,1000</t>
   </si>
   <si>
-    <t>10011</t>
-  </si>
-  <si>
     <t>1013</t>
   </si>
   <si>
@@ -493,9 +460,6 @@
     <t>200140,200150,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
-    <t>10012</t>
-  </si>
-  <si>
     <t>1014</t>
   </si>
   <si>
@@ -514,9 +478,6 @@
     <t>200150,200160,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
-    <t>10013</t>
-  </si>
-  <si>
     <t>1015</t>
   </si>
   <si>
@@ -535,9 +496,6 @@
     <t>200160,200170,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
-    <t>10014</t>
-  </si>
-  <si>
     <t>1016</t>
   </si>
   <si>
@@ -559,9 +517,6 @@
     <t>10,300,250,538,1160,2500,5386,11603,25000,1000</t>
   </si>
   <si>
-    <t>10015</t>
-  </si>
-  <si>
     <t>1017</t>
   </si>
   <si>
@@ -580,9 +535,6 @@
     <t>200180,200190,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10016</t>
-  </si>
-  <si>
     <t>1018</t>
   </si>
   <si>
@@ -601,9 +553,6 @@
     <t>200190,200200,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10017</t>
-  </si>
-  <si>
     <t>1019</t>
   </si>
   <si>
@@ -622,9 +571,6 @@
     <t>200200,200210,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10018</t>
-  </si>
-  <si>
     <t>1020</t>
   </si>
   <si>
@@ -643,9 +589,6 @@
     <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10019</t>
-  </si>
-  <si>
     <t>1021</t>
   </si>
   <si>
@@ -664,9 +607,6 @@
     <t>200220,200230,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10020</t>
-  </si>
-  <si>
     <t>1022</t>
   </si>
   <si>
@@ -685,9 +625,6 @@
     <t>200230,200240,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10021</t>
-  </si>
-  <si>
     <t>1023</t>
   </si>
   <si>
@@ -706,9 +643,6 @@
     <t>200240,200250,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10022</t>
-  </si>
-  <si>
     <t>1024</t>
   </si>
   <si>
@@ -727,9 +661,6 @@
     <t>200250,200260,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10023</t>
-  </si>
-  <si>
     <t>1025</t>
   </si>
   <si>
@@ -748,9 +679,6 @@
     <t>200260,200270,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10024</t>
-  </si>
-  <si>
     <t>1026</t>
   </si>
   <si>
@@ -769,9 +697,6 @@
     <t>200270,200280,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10025</t>
-  </si>
-  <si>
     <t>1027</t>
   </si>
   <si>
@@ -790,9 +715,6 @@
     <t>200280,200290,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10026</t>
-  </si>
-  <si>
     <t>1028</t>
   </si>
   <si>
@@ -811,9 +733,6 @@
     <t>200290,200300,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10027</t>
-  </si>
-  <si>
     <t>1029</t>
   </si>
   <si>
@@ -829,9 +748,6 @@
     <t>200300,200310,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10028</t>
-  </si>
-  <si>
     <t>1030</t>
   </si>
   <si>
@@ -850,9 +766,6 @@
     <t>200310,200320,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10029</t>
-  </si>
-  <si>
     <t>1031</t>
   </si>
   <si>
@@ -871,9 +784,6 @@
     <t>200320,200330,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10030</t>
-  </si>
-  <si>
     <t>1032</t>
   </si>
   <si>
@@ -892,9 +802,6 @@
     <t>200330,200340,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10031</t>
-  </si>
-  <si>
     <t>1033</t>
   </si>
   <si>
@@ -910,9 +817,6 @@
     <t>200340,200350,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10032</t>
-  </si>
-  <si>
     <t>1034</t>
   </si>
   <si>
@@ -932,15 +836,12 @@
   </si>
   <si>
     <t>10,250,538,1160,2500,5386,11603,25000,1000</t>
-  </si>
-  <si>
-    <t>10033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -969,34 +870,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1010,14 +883,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,6 +922,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1107,7 +987,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,13 +1076,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1130,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,37 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,66 +1190,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1308,6 +1203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,21 +1231,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1377,6 +1263,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,148 +1334,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1591,52 +1492,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1948,26 +1849,26 @@
   <dimension ref="C3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.75" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="18.625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="14.5" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.375" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" style="1" width="45.25" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="2" width="13.5" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="12.375" collapsed="false"/>
-    <col min="13" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="45.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
@@ -2066,7 +1967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:12">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +1999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="24.0" customHeight="true">
+    <row r="7" ht="24" customHeight="1" spans="3:12">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -2123,14 +2024,14 @@
       <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
-        <v>30</v>
+      <c r="K7">
+        <v>10001</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="24.0" customHeight="true">
+    <row r="8" ht="24" customHeight="1" spans="3:12">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -2155,1035 +2056,1035 @@
       <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
+      <c r="K8">
+        <v>10002</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="24.0" customHeight="true">
+    <row r="9" ht="24" customHeight="1" spans="3:12">
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9">
+        <v>10003</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:12">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>10004</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:12">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="K11">
+        <v>10005</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:12">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="I11" t="s">
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="J11" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="K11" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
-      <c r="C12" t="s">
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12">
+        <v>10006</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:12">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="I12" t="s">
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
-      <c r="C13" t="s">
+      <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>10007</v>
+      </c>
+      <c r="L13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:12">
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E14" t="s">
         <v>78</v>
       </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
-      <c r="C14" t="s">
+      <c r="J14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" t="s">
+      <c r="K14">
+        <v>10008</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:12">
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
+        <v>10009</v>
+      </c>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:12">
+      <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="L14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16">
+        <v>10010</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:12">
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="L15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
-      <c r="C16" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I17" t="s">
         <v>100</v>
       </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17">
+        <v>10011</v>
+      </c>
+      <c r="L17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:12">
+      <c r="C18" t="s">
         <v>101</v>
       </c>
-      <c r="I16" t="s">
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="E18" t="s">
         <v>103</v>
       </c>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
-      <c r="C17" t="s">
+      <c r="F18" t="s">
         <v>104</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
         <v>105</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I18" t="s">
         <v>106</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J18" t="s">
         <v>107</v>
       </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="K18">
+        <v>10012</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:12">
+      <c r="C19" t="s">
         <v>108</v>
       </c>
-      <c r="I17" t="s">
+      <c r="D19" t="s">
         <v>109</v>
       </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="E19" t="s">
         <v>110</v>
       </c>
-      <c r="L17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
-      <c r="C18" t="s">
+      <c r="F19" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
         <v>112</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I19" t="s">
         <v>113</v>
       </c>
-      <c r="F18" t="s">
+      <c r="J19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19">
+        <v>10013</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:12">
+      <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D20" t="s">
         <v>115</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E20" t="s">
         <v>116</v>
       </c>
-      <c r="J18" t="s">
+      <c r="F20" t="s">
         <v>117</v>
       </c>
-      <c r="K18" t="s">
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="L18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
-      <c r="C19" t="s">
+      <c r="I20" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
+      <c r="J20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20">
+        <v>10014</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:12">
+      <c r="C21" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E21" t="s">
         <v>122</v>
       </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F21" t="s">
         <v>123</v>
       </c>
-      <c r="I19" t="s">
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
         <v>124</v>
       </c>
-      <c r="J19" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="I21" t="s">
         <v>125</v>
       </c>
-      <c r="L19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
-      <c r="C20" t="s">
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21">
+        <v>10015</v>
+      </c>
+      <c r="L21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:12">
+      <c r="C22" t="s">
         <v>126</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>128</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>129</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>128</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>130</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I22" t="s">
         <v>131</v>
       </c>
-      <c r="J20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J22" t="s">
         <v>132</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K22">
+        <v>10016</v>
+      </c>
+      <c r="L22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" ht="24.0" customHeight="true">
-      <c r="C21" t="s">
+    <row r="23" ht="24" customHeight="1" spans="3:12">
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>136</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>135</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>137</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I23" t="s">
         <v>138</v>
       </c>
-      <c r="J21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23">
+        <v>10017</v>
+      </c>
+      <c r="L23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:12">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="L21" t="s">
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24">
+        <v>10018</v>
+      </c>
+      <c r="L24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" ht="24.0" customHeight="true">
-      <c r="C22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" t="s">
+    <row r="25" ht="24" customHeight="1" spans="3:12">
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="J22" t="s">
+      <c r="D25" t="s">
         <v>146</v>
       </c>
-      <c r="K22" t="s">
+      <c r="E25" t="s">
         <v>147</v>
       </c>
-      <c r="L22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
-      <c r="C23" t="s">
+      <c r="F25" t="s">
         <v>148</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I25" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25">
+        <v>10019</v>
+      </c>
+      <c r="L25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:12">
+      <c r="C26" t="s">
         <v>151</v>
       </c>
-      <c r="G23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="D26" t="s">
         <v>152</v>
       </c>
-      <c r="I23" t="s">
+      <c r="E26" t="s">
         <v>153</v>
       </c>
-      <c r="J23" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="F26" t="s">
         <v>154</v>
       </c>
-      <c r="L23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
-      <c r="C24" t="s">
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" t="s">
         <v>155</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I26" t="s">
         <v>156</v>
       </c>
-      <c r="E24" t="s">
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26">
+        <v>10020</v>
+      </c>
+      <c r="L26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:12">
+      <c r="C27" t="s">
         <v>157</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D27" t="s">
         <v>158</v>
       </c>
-      <c r="G24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="E27" t="s">
         <v>159</v>
       </c>
-      <c r="I24" t="s">
+      <c r="F27" t="s">
         <v>160</v>
       </c>
-      <c r="J24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" t="s">
         <v>161</v>
       </c>
-      <c r="L24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
-      <c r="C25" t="s">
+      <c r="I27" t="s">
         <v>162</v>
       </c>
-      <c r="D25" t="s">
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27">
+        <v>10021</v>
+      </c>
+      <c r="L27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:12">
+      <c r="C28" t="s">
         <v>163</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D28" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E28" t="s">
         <v>165</v>
       </c>
-      <c r="G25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F28" t="s">
         <v>166</v>
       </c>
-      <c r="I25" t="s">
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" t="s">
         <v>167</v>
       </c>
-      <c r="J25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="I28" t="s">
         <v>168</v>
       </c>
-      <c r="L25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
-      <c r="C26" t="s">
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28">
+        <v>10022</v>
+      </c>
+      <c r="L28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:12">
+      <c r="C29" t="s">
         <v>169</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>170</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E29" t="s">
         <v>171</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>172</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>171</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H29" t="s">
         <v>173</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I29" t="s">
         <v>174</v>
       </c>
-      <c r="J26" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29">
+        <v>10023</v>
+      </c>
+      <c r="L29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:12">
+      <c r="C30" t="s">
         <v>175</v>
       </c>
-      <c r="L26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
-      <c r="C27" t="s">
+      <c r="D30" t="s">
         <v>176</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E30" t="s">
         <v>177</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F30" t="s">
         <v>178</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
         <v>179</v>
       </c>
-      <c r="G27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I30" t="s">
         <v>180</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30">
+        <v>10024</v>
+      </c>
+      <c r="L30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:12">
+      <c r="C31" t="s">
         <v>181</v>
       </c>
-      <c r="J27" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="D31" t="s">
         <v>182</v>
       </c>
-      <c r="L27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
-      <c r="C28" t="s">
+      <c r="E31" t="s">
         <v>183</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F31" t="s">
         <v>184</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" t="s">
         <v>185</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I31" t="s">
         <v>186</v>
       </c>
-      <c r="G28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31">
+        <v>10025</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:12">
+      <c r="C32" t="s">
         <v>187</v>
       </c>
-      <c r="I28" t="s">
+      <c r="D32" t="s">
         <v>188</v>
       </c>
-      <c r="J28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="E32" t="s">
         <v>189</v>
       </c>
-      <c r="L28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
-      <c r="C29" t="s">
+      <c r="F32" t="s">
         <v>190</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" t="s">
         <v>191</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I32" t="s">
         <v>192</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32">
+        <v>10026</v>
+      </c>
+      <c r="L32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:12">
+      <c r="C33" t="s">
         <v>193</v>
       </c>
-      <c r="G29" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="I29" t="s">
+      <c r="E33" t="s">
         <v>195</v>
       </c>
-      <c r="J29" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="F33" t="s">
         <v>196</v>
       </c>
-      <c r="L29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
-      <c r="C30" t="s">
+      <c r="G33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" t="s">
         <v>197</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I33" t="s">
         <v>198</v>
       </c>
-      <c r="E30" t="s">
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33">
+        <v>10027</v>
+      </c>
+      <c r="L33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:12">
+      <c r="C34" t="s">
         <v>199</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D34" t="s">
         <v>200</v>
       </c>
-      <c r="G30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="E34" t="s">
         <v>201</v>
       </c>
-      <c r="I30" t="s">
+      <c r="F34" t="s">
         <v>202</v>
       </c>
-      <c r="J30" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="G34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" t="s">
         <v>203</v>
       </c>
-      <c r="L30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
-      <c r="C31" t="s">
+      <c r="I34" t="s">
         <v>204</v>
       </c>
-      <c r="D31" t="s">
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34">
+        <v>10028</v>
+      </c>
+      <c r="L34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:12">
+      <c r="C35" t="s">
         <v>205</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" t="s">
         <v>206</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" t="s">
         <v>207</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G35" t="s">
         <v>206</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H35" t="s">
         <v>208</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I35" t="s">
         <v>209</v>
       </c>
-      <c r="J31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35">
+        <v>10029</v>
+      </c>
+      <c r="L35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:12">
+      <c r="C36" t="s">
         <v>210</v>
       </c>
-      <c r="L31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
-      <c r="C32" t="s">
+      <c r="D36" t="s">
         <v>211</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E36" t="s">
         <v>212</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F36" t="s">
         <v>213</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" t="s">
         <v>214</v>
       </c>
-      <c r="G32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I36" t="s">
         <v>215</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36">
+        <v>10030</v>
+      </c>
+      <c r="L36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:12">
+      <c r="C37" t="s">
         <v>216</v>
       </c>
-      <c r="J32" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="D37" t="s">
         <v>217</v>
       </c>
-      <c r="L32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
-      <c r="C33" t="s">
+      <c r="E37" t="s">
         <v>218</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F37" t="s">
         <v>219</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" t="s">
         <v>220</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I37" t="s">
         <v>221</v>
       </c>
-      <c r="G33" t="s">
-        <v>220</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37">
+        <v>10031</v>
+      </c>
+      <c r="L37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:12">
+      <c r="C38" t="s">
         <v>222</v>
       </c>
-      <c r="I33" t="s">
+      <c r="D38" t="s">
         <v>223</v>
       </c>
-      <c r="J33" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="E38" t="s">
         <v>224</v>
       </c>
-      <c r="L33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
-      <c r="C34" t="s">
+      <c r="F38" t="s">
         <v>225</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G38" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" t="s">
         <v>226</v>
       </c>
-      <c r="E34" t="s">
+      <c r="I38" t="s">
         <v>227</v>
       </c>
-      <c r="F34" t="s">
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38">
+        <v>10032</v>
+      </c>
+      <c r="L38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:12">
+      <c r="C39" t="s">
         <v>228</v>
       </c>
-      <c r="G34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="D39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" t="s">
         <v>229</v>
       </c>
-      <c r="I34" t="s">
+      <c r="F39" t="s">
         <v>230</v>
       </c>
-      <c r="J34" t="s">
-        <v>146</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="G39" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" t="s">
         <v>231</v>
       </c>
-      <c r="L34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
-      <c r="C35" t="s">
+      <c r="I39" t="s">
         <v>232</v>
       </c>
-      <c r="D35" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39">
+        <v>10033</v>
+      </c>
+      <c r="L39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:12">
+      <c r="C40" t="s">
         <v>233</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D40" t="s">
         <v>234</v>
       </c>
-      <c r="G35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E40" t="s">
         <v>235</v>
       </c>
-      <c r="I35" t="s">
+      <c r="F40" t="s">
         <v>236</v>
       </c>
-      <c r="J35" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="G40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" t="s">
         <v>237</v>
       </c>
-      <c r="L35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
-      <c r="C36" t="s">
+      <c r="I40" t="s">
         <v>238</v>
       </c>
-      <c r="D36" t="s">
+      <c r="J40" t="s">
         <v>239</v>
       </c>
-      <c r="E36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" t="s">
-        <v>240</v>
-      </c>
-      <c r="H36" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J36" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" t="s">
-        <v>244</v>
-      </c>
-      <c r="L36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
-      <c r="C37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F37" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" t="s">
-        <v>249</v>
-      </c>
-      <c r="I37" t="s">
-        <v>250</v>
-      </c>
-      <c r="J37" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" t="s">
-        <v>251</v>
-      </c>
-      <c r="L37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
-      <c r="C38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" t="s">
-        <v>255</v>
-      </c>
-      <c r="G38" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" t="s">
-        <v>256</v>
-      </c>
-      <c r="I38" t="s">
-        <v>257</v>
-      </c>
-      <c r="J38" t="s">
-        <v>146</v>
-      </c>
-      <c r="K38" t="s">
-        <v>258</v>
-      </c>
-      <c r="L38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
-      <c r="C39" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" t="s">
-        <v>260</v>
-      </c>
-      <c r="H39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I39" t="s">
-        <v>263</v>
-      </c>
-      <c r="J39" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39" t="s">
-        <v>264</v>
-      </c>
-      <c r="L39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
-      <c r="C40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" t="s">
-        <v>268</v>
-      </c>
-      <c r="G40" t="s">
-        <v>267</v>
-      </c>
-      <c r="H40" t="s">
-        <v>269</v>
-      </c>
-      <c r="I40" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" t="s">
-        <v>271</v>
-      </c>
-      <c r="K40" t="s">
-        <v>272</v>
+      <c r="K40">
+        <v>10034</v>
       </c>
       <c r="L40" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="307">
   <si>
     <t>_Id</t>
   </si>
@@ -229,6 +229,9 @@
     <t>200020,200030,300010,101</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>1002</t>
   </si>
   <si>
@@ -250,6 +253,9 @@
     <t>10,300,250,538,1000</t>
   </si>
   <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
@@ -271,6 +277,9 @@
     <t>10,300,250,538,1160,1000</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>1004</t>
   </si>
   <si>
@@ -289,6 +298,9 @@
     <t>200050,200060,300010,300020,300030,101</t>
   </si>
   <si>
+    <t>10004</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
@@ -310,6 +322,9 @@
     <t>10,300,250,538,1160,2500,1000</t>
   </si>
   <si>
+    <t>10005</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
@@ -328,6 +343,9 @@
     <t>200070,200080,300010,300020,300030,300040,101</t>
   </si>
   <si>
+    <t>10006</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
@@ -346,6 +364,9 @@
     <t>200080,200090,300010,300020,300030,300040,101</t>
   </si>
   <si>
+    <t>10007</t>
+  </si>
+  <si>
     <t>1008</t>
   </si>
   <si>
@@ -367,6 +388,9 @@
     <t>10,300,250,538,1160,2500,5386,1000</t>
   </si>
   <si>
+    <t>10008</t>
+  </si>
+  <si>
     <t>1009</t>
   </si>
   <si>
@@ -385,6 +409,9 @@
     <t>200100,200110,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
+    <t>10009</t>
+  </si>
+  <si>
     <t>1010</t>
   </si>
   <si>
@@ -403,6 +430,9 @@
     <t>200110,200120,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
+    <t>10010</t>
+  </si>
+  <si>
     <t>1011</t>
   </si>
   <si>
@@ -421,6 +451,9 @@
     <t>200120,200130,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
+    <t>10011</t>
+  </si>
+  <si>
     <t>1012</t>
   </si>
   <si>
@@ -442,6 +475,9 @@
     <t>10,300,250,538,1160,2500,5386,11603,1000</t>
   </si>
   <si>
+    <t>10012</t>
+  </si>
+  <si>
     <t>1013</t>
   </si>
   <si>
@@ -460,6 +496,9 @@
     <t>200140,200150,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
+    <t>10013</t>
+  </si>
+  <si>
     <t>1014</t>
   </si>
   <si>
@@ -478,6 +517,9 @@
     <t>200150,200160,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
+    <t>10014</t>
+  </si>
+  <si>
     <t>1015</t>
   </si>
   <si>
@@ -496,6 +538,9 @@
     <t>200160,200170,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
+    <t>10015</t>
+  </si>
+  <si>
     <t>1016</t>
   </si>
   <si>
@@ -517,6 +562,9 @@
     <t>10,300,250,538,1160,2500,5386,11603,25000,1000</t>
   </si>
   <si>
+    <t>10016</t>
+  </si>
+  <si>
     <t>1017</t>
   </si>
   <si>
@@ -535,6 +583,9 @@
     <t>200180,200190,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10017</t>
+  </si>
+  <si>
     <t>1018</t>
   </si>
   <si>
@@ -553,6 +604,9 @@
     <t>200190,200200,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10018</t>
+  </si>
+  <si>
     <t>1019</t>
   </si>
   <si>
@@ -571,6 +625,9 @@
     <t>200200,200210,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10019</t>
+  </si>
+  <si>
     <t>1020</t>
   </si>
   <si>
@@ -589,6 +646,9 @@
     <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10020</t>
+  </si>
+  <si>
     <t>1021</t>
   </si>
   <si>
@@ -607,6 +667,9 @@
     <t>200220,200230,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10021</t>
+  </si>
+  <si>
     <t>1022</t>
   </si>
   <si>
@@ -625,6 +688,9 @@
     <t>200230,200240,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10022</t>
+  </si>
+  <si>
     <t>1023</t>
   </si>
   <si>
@@ -643,6 +709,9 @@
     <t>200240,200250,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10023</t>
+  </si>
+  <si>
     <t>1024</t>
   </si>
   <si>
@@ -661,6 +730,9 @@
     <t>200250,200260,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10024</t>
+  </si>
+  <si>
     <t>1025</t>
   </si>
   <si>
@@ -679,6 +751,9 @@
     <t>200260,200270,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10025</t>
+  </si>
+  <si>
     <t>1026</t>
   </si>
   <si>
@@ -697,6 +772,9 @@
     <t>200270,200280,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10026</t>
+  </si>
+  <si>
     <t>1027</t>
   </si>
   <si>
@@ -715,6 +793,9 @@
     <t>200280,200290,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10027</t>
+  </si>
+  <si>
     <t>1028</t>
   </si>
   <si>
@@ -733,9 +814,15 @@
     <t>200290,200300,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10028</t>
+  </si>
+  <si>
     <t>1029</t>
   </si>
   <si>
+    <t>牛魔神殿</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
@@ -748,6 +835,9 @@
     <t>200300,200310,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10029</t>
+  </si>
+  <si>
     <t>1030</t>
   </si>
   <si>
@@ -766,6 +856,9 @@
     <t>200310,200320,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10030</t>
+  </si>
+  <si>
     <t>1031</t>
   </si>
   <si>
@@ -784,10 +877,13 @@
     <t>200320,200330,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10031</t>
+  </si>
+  <si>
     <t>1032</t>
   </si>
   <si>
-    <t>死亡棺材</t>
+    <t>赤月魔巢</t>
   </si>
   <si>
     <t>330</t>
@@ -802,9 +898,15 @@
     <t>200330,200340,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10032</t>
+  </si>
+  <si>
     <t>1033</t>
   </si>
   <si>
+    <t>魔龙城</t>
+  </si>
+  <si>
     <t>340</t>
   </si>
   <si>
@@ -817,6 +919,9 @@
     <t>200340,200350,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10033</t>
+  </si>
+  <si>
     <t>1034</t>
   </si>
   <si>
@@ -832,16 +937,112 @@
     <t>359</t>
   </si>
   <si>
-    <t>200350,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200350,200360,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10034</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>幻影小村</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>200360,200370,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>幻影村外</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>200370,200380,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>幻影城外</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>200380,200390,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>幻影老城</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>200390,200400,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>幻影森林</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>200400,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10,250,538,1160,2500,5386,11603,25000,1000</t>
+  </si>
+  <si>
+    <t>10039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -870,6 +1071,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -883,6 +1112,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,21 +1159,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -987,28 +1209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,13 +1241,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,19 +1307,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,18 +1355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1124,31 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,19 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,12 +1415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1231,6 +1432,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1263,21 +1479,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,148 +1535,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,52 +1693,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1846,29 +2047,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L40"/>
+  <dimension ref="C3:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="45.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.75" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.5" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.375" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" style="1" width="45.25" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="2" width="13.5" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="12.375" collapsed="false"/>
+    <col min="13" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
@@ -1967,7 +2168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:12">
+    <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -1999,7 +2200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:12">
+    <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -2024,1067 +2225,1227 @@
       <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="K7">
-        <v>10001</v>
+      <c r="K7" t="s">
+        <v>37</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:12">
+    <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8">
-        <v>10002</v>
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9">
-        <v>10003</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:12">
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10">
-        <v>10004</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:12">
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="K11">
-        <v>10005</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:12">
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12">
-        <v>10006</v>
+      <c r="K12" t="s">
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13">
-        <v>10007</v>
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14">
-        <v>10008</v>
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15">
-        <v>10009</v>
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
         <v>89</v>
       </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16">
-        <v>10010</v>
+      <c r="K16" t="s">
+        <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17">
-        <v>10011</v>
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18">
-        <v>10012</v>
+        <v>118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>119</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19">
-        <v>10013</v>
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
         <v>118</v>
       </c>
-      <c r="I20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20">
-        <v>10014</v>
+      <c r="K20" t="s">
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21">
-        <v>10015</v>
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22">
-        <v>10016</v>
+        <v>147</v>
+      </c>
+      <c r="K22" t="s">
+        <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23">
-        <v>10017</v>
+        <v>147</v>
+      </c>
+      <c r="K23" t="s">
+        <v>155</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24">
-        <v>10018</v>
+        <v>147</v>
+      </c>
+      <c r="K24" t="s">
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="F25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
         <v>147</v>
       </c>
-      <c r="H25" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25">
-        <v>10019</v>
-      </c>
-      <c r="L25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:12">
-      <c r="C26" t="s">
+      <c r="K26" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s">
         <v>151</v>
       </c>
-      <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26">
-        <v>10020</v>
-      </c>
-      <c r="L26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:12">
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27">
-        <v>10021</v>
+        <v>147</v>
+      </c>
+      <c r="K27" t="s">
+        <v>183</v>
       </c>
       <c r="L27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28">
-        <v>10022</v>
+        <v>147</v>
+      </c>
+      <c r="K28" t="s">
+        <v>190</v>
       </c>
       <c r="L28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29">
-        <v>10023</v>
+        <v>147</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
       </c>
       <c r="L29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30">
-        <v>10024</v>
+        <v>147</v>
+      </c>
+      <c r="K30" t="s">
+        <v>204</v>
       </c>
       <c r="L30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31">
-        <v>10025</v>
+        <v>147</v>
+      </c>
+      <c r="K31" t="s">
+        <v>211</v>
       </c>
       <c r="L31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32">
-        <v>10026</v>
+        <v>147</v>
+      </c>
+      <c r="K32" t="s">
+        <v>218</v>
       </c>
       <c r="L32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="I33" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33">
-        <v>10027</v>
+        <v>147</v>
+      </c>
+      <c r="K33" t="s">
+        <v>225</v>
       </c>
       <c r="L33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I34" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34">
-        <v>10028</v>
+        <v>147</v>
+      </c>
+      <c r="K34" t="s">
+        <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="H35" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35">
-        <v>10029</v>
+        <v>147</v>
+      </c>
+      <c r="K35" t="s">
+        <v>239</v>
       </c>
       <c r="L35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36">
-        <v>10030</v>
+        <v>147</v>
+      </c>
+      <c r="K36" t="s">
+        <v>246</v>
       </c>
       <c r="L36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37">
-        <v>10031</v>
+        <v>147</v>
+      </c>
+      <c r="K37" t="s">
+        <v>253</v>
       </c>
       <c r="L37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38">
-        <v>10032</v>
+        <v>147</v>
+      </c>
+      <c r="K38" t="s">
+        <v>260</v>
       </c>
       <c r="L38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39">
-        <v>10033</v>
+        <v>147</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
       </c>
       <c r="L39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="E40" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
-      </c>
-      <c r="K40">
-        <v>10034</v>
+        <v>147</v>
+      </c>
+      <c r="K40" t="s">
+        <v>274</v>
       </c>
       <c r="L40" t="s">
-        <v>135</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" ht="24.0" customHeight="true">
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" t="s">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" ht="24.0" customHeight="true">
+      <c r="C42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" t="s">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" ht="24.0" customHeight="true">
+      <c r="C43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" ht="24.0" customHeight="true">
+      <c r="C44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" ht="24.0" customHeight="true">
+      <c r="C45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" t="s">
+        <v>303</v>
+      </c>
+      <c r="I45" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" t="s">
+        <v>305</v>
+      </c>
+      <c r="K45" t="s">
+        <v>306</v>
+      </c>
+      <c r="L45" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="308">
   <si>
     <t>_Id</t>
   </si>
@@ -646,6 +646,9 @@
     <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
+    <t>10,300,500,500,500,1250,2500,5000,10000,1000</t>
+  </si>
+  <si>
     <t>10020</t>
   </si>
   <si>
@@ -1033,7 +1036,7 @@
     <t>200400,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
-    <t>10,250,538,1160,2500,5386,11603,25000,1000</t>
+    <t>10,500,500,500,1250,2500,5000,10000,1000</t>
   </si>
   <si>
     <t>10039</t>
@@ -1042,7 +1045,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1071,34 +1074,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1112,14 +1087,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1159,6 +1126,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1209,7 +1191,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,55 +1244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,31 +1268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,6 +1304,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1367,7 +1328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,6 +1412,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1432,21 +1435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1479,6 +1467,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,148 +1538,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1693,52 +1696,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2047,32 +2050,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L45"/>
+  <dimension ref="C3:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.75" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="18.625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="14.5" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.375" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" style="1" width="45.25" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="2" width="13.5" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="12.375" collapsed="false"/>
-    <col min="13" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="45.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2103,8 +2108,9 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2135,8 +2141,9 @@
       <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="3:12">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2167,8 +2174,9 @@
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" ht="24.0" customHeight="true">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:13">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -2199,8 +2207,9 @@
       <c r="L6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
+      <c r="M6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:13">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -2231,8 +2240,9 @@
       <c r="L7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
+      <c r="M7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:13">
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -2263,8 +2273,9 @@
       <c r="L8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
+      <c r="M8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:13">
       <c r="C9" t="s">
         <v>46</v>
       </c>
@@ -2295,8 +2306,9 @@
       <c r="L9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
+      <c r="M9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:13">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -2327,8 +2339,9 @@
       <c r="L10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
+      <c r="M10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:13">
       <c r="C11" t="s">
         <v>61</v>
       </c>
@@ -2359,8 +2372,9 @@
       <c r="L11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
+      <c r="M11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:13">
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -2391,8 +2405,9 @@
       <c r="L12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
+      <c r="M12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:13">
       <c r="C13" t="s">
         <v>76</v>
       </c>
@@ -2423,8 +2438,9 @@
       <c r="L13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
+      <c r="M13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:13">
       <c r="C14" t="s">
         <v>83</v>
       </c>
@@ -2455,8 +2471,9 @@
       <c r="L14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
+      <c r="M14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:13">
       <c r="C15" t="s">
         <v>91</v>
       </c>
@@ -2487,8 +2504,9 @@
       <c r="L15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
+      <c r="M15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:13">
       <c r="C16" t="s">
         <v>98</v>
       </c>
@@ -2519,8 +2537,9 @@
       <c r="L16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
+      <c r="M16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:13">
       <c r="C17" t="s">
         <v>105</v>
       </c>
@@ -2551,8 +2570,9 @@
       <c r="L17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
+      <c r="M17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:13">
       <c r="C18" t="s">
         <v>112</v>
       </c>
@@ -2583,8 +2603,9 @@
       <c r="L18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
+      <c r="M18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:13">
       <c r="C19" t="s">
         <v>120</v>
       </c>
@@ -2615,8 +2636,9 @@
       <c r="L19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
+      <c r="M19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:13">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -2647,8 +2669,9 @@
       <c r="L20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
+      <c r="M20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:13">
       <c r="C21" t="s">
         <v>134</v>
       </c>
@@ -2679,8 +2702,9 @@
       <c r="L21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
+      <c r="M21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:13">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -2711,8 +2735,9 @@
       <c r="L22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
+      <c r="M22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:13">
       <c r="C23" t="s">
         <v>149</v>
       </c>
@@ -2743,8 +2768,9 @@
       <c r="L23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
+      <c r="M23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:13">
       <c r="C24" t="s">
         <v>156</v>
       </c>
@@ -2775,8 +2801,9 @@
       <c r="L24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
+      <c r="M24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:13">
       <c r="C25" t="s">
         <v>163</v>
       </c>
@@ -2807,8 +2834,9 @@
       <c r="L25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
+      <c r="M25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:13">
       <c r="C26" t="s">
         <v>170</v>
       </c>
@@ -2831,622 +2859,642 @@
         <v>175</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
+      <c r="M26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:13">
       <c r="C27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
         <v>180</v>
       </c>
-      <c r="G27" t="s">
-        <v>179</v>
-      </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
+      <c r="M27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:13">
       <c r="C28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
         <v>187</v>
       </c>
-      <c r="G28" t="s">
-        <v>186</v>
-      </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
+      <c r="M28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:13">
       <c r="C29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
         <v>194</v>
       </c>
-      <c r="G29" t="s">
-        <v>193</v>
-      </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
+      <c r="M29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:13">
       <c r="C30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" t="s">
         <v>201</v>
       </c>
-      <c r="G30" t="s">
-        <v>200</v>
-      </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
+      <c r="M30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:13">
       <c r="C31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" t="s">
         <v>208</v>
       </c>
-      <c r="G31" t="s">
-        <v>207</v>
-      </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
+      <c r="M31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:13">
       <c r="C32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
         <v>215</v>
       </c>
-      <c r="G32" t="s">
-        <v>214</v>
-      </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
+      <c r="M32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" t="s">
         <v>222</v>
       </c>
-      <c r="G33" t="s">
-        <v>221</v>
-      </c>
       <c r="H33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J33" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
+      <c r="M33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" t="s">
         <v>229</v>
       </c>
-      <c r="G34" t="s">
-        <v>228</v>
-      </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
+      <c r="M34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:13">
       <c r="C35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" t="s">
         <v>236</v>
       </c>
-      <c r="G35" t="s">
-        <v>235</v>
-      </c>
       <c r="H35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
+      <c r="M35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:13">
       <c r="C36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" t="s">
         <v>243</v>
       </c>
-      <c r="G36" t="s">
-        <v>242</v>
-      </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
+      <c r="M36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
         <v>250</v>
       </c>
-      <c r="G37" t="s">
-        <v>249</v>
-      </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
+      <c r="M37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s">
         <v>257</v>
       </c>
-      <c r="G38" t="s">
-        <v>256</v>
-      </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
+      <c r="M38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
         <v>264</v>
       </c>
-      <c r="G39" t="s">
-        <v>263</v>
-      </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
+      <c r="M39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:13">
       <c r="C40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
         <v>271</v>
       </c>
-      <c r="G40" t="s">
-        <v>270</v>
-      </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" ht="24.0" customHeight="true">
+      <c r="M40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:13">
       <c r="C41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
         <v>278</v>
       </c>
-      <c r="G41" t="s">
-        <v>277</v>
-      </c>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" ht="24.0" customHeight="true">
+      <c r="M41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:13">
       <c r="C42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J42" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" ht="24.0" customHeight="true">
+      <c r="M42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:13">
       <c r="C43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" ht="24.0" customHeight="true">
+      <c r="M43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:13">
       <c r="C44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J44" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" ht="24.0" customHeight="true">
+      <c r="M44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:13">
       <c r="C45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s">
         <v>151</v>
       </c>
+      <c r="M45"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="337">
   <si>
     <t>_Id</t>
   </si>
@@ -304,7 +304,7 @@
     <t>1005</t>
   </si>
   <si>
-    <t>骷髅一层</t>
+    <t>自然洞穴</t>
   </si>
   <si>
     <t>60</t>
@@ -328,7 +328,7 @@
     <t>1006</t>
   </si>
   <si>
-    <t>骷髅二层</t>
+    <t>骷髅洞</t>
   </si>
   <si>
     <t>70</t>
@@ -349,7 +349,7 @@
     <t>1007</t>
   </si>
   <si>
-    <t>骷髅三层</t>
+    <t>连接通道</t>
   </si>
   <si>
     <t>80</t>
@@ -370,7 +370,7 @@
     <t>1008</t>
   </si>
   <si>
-    <t>自然洞穴</t>
+    <t>僵尸洞</t>
   </si>
   <si>
     <t>90</t>
@@ -394,7 +394,7 @@
     <t>1009</t>
   </si>
   <si>
-    <t>连接通道</t>
+    <t>毒蛇蛇谷</t>
   </si>
   <si>
     <t>100</t>
@@ -415,7 +415,7 @@
     <t>1010</t>
   </si>
   <si>
-    <t>僵尸洞一</t>
+    <t>土城城外</t>
   </si>
   <si>
     <t>110</t>
@@ -436,7 +436,7 @@
     <t>1011</t>
   </si>
   <si>
-    <t>僵尸洞二</t>
+    <t>土城</t>
   </si>
   <si>
     <t>120</t>
@@ -457,7 +457,7 @@
     <t>1012</t>
   </si>
   <si>
-    <t>僵尸洞三</t>
+    <t>龙城城外</t>
   </si>
   <si>
     <t>130</t>
@@ -481,7 +481,7 @@
     <t>1013</t>
   </si>
   <si>
-    <t>尸王殿</t>
+    <t>龙城</t>
   </si>
   <si>
     <t>140</t>
@@ -502,7 +502,7 @@
     <t>1014</t>
   </si>
   <si>
-    <t>沃玛寺庙</t>
+    <t>幽冥圣域</t>
   </si>
   <si>
     <t>150</t>
@@ -523,7 +523,7 @@
     <t>1015</t>
   </si>
   <si>
-    <t>沃玛寺庙一</t>
+    <t>死亡棺材</t>
   </si>
   <si>
     <t>160</t>
@@ -544,7 +544,7 @@
     <t>1016</t>
   </si>
   <si>
-    <t>沃玛寺庙二</t>
+    <t>一线天</t>
   </si>
   <si>
     <t>170</t>
@@ -568,7 +568,7 @@
     <t>1017</t>
   </si>
   <si>
-    <t>沃玛寺庙三</t>
+    <t>石墓大厅</t>
   </si>
   <si>
     <t>180</t>
@@ -589,7 +589,7 @@
     <t>1018</t>
   </si>
   <si>
-    <t>沃玛大厅</t>
+    <t>石墓阵</t>
   </si>
   <si>
     <t>190</t>
@@ -610,7 +610,7 @@
     <t>1019</t>
   </si>
   <si>
-    <t>毒蛇山谷</t>
+    <t>世外桃源</t>
   </si>
   <si>
     <t>200</t>
@@ -631,7 +631,7 @@
     <t>1020</t>
   </si>
   <si>
-    <t>盟重土城</t>
+    <t>沃玛禁地</t>
   </si>
   <si>
     <t>210</t>
@@ -655,7 +655,7 @@
     <t>1021</t>
   </si>
   <si>
-    <t>地牢一层</t>
+    <t>沃玛大殿</t>
   </si>
   <si>
     <t>220</t>
@@ -676,7 +676,7 @@
     <t>1022</t>
   </si>
   <si>
-    <t>铁灯笼屋</t>
+    <t>祖玛禁地</t>
   </si>
   <si>
     <t>230</t>
@@ -697,7 +697,7 @@
     <t>1023</t>
   </si>
   <si>
-    <t>黑暗地带</t>
+    <t>祖玛大殿</t>
   </si>
   <si>
     <t>240</t>
@@ -718,7 +718,7 @@
     <t>1024</t>
   </si>
   <si>
-    <t>阴森石屋</t>
+    <t>封魔殿</t>
   </si>
   <si>
     <t>250</t>
@@ -739,7 +739,7 @@
     <t>1025</t>
   </si>
   <si>
-    <t>生死之间</t>
+    <t>烈焰殿</t>
   </si>
   <si>
     <t>260</t>
@@ -760,9 +760,6 @@
     <t>1026</t>
   </si>
   <si>
-    <t>邪恶势力</t>
-  </si>
-  <si>
     <t>270</t>
   </si>
   <si>
@@ -781,7 +778,7 @@
     <t>1027</t>
   </si>
   <si>
-    <t>幽名圣域</t>
+    <t>尸魔洞</t>
   </si>
   <si>
     <t>280</t>
@@ -802,7 +799,7 @@
     <t>1028</t>
   </si>
   <si>
-    <t>传奇部落</t>
+    <t>骨魔洞</t>
   </si>
   <si>
     <t>290</t>
@@ -844,7 +841,7 @@
     <t>1030</t>
   </si>
   <si>
-    <t>恐怖空间</t>
+    <t>赤月峡谷</t>
   </si>
   <si>
     <t>310</t>
@@ -865,7 +862,7 @@
     <t>1031</t>
   </si>
   <si>
-    <t>一线天</t>
+    <t>赤月祭坛</t>
   </si>
   <si>
     <t>320</t>
@@ -1033,13 +1030,103 @@
     <t>409</t>
   </si>
   <si>
-    <t>200400,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200400,200410,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>幻影洞穴</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>200410,200420,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>幻影骷髅洞</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>200420,200430,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>幻影通道</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>200430,200440,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>幻影尸洞</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>200440,200450,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10043</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>幻影蛇谷</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>200450,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10,500,500,500,1250,2500,5000,10000,1000</t>
   </si>
   <si>
-    <t>10039</t>
+    <t>10044</t>
   </si>
 </sst>
 </file>
@@ -1218,12 +1305,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2050,14 +2137,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M45"/>
+  <dimension ref="A3:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2069,8 +2156,8 @@
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="45.25" style="1" customWidth="1"/>
@@ -3039,28 +3126,28 @@
         <v>213</v>
       </c>
       <c r="D32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
         <v>214</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>215</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" t="s">
         <v>216</v>
       </c>
-      <c r="G32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>217</v>
-      </c>
-      <c r="I32" t="s">
-        <v>218</v>
       </c>
       <c r="J32" t="s">
         <v>176</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s">
         <v>151</v>
@@ -3069,31 +3156,31 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" t="s">
         <v>220</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>221</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>222</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" t="s">
         <v>223</v>
       </c>
-      <c r="G33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>224</v>
-      </c>
-      <c r="I33" t="s">
-        <v>225</v>
       </c>
       <c r="J33" t="s">
         <v>176</v>
       </c>
       <c r="K33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s">
         <v>151</v>
@@ -3102,31 +3189,31 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" t="s">
         <v>227</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>228</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>229</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" t="s">
         <v>230</v>
       </c>
-      <c r="G34" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>231</v>
-      </c>
-      <c r="I34" t="s">
-        <v>232</v>
       </c>
       <c r="J34" t="s">
         <v>176</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s">
         <v>151</v>
@@ -3135,31 +3222,31 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:13">
       <c r="C35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" t="s">
         <v>234</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>235</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>236</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" t="s">
         <v>237</v>
       </c>
-      <c r="G35" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>238</v>
-      </c>
-      <c r="I35" t="s">
-        <v>239</v>
       </c>
       <c r="J35" t="s">
         <v>176</v>
       </c>
       <c r="K35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s">
         <v>151</v>
@@ -3168,31 +3255,31 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:13">
       <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" t="s">
         <v>241</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>242</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>243</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" t="s">
         <v>244</v>
       </c>
-      <c r="G36" t="s">
-        <v>243</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>245</v>
-      </c>
-      <c r="I36" t="s">
-        <v>246</v>
       </c>
       <c r="J36" t="s">
         <v>176</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s">
         <v>151</v>
@@ -3201,31 +3288,31 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="s">
         <v>248</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>249</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>250</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" t="s">
         <v>251</v>
       </c>
-      <c r="G37" t="s">
-        <v>250</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>252</v>
-      </c>
-      <c r="I37" t="s">
-        <v>253</v>
       </c>
       <c r="J37" t="s">
         <v>176</v>
       </c>
       <c r="K37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s">
         <v>151</v>
@@ -3234,31 +3321,31 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>256</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>257</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="G38" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>259</v>
-      </c>
-      <c r="I38" t="s">
-        <v>260</v>
       </c>
       <c r="J38" t="s">
         <v>176</v>
       </c>
       <c r="K38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s">
         <v>151</v>
@@ -3267,31 +3354,31 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" t="s">
         <v>262</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>263</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>264</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" t="s">
         <v>265</v>
       </c>
-      <c r="G39" t="s">
-        <v>264</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>266</v>
-      </c>
-      <c r="I39" t="s">
-        <v>267</v>
       </c>
       <c r="J39" t="s">
         <v>176</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s">
         <v>151</v>
@@ -3300,31 +3387,31 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:13">
       <c r="C40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" t="s">
         <v>269</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>270</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>271</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>270</v>
+      </c>
+      <c r="H40" t="s">
         <v>272</v>
       </c>
-      <c r="G40" t="s">
-        <v>271</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>273</v>
-      </c>
-      <c r="I40" t="s">
-        <v>274</v>
       </c>
       <c r="J40" t="s">
         <v>176</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
         <v>151</v>
@@ -3333,31 +3420,31 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:13">
       <c r="C41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" t="s">
         <v>276</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>277</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>278</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" t="s">
         <v>279</v>
       </c>
-      <c r="G41" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>280</v>
-      </c>
-      <c r="I41" t="s">
-        <v>281</v>
       </c>
       <c r="J41" t="s">
         <v>176</v>
       </c>
       <c r="K41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s">
         <v>151</v>
@@ -3366,31 +3453,31 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:13">
       <c r="C42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" t="s">
         <v>283</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>284</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" t="s">
         <v>285</v>
       </c>
-      <c r="F42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>286</v>
-      </c>
-      <c r="I42" t="s">
-        <v>287</v>
       </c>
       <c r="J42" t="s">
         <v>176</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
         <v>151</v>
@@ -3399,31 +3486,31 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:13">
       <c r="C43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" t="s">
         <v>289</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>290</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" t="s">
         <v>291</v>
       </c>
-      <c r="F43" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" t="s">
-        <v>291</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>292</v>
-      </c>
-      <c r="I43" t="s">
-        <v>293</v>
       </c>
       <c r="J43" t="s">
         <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s">
         <v>151</v>
@@ -3432,31 +3519,31 @@
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:13">
       <c r="C44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" t="s">
         <v>295</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>296</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" t="s">
         <v>297</v>
       </c>
-      <c r="F44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>298</v>
-      </c>
-      <c r="I44" t="s">
-        <v>299</v>
       </c>
       <c r="J44" t="s">
         <v>176</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s">
         <v>151</v>
@@ -3465,36 +3552,206 @@
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:13">
       <c r="C45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" t="s">
         <v>301</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>302</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" t="s">
         <v>303</v>
       </c>
-      <c r="F45" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" t="s">
-        <v>303</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>304</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" t="s">
         <v>305</v>
-      </c>
-      <c r="J45" t="s">
-        <v>306</v>
-      </c>
-      <c r="K45" t="s">
-        <v>307</v>
       </c>
       <c r="L45" t="s">
         <v>151</v>
       </c>
       <c r="M45"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" t="s">
+        <v>308</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
+        <v>308</v>
+      </c>
+      <c r="H46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" t="s">
+        <v>311</v>
+      </c>
+      <c r="L46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F47" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" t="s">
+        <v>278</v>
+      </c>
+      <c r="G48" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="s">
+        <v>322</v>
+      </c>
+      <c r="J48" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" t="s">
+        <v>326</v>
+      </c>
+      <c r="H49" t="s">
+        <v>327</v>
+      </c>
+      <c r="I49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" t="s">
+        <v>329</v>
+      </c>
+      <c r="L49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" t="s">
+        <v>331</v>
+      </c>
+      <c r="E50" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G50" t="s">
+        <v>332</v>
+      </c>
+      <c r="H50" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50" t="s">
+        <v>334</v>
+      </c>
+      <c r="J50" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" t="s">
+        <v>336</v>
+      </c>
+      <c r="L50" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="336">
   <si>
     <t>_Id</t>
   </si>
@@ -202,10 +202,10 @@
     <t>19</t>
   </si>
   <si>
-    <t>200010,200020,300010,101</t>
-  </si>
-  <si>
-    <t>10,300,250,1000</t>
+    <t>200010,300010,101</t>
+  </si>
+  <si>
+    <t>10,250,1000</t>
   </si>
   <si>
     <t>10000</t>
@@ -226,7 +226,10 @@
     <t>29</t>
   </si>
   <si>
-    <t>200020,200030,300010,101</t>
+    <t>200020,300010,300020,101</t>
+  </si>
+  <si>
+    <t>10,250,538,1000</t>
   </si>
   <si>
     <t>10001</t>
@@ -247,10 +250,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>200030,200040,300010,300020,101</t>
-  </si>
-  <si>
-    <t>10,300,250,538,1000</t>
+    <t>200030,300010,300020,101</t>
   </si>
   <si>
     <t>10002</t>
@@ -271,10 +271,10 @@
     <t>49</t>
   </si>
   <si>
-    <t>200040,200050,300010,300020,300030,101</t>
-  </si>
-  <si>
-    <t>10,300,250,538,1160,1000</t>
+    <t>200040,300010,300020,300030,101</t>
+  </si>
+  <si>
+    <t>10,250,538,1160,1000</t>
   </si>
   <si>
     <t>10003</t>
@@ -295,7 +295,7 @@
     <t>59</t>
   </si>
   <si>
-    <t>200050,200060,300010,300020,300030,101</t>
+    <t>200050,300010,300020,300030,101</t>
   </si>
   <si>
     <t>10004</t>
@@ -316,10 +316,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>200060,200070,300010,300020,300030,300040,101</t>
-  </si>
-  <si>
-    <t>10,300,250,538,1160,2500,1000</t>
+    <t>200060,300010,300020,300030,101</t>
   </si>
   <si>
     <t>10005</t>
@@ -340,7 +337,10 @@
     <t>79</t>
   </si>
   <si>
-    <t>200070,200080,300010,300020,300030,300040,101</t>
+    <t>200070,300010,300020,300030,300040,101</t>
+  </si>
+  <si>
+    <t>10,250,538,1160,2500,1000</t>
   </si>
   <si>
     <t>10006</t>
@@ -361,7 +361,7 @@
     <t>89</t>
   </si>
   <si>
-    <t>200080,200090,300010,300020,300030,300040,101</t>
+    <t>200080,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10007</t>
@@ -382,10 +382,7 @@
     <t>99</t>
   </si>
   <si>
-    <t>200090,200100,300010,300020,300030,300040,300050,101</t>
-  </si>
-  <si>
-    <t>10,300,250,538,1160,2500,5386,1000</t>
+    <t>200090,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10008</t>
@@ -406,7 +403,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>200100,200110,300010,300020,300030,300040,300050,101</t>
+    <t>200100,300010,300020,300030,300040,101</t>
   </si>
   <si>
     <t>10009</t>
@@ -427,7 +424,10 @@
     <t>119</t>
   </si>
   <si>
-    <t>200110,200120,300010,300020,300030,300040,300050,101</t>
+    <t>200110,300010,300020,300030,300040,300050,101</t>
+  </si>
+  <si>
+    <t>10,250,538,1160,2500,5386,1000</t>
   </si>
   <si>
     <t>10010</t>
@@ -448,7 +448,7 @@
     <t>129</t>
   </si>
   <si>
-    <t>200120,200130,300010,300020,300030,300040,300050,101</t>
+    <t>200120,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10011</t>
@@ -469,10 +469,7 @@
     <t>139</t>
   </si>
   <si>
-    <t>200130,200140,300010,300020,300030,300040,300050,300060,101</t>
-  </si>
-  <si>
-    <t>10,300,250,538,1160,2500,5386,11603,1000</t>
+    <t>200130,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10012</t>
@@ -493,7 +490,7 @@
     <t>149</t>
   </si>
   <si>
-    <t>200140,200150,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200140,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
     <t>10013</t>
@@ -514,7 +511,10 @@
     <t>159</t>
   </si>
   <si>
-    <t>200150,200160,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200150,300010,300020,300030,300040,300050,300060,101</t>
+  </si>
+  <si>
+    <t>10,250,538,1160,2500,5386,11603,1000</t>
   </si>
   <si>
     <t>10014</t>
@@ -535,7 +535,7 @@
     <t>169</t>
   </si>
   <si>
-    <t>200160,200170,300010,300020,300030,300040,300050,300060,101</t>
+    <t>200160,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10015</t>
@@ -556,10 +556,7 @@
     <t>179</t>
   </si>
   <si>
-    <t>200170,200180,300010,300020,300030,300040,300050,300060,300070,101</t>
-  </si>
-  <si>
-    <t>10,300,250,538,1160,2500,5386,11603,25000,1000</t>
+    <t>200170,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10016</t>
@@ -580,7 +577,7 @@
     <t>189</t>
   </si>
   <si>
-    <t>200180,200190,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200180,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10017</t>
@@ -601,7 +598,7 @@
     <t>199</t>
   </si>
   <si>
-    <t>200190,200200,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200190,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10018</t>
@@ -622,7 +619,7 @@
     <t>209</t>
   </si>
   <si>
-    <t>200200,200210,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200200,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
     <t>10019</t>
@@ -643,10 +640,10 @@
     <t>219</t>
   </si>
   <si>
-    <t>200210,200220,300010,300020,300030,300040,300050,300060,300070,101</t>
-  </si>
-  <si>
-    <t>10,300,500,500,500,1250,2500,5000,10000,1000</t>
+    <t>200210,300010,300020,300030,300040,300050,300060,300070,101</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,5000,10000,1000</t>
   </si>
   <si>
     <t>10020</t>
@@ -667,7 +664,7 @@
     <t>229</t>
   </si>
   <si>
-    <t>200220,200230,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10021</t>
@@ -688,7 +685,7 @@
     <t>239</t>
   </si>
   <si>
-    <t>200230,200240,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200230,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10022</t>
@@ -709,7 +706,7 @@
     <t>249</t>
   </si>
   <si>
-    <t>200240,200250,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200240,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10023</t>
@@ -730,7 +727,7 @@
     <t>259</t>
   </si>
   <si>
-    <t>200250,200260,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200250,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10024</t>
@@ -751,7 +748,7 @@
     <t>269</t>
   </si>
   <si>
-    <t>200260,200270,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200260,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10025</t>
@@ -769,7 +766,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>200270,200280,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200270,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10026</t>
@@ -790,7 +787,7 @@
     <t>289</t>
   </si>
   <si>
-    <t>200280,200290,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200280,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10027</t>
@@ -811,7 +808,7 @@
     <t>299</t>
   </si>
   <si>
-    <t>200290,200300,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200290,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10028</t>
@@ -832,7 +829,7 @@
     <t>309</t>
   </si>
   <si>
-    <t>200300,200310,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200300,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10029</t>
@@ -853,7 +850,7 @@
     <t>319</t>
   </si>
   <si>
-    <t>200310,200320,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200310,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10030</t>
@@ -874,7 +871,7 @@
     <t>329</t>
   </si>
   <si>
-    <t>200320,200330,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200320,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10031</t>
@@ -895,7 +892,7 @@
     <t>339</t>
   </si>
   <si>
-    <t>200330,200340,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200330,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10032</t>
@@ -916,7 +913,7 @@
     <t>349</t>
   </si>
   <si>
-    <t>200340,200350,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200340,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10033</t>
@@ -937,7 +934,7 @@
     <t>359</t>
   </si>
   <si>
-    <t>200350,200360,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200350,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
     <t>10034</t>
@@ -958,7 +955,10 @@
     <t>369</t>
   </si>
   <si>
-    <t>200360,200370,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200360,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000</t>
   </si>
   <si>
     <t>10035</t>
@@ -976,7 +976,7 @@
     <t>379</t>
   </si>
   <si>
-    <t>200370,200380,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200370,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10036</t>
@@ -994,7 +994,7 @@
     <t>389</t>
   </si>
   <si>
-    <t>200380,200390,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200380,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10037</t>
@@ -1012,7 +1012,7 @@
     <t>399</t>
   </si>
   <si>
-    <t>200390,200400,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200390,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10038</t>
@@ -1030,7 +1030,7 @@
     <t>409</t>
   </si>
   <si>
-    <t>200400,200410,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200400,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10039</t>
@@ -1048,7 +1048,7 @@
     <t>419</t>
   </si>
   <si>
-    <t>200410,200420,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200410,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10040</t>
@@ -1066,7 +1066,7 @@
     <t>429</t>
   </si>
   <si>
-    <t>200420,200430,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200420,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10041</t>
@@ -1084,7 +1084,7 @@
     <t>439</t>
   </si>
   <si>
-    <t>200430,200440,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200430,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10042</t>
@@ -1102,7 +1102,7 @@
     <t>449</t>
   </si>
   <si>
-    <t>200440,200450,300010,300020,300030,300040,300050,300060,300070,101</t>
+    <t>200440,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10043</t>
@@ -1120,10 +1120,7 @@
     <t>459</t>
   </si>
   <si>
-    <t>200450,300010,300020,300030,300040,300050,300060,300070,101</t>
-  </si>
-  <si>
-    <t>10,500,500,500,1250,2500,5000,10000,1000</t>
+    <t>200450,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
     <t>10044</t>
@@ -1305,12 +1302,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2140,11 +2137,11 @@
   <dimension ref="A3:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2319,10 +2316,10 @@
         <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
@@ -2331,34 +2328,34 @@
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:13">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8"/>
     </row>
@@ -2451,10 +2448,10 @@
         <v>66</v>
       </c>
       <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
         <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>63</v>
@@ -2463,34 +2460,34 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:13">
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12"/>
     </row>
@@ -2517,7 +2514,7 @@
         <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
@@ -2550,10 +2547,10 @@
         <v>88</v>
       </c>
       <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
       </c>
       <c r="L14" t="s">
         <v>85</v>
@@ -2562,67 +2559,67 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:13">
       <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
         <v>96</v>
       </c>
-      <c r="J15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M15"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:13">
       <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>99</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>103</v>
-      </c>
-      <c r="J16" t="s">
-        <v>89</v>
       </c>
       <c r="K16" t="s">
         <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16"/>
     </row>
@@ -2649,7 +2646,7 @@
         <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
         <v>111</v>
@@ -2682,10 +2679,10 @@
         <v>117</v>
       </c>
       <c r="J18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" t="s">
-        <v>119</v>
       </c>
       <c r="L18" t="s">
         <v>114</v>
@@ -2694,67 +2691,67 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:13">
       <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
         <v>120</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>121</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>122</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
         <v>123</v>
       </c>
-      <c r="G19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>124</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
         <v>125</v>
       </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" t="s">
-        <v>126</v>
-      </c>
       <c r="L19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M19"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:13">
       <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>128</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>129</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="G20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>131</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>132</v>
-      </c>
-      <c r="J20" t="s">
-        <v>118</v>
       </c>
       <c r="K20" t="s">
         <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M20"/>
     </row>
@@ -2781,7 +2778,7 @@
         <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s">
         <v>140</v>
@@ -2814,10 +2811,10 @@
         <v>146</v>
       </c>
       <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
         <v>147</v>
-      </c>
-      <c r="K22" t="s">
-        <v>148</v>
       </c>
       <c r="L22" t="s">
         <v>143</v>
@@ -2826,628 +2823,628 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:13">
       <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
         <v>149</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>150</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>151</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
         <v>152</v>
       </c>
-      <c r="G23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>153</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
         <v>154</v>
       </c>
-      <c r="J23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" t="s">
-        <v>155</v>
-      </c>
       <c r="L23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M23"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:13">
       <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
         <v>156</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>157</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>158</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" t="s">
         <v>159</v>
       </c>
-      <c r="G24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>160</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" t="s">
-        <v>162</v>
-      </c>
       <c r="L24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:13">
       <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
         <v>163</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>164</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>165</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
         <v>166</v>
       </c>
-      <c r="G25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>167</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
         <v>168</v>
       </c>
-      <c r="J25" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" t="s">
-        <v>169</v>
-      </c>
       <c r="L25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M25"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:13">
       <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
         <v>170</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>171</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>172</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
         <v>173</v>
       </c>
-      <c r="G26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>174</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>175</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>176</v>
       </c>
-      <c r="K26" t="s">
-        <v>177</v>
-      </c>
       <c r="L26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M26"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:13">
       <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
         <v>178</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>179</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>180</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" t="s">
         <v>181</v>
       </c>
-      <c r="G27" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>182</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
         <v>183</v>
       </c>
-      <c r="J27" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" t="s">
-        <v>184</v>
-      </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M27"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:13">
       <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
         <v>185</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>186</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>187</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" t="s">
         <v>188</v>
       </c>
-      <c r="G28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>189</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" t="s">
         <v>190</v>
       </c>
-      <c r="J28" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" t="s">
-        <v>191</v>
-      </c>
       <c r="L28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M28"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:13">
       <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
         <v>192</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>193</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>194</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" t="s">
         <v>195</v>
       </c>
-      <c r="G29" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>196</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" t="s">
         <v>197</v>
       </c>
-      <c r="J29" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" t="s">
-        <v>198</v>
-      </c>
       <c r="L29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M29"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:13">
       <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
         <v>199</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>200</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
         <v>202</v>
       </c>
-      <c r="G30" t="s">
-        <v>201</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>203</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" t="s">
         <v>204</v>
       </c>
-      <c r="J30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K30" t="s">
-        <v>205</v>
-      </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M30"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:13">
       <c r="C31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
         <v>206</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>207</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>208</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" t="s">
         <v>209</v>
       </c>
-      <c r="G31" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>210</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
         <v>211</v>
       </c>
-      <c r="J31" t="s">
-        <v>176</v>
-      </c>
-      <c r="K31" t="s">
-        <v>212</v>
-      </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M31"/>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:13">
       <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" t="s">
         <v>213</v>
       </c>
-      <c r="D32" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>214</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
         <v>215</v>
       </c>
-      <c r="G32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>216</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" t="s">
         <v>217</v>
       </c>
-      <c r="J32" t="s">
-        <v>176</v>
-      </c>
-      <c r="K32" t="s">
-        <v>218</v>
-      </c>
       <c r="L32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M32"/>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" t="s">
         <v>219</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>220</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>221</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" t="s">
         <v>222</v>
       </c>
-      <c r="G33" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>223</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K33" t="s">
         <v>224</v>
       </c>
-      <c r="J33" t="s">
-        <v>176</v>
-      </c>
-      <c r="K33" t="s">
-        <v>225</v>
-      </c>
       <c r="L33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M33"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
         <v>226</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>227</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>228</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" t="s">
         <v>229</v>
       </c>
-      <c r="G34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>230</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" t="s">
         <v>231</v>
       </c>
-      <c r="J34" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" t="s">
-        <v>232</v>
-      </c>
       <c r="L34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M34"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:13">
       <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
         <v>233</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>234</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>235</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" t="s">
         <v>236</v>
       </c>
-      <c r="G35" t="s">
-        <v>235</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>237</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" t="s">
         <v>238</v>
       </c>
-      <c r="J35" t="s">
-        <v>176</v>
-      </c>
-      <c r="K35" t="s">
-        <v>239</v>
-      </c>
       <c r="L35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M35"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:13">
       <c r="C36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" t="s">
         <v>240</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>241</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>242</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" t="s">
         <v>243</v>
       </c>
-      <c r="G36" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>244</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" t="s">
         <v>245</v>
       </c>
-      <c r="J36" t="s">
-        <v>176</v>
-      </c>
-      <c r="K36" t="s">
-        <v>246</v>
-      </c>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M36"/>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" t="s">
         <v>247</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>248</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>249</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37" t="s">
         <v>250</v>
       </c>
-      <c r="G37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>251</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" t="s">
         <v>252</v>
       </c>
-      <c r="J37" t="s">
-        <v>176</v>
-      </c>
-      <c r="K37" t="s">
-        <v>253</v>
-      </c>
       <c r="L37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M37"/>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" t="s">
         <v>254</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>255</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>256</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="G38" t="s">
-        <v>256</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>258</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K38" t="s">
         <v>259</v>
       </c>
-      <c r="J38" t="s">
-        <v>176</v>
-      </c>
-      <c r="K38" t="s">
-        <v>260</v>
-      </c>
       <c r="L38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M38"/>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" t="s">
         <v>261</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>262</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>263</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" t="s">
         <v>264</v>
       </c>
-      <c r="G39" t="s">
-        <v>263</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>265</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>175</v>
+      </c>
+      <c r="K39" t="s">
         <v>266</v>
       </c>
-      <c r="J39" t="s">
-        <v>176</v>
-      </c>
-      <c r="K39" t="s">
-        <v>267</v>
-      </c>
       <c r="L39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M39"/>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:13">
       <c r="C40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" t="s">
         <v>268</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>269</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>270</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" t="s">
         <v>271</v>
       </c>
-      <c r="G40" t="s">
-        <v>270</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>272</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" t="s">
         <v>273</v>
       </c>
-      <c r="J40" t="s">
-        <v>176</v>
-      </c>
-      <c r="K40" t="s">
-        <v>274</v>
-      </c>
       <c r="L40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M40"/>
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:13">
       <c r="C41" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" t="s">
         <v>275</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>276</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>277</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" t="s">
         <v>278</v>
       </c>
-      <c r="G41" t="s">
-        <v>277</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>279</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>280</v>
-      </c>
-      <c r="J41" t="s">
-        <v>176</v>
       </c>
       <c r="K41" t="s">
         <v>281</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M41"/>
     </row>
@@ -3462,7 +3459,7 @@
         <v>284</v>
       </c>
       <c r="F42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G42" t="s">
         <v>284</v>
@@ -3474,13 +3471,13 @@
         <v>286</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K42" t="s">
         <v>287</v>
       </c>
       <c r="L42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M42"/>
     </row>
@@ -3495,7 +3492,7 @@
         <v>290</v>
       </c>
       <c r="F43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
         <v>290</v>
@@ -3507,13 +3504,13 @@
         <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s">
         <v>293</v>
       </c>
       <c r="L43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M43"/>
     </row>
@@ -3528,7 +3525,7 @@
         <v>296</v>
       </c>
       <c r="F44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G44" t="s">
         <v>296</v>
@@ -3540,13 +3537,13 @@
         <v>298</v>
       </c>
       <c r="J44" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K44" t="s">
         <v>299</v>
       </c>
       <c r="L44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M44"/>
     </row>
@@ -3561,7 +3558,7 @@
         <v>302</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
         <v>302</v>
@@ -3573,13 +3570,13 @@
         <v>304</v>
       </c>
       <c r="J45" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K45" t="s">
         <v>305</v>
       </c>
       <c r="L45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M45"/>
     </row>
@@ -3596,7 +3593,7 @@
         <v>308</v>
       </c>
       <c r="F46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G46" t="s">
         <v>308</v>
@@ -3608,13 +3605,13 @@
         <v>310</v>
       </c>
       <c r="J46" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K46" t="s">
         <v>311</v>
       </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -3630,7 +3627,7 @@
         <v>314</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G47" t="s">
         <v>314</v>
@@ -3642,13 +3639,13 @@
         <v>316</v>
       </c>
       <c r="J47" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K47" t="s">
         <v>317</v>
       </c>
       <c r="L47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -3664,7 +3661,7 @@
         <v>320</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
         <v>320</v>
@@ -3676,13 +3673,13 @@
         <v>322</v>
       </c>
       <c r="J48" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K48" t="s">
         <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -3698,7 +3695,7 @@
         <v>326</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G49" t="s">
         <v>326</v>
@@ -3710,13 +3707,13 @@
         <v>328</v>
       </c>
       <c r="J49" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K49" t="s">
         <v>329</v>
       </c>
       <c r="L49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -3732,7 +3729,7 @@
         <v>332</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G50" t="s">
         <v>332</v>
@@ -3744,13 +3741,13 @@
         <v>334</v>
       </c>
       <c r="J50" t="s">
+        <v>280</v>
+      </c>
+      <c r="K50" t="s">
         <v>335</v>
       </c>
-      <c r="K50" t="s">
-        <v>336</v>
-      </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="367">
   <si>
     <t>_Id</t>
   </si>
@@ -1124,6 +1124,99 @@
   </si>
   <si>
     <t>10044</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>幻影土城外</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,10000</t>
+  </si>
+  <si>
+    <t>10045</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>幻影土城</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>200470,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+  </si>
+  <si>
+    <t>10046</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>幻影龙城外</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>200480,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+  </si>
+  <si>
+    <t>10047</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>幻影龙城</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>200490,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>幻影圣域</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+  </si>
+  <si>
+    <t>10049</t>
   </si>
 </sst>
 </file>
@@ -1302,12 +1395,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2134,14 +2227,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M50"/>
+  <dimension ref="A3:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2154,7 +2247,7 @@
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="73.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="51.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="58.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="45.25" style="1" customWidth="1"/>
@@ -3747,6 +3840,176 @@
         <v>335</v>
       </c>
       <c r="L50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D52" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" t="s">
+        <v>345</v>
+      </c>
+      <c r="F52" t="s">
+        <v>277</v>
+      </c>
+      <c r="G52" t="s">
+        <v>345</v>
+      </c>
+      <c r="H52" t="s">
+        <v>346</v>
+      </c>
+      <c r="I52" t="s">
+        <v>347</v>
+      </c>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" t="s">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" t="s">
+        <v>351</v>
+      </c>
+      <c r="H53" t="s">
+        <v>352</v>
+      </c>
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" t="s">
+        <v>341</v>
+      </c>
+      <c r="K53" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>355</v>
+      </c>
+      <c r="D54" t="s">
+        <v>356</v>
+      </c>
+      <c r="E54" t="s">
+        <v>357</v>
+      </c>
+      <c r="F54" t="s">
+        <v>277</v>
+      </c>
+      <c r="G54" t="s">
+        <v>357</v>
+      </c>
+      <c r="H54" t="s">
+        <v>358</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
+      </c>
+      <c r="L54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" t="s">
+        <v>363</v>
+      </c>
+      <c r="F55" t="s">
+        <v>277</v>
+      </c>
+      <c r="G55" t="s">
+        <v>363</v>
+      </c>
+      <c r="H55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I55" t="s">
+        <v>365</v>
+      </c>
+      <c r="J55" t="s">
+        <v>341</v>
+      </c>
+      <c r="K55" t="s">
+        <v>366</v>
+      </c>
+      <c r="L55" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1141,7 +1141,7 @@
     <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
-    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,10000</t>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,30000</t>
   </si>
   <si>
     <t>10045</t>
@@ -1395,12 +1395,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1870,6 +1870,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2234,7 +2235,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3867,7 +3868,7 @@
       <c r="I51" t="s">
         <v>340</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="5" t="s">
         <v>341</v>
       </c>
       <c r="K51" t="s">
@@ -3901,7 +3902,7 @@
       <c r="I52" t="s">
         <v>347</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="5" t="s">
         <v>341</v>
       </c>
       <c r="K52" t="s">
@@ -3935,7 +3936,7 @@
       <c r="I53" t="s">
         <v>353</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="5" t="s">
         <v>341</v>
       </c>
       <c r="K53" t="s">
@@ -3969,7 +3970,7 @@
       <c r="I54" t="s">
         <v>359</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="5" t="s">
         <v>341</v>
       </c>
       <c r="K54" t="s">
@@ -4003,7 +4004,7 @@
       <c r="I55" t="s">
         <v>365</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="5" t="s">
         <v>341</v>
       </c>
       <c r="K55" t="s">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -1141,7 +1141,7 @@
     <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
-    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,30000</t>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,15000</t>
   </si>
   <si>
     <t>10045</t>
@@ -2235,7 +2235,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1048,7 +1048,10 @@
     <t>419</t>
   </si>
   <si>
-    <t>200410,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
+    <t>200410,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,15000</t>
   </si>
   <si>
     <t>10040</t>
@@ -1066,7 +1069,7 @@
     <t>429</t>
   </si>
   <si>
-    <t>200420,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
+    <t>200420,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
     <t>10041</t>
@@ -1084,7 +1087,7 @@
     <t>439</t>
   </si>
   <si>
-    <t>200430,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
+    <t>200430,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
     <t>10042</t>
@@ -1102,7 +1105,7 @@
     <t>449</t>
   </si>
   <si>
-    <t>200440,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
+    <t>200440,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
     <t>10043</t>
@@ -1120,7 +1123,7 @@
     <t>459</t>
   </si>
   <si>
-    <t>200450,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
+    <t>200450,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
     <t>10044</t>
@@ -1138,10 +1141,7 @@
     <t>469</t>
   </si>
   <si>
-    <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
-  </si>
-  <si>
-    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,15000</t>
+    <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
     <t>10045</t>
@@ -1159,7 +1159,7 @@
     <t>479</t>
   </si>
   <si>
-    <t>200470,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+    <t>200470,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
     <t>10046</t>
@@ -1177,7 +1177,7 @@
     <t>489</t>
   </si>
   <si>
-    <t>200480,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+    <t>200480,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
     <t>10047</t>
@@ -1195,7 +1195,7 @@
     <t>499</t>
   </si>
   <si>
-    <t>200490,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+    <t>200490,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
     <t>10048</t>
@@ -1213,7 +1213,7 @@
     <t>509</t>
   </si>
   <si>
-    <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
+    <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
     <t>10049</t>
@@ -2231,18 +2231,18 @@
   <dimension ref="A3:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
@@ -3695,14 +3695,14 @@
       <c r="H46" t="s">
         <v>309</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="J46" t="s">
-        <v>280</v>
+      <c r="J46" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s">
         <v>150</v>
@@ -3712,31 +3712,31 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
         <v>277</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
-      </c>
-      <c r="I47" t="s">
         <v>316</v>
       </c>
-      <c r="J47" t="s">
-        <v>280</v>
+      <c r="I47" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
         <v>150</v>
@@ -3746,31 +3746,31 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F48" t="s">
         <v>277</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H48" t="s">
-        <v>321</v>
-      </c>
-      <c r="I48" t="s">
         <v>322</v>
       </c>
-      <c r="J48" t="s">
-        <v>280</v>
+      <c r="I48" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s">
         <v>150</v>
@@ -3780,31 +3780,31 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F49" t="s">
         <v>277</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H49" t="s">
-        <v>327</v>
-      </c>
-      <c r="I49" t="s">
         <v>328</v>
       </c>
-      <c r="J49" t="s">
-        <v>280</v>
+      <c r="I49" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="K49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s">
         <v>150</v>
@@ -3814,31 +3814,31 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F50" t="s">
         <v>277</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
-      </c>
-      <c r="I50" t="s">
         <v>334</v>
       </c>
-      <c r="J50" t="s">
-        <v>280</v>
+      <c r="I50" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="K50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s">
         <v>150</v>
@@ -3848,28 +3848,28 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F51" t="s">
         <v>277</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
-      </c>
-      <c r="I51" t="s">
         <v>340</v>
       </c>
+      <c r="I51" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="J51" s="5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K51" t="s">
         <v>342</v>
@@ -3899,11 +3899,11 @@
       <c r="H52" t="s">
         <v>346</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="5" t="s">
         <v>347</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K52" t="s">
         <v>348</v>
@@ -3933,11 +3933,11 @@
       <c r="H53" t="s">
         <v>352</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="5" t="s">
         <v>353</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K53" t="s">
         <v>354</v>
@@ -3967,11 +3967,11 @@
       <c r="H54" t="s">
         <v>358</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="5" t="s">
         <v>359</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K54" t="s">
         <v>360</v>
@@ -4001,11 +4001,11 @@
       <c r="H55" t="s">
         <v>364</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="5" t="s">
         <v>365</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K55" t="s">
         <v>366</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="399">
   <si>
     <t>_Id</t>
   </si>
@@ -1144,6 +1144,9 @@
     <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,16000</t>
+  </si>
+  <si>
     <t>10045</t>
   </si>
   <si>
@@ -1217,6 +1220,99 @@
   </si>
   <si>
     <t>10049</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>幻影棺材</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>200510,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,17000</t>
+  </si>
+  <si>
+    <t>10050</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>幻影一线天</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>200520,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>幻影石墓</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>200530,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
+  </si>
+  <si>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>幻影猪洞</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>200540,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
+  </si>
+  <si>
+    <t>10053</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>幻影桃源</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>200550,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
+  </si>
+  <si>
+    <t>10054</t>
   </si>
 </sst>
 </file>
@@ -1395,12 +1491,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2228,21 +2324,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M55"/>
+  <dimension ref="A3:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
@@ -3869,10 +3965,10 @@
         <v>341</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s">
         <v>150</v>
@@ -3882,31 +3978,31 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F52" t="s">
         <v>277</v>
       </c>
       <c r="G52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s">
         <v>150</v>
@@ -3916,31 +4012,31 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F53" t="s">
         <v>277</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s">
         <v>150</v>
@@ -3950,31 +4046,31 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F54" t="s">
         <v>277</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s">
         <v>150</v>
@@ -3984,33 +4080,203 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F55" t="s">
         <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H55" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" t="s">
+        <v>369</v>
+      </c>
+      <c r="E56" t="s">
+        <v>370</v>
+      </c>
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
+        <v>370</v>
+      </c>
+      <c r="H56" t="s">
+        <v>371</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K56" t="s">
+        <v>374</v>
+      </c>
+      <c r="L56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" t="s">
+        <v>376</v>
+      </c>
+      <c r="E57" t="s">
+        <v>377</v>
+      </c>
+      <c r="F57" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" t="s">
+        <v>377</v>
+      </c>
+      <c r="H57" t="s">
+        <v>378</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K57" t="s">
+        <v>380</v>
+      </c>
+      <c r="L57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" t="s">
+        <v>384</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K58" t="s">
+        <v>386</v>
+      </c>
+      <c r="L58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D59" t="s">
+        <v>388</v>
+      </c>
+      <c r="E59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" t="s">
+        <v>389</v>
+      </c>
+      <c r="H59" t="s">
+        <v>390</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K59" t="s">
+        <v>392</v>
+      </c>
+      <c r="L59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" t="s">
+        <v>393</v>
+      </c>
+      <c r="D60" t="s">
+        <v>394</v>
+      </c>
+      <c r="E60" t="s">
+        <v>395</v>
+      </c>
+      <c r="F60" t="s">
+        <v>277</v>
+      </c>
+      <c r="G60" t="s">
+        <v>395</v>
+      </c>
+      <c r="H60" t="s">
+        <v>396</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K60" t="s">
+        <v>398</v>
+      </c>
+      <c r="L60" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="430">
   <si>
     <t>_Id</t>
   </si>
@@ -1313,6 +1313,99 @@
   </si>
   <si>
     <t>10054</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>幻影沃玛禁地</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,20000</t>
+  </si>
+  <si>
+    <t>10055</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>幻影沃玛大殿</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>200601,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+  </si>
+  <si>
+    <t>10056</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>幻影祖玛禁地</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>200602,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+  </si>
+  <si>
+    <t>10057</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>幻影祖玛大殿</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>200603,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+  </si>
+  <si>
+    <t>10058</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>幻影封魔殿</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>200604,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+  </si>
+  <si>
+    <t>10059</t>
   </si>
 </sst>
 </file>
@@ -1956,17 +2049,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2324,131 +2420,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M60"/>
+  <dimension ref="A3:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="73.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="45.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="109.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="58.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="45.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="3:13">
       <c r="C6" t="s">
@@ -3771,8 +3867,8 @@
       <c r="M45"/>
     </row>
     <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>306</v>
       </c>
@@ -3791,10 +3887,10 @@
       <c r="H46" t="s">
         <v>309</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K46" t="s">
@@ -3805,8 +3901,8 @@
       </c>
     </row>
     <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>313</v>
       </c>
@@ -3825,10 +3921,10 @@
       <c r="H47" t="s">
         <v>316</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K47" t="s">
@@ -3839,8 +3935,8 @@
       </c>
     </row>
     <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" t="s">
         <v>319</v>
       </c>
@@ -3859,10 +3955,10 @@
       <c r="H48" t="s">
         <v>322</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K48" t="s">
@@ -3873,8 +3969,8 @@
       </c>
     </row>
     <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" t="s">
         <v>325</v>
       </c>
@@ -3893,10 +3989,10 @@
       <c r="H49" t="s">
         <v>328</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K49" t="s">
@@ -3907,8 +4003,8 @@
       </c>
     </row>
     <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" t="s">
         <v>331</v>
       </c>
@@ -3927,10 +4023,10 @@
       <c r="H50" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K50" t="s">
@@ -3941,8 +4037,8 @@
       </c>
     </row>
     <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>337</v>
       </c>
@@ -3961,10 +4057,10 @@
       <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="7" t="s">
         <v>342</v>
       </c>
       <c r="K51" t="s">
@@ -3975,8 +4071,8 @@
       </c>
     </row>
     <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>344</v>
       </c>
@@ -3995,10 +4091,10 @@
       <c r="H52" t="s">
         <v>347</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="7" t="s">
         <v>342</v>
       </c>
       <c r="K52" t="s">
@@ -4009,8 +4105,8 @@
       </c>
     </row>
     <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53" t="s">
         <v>350</v>
       </c>
@@ -4029,10 +4125,10 @@
       <c r="H53" t="s">
         <v>353</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="7" t="s">
         <v>342</v>
       </c>
       <c r="K53" t="s">
@@ -4043,8 +4139,8 @@
       </c>
     </row>
     <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54" t="s">
         <v>356</v>
       </c>
@@ -4063,10 +4159,10 @@
       <c r="H54" t="s">
         <v>359</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="7" t="s">
         <v>342</v>
       </c>
       <c r="K54" t="s">
@@ -4077,8 +4173,8 @@
       </c>
     </row>
     <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55" t="s">
         <v>362</v>
       </c>
@@ -4097,10 +4193,10 @@
       <c r="H55" t="s">
         <v>365</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="7" t="s">
         <v>342</v>
       </c>
       <c r="K55" t="s">
@@ -4111,8 +4207,8 @@
       </c>
     </row>
     <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56" t="s">
         <v>368</v>
       </c>
@@ -4131,10 +4227,10 @@
       <c r="H56" t="s">
         <v>371</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K56" t="s">
@@ -4145,8 +4241,8 @@
       </c>
     </row>
     <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57" t="s">
         <v>375</v>
       </c>
@@ -4165,10 +4261,10 @@
       <c r="H57" t="s">
         <v>378</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K57" t="s">
@@ -4179,8 +4275,8 @@
       </c>
     </row>
     <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58" t="s">
         <v>381</v>
       </c>
@@ -4199,10 +4295,10 @@
       <c r="H58" t="s">
         <v>384</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K58" t="s">
@@ -4213,8 +4309,8 @@
       </c>
     </row>
     <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" t="s">
         <v>387</v>
       </c>
@@ -4233,10 +4329,10 @@
       <c r="H59" t="s">
         <v>390</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K59" t="s">
@@ -4247,8 +4343,8 @@
       </c>
     </row>
     <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" t="s">
         <v>393</v>
       </c>
@@ -4267,16 +4363,186 @@
       <c r="H60" t="s">
         <v>396</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K60" t="s">
         <v>398</v>
       </c>
       <c r="L60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1327,10 +1327,10 @@
     <t>569</t>
   </si>
   <si>
-    <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
-  </si>
-  <si>
-    <t>10,500,500,500,1250,2500,2500,5000,100000,1000,20000</t>
+    <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,200000,1000,20000</t>
   </si>
   <si>
     <t>10055</t>
@@ -1348,7 +1348,7 @@
     <t>579</t>
   </si>
   <si>
-    <t>200601,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+    <t>200601,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
     <t>10056</t>
@@ -1366,7 +1366,7 @@
     <t>589</t>
   </si>
   <si>
-    <t>200602,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+    <t>200602,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
     <t>10057</t>
@@ -1384,7 +1384,7 @@
     <t>599</t>
   </si>
   <si>
-    <t>200603,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+    <t>200603,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
     <t>10058</t>
@@ -1402,7 +1402,7 @@
     <t>609</t>
   </si>
   <si>
-    <t>200604,300010,300020,300030,300040,300050,300060,300070,300080,102,504</t>
+    <t>200604,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
     <t>10059</t>
@@ -1584,12 +1584,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2427,7 +2427,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="431">
   <si>
     <t>_Id</t>
   </si>
@@ -1330,7 +1330,7 @@
     <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
-    <t>10,500,500,500,1250,2500,2500,5000,100000,200000,1000,20000</t>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,200000,1000,15000</t>
   </si>
   <si>
     <t>10055</t>
@@ -1352,6 +1352,9 @@
   </si>
   <si>
     <t>10056</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>1057</t>
@@ -2423,11 +2426,11 @@
   <dimension ref="A3:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2440,7 +2443,7 @@
     <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="109.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="58.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="66" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="45.25" style="2" customWidth="1"/>
@@ -4445,102 +4448,114 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="C63" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>150</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="430">
   <si>
     <t>_Id</t>
   </si>
@@ -1352,9 +1352,6 @@
   </si>
   <si>
     <t>10056</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>1057</t>
@@ -1587,12 +1584,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2426,11 +2423,11 @@
   <dimension ref="A3:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4448,114 +4445,102 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A64" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>412</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>423</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A65" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>412</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>404</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>150</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -116,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="460">
   <si>
     <t>_Id</t>
   </si>
@@ -1330,7 +1343,7 @@
     <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
-    <t>10,500,500,500,1250,2500,2500,5000,100000,200000,1000,15000</t>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,200000,1000,18000</t>
   </si>
   <si>
     <t>10055</t>
@@ -1406,12 +1419,102 @@
   </si>
   <si>
     <t>10059</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>幻影烈焰</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>200650,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10060</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>幻影封魔</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>200651,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10061</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>幻影尸魔</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>200652,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10062</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>幻影骨魔</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>200653,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10063</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>幻影牛魔</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>200654,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10064</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2420,14 +2523,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M65"/>
+  <dimension ref="A3:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4546,6 +4649,176 @@
         <v>150</v>
       </c>
     </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" t="s">
+        <v>431</v>
+      </c>
+      <c r="E66" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" t="s">
+        <v>277</v>
+      </c>
+      <c r="G66" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" t="s">
+        <v>433</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" t="s">
+        <v>435</v>
+      </c>
+      <c r="L66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>436</v>
+      </c>
+      <c r="D67" t="s">
+        <v>437</v>
+      </c>
+      <c r="E67" t="s">
+        <v>438</v>
+      </c>
+      <c r="F67" t="s">
+        <v>277</v>
+      </c>
+      <c r="G67" t="s">
+        <v>438</v>
+      </c>
+      <c r="H67" t="s">
+        <v>439</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K67" t="s">
+        <v>441</v>
+      </c>
+      <c r="L67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s">
+        <v>442</v>
+      </c>
+      <c r="D68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E68" t="s">
+        <v>444</v>
+      </c>
+      <c r="F68" t="s">
+        <v>277</v>
+      </c>
+      <c r="G68" t="s">
+        <v>444</v>
+      </c>
+      <c r="H68" t="s">
+        <v>445</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K68" t="s">
+        <v>447</v>
+      </c>
+      <c r="L68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s">
+        <v>448</v>
+      </c>
+      <c r="D69" t="s">
+        <v>449</v>
+      </c>
+      <c r="E69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F69" t="s">
+        <v>277</v>
+      </c>
+      <c r="G69" t="s">
+        <v>450</v>
+      </c>
+      <c r="H69" t="s">
+        <v>451</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K69" t="s">
+        <v>453</v>
+      </c>
+      <c r="L69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" t="s">
+        <v>456</v>
+      </c>
+      <c r="F70" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" t="s">
+        <v>456</v>
+      </c>
+      <c r="H70" t="s">
+        <v>457</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" t="s">
+        <v>459</v>
+      </c>
+      <c r="L70" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="490">
   <si>
     <t>_Id</t>
   </si>
@@ -1509,6 +1509,96 @@
   </si>
   <si>
     <t>10064</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>幻影峡谷</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>200700,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10065</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>幻影祭坛</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>200701,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10066</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>幻影魔巢</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>200702,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10067</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>幻影魔龙城</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>200703,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10068</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>幻影火龙殿</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>200704,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
+    <t>10069</t>
   </si>
 </sst>
 </file>
@@ -1687,12 +1777,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2523,14 +2613,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M70"/>
+  <dimension ref="A3:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4819,6 +4909,176 @@
         <v>150</v>
       </c>
     </row>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s">
+        <v>460</v>
+      </c>
+      <c r="D71" t="s">
+        <v>461</v>
+      </c>
+      <c r="E71" t="s">
+        <v>462</v>
+      </c>
+      <c r="F71" t="s">
+        <v>277</v>
+      </c>
+      <c r="G71" t="s">
+        <v>462</v>
+      </c>
+      <c r="H71" t="s">
+        <v>463</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K71" t="s">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s">
+        <v>466</v>
+      </c>
+      <c r="D72" t="s">
+        <v>467</v>
+      </c>
+      <c r="E72" t="s">
+        <v>468</v>
+      </c>
+      <c r="F72" t="s">
+        <v>277</v>
+      </c>
+      <c r="G72" t="s">
+        <v>468</v>
+      </c>
+      <c r="H72" t="s">
+        <v>469</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" t="s">
+        <v>471</v>
+      </c>
+      <c r="L72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s">
+        <v>472</v>
+      </c>
+      <c r="D73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" t="s">
+        <v>474</v>
+      </c>
+      <c r="F73" t="s">
+        <v>277</v>
+      </c>
+      <c r="G73" t="s">
+        <v>474</v>
+      </c>
+      <c r="H73" t="s">
+        <v>475</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K73" t="s">
+        <v>477</v>
+      </c>
+      <c r="L73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" t="s">
+        <v>479</v>
+      </c>
+      <c r="E74" t="s">
+        <v>480</v>
+      </c>
+      <c r="F74" t="s">
+        <v>277</v>
+      </c>
+      <c r="G74" t="s">
+        <v>480</v>
+      </c>
+      <c r="H74" t="s">
+        <v>481</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" t="s">
+        <v>483</v>
+      </c>
+      <c r="L74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" t="s">
+        <v>485</v>
+      </c>
+      <c r="E75" t="s">
+        <v>486</v>
+      </c>
+      <c r="F75" t="s">
+        <v>277</v>
+      </c>
+      <c r="G75" t="s">
+        <v>486</v>
+      </c>
+      <c r="H75" t="s">
+        <v>487</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" t="s">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="502">
   <si>
     <t>_Id</t>
   </si>
@@ -149,6 +149,9 @@
     <t>怪物最大等级</t>
   </si>
   <si>
+    <t>Memo</t>
+  </si>
+  <si>
     <t>地图Id掉落</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
     <t>29</t>
   </si>
   <si>
+    <t>2阶技能</t>
+  </si>
+  <si>
     <t>200020,300010,300020,101</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
     <t>49</t>
   </si>
   <si>
+    <t>3阶技能</t>
+  </si>
+  <si>
     <t>200040,300010,300020,300030,101</t>
   </si>
   <si>
@@ -350,6 +359,9 @@
     <t>79</t>
   </si>
   <si>
+    <t>4阶技能</t>
+  </si>
+  <si>
     <t>200070,300010,300020,300030,300040,101</t>
   </si>
   <si>
@@ -437,6 +449,9 @@
     <t>119</t>
   </si>
   <si>
+    <t>5阶技能</t>
+  </si>
+  <si>
     <t>200110,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
@@ -524,6 +539,9 @@
     <t>159</t>
   </si>
   <si>
+    <t>6阶技能</t>
+  </si>
+  <si>
     <t>200150,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
@@ -653,6 +671,9 @@
     <t>219</t>
   </si>
   <si>
+    <t>7阶技能</t>
+  </si>
+  <si>
     <t>200210,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -968,6 +989,9 @@
     <t>369</t>
   </si>
   <si>
+    <t>8阶技能</t>
+  </si>
+  <si>
     <t>200360,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
@@ -1061,6 +1085,9 @@
     <t>419</t>
   </si>
   <si>
+    <t>专属1-2</t>
+  </si>
+  <si>
     <t>200410,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
@@ -1154,6 +1181,9 @@
     <t>469</t>
   </si>
   <si>
+    <t>专属3-4</t>
+  </si>
+  <si>
     <t>200460,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
@@ -1229,6 +1259,9 @@
     <t>509</t>
   </si>
   <si>
+    <t>专属5-6</t>
+  </si>
+  <si>
     <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
@@ -1338,6 +1371,9 @@
   </si>
   <si>
     <t>569</t>
+  </si>
+  <si>
+    <t>9阶技能</t>
   </si>
   <si>
     <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
@@ -2613,14 +2649,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M75"/>
+  <dimension ref="A3:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2631,16 +2667,16 @@
     <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="109.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="66" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="45.25" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="14.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="109.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="66" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="45.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13">
+    <row r="3" spans="3:14">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2665,102 +2701,109 @@
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="3:13">
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="3:14">
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="3:13">
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14">
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:13">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:14">
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
         <v>28</v>
       </c>
+      <c r="I6"/>
       <c r="J6" t="s">
         <v>29</v>
       </c>
@@ -2768,2315 +2811,2384 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:13">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:14">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:13">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:14">
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:13">
+      <c r="N8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:14">
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:13">
+      <c r="N9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:14">
       <c r="C10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:13">
+      <c r="N10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:14">
       <c r="C11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:13">
+      <c r="N11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:14">
       <c r="C12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" t="s">
         <v>73</v>
       </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:13">
+      <c r="N12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:14">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:14">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" t="s">
         <v>78</v>
       </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:14">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
         <v>78</v>
       </c>
-      <c r="M13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:13">
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:13">
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
         <v>96</v>
       </c>
-      <c r="L15" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:13">
+      <c r="N15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:14">
       <c r="C16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" t="s">
         <v>103</v>
       </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:13">
+      <c r="N16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:14">
       <c r="C17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
-      </c>
       <c r="L17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:13">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:14">
       <c r="C18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>117</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I18"/>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:13">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:14">
       <c r="C19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
-        <v>124</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I19"/>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:13">
+        <v>130</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:14">
       <c r="C20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" t="s">
         <v>133</v>
       </c>
-      <c r="L20" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:13">
+      <c r="N20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:14">
       <c r="C21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s">
         <v>138</v>
       </c>
-      <c r="I21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>140</v>
-      </c>
       <c r="L21" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:13">
+        <v>146</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:14">
       <c r="C22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" t="s">
-        <v>146</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I22"/>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:13">
+        <v>153</v>
+      </c>
+      <c r="M22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:14">
       <c r="C23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" t="s">
-        <v>153</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I23"/>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s">
-        <v>150</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:13">
+        <v>160</v>
+      </c>
+      <c r="M23" t="s">
+        <v>156</v>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:14">
       <c r="C24" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" t="s">
-        <v>160</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="I24"/>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s">
-        <v>150</v>
-      </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:13">
+        <v>167</v>
+      </c>
+      <c r="M24" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:14">
       <c r="C25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" t="s">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I25"/>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:13">
+        <v>174</v>
+      </c>
+      <c r="M25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:14">
       <c r="C26" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
-      </c>
-      <c r="M26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:13">
+        <v>183</v>
+      </c>
+      <c r="M26" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:14">
       <c r="C27" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" t="s">
         <v>182</v>
       </c>
-      <c r="J27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" t="s">
-        <v>183</v>
-      </c>
       <c r="L27" t="s">
-        <v>150</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:13">
+        <v>190</v>
+      </c>
+      <c r="M27" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:14">
       <c r="C28" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" t="s">
-        <v>189</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I28"/>
       <c r="J28" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:13">
+        <v>197</v>
+      </c>
+      <c r="M28" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:14">
       <c r="C29" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
-      </c>
-      <c r="I29" t="s">
-        <v>196</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I29"/>
       <c r="J29" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
-      </c>
-      <c r="M29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:13">
+        <v>204</v>
+      </c>
+      <c r="M29" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:14">
       <c r="C30" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" t="s">
-        <v>203</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I30"/>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
-      </c>
-      <c r="M30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:13">
+        <v>211</v>
+      </c>
+      <c r="M30" t="s">
+        <v>156</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:14">
       <c r="C31" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L31" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:14">
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" t="s">
         <v>206</v>
       </c>
-      <c r="E31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31" t="s">
-        <v>209</v>
-      </c>
-      <c r="I31" t="s">
-        <v>210</v>
-      </c>
-      <c r="J31" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" t="s">
-        <v>150</v>
-      </c>
-      <c r="M31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:13">
-      <c r="C32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" t="s">
-        <v>199</v>
-      </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F32" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H32" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" t="s">
-        <v>216</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I32"/>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
-      </c>
-      <c r="M32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:13">
+        <v>224</v>
+      </c>
+      <c r="M32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:14">
       <c r="C33" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" t="s">
-        <v>223</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I33"/>
       <c r="J33" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s">
-        <v>150</v>
-      </c>
-      <c r="M33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:13">
+        <v>231</v>
+      </c>
+      <c r="M33" t="s">
+        <v>156</v>
+      </c>
+      <c r="N33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:14">
       <c r="C34" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" t="s">
-        <v>230</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="I34"/>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s">
-        <v>150</v>
-      </c>
-      <c r="M34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:13">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s">
+        <v>156</v>
+      </c>
+      <c r="N34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:14">
       <c r="C35" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>236</v>
-      </c>
-      <c r="I35" t="s">
-        <v>237</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="I35"/>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:13">
+        <v>245</v>
+      </c>
+      <c r="M35" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:14">
       <c r="C36" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
-      </c>
-      <c r="I36" t="s">
-        <v>244</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I36"/>
       <c r="J36" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:13">
+        <v>252</v>
+      </c>
+      <c r="M36" t="s">
+        <v>156</v>
+      </c>
+      <c r="N36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:14">
       <c r="C37" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
-      </c>
-      <c r="I37" t="s">
-        <v>251</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="I37"/>
       <c r="J37" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
-      </c>
-      <c r="M37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:13">
+        <v>259</v>
+      </c>
+      <c r="M37" t="s">
+        <v>156</v>
+      </c>
+      <c r="N37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:14">
       <c r="C38" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
-      </c>
-      <c r="I38" t="s">
-        <v>258</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I38"/>
       <c r="J38" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:13">
+        <v>266</v>
+      </c>
+      <c r="M38" t="s">
+        <v>156</v>
+      </c>
+      <c r="N38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:14">
       <c r="C39" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>264</v>
-      </c>
-      <c r="I39" t="s">
-        <v>265</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="I39"/>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s">
-        <v>150</v>
-      </c>
-      <c r="M39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:13">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:14">
       <c r="C40" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I40" t="s">
-        <v>272</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="I40"/>
       <c r="J40" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:13">
+        <v>280</v>
+      </c>
+      <c r="M40" t="s">
+        <v>156</v>
+      </c>
+      <c r="N40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:14">
       <c r="C41" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H41" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
-      </c>
-      <c r="M41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:13">
+        <v>289</v>
+      </c>
+      <c r="M41" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:14">
       <c r="C42" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" t="s">
         <v>284</v>
       </c>
-      <c r="F42" t="s">
-        <v>277</v>
-      </c>
       <c r="G42" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="s">
+        <v>156</v>
+      </c>
+      <c r="N42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:14">
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="H42" t="s">
-        <v>285</v>
-      </c>
-      <c r="I42" t="s">
-        <v>286</v>
-      </c>
-      <c r="J42" t="s">
-        <v>280</v>
-      </c>
-      <c r="K42" t="s">
-        <v>287</v>
-      </c>
-      <c r="L42" t="s">
-        <v>150</v>
-      </c>
-      <c r="M42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:13">
-      <c r="C43" t="s">
+      <c r="G43" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" t="s">
+        <v>299</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" t="s">
         <v>288</v>
       </c>
-      <c r="D43" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" t="s">
-        <v>290</v>
-      </c>
-      <c r="F43" t="s">
-        <v>277</v>
-      </c>
-      <c r="G43" t="s">
-        <v>290</v>
-      </c>
-      <c r="H43" t="s">
-        <v>291</v>
-      </c>
-      <c r="I43" t="s">
-        <v>292</v>
-      </c>
-      <c r="J43" t="s">
-        <v>280</v>
-      </c>
-      <c r="K43" t="s">
-        <v>293</v>
-      </c>
       <c r="L43" t="s">
-        <v>150</v>
-      </c>
-      <c r="M43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:13">
+        <v>301</v>
+      </c>
+      <c r="M43" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:14">
       <c r="C44" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
-      </c>
-      <c r="I44" t="s">
-        <v>298</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="I44"/>
       <c r="J44" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:13">
+        <v>307</v>
+      </c>
+      <c r="M44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:14">
       <c r="C45" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D45" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G45" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H45" t="s">
-        <v>303</v>
-      </c>
-      <c r="I45" t="s">
-        <v>304</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="I45"/>
       <c r="J45" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s">
-        <v>150</v>
-      </c>
-      <c r="M45"/>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>313</v>
+      </c>
+      <c r="M45" t="s">
+        <v>156</v>
+      </c>
+      <c r="N45"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G46" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K46" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>321</v>
+      </c>
+      <c r="M46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G47" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K47" t="s">
-        <v>318</v>
+        <v>326</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="L47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>327</v>
+      </c>
+      <c r="M47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D48" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
+        <v>330</v>
+      </c>
+      <c r="H48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E48" t="s">
-        <v>321</v>
-      </c>
-      <c r="F48" t="s">
-        <v>277</v>
-      </c>
-      <c r="G48" t="s">
-        <v>321</v>
-      </c>
-      <c r="H48" t="s">
-        <v>322</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K48" t="s">
-        <v>324</v>
-      </c>
       <c r="L48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>333</v>
+      </c>
+      <c r="M48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F49" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G49" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H49" t="s">
-        <v>328</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K49" t="s">
-        <v>330</v>
+        <v>338</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="L49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>339</v>
+      </c>
+      <c r="M49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E50" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F50" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G50" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H50" t="s">
-        <v>334</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K50" t="s">
-        <v>336</v>
+        <v>344</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D51" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E51" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G51" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H51" t="s">
-        <v>340</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K51" t="s">
-        <v>343</v>
+        <v>351</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>353</v>
+      </c>
+      <c r="M51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E52" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F52" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K52" t="s">
-        <v>349</v>
+        <v>358</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="L52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E53" t="s">
+        <v>362</v>
+      </c>
+      <c r="F53" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" t="s">
+        <v>362</v>
+      </c>
+      <c r="H53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G53" t="s">
-        <v>352</v>
-      </c>
-      <c r="H53" t="s">
-        <v>353</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K53" t="s">
-        <v>355</v>
-      </c>
       <c r="L53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>365</v>
+      </c>
+      <c r="M53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E54" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F54" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H54" t="s">
-        <v>359</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K54" t="s">
-        <v>361</v>
+        <v>370</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="L54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>371</v>
+      </c>
+      <c r="M54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D55" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G55" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="H55" t="s">
-        <v>365</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
+      </c>
+      <c r="I55" t="s">
+        <v>376</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K55" t="s">
-        <v>367</v>
+        <v>377</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="L55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D56" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G56" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H56" t="s">
-        <v>371</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K56" t="s">
-        <v>374</v>
+        <v>383</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="L56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>385</v>
+      </c>
+      <c r="M56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E57" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G57" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="H57" t="s">
-        <v>378</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K57" t="s">
-        <v>380</v>
+        <v>390</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="L57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>391</v>
+      </c>
+      <c r="M57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E58" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F58" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H58" t="s">
+        <v>395</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K58" t="s">
-        <v>386</v>
-      </c>
       <c r="L58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>397</v>
+      </c>
+      <c r="M58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="F59" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G59" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H59" t="s">
-        <v>390</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K59" t="s">
-        <v>392</v>
+        <v>402</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="L59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>403</v>
+      </c>
+      <c r="M59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E60" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F60" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G60" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H60" t="s">
-        <v>396</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K60" t="s">
-        <v>398</v>
+        <v>408</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="L60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>409</v>
+      </c>
+      <c r="M60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
+      </c>
+      <c r="I61" t="s">
+        <v>414</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>417</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="1" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>410</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="I62"/>
       <c r="J62" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>411</v>
+        <v>422</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>423</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I63" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="L63" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>429</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>423</v>
+        <v>434</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>435</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>441</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D66" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F66" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G66" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H66" t="s">
-        <v>433</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K66" t="s">
-        <v>435</v>
+        <v>446</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>447</v>
+      </c>
+      <c r="M66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="E67" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F67" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G67" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H67" t="s">
-        <v>439</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K67" t="s">
-        <v>441</v>
+        <v>452</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>453</v>
+      </c>
+      <c r="M67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D68" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G68" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H68" t="s">
-        <v>445</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K68" t="s">
-        <v>447</v>
+        <v>458</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>459</v>
+      </c>
+      <c r="M68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="E69" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F69" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G69" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="H69" t="s">
-        <v>451</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K69" t="s">
-        <v>453</v>
+        <v>464</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>465</v>
+      </c>
+      <c r="M69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D70" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E70" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="F70" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G70" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H70" t="s">
-        <v>457</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K70" t="s">
-        <v>459</v>
+        <v>470</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>471</v>
+      </c>
+      <c r="M70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D71" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="E71" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="F71" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G71" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="H71" t="s">
-        <v>463</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K71" t="s">
-        <v>465</v>
+        <v>476</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>477</v>
+      </c>
+      <c r="M71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E72" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="H72" t="s">
-        <v>469</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K72" t="s">
-        <v>471</v>
+        <v>482</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>483</v>
+      </c>
+      <c r="M72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D73" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E73" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F73" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G73" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H73" t="s">
-        <v>475</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K73" t="s">
-        <v>477</v>
+        <v>488</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>489</v>
+      </c>
+      <c r="M73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D74" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="E74" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="F74" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G74" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="H74" t="s">
-        <v>481</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K74" t="s">
-        <v>483</v>
+        <v>494</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>495</v>
+      </c>
+      <c r="M74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D75" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="E75" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="F75" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G75" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H75" t="s">
-        <v>487</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K75" t="s">
-        <v>489</v>
+        <v>500</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="L75" t="s">
-        <v>150</v>
+        <v>501</v>
+      </c>
+      <c r="M75" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>nugua</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,29 +53,6 @@
           <t xml:space="preserve">
 填写不同位置对应的地图ID，格式为 位置：地图ID，多个之间逗号
 地图位置对应为 以中心点为0，周围12345678 共8个位置</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>nugua:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最小等级，最大等级
-</t>
         </r>
       </text>
     </comment>
@@ -102,7 +79,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="I3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>nugua:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最小等级，最大等级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="519">
   <si>
     <t>_Id</t>
   </si>
@@ -137,6 +137,9 @@
     <t>名字</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>进入等级要求</t>
   </si>
   <si>
@@ -1635,6 +1638,54 @@
   </si>
   <si>
     <t>10069</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>噩梦小村</t>
+  </si>
+  <si>
+    <t>红装</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>噩梦村外</t>
+  </si>
+  <si>
+    <t>10071</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>噩梦城外</t>
+  </si>
+  <si>
+    <t>10072</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>噩梦老城</t>
+  </si>
+  <si>
+    <t>10073</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>噩梦森林</t>
+  </si>
+  <si>
+    <t>10074</t>
   </si>
 </sst>
 </file>
@@ -1813,12 +1864,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2649,34 +2700,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N75"/>
+  <dimension ref="A3:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="M75" sqref="M75:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="109.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="66" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="45.25" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="12.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="109.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="66" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="45.25" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:15">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2704,23 +2755,26 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="3:14">
+      <c r="N3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="3:15">
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -2732,40 +2786,43 @@
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="3:14">
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="3:15">
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>22</v>
@@ -2774,39 +2831,42 @@
         <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:14">
+        <v>22</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="3:15">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
         <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>30</v>
       </c>
@@ -2814,28 +2874,31 @@
         <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:15">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
         <v>34</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -2850,62 +2913,68 @@
         <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:14">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:15">
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
         <v>43</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
         <v>46</v>
       </c>
+      <c r="J8"/>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:14">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:15">
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
         <v>50</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
         <v>53</v>
@@ -2920,96 +2989,105 @@
         <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:14">
+        <v>57</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:15">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
         <v>59</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
+      <c r="J10"/>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:14">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:15">
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
         <v>66</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
         <v>69</v>
       </c>
+      <c r="J11"/>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:14">
+        <v>71</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:15">
       <c r="C12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
         <v>73</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -3024,130 +3102,142 @@
         <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:14">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:15">
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
         <v>82</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
         <v>85</v>
       </c>
+      <c r="J13"/>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:14">
+        <v>87</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:15">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
         <v>89</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
         <v>92</v>
       </c>
+      <c r="J14"/>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:14">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:15">
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
         <v>96</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
         <v>99</v>
       </c>
+      <c r="J15"/>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:14">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:15">
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
         <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
         <v>106</v>
@@ -3162,130 +3252,142 @@
         <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:14">
+        <v>110</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:15">
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" t="s">
         <v>112</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
         <v>115</v>
       </c>
+      <c r="J17"/>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:14">
+        <v>117</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:15">
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
         <v>119</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s">
         <v>122</v>
       </c>
+      <c r="J18"/>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:14">
+        <v>124</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:15">
       <c r="C19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" t="s">
         <v>126</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" t="s">
         <v>129</v>
       </c>
+      <c r="J19"/>
       <c r="K19" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:14">
+        <v>131</v>
+      </c>
+      <c r="N19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:15">
       <c r="C20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
         <v>133</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
         <v>136</v>
@@ -3300,198 +3402,216 @@
         <v>139</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:14">
+        <v>140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:15">
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" t="s">
         <v>142</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" t="s">
         <v>145</v>
       </c>
+      <c r="J21"/>
       <c r="K21" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:14">
+        <v>147</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:15">
       <c r="C22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" t="s">
         <v>149</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
         <v>152</v>
       </c>
+      <c r="J22"/>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:14">
+        <v>154</v>
+      </c>
+      <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:15">
       <c r="C23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" t="s">
         <v>156</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23" t="s">
         <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
         <v>159</v>
       </c>
+      <c r="J23"/>
       <c r="K23" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s">
-        <v>156</v>
-      </c>
-      <c r="N23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:14">
+        <v>161</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:15">
       <c r="C24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" t="s">
         <v>163</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
         <v>166</v>
       </c>
+      <c r="J24"/>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s">
-        <v>156</v>
-      </c>
-      <c r="N24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:14">
+        <v>168</v>
+      </c>
+      <c r="N24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:15">
       <c r="C25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" t="s">
         <v>170</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" t="s">
         <v>173</v>
       </c>
+      <c r="J25"/>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s">
-        <v>156</v>
-      </c>
-      <c r="N25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:14">
+        <v>175</v>
+      </c>
+      <c r="N25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:15">
       <c r="C26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" t="s">
         <v>177</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
         <v>180</v>
@@ -3506,504 +3626,549 @@
         <v>183</v>
       </c>
       <c r="M26" t="s">
-        <v>156</v>
-      </c>
-      <c r="N26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:14">
+        <v>184</v>
+      </c>
+      <c r="N26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:15">
       <c r="C27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" t="s">
         <v>186</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" t="s">
         <v>189</v>
       </c>
+      <c r="J27"/>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s">
-        <v>156</v>
-      </c>
-      <c r="N27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:14">
+        <v>191</v>
+      </c>
+      <c r="N27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:15">
       <c r="C28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" t="s">
         <v>193</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28"/>
-      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" t="s">
         <v>196</v>
       </c>
+      <c r="J28"/>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s">
-        <v>156</v>
-      </c>
-      <c r="N28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:14">
+        <v>198</v>
+      </c>
+      <c r="N28" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:15">
       <c r="C29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" t="s">
         <v>200</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" t="s">
         <v>203</v>
       </c>
+      <c r="J29"/>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="M29" t="s">
-        <v>156</v>
-      </c>
-      <c r="N29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:14">
+        <v>205</v>
+      </c>
+      <c r="N29" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:15">
       <c r="C30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" t="s">
         <v>207</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" t="s">
         <v>210</v>
       </c>
+      <c r="J30"/>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s">
-        <v>156</v>
-      </c>
-      <c r="N30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:14">
+        <v>212</v>
+      </c>
+      <c r="N30" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:15">
       <c r="C31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" t="s">
         <v>214</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>216</v>
-      </c>
-      <c r="I31"/>
-      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" t="s">
         <v>217</v>
       </c>
+      <c r="J31"/>
       <c r="K31" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s">
-        <v>156</v>
-      </c>
-      <c r="N31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:14">
+        <v>219</v>
+      </c>
+      <c r="N31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:15">
       <c r="C32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
-      </c>
-      <c r="E32" t="s">
-        <v>220</v>
+        <v>207</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" t="s">
         <v>223</v>
       </c>
+      <c r="J32"/>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s">
-        <v>156</v>
-      </c>
-      <c r="N32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:14">
+        <v>225</v>
+      </c>
+      <c r="N32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:15">
       <c r="C33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" t="s">
         <v>227</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
-        <v>229</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" t="s">
         <v>230</v>
       </c>
+      <c r="J33"/>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s">
-        <v>156</v>
-      </c>
-      <c r="N33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:14">
+        <v>232</v>
+      </c>
+      <c r="N33" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:15">
       <c r="C34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" t="s">
         <v>234</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" t="s">
-        <v>236</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" t="s">
         <v>237</v>
       </c>
+      <c r="J34"/>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s">
-        <v>156</v>
-      </c>
-      <c r="N34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:14">
+        <v>239</v>
+      </c>
+      <c r="N34" t="s">
+        <v>157</v>
+      </c>
+      <c r="O34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:15">
       <c r="C35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" t="s">
         <v>241</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H35" t="s">
-        <v>243</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" t="s">
         <v>244</v>
       </c>
+      <c r="J35"/>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s">
-        <v>156</v>
-      </c>
-      <c r="N35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:14">
+        <v>246</v>
+      </c>
+      <c r="N35" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:15">
       <c r="C36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" t="s">
         <v>248</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" t="s">
         <v>251</v>
       </c>
+      <c r="J36"/>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s">
-        <v>156</v>
-      </c>
-      <c r="N36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:14">
+        <v>253</v>
+      </c>
+      <c r="N36" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:15">
       <c r="C37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" t="s">
         <v>255</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>256</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
-      </c>
-      <c r="I37"/>
-      <c r="J37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" t="s">
         <v>258</v>
       </c>
+      <c r="J37"/>
       <c r="K37" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="M37" t="s">
-        <v>156</v>
-      </c>
-      <c r="N37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:14">
+        <v>260</v>
+      </c>
+      <c r="N37" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:15">
       <c r="C38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" t="s">
         <v>262</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" t="s">
         <v>265</v>
       </c>
+      <c r="J38"/>
       <c r="K38" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="M38" t="s">
-        <v>156</v>
-      </c>
-      <c r="N38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:14">
+        <v>267</v>
+      </c>
+      <c r="N38" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:15">
       <c r="C39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" t="s">
         <v>269</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H39" t="s">
-        <v>271</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" t="s">
         <v>272</v>
       </c>
+      <c r="J39"/>
       <c r="K39" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s">
-        <v>156</v>
-      </c>
-      <c r="N39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:14">
+        <v>274</v>
+      </c>
+      <c r="N39" t="s">
+        <v>157</v>
+      </c>
+      <c r="O39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:15">
       <c r="C40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" t="s">
         <v>276</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>278</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40" t="s">
+        <v>277</v>
+      </c>
+      <c r="I40" t="s">
         <v>279</v>
       </c>
+      <c r="J40"/>
       <c r="K40" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="L40" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="M40" t="s">
-        <v>156</v>
-      </c>
-      <c r="N40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:14">
+        <v>281</v>
+      </c>
+      <c r="N40" t="s">
+        <v>157</v>
+      </c>
+      <c r="O40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:15">
       <c r="C41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" t="s">
         <v>283</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I41" t="s">
         <v>286</v>
@@ -4018,163 +4183,178 @@
         <v>289</v>
       </c>
       <c r="M41" t="s">
-        <v>156</v>
-      </c>
-      <c r="N41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:14">
+        <v>290</v>
+      </c>
+      <c r="N41" t="s">
+        <v>157</v>
+      </c>
+      <c r="O41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:15">
       <c r="C42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" t="s">
         <v>292</v>
       </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G42" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H42" t="s">
         <v>293</v>
       </c>
-      <c r="I42"/>
-      <c r="J42" t="s">
+      <c r="I42" t="s">
         <v>294</v>
       </c>
+      <c r="J42"/>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M42" t="s">
-        <v>156</v>
-      </c>
-      <c r="N42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:14">
+        <v>296</v>
+      </c>
+      <c r="N42" t="s">
+        <v>157</v>
+      </c>
+      <c r="O42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:15">
       <c r="C43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" t="s">
         <v>298</v>
       </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H43" t="s">
         <v>299</v>
       </c>
-      <c r="I43"/>
-      <c r="J43" t="s">
+      <c r="I43" t="s">
         <v>300</v>
       </c>
+      <c r="J43"/>
       <c r="K43" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M43" t="s">
-        <v>156</v>
-      </c>
-      <c r="N43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:14">
+        <v>302</v>
+      </c>
+      <c r="N43" t="s">
+        <v>157</v>
+      </c>
+      <c r="O43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:15">
       <c r="C44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E44" t="s">
         <v>304</v>
       </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="H44" t="s">
         <v>305</v>
       </c>
-      <c r="I44"/>
-      <c r="J44" t="s">
+      <c r="I44" t="s">
         <v>306</v>
       </c>
+      <c r="J44"/>
       <c r="K44" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="M44" t="s">
-        <v>156</v>
-      </c>
-      <c r="N44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:14">
+        <v>308</v>
+      </c>
+      <c r="N44" t="s">
+        <v>157</v>
+      </c>
+      <c r="O44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:15">
       <c r="C45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45" t="s">
         <v>310</v>
       </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
         <v>311</v>
       </c>
-      <c r="I45"/>
-      <c r="J45" t="s">
+      <c r="I45" t="s">
         <v>312</v>
       </c>
+      <c r="J45"/>
       <c r="K45" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s">
-        <v>156</v>
-      </c>
-      <c r="N45"/>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>314</v>
+      </c>
+      <c r="N45" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
-      </c>
-      <c r="E46" t="s">
         <v>316</v>
       </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
       <c r="F46" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="H46" t="s">
         <v>317</v>
@@ -4182,172 +4362,187 @@
       <c r="I46" t="s">
         <v>318</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" t="s">
         <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="7" t="s">
         <v>321</v>
       </c>
       <c r="M46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>322</v>
+      </c>
+      <c r="N46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
-      </c>
-      <c r="E47" t="s">
         <v>324</v>
       </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="H47" t="s">
         <v>325</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="I47" t="s">
         <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L47" t="s">
         <v>327</v>
       </c>
+      <c r="L47" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="M47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>328</v>
+      </c>
+      <c r="N47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D48" t="s">
-        <v>329</v>
-      </c>
-      <c r="E48" t="s">
         <v>330</v>
       </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
       <c r="F48" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="H48" t="s">
         <v>331</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="I48" t="s">
         <v>332</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L48" t="s">
         <v>333</v>
       </c>
+      <c r="L48" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="M48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>334</v>
+      </c>
+      <c r="N48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>335</v>
-      </c>
-      <c r="E49" t="s">
         <v>336</v>
       </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
       <c r="F49" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="G49" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="H49" t="s">
         <v>337</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="I49" t="s">
         <v>338</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L49" t="s">
         <v>339</v>
       </c>
+      <c r="L49" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="M49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>340</v>
+      </c>
+      <c r="N49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>341</v>
-      </c>
-      <c r="E50" t="s">
         <v>342</v>
       </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
       <c r="F50" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="G50" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="H50" t="s">
         <v>343</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="I50" t="s">
         <v>344</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L50" t="s">
         <v>345</v>
       </c>
+      <c r="L50" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="M50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>346</v>
+      </c>
+      <c r="N50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
-      </c>
-      <c r="E51" t="s">
         <v>348</v>
       </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
       <c r="F51" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="G51" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="H51" t="s">
         <v>349</v>
@@ -4355,138 +4550,150 @@
       <c r="I51" t="s">
         <v>350</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" t="s">
         <v>351</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="7" t="s">
         <v>353</v>
       </c>
       <c r="M51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>354</v>
+      </c>
+      <c r="N51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>355</v>
-      </c>
-      <c r="E52" t="s">
         <v>356</v>
       </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
       <c r="F52" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="G52" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="H52" t="s">
         <v>357</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="I52" t="s">
         <v>358</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L52" t="s">
         <v>359</v>
       </c>
+      <c r="L52" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="M52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>360</v>
+      </c>
+      <c r="N52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D53" t="s">
-        <v>361</v>
-      </c>
-      <c r="E53" t="s">
         <v>362</v>
       </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="G53" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="H53" t="s">
         <v>363</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="I53" t="s">
         <v>364</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L53" t="s">
         <v>365</v>
       </c>
+      <c r="L53" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="M53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>366</v>
+      </c>
+      <c r="N53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>367</v>
-      </c>
-      <c r="E54" t="s">
         <v>368</v>
       </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="G54" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="H54" t="s">
         <v>369</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="I54" t="s">
         <v>370</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L54" t="s">
         <v>371</v>
       </c>
+      <c r="L54" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="M54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>372</v>
+      </c>
+      <c r="N54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D55" t="s">
-        <v>373</v>
-      </c>
-      <c r="E55" t="s">
         <v>374</v>
       </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="G55" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="H55" t="s">
         <v>375</v>
@@ -4494,709 +4701,949 @@
       <c r="I55" t="s">
         <v>376</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" t="s">
         <v>377</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L55" t="s">
         <v>378</v>
       </c>
+      <c r="L55" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="M55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>379</v>
+      </c>
+      <c r="N55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D56" t="s">
-        <v>380</v>
-      </c>
-      <c r="E56" t="s">
         <v>381</v>
       </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="G56" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="H56" t="s">
         <v>382</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="I56" t="s">
         <v>383</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="7" t="s">
         <v>385</v>
       </c>
       <c r="M56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>386</v>
+      </c>
+      <c r="N56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
-      </c>
-      <c r="E57" t="s">
         <v>388</v>
       </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="G57" t="s">
-        <v>388</v>
+        <v>285</v>
       </c>
       <c r="H57" t="s">
         <v>389</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="I57" t="s">
         <v>390</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L57" t="s">
         <v>391</v>
       </c>
+      <c r="L57" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="M57" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>392</v>
+      </c>
+      <c r="N57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s">
-        <v>393</v>
-      </c>
-      <c r="E58" t="s">
         <v>394</v>
       </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
       <c r="F58" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="G58" t="s">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="H58" t="s">
         <v>395</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="I58" t="s">
         <v>396</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L58" t="s">
         <v>397</v>
       </c>
+      <c r="L58" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="M58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>398</v>
+      </c>
+      <c r="N58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
-      </c>
-      <c r="E59" t="s">
         <v>400</v>
       </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
       <c r="F59" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
-        <v>400</v>
+        <v>285</v>
       </c>
       <c r="H59" t="s">
         <v>401</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="I59" t="s">
         <v>402</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L59" t="s">
         <v>403</v>
       </c>
+      <c r="L59" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="M59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>404</v>
+      </c>
+      <c r="N59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E60" t="s">
         <v>406</v>
       </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
       <c r="F60" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="G60" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="H60" t="s">
         <v>407</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="I60" t="s">
         <v>408</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L60" t="s">
         <v>409</v>
       </c>
+      <c r="L60" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="M60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>410</v>
+      </c>
+      <c r="N60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E61" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>284</v>
+        <v>413</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" t="s">
         <v>415</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>418</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E62" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I62"/>
-      <c r="J62" s="8" t="s">
+      <c r="I62" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="J62"/>
       <c r="K62" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L62" s="1" t="s">
         <v>423</v>
       </c>
+      <c r="L62" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M62" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>424</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E63" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>426</v>
+        <v>285</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="I63" s="1" t="s">
         <v>428</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L63" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="L63" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M63" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>430</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E64" s="1" t="s">
         <v>432</v>
       </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>432</v>
+        <v>285</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="I64" s="1" t="s">
         <v>434</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L64" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="L64" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M64" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>436</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E65" s="1" t="s">
         <v>438</v>
       </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
       <c r="F65" s="1" t="s">
-        <v>284</v>
+        <v>439</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>438</v>
+        <v>285</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="I65" s="1" t="s">
         <v>440</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L65" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="L65" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M65" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>442</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D66" t="s">
-        <v>443</v>
-      </c>
-      <c r="E66" t="s">
         <v>444</v>
       </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="G66" t="s">
-        <v>444</v>
+        <v>285</v>
       </c>
       <c r="H66" t="s">
         <v>445</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="I66" t="s">
         <v>446</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L66" t="s">
         <v>447</v>
       </c>
+      <c r="L66" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M66" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>448</v>
+      </c>
+      <c r="N66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D67" t="s">
-        <v>449</v>
-      </c>
-      <c r="E67" t="s">
         <v>450</v>
       </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>451</v>
       </c>
       <c r="G67" t="s">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="H67" t="s">
         <v>451</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="I67" t="s">
         <v>452</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L67" t="s">
         <v>453</v>
       </c>
+      <c r="L67" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>454</v>
+      </c>
+      <c r="N67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D68" t="s">
-        <v>455</v>
-      </c>
-      <c r="E68" t="s">
         <v>456</v>
       </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="H68" t="s">
         <v>457</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="I68" t="s">
         <v>458</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L68" t="s">
         <v>459</v>
       </c>
+      <c r="L68" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>460</v>
+      </c>
+      <c r="N68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
-      </c>
-      <c r="E69" t="s">
         <v>462</v>
       </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>463</v>
       </c>
       <c r="G69" t="s">
-        <v>462</v>
+        <v>285</v>
       </c>
       <c r="H69" t="s">
         <v>463</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="I69" t="s">
         <v>464</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L69" t="s">
         <v>465</v>
       </c>
+      <c r="L69" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>466</v>
+      </c>
+      <c r="N69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D70" t="s">
-        <v>467</v>
-      </c>
-      <c r="E70" t="s">
         <v>468</v>
       </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
       <c r="F70" t="s">
-        <v>284</v>
+        <v>469</v>
       </c>
       <c r="G70" t="s">
-        <v>468</v>
+        <v>285</v>
       </c>
       <c r="H70" t="s">
         <v>469</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="I70" t="s">
         <v>470</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L70" t="s">
         <v>471</v>
       </c>
+      <c r="L70" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M70" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>472</v>
+      </c>
+      <c r="N70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D71" t="s">
-        <v>473</v>
-      </c>
-      <c r="E71" t="s">
         <v>474</v>
       </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>475</v>
       </c>
       <c r="G71" t="s">
-        <v>474</v>
+        <v>285</v>
       </c>
       <c r="H71" t="s">
         <v>475</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="I71" t="s">
         <v>476</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L71" t="s">
         <v>477</v>
       </c>
+      <c r="L71" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>478</v>
+      </c>
+      <c r="N71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D72" t="s">
-        <v>479</v>
-      </c>
-      <c r="E72" t="s">
         <v>480</v>
       </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
       <c r="F72" t="s">
-        <v>284</v>
+        <v>481</v>
       </c>
       <c r="G72" t="s">
-        <v>480</v>
+        <v>285</v>
       </c>
       <c r="H72" t="s">
         <v>481</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="I72" t="s">
         <v>482</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L72" t="s">
         <v>483</v>
       </c>
+      <c r="L72" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>484</v>
+      </c>
+      <c r="N72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D73" t="s">
-        <v>485</v>
-      </c>
-      <c r="E73" t="s">
         <v>486</v>
       </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
       <c r="F73" t="s">
-        <v>284</v>
+        <v>487</v>
       </c>
       <c r="G73" t="s">
-        <v>486</v>
+        <v>285</v>
       </c>
       <c r="H73" t="s">
         <v>487</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="I73" t="s">
         <v>488</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L73" t="s">
         <v>489</v>
       </c>
+      <c r="L73" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>490</v>
+      </c>
+      <c r="N73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D74" t="s">
-        <v>491</v>
-      </c>
-      <c r="E74" t="s">
         <v>492</v>
       </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
       <c r="F74" t="s">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="G74" t="s">
-        <v>492</v>
+        <v>285</v>
       </c>
       <c r="H74" t="s">
         <v>493</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="I74" t="s">
         <v>494</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L74" t="s">
         <v>495</v>
       </c>
+      <c r="L74" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>496</v>
+      </c>
+      <c r="N74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D75" t="s">
-        <v>497</v>
-      </c>
-      <c r="E75" t="s">
         <v>498</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
       <c r="G75" t="s">
-        <v>498</v>
+        <v>285</v>
       </c>
       <c r="H75" t="s">
         <v>499</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="I75" t="s">
         <v>500</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L75" t="s">
         <v>501</v>
       </c>
+      <c r="L75" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="M75" t="s">
-        <v>156</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" ht="24" customHeight="1" spans="3:15">
+      <c r="C76" t="s">
+        <v>503</v>
+      </c>
+      <c r="D76" t="s">
+        <v>504</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>505</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="M76" t="s">
+        <v>506</v>
+      </c>
+      <c r="N76" t="s">
+        <v>157</v>
+      </c>
+      <c r="O76"/>
+    </row>
+    <row r="77" ht="24" customHeight="1" spans="3:15">
+      <c r="C77" t="s">
+        <v>507</v>
+      </c>
+      <c r="D77" t="s">
+        <v>508</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="M77" t="s">
+        <v>509</v>
+      </c>
+      <c r="N77" t="s">
+        <v>157</v>
+      </c>
+      <c r="O77"/>
+    </row>
+    <row r="78" ht="24" customHeight="1" spans="3:15">
+      <c r="C78" t="s">
+        <v>510</v>
+      </c>
+      <c r="D78" t="s">
+        <v>511</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="M78" t="s">
+        <v>512</v>
+      </c>
+      <c r="N78" t="s">
+        <v>157</v>
+      </c>
+      <c r="O78"/>
+    </row>
+    <row r="79" ht="24" customHeight="1" spans="3:15">
+      <c r="C79" t="s">
+        <v>513</v>
+      </c>
+      <c r="D79" t="s">
+        <v>514</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="M79" t="s">
+        <v>515</v>
+      </c>
+      <c r="N79" t="s">
+        <v>157</v>
+      </c>
+      <c r="O79"/>
+    </row>
+    <row r="80" ht="24" customHeight="1" spans="3:15">
+      <c r="C80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D80" t="s">
+        <v>517</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="M80" t="s">
+        <v>518</v>
+      </c>
+      <c r="N80" t="s">
+        <v>157</v>
+      </c>
+      <c r="O80"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C80 C81:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="524">
   <si>
     <t>_Id</t>
   </si>
@@ -1649,6 +1649,9 @@
     <t>红装</t>
   </si>
   <si>
+    <t>200750,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
     <t>10070</t>
   </si>
   <si>
@@ -1658,6 +1661,9 @@
     <t>噩梦村外</t>
   </si>
   <si>
+    <t>200751,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
     <t>10071</t>
   </si>
   <si>
@@ -1667,6 +1673,9 @@
     <t>噩梦城外</t>
   </si>
   <si>
+    <t>200752,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
     <t>10072</t>
   </si>
   <si>
@@ -1676,6 +1685,9 @@
     <t>噩梦老城</t>
   </si>
   <si>
+    <t>200753,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+  </si>
+  <si>
     <t>10073</t>
   </si>
   <si>
@@ -1683,6 +1695,9 @@
   </si>
   <si>
     <t>噩梦森林</t>
+  </si>
+  <si>
+    <t>200754,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
     <t>10074</t>
@@ -1864,12 +1879,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2703,11 +2718,11 @@
   <dimension ref="A3:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M75" sqref="M75:M80"/>
+      <selection pane="bottomRight" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5485,13 +5500,13 @@
         <v>505</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M76" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N76" t="s">
         <v>157</v>
@@ -5500,10 +5515,10 @@
     </row>
     <row r="77" ht="24" customHeight="1" spans="3:15">
       <c r="C77" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D77" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -5520,13 +5535,13 @@
       </c>
       <c r="J77"/>
       <c r="K77" s="8" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M77" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="N77" t="s">
         <v>157</v>
@@ -5535,10 +5550,10 @@
     </row>
     <row r="78" ht="24" customHeight="1" spans="3:15">
       <c r="C78" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D78" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -5555,13 +5570,13 @@
       </c>
       <c r="J78"/>
       <c r="K78" s="8" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M78" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="N78" t="s">
         <v>157</v>
@@ -5570,10 +5585,10 @@
     </row>
     <row r="79" ht="24" customHeight="1" spans="3:15">
       <c r="C79" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D79" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -5590,13 +5605,13 @@
       </c>
       <c r="J79"/>
       <c r="K79" s="8" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M79" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N79" t="s">
         <v>157</v>
@@ -5605,10 +5620,10 @@
     </row>
     <row r="80" ht="24" customHeight="1" spans="3:15">
       <c r="C80" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D80" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -5625,13 +5640,13 @@
       </c>
       <c r="J80"/>
       <c r="K80" s="8" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M80" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="N80" t="s">
         <v>157</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>nugua</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,29 +53,6 @@
           <t xml:space="preserve">
 填写不同位置对应的地图ID，格式为 位置：地图ID，多个之间逗号
 地图位置对应为 以中心点为0，周围12345678 共8个位置</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>nugua:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最小等级，最大等级
-</t>
         </r>
       </text>
     </comment>
@@ -102,7 +79,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="J3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>nugua:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最小等级，最大等级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,17 +129,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="521">
   <si>
     <t>_Id</t>
   </si>
   <si>
-    <t>名字</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Level</t>
   </si>
   <si>
+    <t>Layer</t>
+  </si>
+  <si>
     <t>进入等级要求</t>
   </si>
   <si>
@@ -158,21 +161,15 @@
     <t>地图Id掉落</t>
   </si>
   <si>
-    <t>掉落概率列表</t>
+    <t>DropRateList</t>
   </si>
   <si>
     <t>BossId</t>
   </si>
   <si>
-    <t>刷新间隔分钟</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>LevelRequired</t>
   </si>
   <si>
@@ -188,13 +185,7 @@
     <t>DropIdList</t>
   </si>
   <si>
-    <t>DropRateList</t>
-  </si>
-  <si>
     <t>BoosId</t>
-  </si>
-  <si>
-    <t>BossInterval</t>
   </si>
   <si>
     <t>int</t>
@@ -2344,7 +2335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2352,6 +2343,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2718,26 +2710,26 @@
   <dimension ref="A3:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomRight" activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="109.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="66" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="87.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="74.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="45.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
@@ -2773,10 +2765,10 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="4"/>
@@ -2786,1570 +2778,1570 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="3:15">
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6"/>
+      <c r="L6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:15">
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:15">
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="K8"/>
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" t="s">
-        <v>44</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:15">
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
         <v>50</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:15">
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="K10"/>
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:15">
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="K11"/>
+      <c r="L11" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
         <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" t="s">
-        <v>67</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:15">
       <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
         <v>73</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>76</v>
       </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>74</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:15">
       <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="K13"/>
+      <c r="L13" t="s">
         <v>83</v>
       </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
         <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
       </c>
       <c r="O13"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:15">
       <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" t="s">
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
         <v>89</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="K14"/>
+      <c r="L14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" t="s">
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" t="s">
         <v>91</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
       </c>
       <c r="O14"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:15">
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
         <v>96</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="K15"/>
+      <c r="L15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="M15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" t="s">
         <v>98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" t="s">
-        <v>97</v>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:15">
       <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
         <v>103</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="K16" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s">
+      <c r="L16" t="s">
         <v>105</v>
       </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>106</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" t="s">
-        <v>104</v>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:15">
       <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="s">
         <v>112</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="K17"/>
+      <c r="L17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" t="s">
         <v>114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" t="s">
-        <v>113</v>
       </c>
       <c r="O17"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:15">
       <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
         <v>119</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="K18"/>
+      <c r="L18" t="s">
         <v>120</v>
       </c>
-      <c r="G18" t="s">
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
         <v>121</v>
-      </c>
-      <c r="H18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" t="s">
-        <v>120</v>
       </c>
       <c r="O18"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:15">
       <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
         <v>125</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
         <v>126</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="K19"/>
+      <c r="L19" t="s">
         <v>127</v>
       </c>
-      <c r="G19" t="s">
+      <c r="M19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" t="s">
         <v>128</v>
-      </c>
-      <c r="H19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" t="s">
-        <v>127</v>
       </c>
       <c r="O19"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:15">
       <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s">
         <v>133</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="K20" t="s">
         <v>134</v>
       </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
         <v>135</v>
       </c>
-      <c r="H20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>136</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" t="s">
-        <v>140</v>
-      </c>
-      <c r="N20" t="s">
-        <v>134</v>
       </c>
       <c r="O20"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:15">
       <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
         <v>142</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="K21"/>
+      <c r="L21" t="s">
         <v>143</v>
       </c>
-      <c r="G21" t="s">
+      <c r="M21" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" t="s">
         <v>144</v>
-      </c>
-      <c r="H21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" t="s">
-        <v>145</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" t="s">
-        <v>143</v>
       </c>
       <c r="O21"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:15">
       <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
         <v>148</v>
       </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" t="s">
         <v>149</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="K22"/>
+      <c r="L22" t="s">
         <v>150</v>
       </c>
-      <c r="G22" t="s">
+      <c r="M22" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" t="s">
         <v>151</v>
-      </c>
-      <c r="H22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" t="s">
-        <v>139</v>
-      </c>
-      <c r="M22" t="s">
-        <v>154</v>
-      </c>
-      <c r="N22" t="s">
-        <v>150</v>
       </c>
       <c r="O22"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:15">
       <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
         <v>155</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
         <v>156</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="K23"/>
+      <c r="L23" t="s">
         <v>157</v>
       </c>
-      <c r="G23" t="s">
+      <c r="M23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" t="s">
         <v>158</v>
-      </c>
-      <c r="H23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" t="s">
-        <v>139</v>
-      </c>
-      <c r="M23" t="s">
-        <v>161</v>
-      </c>
-      <c r="N23" t="s">
-        <v>157</v>
       </c>
       <c r="O23"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:15">
       <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" t="s">
         <v>162</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" t="s">
         <v>163</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="K24"/>
+      <c r="L24" t="s">
         <v>164</v>
       </c>
-      <c r="G24" t="s">
+      <c r="M24" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" t="s">
         <v>165</v>
-      </c>
-      <c r="H24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" t="s">
-        <v>166</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" t="s">
-        <v>168</v>
-      </c>
-      <c r="N24" t="s">
-        <v>157</v>
       </c>
       <c r="O24"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:15">
       <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
         <v>169</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
         <v>170</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="K25"/>
+      <c r="L25" t="s">
         <v>171</v>
       </c>
-      <c r="G25" t="s">
+      <c r="M25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N25" t="s">
         <v>172</v>
-      </c>
-      <c r="H25" t="s">
-        <v>171</v>
-      </c>
-      <c r="I25" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M25" t="s">
-        <v>175</v>
-      </c>
-      <c r="N25" t="s">
-        <v>157</v>
       </c>
       <c r="O25"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:15">
       <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" t="s">
         <v>176</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
         <v>177</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="K26" t="s">
         <v>178</v>
       </c>
-      <c r="G26" t="s">
+      <c r="L26" t="s">
         <v>179</v>
       </c>
-      <c r="H26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>180</v>
       </c>
-      <c r="J26" t="s">
+      <c r="N26" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" t="s">
-        <v>183</v>
-      </c>
-      <c r="M26" t="s">
-        <v>184</v>
-      </c>
-      <c r="N26" t="s">
-        <v>157</v>
       </c>
       <c r="O26"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:15">
       <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
         <v>185</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
         <v>186</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="K27"/>
+      <c r="L27" t="s">
         <v>187</v>
       </c>
-      <c r="G27" t="s">
+      <c r="M27" t="s">
+        <v>180</v>
+      </c>
+      <c r="N27" t="s">
         <v>188</v>
-      </c>
-      <c r="H27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I27" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" t="s">
-        <v>191</v>
-      </c>
-      <c r="N27" t="s">
-        <v>157</v>
       </c>
       <c r="O27"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:15">
       <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" t="s">
         <v>192</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
         <v>193</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="K28"/>
+      <c r="L28" t="s">
         <v>194</v>
       </c>
-      <c r="G28" t="s">
+      <c r="M28" t="s">
+        <v>180</v>
+      </c>
+      <c r="N28" t="s">
         <v>195</v>
-      </c>
-      <c r="H28" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" t="s">
-        <v>196</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28" t="s">
-        <v>197</v>
-      </c>
-      <c r="L28" t="s">
-        <v>183</v>
-      </c>
-      <c r="M28" t="s">
-        <v>198</v>
-      </c>
-      <c r="N28" t="s">
-        <v>157</v>
       </c>
       <c r="O28"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:15">
       <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
         <v>199</v>
       </c>
-      <c r="D29" t="s">
+      <c r="I29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" t="s">
         <v>200</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="K29"/>
+      <c r="L29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
+      <c r="M29" t="s">
+        <v>180</v>
+      </c>
+      <c r="N29" t="s">
         <v>202</v>
-      </c>
-      <c r="H29" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29" t="s">
-        <v>204</v>
-      </c>
-      <c r="L29" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29" t="s">
-        <v>205</v>
-      </c>
-      <c r="N29" t="s">
-        <v>157</v>
       </c>
       <c r="O29"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:15">
       <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
         <v>206</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
         <v>207</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="K30"/>
+      <c r="L30" t="s">
         <v>208</v>
       </c>
-      <c r="G30" t="s">
+      <c r="M30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N30" t="s">
         <v>209</v>
-      </c>
-      <c r="H30" t="s">
-        <v>208</v>
-      </c>
-      <c r="I30" t="s">
-        <v>210</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" t="s">
-        <v>183</v>
-      </c>
-      <c r="M30" t="s">
-        <v>212</v>
-      </c>
-      <c r="N30" t="s">
-        <v>157</v>
       </c>
       <c r="O30"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:15">
       <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="D31" t="s">
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" t="s">
         <v>214</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="K31"/>
+      <c r="L31" t="s">
         <v>215</v>
       </c>
-      <c r="G31" t="s">
+      <c r="M31" t="s">
+        <v>180</v>
+      </c>
+      <c r="N31" t="s">
         <v>216</v>
-      </c>
-      <c r="H31" t="s">
-        <v>215</v>
-      </c>
-      <c r="I31" t="s">
-        <v>217</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" t="s">
-        <v>183</v>
-      </c>
-      <c r="M31" t="s">
-        <v>219</v>
-      </c>
-      <c r="N31" t="s">
-        <v>157</v>
       </c>
       <c r="O31"/>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:15">
       <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" t="s">
         <v>220</v>
       </c>
-      <c r="D32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="K32"/>
+      <c r="L32" t="s">
         <v>221</v>
       </c>
-      <c r="G32" t="s">
+      <c r="M32" t="s">
+        <v>180</v>
+      </c>
+      <c r="N32" t="s">
         <v>222</v>
-      </c>
-      <c r="H32" t="s">
-        <v>221</v>
-      </c>
-      <c r="I32" t="s">
-        <v>223</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" t="s">
-        <v>225</v>
-      </c>
-      <c r="N32" t="s">
-        <v>157</v>
       </c>
       <c r="O32"/>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:15">
       <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" t="s">
         <v>226</v>
       </c>
-      <c r="D33" t="s">
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" t="s">
         <v>227</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="K33"/>
+      <c r="L33" t="s">
         <v>228</v>
       </c>
-      <c r="G33" t="s">
+      <c r="M33" t="s">
+        <v>180</v>
+      </c>
+      <c r="N33" t="s">
         <v>229</v>
-      </c>
-      <c r="H33" t="s">
-        <v>228</v>
-      </c>
-      <c r="I33" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L33" t="s">
-        <v>183</v>
-      </c>
-      <c r="M33" t="s">
-        <v>232</v>
-      </c>
-      <c r="N33" t="s">
-        <v>157</v>
       </c>
       <c r="O33"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:15">
       <c r="C34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" t="s">
         <v>233</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I34" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" t="s">
         <v>234</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="K34"/>
+      <c r="L34" t="s">
         <v>235</v>
       </c>
-      <c r="G34" t="s">
+      <c r="M34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" t="s">
         <v>236</v>
-      </c>
-      <c r="H34" t="s">
-        <v>235</v>
-      </c>
-      <c r="I34" t="s">
-        <v>237</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34" t="s">
-        <v>238</v>
-      </c>
-      <c r="L34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M34" t="s">
-        <v>239</v>
-      </c>
-      <c r="N34" t="s">
-        <v>157</v>
       </c>
       <c r="O34"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:15">
       <c r="C35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" t="s">
         <v>240</v>
       </c>
-      <c r="D35" t="s">
+      <c r="I35" t="s">
+        <v>239</v>
+      </c>
+      <c r="J35" t="s">
         <v>241</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="K35"/>
+      <c r="L35" t="s">
         <v>242</v>
       </c>
-      <c r="G35" t="s">
+      <c r="M35" t="s">
+        <v>180</v>
+      </c>
+      <c r="N35" t="s">
         <v>243</v>
-      </c>
-      <c r="H35" t="s">
-        <v>242</v>
-      </c>
-      <c r="I35" t="s">
-        <v>244</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35" t="s">
-        <v>245</v>
-      </c>
-      <c r="L35" t="s">
-        <v>183</v>
-      </c>
-      <c r="M35" t="s">
-        <v>246</v>
-      </c>
-      <c r="N35" t="s">
-        <v>157</v>
       </c>
       <c r="O35"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:15">
       <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" t="s">
         <v>247</v>
       </c>
-      <c r="D36" t="s">
+      <c r="I36" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" t="s">
         <v>248</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="K36"/>
+      <c r="L36" t="s">
         <v>249</v>
       </c>
-      <c r="G36" t="s">
+      <c r="M36" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" t="s">
         <v>250</v>
-      </c>
-      <c r="H36" t="s">
-        <v>249</v>
-      </c>
-      <c r="I36" t="s">
-        <v>251</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" t="s">
-        <v>183</v>
-      </c>
-      <c r="M36" t="s">
-        <v>253</v>
-      </c>
-      <c r="N36" t="s">
-        <v>157</v>
       </c>
       <c r="O36"/>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:15">
       <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H37" t="s">
         <v>254</v>
       </c>
-      <c r="D37" t="s">
+      <c r="I37" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" t="s">
         <v>255</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="K37"/>
+      <c r="L37" t="s">
         <v>256</v>
       </c>
-      <c r="G37" t="s">
+      <c r="M37" t="s">
+        <v>180</v>
+      </c>
+      <c r="N37" t="s">
         <v>257</v>
-      </c>
-      <c r="H37" t="s">
-        <v>256</v>
-      </c>
-      <c r="I37" t="s">
-        <v>258</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37" t="s">
-        <v>259</v>
-      </c>
-      <c r="L37" t="s">
-        <v>183</v>
-      </c>
-      <c r="M37" t="s">
-        <v>260</v>
-      </c>
-      <c r="N37" t="s">
-        <v>157</v>
       </c>
       <c r="O37"/>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:15">
       <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" t="s">
         <v>261</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" t="s">
         <v>262</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="K38"/>
+      <c r="L38" t="s">
         <v>263</v>
       </c>
-      <c r="G38" t="s">
+      <c r="M38" t="s">
+        <v>180</v>
+      </c>
+      <c r="N38" t="s">
         <v>264</v>
-      </c>
-      <c r="H38" t="s">
-        <v>263</v>
-      </c>
-      <c r="I38" t="s">
-        <v>265</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38" t="s">
-        <v>266</v>
-      </c>
-      <c r="L38" t="s">
-        <v>183</v>
-      </c>
-      <c r="M38" t="s">
-        <v>267</v>
-      </c>
-      <c r="N38" t="s">
-        <v>157</v>
       </c>
       <c r="O38"/>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:15">
       <c r="C39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" t="s">
         <v>268</v>
       </c>
-      <c r="D39" t="s">
+      <c r="I39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" t="s">
         <v>269</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="K39"/>
+      <c r="L39" t="s">
         <v>270</v>
       </c>
-      <c r="G39" t="s">
+      <c r="M39" t="s">
+        <v>180</v>
+      </c>
+      <c r="N39" t="s">
         <v>271</v>
-      </c>
-      <c r="H39" t="s">
-        <v>270</v>
-      </c>
-      <c r="I39" t="s">
-        <v>272</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39" t="s">
-        <v>273</v>
-      </c>
-      <c r="L39" t="s">
-        <v>183</v>
-      </c>
-      <c r="M39" t="s">
-        <v>274</v>
-      </c>
-      <c r="N39" t="s">
-        <v>157</v>
       </c>
       <c r="O39"/>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:15">
       <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" t="s">
         <v>275</v>
       </c>
-      <c r="D40" t="s">
+      <c r="I40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" t="s">
         <v>276</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="K40"/>
+      <c r="L40" t="s">
         <v>277</v>
       </c>
-      <c r="G40" t="s">
+      <c r="M40" t="s">
+        <v>180</v>
+      </c>
+      <c r="N40" t="s">
         <v>278</v>
-      </c>
-      <c r="H40" t="s">
-        <v>277</v>
-      </c>
-      <c r="I40" t="s">
-        <v>279</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40" t="s">
-        <v>280</v>
-      </c>
-      <c r="L40" t="s">
-        <v>183</v>
-      </c>
-      <c r="M40" t="s">
-        <v>281</v>
-      </c>
-      <c r="N40" t="s">
-        <v>157</v>
       </c>
       <c r="O40"/>
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:15">
       <c r="C41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" t="s">
         <v>282</v>
       </c>
-      <c r="D41" t="s">
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
         <v>283</v>
       </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="K41" t="s">
         <v>284</v>
       </c>
-      <c r="G41" t="s">
+      <c r="L41" t="s">
         <v>285</v>
       </c>
-      <c r="H41" t="s">
-        <v>284</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="M41" t="s">
         <v>286</v>
       </c>
-      <c r="J41" t="s">
+      <c r="N41" t="s">
         <v>287</v>
-      </c>
-      <c r="K41" t="s">
-        <v>288</v>
-      </c>
-      <c r="L41" t="s">
-        <v>289</v>
-      </c>
-      <c r="M41" t="s">
-        <v>290</v>
-      </c>
-      <c r="N41" t="s">
-        <v>157</v>
       </c>
       <c r="O41"/>
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:15">
       <c r="C42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" t="s">
+        <v>282</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
         <v>291</v>
       </c>
-      <c r="D42" t="s">
+      <c r="K42"/>
+      <c r="L42" t="s">
         <v>292</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="M42" t="s">
+        <v>286</v>
+      </c>
+      <c r="N42" t="s">
         <v>293</v>
-      </c>
-      <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="H42" t="s">
-        <v>293</v>
-      </c>
-      <c r="I42" t="s">
-        <v>294</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" t="s">
-        <v>295</v>
-      </c>
-      <c r="L42" t="s">
-        <v>289</v>
-      </c>
-      <c r="M42" t="s">
-        <v>296</v>
-      </c>
-      <c r="N42" t="s">
-        <v>157</v>
       </c>
       <c r="O42"/>
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:15">
       <c r="C43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" t="s">
+        <v>282</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" t="s">
         <v>297</v>
       </c>
-      <c r="D43" t="s">
+      <c r="K43"/>
+      <c r="L43" t="s">
         <v>298</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="M43" t="s">
+        <v>286</v>
+      </c>
+      <c r="N43" t="s">
         <v>299</v>
-      </c>
-      <c r="G43" t="s">
-        <v>285</v>
-      </c>
-      <c r="H43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I43" t="s">
-        <v>300</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L43" t="s">
-        <v>289</v>
-      </c>
-      <c r="M43" t="s">
-        <v>302</v>
-      </c>
-      <c r="N43" t="s">
-        <v>157</v>
       </c>
       <c r="O43"/>
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:15">
       <c r="C44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>302</v>
+      </c>
+      <c r="H44" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
         <v>303</v>
       </c>
-      <c r="D44" t="s">
+      <c r="K44"/>
+      <c r="L44" t="s">
         <v>304</v>
       </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="M44" t="s">
+        <v>286</v>
+      </c>
+      <c r="N44" t="s">
         <v>305</v>
-      </c>
-      <c r="G44" t="s">
-        <v>285</v>
-      </c>
-      <c r="H44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I44" t="s">
-        <v>306</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44" t="s">
-        <v>307</v>
-      </c>
-      <c r="L44" t="s">
-        <v>289</v>
-      </c>
-      <c r="M44" t="s">
-        <v>308</v>
-      </c>
-      <c r="N44" t="s">
-        <v>157</v>
       </c>
       <c r="O44"/>
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:15">
       <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" t="s">
+        <v>282</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
         <v>309</v>
       </c>
-      <c r="D45" t="s">
+      <c r="K45"/>
+      <c r="L45" t="s">
         <v>310</v>
       </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="M45" t="s">
+        <v>286</v>
+      </c>
+      <c r="N45" t="s">
         <v>311</v>
-      </c>
-      <c r="G45" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" t="s">
-        <v>311</v>
-      </c>
-      <c r="I45" t="s">
-        <v>312</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45" t="s">
-        <v>313</v>
-      </c>
-      <c r="L45" t="s">
-        <v>289</v>
-      </c>
-      <c r="M45" t="s">
-        <v>314</v>
-      </c>
-      <c r="N45" t="s">
-        <v>157</v>
       </c>
       <c r="O45"/>
     </row>
@@ -4357,1299 +4349,1299 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
         <v>315</v>
       </c>
-      <c r="D46" t="s">
+      <c r="K46" t="s">
         <v>316</v>
       </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="L46" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G46" t="s">
-        <v>285</v>
-      </c>
-      <c r="H46" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="M46" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="J46" t="s">
+      <c r="N46" t="s">
         <v>319</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M46" t="s">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>322</v>
+      </c>
+      <c r="H47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47" t="s">
+        <v>322</v>
+      </c>
+      <c r="J47" t="s">
         <v>323</v>
       </c>
-      <c r="D47" t="s">
+      <c r="L47" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="M47" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N47" t="s">
         <v>325</v>
-      </c>
-      <c r="G47" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" t="s">
-        <v>325</v>
-      </c>
-      <c r="I47" t="s">
-        <v>326</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M47" t="s">
-        <v>328</v>
-      </c>
-      <c r="N47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>328</v>
+      </c>
+      <c r="H48" t="s">
+        <v>282</v>
+      </c>
+      <c r="I48" t="s">
+        <v>328</v>
+      </c>
+      <c r="J48" t="s">
         <v>329</v>
       </c>
-      <c r="D48" t="s">
+      <c r="L48" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="M48" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N48" t="s">
         <v>331</v>
-      </c>
-      <c r="G48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H48" t="s">
-        <v>331</v>
-      </c>
-      <c r="I48" t="s">
-        <v>332</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M48" t="s">
-        <v>334</v>
-      </c>
-      <c r="N48" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>334</v>
+      </c>
+      <c r="H49" t="s">
+        <v>282</v>
+      </c>
+      <c r="I49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" t="s">
         <v>335</v>
       </c>
-      <c r="D49" t="s">
+      <c r="L49" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="M49" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N49" t="s">
         <v>337</v>
-      </c>
-      <c r="G49" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" t="s">
-        <v>337</v>
-      </c>
-      <c r="I49" t="s">
-        <v>338</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M49" t="s">
-        <v>340</v>
-      </c>
-      <c r="N49" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" t="s">
+        <v>282</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
         <v>341</v>
       </c>
-      <c r="D50" t="s">
+      <c r="L50" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="M50" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N50" t="s">
         <v>343</v>
-      </c>
-      <c r="G50" t="s">
-        <v>285</v>
-      </c>
-      <c r="H50" t="s">
-        <v>343</v>
-      </c>
-      <c r="I50" t="s">
-        <v>344</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M50" t="s">
-        <v>346</v>
-      </c>
-      <c r="N50" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>346</v>
+      </c>
+      <c r="H51" t="s">
+        <v>282</v>
+      </c>
+      <c r="I51" t="s">
+        <v>346</v>
+      </c>
+      <c r="J51" t="s">
         <v>347</v>
       </c>
-      <c r="D51" t="s">
+      <c r="K51" t="s">
         <v>348</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="L51" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="G51" t="s">
-        <v>285</v>
-      </c>
-      <c r="H51" t="s">
-        <v>349</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="M51" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="J51" t="s">
+      <c r="N51" t="s">
         <v>351</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M51" t="s">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>354</v>
+      </c>
+      <c r="H52" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" t="s">
         <v>355</v>
       </c>
-      <c r="D52" t="s">
+      <c r="L52" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="M52" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="N52" t="s">
         <v>357</v>
-      </c>
-      <c r="G52" t="s">
-        <v>285</v>
-      </c>
-      <c r="H52" t="s">
-        <v>357</v>
-      </c>
-      <c r="I52" t="s">
-        <v>358</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M52" t="s">
-        <v>360</v>
-      </c>
-      <c r="N52" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>360</v>
+      </c>
+      <c r="H53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" t="s">
         <v>361</v>
       </c>
-      <c r="D53" t="s">
+      <c r="L53" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="M53" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="N53" t="s">
         <v>363</v>
-      </c>
-      <c r="G53" t="s">
-        <v>285</v>
-      </c>
-      <c r="H53" t="s">
-        <v>363</v>
-      </c>
-      <c r="I53" t="s">
-        <v>364</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M53" t="s">
-        <v>366</v>
-      </c>
-      <c r="N53" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
+        <v>364</v>
+      </c>
+      <c r="D54" t="s">
+        <v>365</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>366</v>
+      </c>
+      <c r="H54" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
         <v>367</v>
       </c>
-      <c r="D54" t="s">
+      <c r="L54" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="M54" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="N54" t="s">
         <v>369</v>
-      </c>
-      <c r="G54" t="s">
-        <v>285</v>
-      </c>
-      <c r="H54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I54" t="s">
-        <v>370</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M54" t="s">
-        <v>372</v>
-      </c>
-      <c r="N54" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
+        <v>370</v>
+      </c>
+      <c r="D55" t="s">
+        <v>371</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H55" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55" t="s">
+        <v>372</v>
+      </c>
+      <c r="J55" t="s">
         <v>373</v>
       </c>
-      <c r="D55" t="s">
+      <c r="K55" t="s">
         <v>374</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="L55" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="G55" t="s">
-        <v>285</v>
-      </c>
-      <c r="H55" t="s">
-        <v>375</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="M55" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="N55" t="s">
         <v>376</v>
-      </c>
-      <c r="J55" t="s">
-        <v>377</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M55" t="s">
-        <v>379</v>
-      </c>
-      <c r="N55" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>379</v>
+      </c>
+      <c r="H56" t="s">
+        <v>282</v>
+      </c>
+      <c r="I56" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" t="s">
         <v>380</v>
       </c>
-      <c r="D56" t="s">
+      <c r="L56" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="M56" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="G56" t="s">
-        <v>285</v>
-      </c>
-      <c r="H56" t="s">
-        <v>382</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="N56" t="s">
         <v>383</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M56" t="s">
-        <v>386</v>
-      </c>
-      <c r="N56" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
+        <v>384</v>
+      </c>
+      <c r="D57" t="s">
+        <v>385</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>386</v>
+      </c>
+      <c r="H57" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" t="s">
         <v>387</v>
       </c>
-      <c r="D57" t="s">
+      <c r="L57" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="M57" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N57" t="s">
         <v>389</v>
-      </c>
-      <c r="G57" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" t="s">
-        <v>389</v>
-      </c>
-      <c r="I57" t="s">
-        <v>390</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M57" t="s">
-        <v>392</v>
-      </c>
-      <c r="N57" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>392</v>
+      </c>
+      <c r="H58" t="s">
+        <v>282</v>
+      </c>
+      <c r="I58" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
         <v>393</v>
       </c>
-      <c r="D58" t="s">
+      <c r="L58" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="M58" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N58" t="s">
         <v>395</v>
-      </c>
-      <c r="G58" t="s">
-        <v>285</v>
-      </c>
-      <c r="H58" t="s">
-        <v>395</v>
-      </c>
-      <c r="I58" t="s">
-        <v>396</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M58" t="s">
-        <v>398</v>
-      </c>
-      <c r="N58" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" t="s">
+        <v>397</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>398</v>
+      </c>
+      <c r="H59" t="s">
+        <v>282</v>
+      </c>
+      <c r="I59" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" t="s">
         <v>399</v>
       </c>
-      <c r="D59" t="s">
+      <c r="L59" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="M59" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N59" t="s">
         <v>401</v>
-      </c>
-      <c r="G59" t="s">
-        <v>285</v>
-      </c>
-      <c r="H59" t="s">
-        <v>401</v>
-      </c>
-      <c r="I59" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M59" t="s">
-        <v>404</v>
-      </c>
-      <c r="N59" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
+        <v>402</v>
+      </c>
+      <c r="D60" t="s">
+        <v>403</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>404</v>
+      </c>
+      <c r="H60" t="s">
+        <v>282</v>
+      </c>
+      <c r="I60" t="s">
+        <v>404</v>
+      </c>
+      <c r="J60" t="s">
         <v>405</v>
       </c>
-      <c r="D60" t="s">
+      <c r="L60" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="M60" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N60" t="s">
         <v>407</v>
       </c>
-      <c r="G60" t="s">
-        <v>285</v>
-      </c>
-      <c r="H60" t="s">
-        <v>407</v>
-      </c>
-      <c r="I60" t="s">
+    </row>
+    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="D61" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="N60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="K61" t="s">
         <v>412</v>
       </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="L61" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="M61" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="J61" t="s">
+      <c r="N61" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K61" s="8" t="s">
+    </row>
+    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="D62" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="1" t="s">
+      <c r="H62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="K62"/>
+      <c r="L62" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="M62" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I62" s="1" t="s">
+    </row>
+    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J62"/>
-      <c r="K62" s="8" t="s">
+      <c r="D63" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M62" s="1" t="s">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="L63" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="M63" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I63" s="1" t="s">
+    </row>
+    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="D64" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L63" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="1" t="s">
+      <c r="H64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="L64" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="M64" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I64" s="1" t="s">
+    </row>
+    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="D65" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L64" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M64" s="1" t="s">
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="1" t="s">
+      <c r="H65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="L65" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="M65" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" t="s">
+        <v>441</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>442</v>
+      </c>
+      <c r="H66" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" t="s">
+        <v>442</v>
+      </c>
+      <c r="J66" t="s">
         <v>443</v>
       </c>
-      <c r="D66" t="s">
+      <c r="L66" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="M66" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N66" t="s">
         <v>445</v>
-      </c>
-      <c r="G66" t="s">
-        <v>285</v>
-      </c>
-      <c r="H66" t="s">
-        <v>445</v>
-      </c>
-      <c r="I66" t="s">
-        <v>446</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M66" t="s">
-        <v>448</v>
-      </c>
-      <c r="N66" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
+        <v>446</v>
+      </c>
+      <c r="D67" t="s">
+        <v>447</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>448</v>
+      </c>
+      <c r="H67" t="s">
+        <v>282</v>
+      </c>
+      <c r="I67" t="s">
+        <v>448</v>
+      </c>
+      <c r="J67" t="s">
         <v>449</v>
       </c>
-      <c r="D67" t="s">
+      <c r="L67" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="M67" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N67" t="s">
         <v>451</v>
-      </c>
-      <c r="G67" t="s">
-        <v>285</v>
-      </c>
-      <c r="H67" t="s">
-        <v>451</v>
-      </c>
-      <c r="I67" t="s">
-        <v>452</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M67" t="s">
-        <v>454</v>
-      </c>
-      <c r="N67" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>454</v>
+      </c>
+      <c r="H68" t="s">
+        <v>282</v>
+      </c>
+      <c r="I68" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" t="s">
         <v>455</v>
       </c>
-      <c r="D68" t="s">
+      <c r="L68" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="M68" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N68" t="s">
         <v>457</v>
-      </c>
-      <c r="G68" t="s">
-        <v>285</v>
-      </c>
-      <c r="H68" t="s">
-        <v>457</v>
-      </c>
-      <c r="I68" t="s">
-        <v>458</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M68" t="s">
-        <v>460</v>
-      </c>
-      <c r="N68" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
+        <v>458</v>
+      </c>
+      <c r="D69" t="s">
+        <v>459</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>460</v>
+      </c>
+      <c r="H69" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69" t="s">
+        <v>460</v>
+      </c>
+      <c r="J69" t="s">
         <v>461</v>
       </c>
-      <c r="D69" t="s">
+      <c r="L69" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="M69" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N69" t="s">
         <v>463</v>
-      </c>
-      <c r="G69" t="s">
-        <v>285</v>
-      </c>
-      <c r="H69" t="s">
-        <v>463</v>
-      </c>
-      <c r="I69" t="s">
-        <v>464</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M69" t="s">
-        <v>466</v>
-      </c>
-      <c r="N69" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
+        <v>464</v>
+      </c>
+      <c r="D70" t="s">
+        <v>465</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="5">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>466</v>
+      </c>
+      <c r="H70" t="s">
+        <v>282</v>
+      </c>
+      <c r="I70" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" t="s">
         <v>467</v>
       </c>
-      <c r="D70" t="s">
+      <c r="L70" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="M70" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N70" t="s">
         <v>469</v>
-      </c>
-      <c r="G70" t="s">
-        <v>285</v>
-      </c>
-      <c r="H70" t="s">
-        <v>469</v>
-      </c>
-      <c r="I70" t="s">
-        <v>470</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M70" t="s">
-        <v>472</v>
-      </c>
-      <c r="N70" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
+        <v>470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="5">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>472</v>
+      </c>
+      <c r="H71" t="s">
+        <v>282</v>
+      </c>
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+      <c r="J71" t="s">
         <v>473</v>
       </c>
-      <c r="D71" t="s">
+      <c r="L71" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="M71" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N71" t="s">
         <v>475</v>
-      </c>
-      <c r="G71" t="s">
-        <v>285</v>
-      </c>
-      <c r="H71" t="s">
-        <v>475</v>
-      </c>
-      <c r="I71" t="s">
-        <v>476</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M71" t="s">
-        <v>478</v>
-      </c>
-      <c r="N71" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
+        <v>476</v>
+      </c>
+      <c r="D72" t="s">
+        <v>477</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" s="5">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>478</v>
+      </c>
+      <c r="H72" t="s">
+        <v>282</v>
+      </c>
+      <c r="I72" t="s">
+        <v>478</v>
+      </c>
+      <c r="J72" t="s">
         <v>479</v>
       </c>
-      <c r="D72" t="s">
+      <c r="L72" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="M72" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N72" t="s">
         <v>481</v>
-      </c>
-      <c r="G72" t="s">
-        <v>285</v>
-      </c>
-      <c r="H72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I72" t="s">
-        <v>482</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M72" t="s">
-        <v>484</v>
-      </c>
-      <c r="N72" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
+        <v>482</v>
+      </c>
+      <c r="D73" t="s">
+        <v>483</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>484</v>
+      </c>
+      <c r="H73" t="s">
+        <v>282</v>
+      </c>
+      <c r="I73" t="s">
+        <v>484</v>
+      </c>
+      <c r="J73" t="s">
         <v>485</v>
       </c>
-      <c r="D73" t="s">
+      <c r="L73" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="M73" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N73" t="s">
         <v>487</v>
-      </c>
-      <c r="G73" t="s">
-        <v>285</v>
-      </c>
-      <c r="H73" t="s">
-        <v>487</v>
-      </c>
-      <c r="I73" t="s">
-        <v>488</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M73" t="s">
-        <v>490</v>
-      </c>
-      <c r="N73" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
+        <v>488</v>
+      </c>
+      <c r="D74" t="s">
+        <v>489</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>490</v>
+      </c>
+      <c r="H74" t="s">
+        <v>282</v>
+      </c>
+      <c r="I74" t="s">
+        <v>490</v>
+      </c>
+      <c r="J74" t="s">
         <v>491</v>
       </c>
-      <c r="D74" t="s">
+      <c r="L74" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="M74" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N74" t="s">
         <v>493</v>
-      </c>
-      <c r="G74" t="s">
-        <v>285</v>
-      </c>
-      <c r="H74" t="s">
-        <v>493</v>
-      </c>
-      <c r="I74" t="s">
-        <v>494</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M74" t="s">
-        <v>496</v>
-      </c>
-      <c r="N74" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
+        <v>494</v>
+      </c>
+      <c r="D75" t="s">
+        <v>495</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>496</v>
+      </c>
+      <c r="H75" t="s">
+        <v>282</v>
+      </c>
+      <c r="I75" t="s">
+        <v>496</v>
+      </c>
+      <c r="J75" t="s">
         <v>497</v>
       </c>
-      <c r="D75" t="s">
+      <c r="L75" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="M75" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="N75" t="s">
         <v>499</v>
-      </c>
-      <c r="G75" t="s">
-        <v>285</v>
-      </c>
-      <c r="H75" t="s">
-        <v>499</v>
-      </c>
-      <c r="I75" t="s">
-        <v>500</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M75" t="s">
-        <v>502</v>
-      </c>
-      <c r="N75" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="76" ht="24" customHeight="1" spans="3:15">
       <c r="C76" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D76" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
         <v>0</v>
       </c>
-      <c r="G76"/>
-      <c r="H76">
-        <v>0</v>
-      </c>
+      <c r="H76"/>
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" t="s">
-        <v>505</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M76" t="s">
-        <v>507</v>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="N76" t="s">
-        <v>157</v>
+        <v>504</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" ht="24" customHeight="1" spans="3:15">
       <c r="C77" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D77" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
         <v>0</v>
       </c>
-      <c r="G77"/>
-      <c r="H77">
-        <v>0</v>
-      </c>
+      <c r="H77"/>
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77"/>
-      <c r="K77" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M77" t="s">
-        <v>511</v>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="N77" t="s">
-        <v>157</v>
+        <v>508</v>
       </c>
       <c r="O77"/>
     </row>
     <row r="78" ht="24" customHeight="1" spans="3:15">
       <c r="C78" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D78" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
         <v>0</v>
       </c>
-      <c r="G78"/>
-      <c r="H78">
-        <v>0</v>
-      </c>
+      <c r="H78"/>
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78"/>
-      <c r="K78" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M78" t="s">
-        <v>515</v>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="N78" t="s">
-        <v>157</v>
+        <v>512</v>
       </c>
       <c r="O78"/>
     </row>
     <row r="79" ht="24" customHeight="1" spans="3:15">
       <c r="C79" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D79" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
         <v>0</v>
       </c>
-      <c r="G79"/>
-      <c r="H79">
-        <v>0</v>
-      </c>
+      <c r="H79"/>
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79"/>
-      <c r="K79" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M79" t="s">
-        <v>519</v>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="N79" t="s">
-        <v>157</v>
+        <v>516</v>
       </c>
       <c r="O79"/>
     </row>
     <row r="80" ht="24" customHeight="1" spans="3:15">
       <c r="C80" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
       <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
         <v>0</v>
       </c>
-      <c r="G80"/>
-      <c r="H80">
-        <v>0</v>
-      </c>
+      <c r="H80"/>
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80"/>
-      <c r="K80" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M80" t="s">
-        <v>523</v>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="N80" t="s">
-        <v>157</v>
+        <v>520</v>
       </c>
       <c r="O80"/>
     </row>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="543">
   <si>
     <t>_Id</t>
   </si>
@@ -1295,6 +1295,9 @@
     <t>529</t>
   </si>
   <si>
+    <t>触龙之心</t>
+  </si>
+  <si>
     <t>200520,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
   </si>
   <si>
@@ -1313,6 +1316,9 @@
     <t>539</t>
   </si>
   <si>
+    <t>白猪之心</t>
+  </si>
+  <si>
     <t>200530,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
   </si>
   <si>
@@ -1331,6 +1337,9 @@
     <t>549</t>
   </si>
   <si>
+    <t>猪王之心</t>
+  </si>
+  <si>
     <t>200540,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
   </si>
   <si>
@@ -1349,6 +1358,9 @@
     <t>559</t>
   </si>
   <si>
+    <t>蝎王宝甲</t>
+  </si>
+  <si>
     <t>200550,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
   </si>
   <si>
@@ -1367,7 +1379,7 @@
     <t>569</t>
   </si>
   <si>
-    <t>9阶技能</t>
+    <t>9阶技能,沃玛宝甲</t>
   </si>
   <si>
     <t>200600,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
@@ -1391,6 +1403,9 @@
     <t>579</t>
   </si>
   <si>
+    <t>沃玛号角</t>
+  </si>
+  <si>
     <t>200601,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1409,6 +1424,9 @@
     <t>589</t>
   </si>
   <si>
+    <t>祖玛头像</t>
+  </si>
+  <si>
     <t>200602,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1427,6 +1445,9 @@
     <t>599</t>
   </si>
   <si>
+    <t>祖玛号角</t>
+  </si>
+  <si>
     <t>200603,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1445,6 +1466,9 @@
     <t>609</t>
   </si>
   <si>
+    <t>虹猪宝甲</t>
+  </si>
+  <si>
     <t>200604,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1463,6 +1487,9 @@
     <t>619</t>
   </si>
   <si>
+    <t>树妖之心</t>
+  </si>
+  <si>
     <t>200650,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1481,6 +1508,9 @@
     <t>629</t>
   </si>
   <si>
+    <t>虹魔之心</t>
+  </si>
+  <si>
     <t>200651,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1499,6 +1529,9 @@
     <t>639</t>
   </si>
   <si>
+    <t>尸王之心</t>
+  </si>
+  <si>
     <t>200652,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1517,6 +1550,9 @@
     <t>649</t>
   </si>
   <si>
+    <t>黄泉法杖</t>
+  </si>
+  <si>
     <t>200653,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1535,6 +1571,9 @@
     <t>659</t>
   </si>
   <si>
+    <t>牛魔权杖</t>
+  </si>
+  <si>
     <t>200654,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1553,6 +1592,9 @@
     <t>669</t>
   </si>
   <si>
+    <t>金刚战锤</t>
+  </si>
+  <si>
     <t>200700,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1571,6 +1613,9 @@
     <t>679</t>
   </si>
   <si>
+    <t>巨人之心</t>
+  </si>
+  <si>
     <t>200701,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1589,6 +1634,9 @@
     <t>689</t>
   </si>
   <si>
+    <t>恶魔之心</t>
+  </si>
+  <si>
     <t>200702,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1607,6 +1655,9 @@
     <t>699</t>
   </si>
   <si>
+    <t>魔龙宝甲</t>
+  </si>
+  <si>
     <t>200703,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1625,6 +1676,9 @@
     <t>709</t>
   </si>
   <si>
+    <t>龙神利爪</t>
+  </si>
+  <si>
     <t>200704,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1637,7 +1691,7 @@
     <t>噩梦小村</t>
   </si>
   <si>
-    <t>红装</t>
+    <t>红装,梦魇鸡爪</t>
   </si>
   <si>
     <t>200750,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
@@ -1652,6 +1706,9 @@
     <t>噩梦村外</t>
   </si>
   <si>
+    <t>梦魇鹿茸</t>
+  </si>
+  <si>
     <t>200751,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1664,6 +1721,9 @@
     <t>噩梦城外</t>
   </si>
   <si>
+    <t>梦魇草帽</t>
+  </si>
+  <si>
     <t>200752,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1676,6 +1736,9 @@
     <t>噩梦老城</t>
   </si>
   <si>
+    <t>梦魇猫爪</t>
+  </si>
+  <si>
     <t>200753,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
   </si>
   <si>
@@ -1686,6 +1749,9 @@
   </si>
   <si>
     <t>噩梦森林</t>
+  </si>
+  <si>
+    <t>梦魇花朵</t>
   </si>
   <si>
     <t>200754,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
@@ -1715,14 +1781,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2337,19 +2403,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2710,1669 +2776,1669 @@
   <dimension ref="A3:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M92" sqref="M92"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="87.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="74.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="45.25" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="87.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="74.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="45.25" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15">
-      <c r="C3" s="4" t="s">
+    <row r="3" customHeight="1" spans="3:15">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="3:15">
-      <c r="C4" s="4" t="s">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:15">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="3:15">
-      <c r="C5" s="4" t="s">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:15">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:15">
-      <c r="C6" t="s">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:15">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O6"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:15">
-      <c r="C7" t="s">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" customHeight="1" spans="3:15">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:15">
-      <c r="C8" t="s">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:15">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K8"/>
-      <c r="L8" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:15">
-      <c r="C9" t="s">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:15">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:15">
-      <c r="C10" t="s">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:15">
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:15">
-      <c r="C11" t="s">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:15">
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K11"/>
-      <c r="L11" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:15">
-      <c r="C12" t="s">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:15">
+      <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:15">
-      <c r="C13" t="s">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:15">
+      <c r="C13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K13"/>
-      <c r="L13" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:15">
-      <c r="C14" t="s">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:15">
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K14"/>
-      <c r="L14" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:15">
-      <c r="C15" t="s">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:15">
+      <c r="C15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K15"/>
-      <c r="L15" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:15">
-      <c r="C16" t="s">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:15">
+      <c r="C16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:15">
-      <c r="C17" t="s">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:15">
+      <c r="C17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K17"/>
-      <c r="L17" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:15">
-      <c r="C18" t="s">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:15">
+      <c r="C18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K18"/>
-      <c r="L18" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:15">
-      <c r="C19" t="s">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:15">
+      <c r="C19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K19"/>
-      <c r="L19" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:15">
-      <c r="C20" t="s">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:15">
+      <c r="C20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="O20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:15">
-      <c r="C21" t="s">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:15">
+      <c r="C21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K21"/>
-      <c r="L21" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:15">
-      <c r="C22" t="s">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:15">
+      <c r="C22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K22"/>
-      <c r="L22" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:15">
-      <c r="C23" t="s">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:15">
+      <c r="C23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K23"/>
-      <c r="L23" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:15">
-      <c r="C24" t="s">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:15">
+      <c r="C24" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K24"/>
-      <c r="L24" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:15">
-      <c r="C25" t="s">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:15">
+      <c r="C25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K25"/>
-      <c r="L25" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:15">
-      <c r="C26" t="s">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:15">
+      <c r="C26" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:15">
-      <c r="C27" t="s">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:15">
+      <c r="C27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K27"/>
-      <c r="L27" t="s">
+      <c r="K27" s="1"/>
+      <c r="L27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:15">
-      <c r="C28" t="s">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:15">
+      <c r="C28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K28"/>
-      <c r="L28" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:15">
-      <c r="C29" t="s">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:15">
+      <c r="C29" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K29"/>
-      <c r="L29" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="O29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:15">
-      <c r="C30" t="s">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:15">
+      <c r="C30" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K30"/>
-      <c r="L30" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="O30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:15">
-      <c r="C31" t="s">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" customHeight="1" spans="3:15">
+      <c r="C31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K31"/>
-      <c r="L31" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:15">
-      <c r="C32" t="s">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" customHeight="1" spans="3:15">
+      <c r="C32" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K32"/>
-      <c r="L32" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="O32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:15">
-      <c r="C33" t="s">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:15">
+      <c r="C33" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K33"/>
-      <c r="L33" t="s">
+      <c r="K33" s="1"/>
+      <c r="L33" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:15">
-      <c r="C34" t="s">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:15">
+      <c r="C34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K34"/>
-      <c r="L34" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:15">
-      <c r="C35" t="s">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:15">
+      <c r="C35" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K35"/>
-      <c r="L35" t="s">
+      <c r="K35" s="1"/>
+      <c r="L35" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="O35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:15">
-      <c r="C36" t="s">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:15">
+      <c r="C36" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K36"/>
-      <c r="L36" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:15">
-      <c r="C37" t="s">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" customHeight="1" spans="3:15">
+      <c r="C37" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K37"/>
-      <c r="L37" t="s">
+      <c r="K37" s="1"/>
+      <c r="L37" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:15">
-      <c r="C38" t="s">
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:15">
+      <c r="C38" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K38"/>
-      <c r="L38" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="O38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:15">
-      <c r="C39" t="s">
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:15">
+      <c r="C39" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K39"/>
-      <c r="L39" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:15">
-      <c r="C40" t="s">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:15">
+      <c r="C40" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K40"/>
-      <c r="L40" t="s">
+      <c r="K40" s="1"/>
+      <c r="L40" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="O40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:15">
-      <c r="C41" t="s">
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" customHeight="1" spans="3:15">
+      <c r="C41" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="O41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:15">
-      <c r="C42" t="s">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" customHeight="1" spans="3:15">
+      <c r="C42" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K42"/>
-      <c r="L42" t="s">
+      <c r="K42" s="1"/>
+      <c r="L42" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="O42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:15">
-      <c r="C43" t="s">
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" customHeight="1" spans="3:15">
+      <c r="C43" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K43"/>
-      <c r="L43" t="s">
+      <c r="K43" s="1"/>
+      <c r="L43" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="O43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:15">
-      <c r="C44" t="s">
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" customHeight="1" spans="3:15">
+      <c r="C44" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K44"/>
-      <c r="L44" t="s">
+      <c r="K44" s="1"/>
+      <c r="L44" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="O44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:15">
-      <c r="C45" t="s">
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" customHeight="1" spans="3:15">
+      <c r="C45" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K45"/>
-      <c r="L45" t="s">
+      <c r="K45" s="1"/>
+      <c r="L45" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="O45"/>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s">
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="3" t="s">
         <v>316</v>
       </c>
       <c r="L46" s="8" t="s">
@@ -4381,35 +4447,35 @@
       <c r="M46" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="3" t="s">
         <v>323</v>
       </c>
       <c r="L47" s="8" t="s">
@@ -4418,35 +4484,35 @@
       <c r="M47" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s">
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="3" t="s">
         <v>329</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -4455,35 +4521,35 @@
       <c r="M48" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="3" t="s">
         <v>335</v>
       </c>
       <c r="L49" s="8" t="s">
@@ -4492,35 +4558,35 @@
       <c r="M49" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s">
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="3" t="s">
         <v>341</v>
       </c>
       <c r="L50" s="8" t="s">
@@ -4529,38 +4595,38 @@
       <c r="M50" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s">
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="3" t="s">
         <v>348</v>
       </c>
       <c r="L51" s="8" t="s">
@@ -4569,35 +4635,35 @@
       <c r="M51" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s">
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="3" t="s">
         <v>355</v>
       </c>
       <c r="L52" s="8" t="s">
@@ -4606,35 +4672,35 @@
       <c r="M52" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s">
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" s="5">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="3" t="s">
         <v>361</v>
       </c>
       <c r="L53" s="8" t="s">
@@ -4643,35 +4709,35 @@
       <c r="M53" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s">
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="3" t="s">
         <v>367</v>
       </c>
       <c r="L54" s="8" t="s">
@@ -4680,38 +4746,38 @@
       <c r="M54" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s">
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" s="5">
-        <v>2</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="3" t="s">
         <v>374</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -4720,930 +4786,992 @@
       <c r="M55" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s">
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" s="5">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="K56" s="3"/>
       <c r="L56" s="8" t="s">
         <v>381</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s">
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" s="5">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="K57" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="L57" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="N57" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s">
+      <c r="N57" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" s="5">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D58" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H58" t="s">
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I58" t="s">
-        <v>392</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="J58" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="L58" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="N58" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s">
-        <v>396</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="N58" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" s="5">
-        <v>2</v>
-      </c>
-      <c r="G59" t="s">
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H59" t="s">
+      <c r="D59" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I59" t="s">
-        <v>398</v>
-      </c>
-      <c r="J59" t="s">
-        <v>399</v>
+      <c r="I59" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="N59" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s">
-        <v>402</v>
-      </c>
-      <c r="D60" t="s">
-        <v>403</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" s="5">
-        <v>2</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="N59" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H60" t="s">
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I60" t="s">
-        <v>404</v>
-      </c>
-      <c r="J60" t="s">
-        <v>405</v>
+      <c r="I60" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="N60" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="N60" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" s="5">
-        <v>2</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="C61" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K61" t="s">
-        <v>412</v>
+      <c r="I61" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>418</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62" s="5">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="C62" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="M62" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K62"/>
-      <c r="L62" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="N62" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="5">
-        <v>2</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="C63" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>425</v>
+      <c r="I63" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>418</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" s="5">
-        <v>2</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="C64" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>431</v>
+      <c r="I64" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>418</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" s="5">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="C65" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>437</v>
+      <c r="I65" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s">
-        <v>440</v>
-      </c>
-      <c r="D66" t="s">
-        <v>441</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66" s="5">
-        <v>2</v>
-      </c>
-      <c r="G66" t="s">
-        <v>442</v>
-      </c>
-      <c r="H66" t="s">
+        <v>418</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I66" t="s">
-        <v>442</v>
-      </c>
-      <c r="J66" t="s">
-        <v>443</v>
+      <c r="I66" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N66" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s">
-        <v>446</v>
-      </c>
-      <c r="D67" t="s">
-        <v>447</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>448</v>
-      </c>
-      <c r="H67" t="s">
+        <v>418</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I67" t="s">
-        <v>448</v>
-      </c>
-      <c r="J67" t="s">
-        <v>449</v>
+      <c r="I67" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N67" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s">
-        <v>452</v>
-      </c>
-      <c r="D68" t="s">
-        <v>453</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68" s="5">
-        <v>2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>454</v>
-      </c>
-      <c r="H68" t="s">
+        <v>418</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I68" t="s">
-        <v>454</v>
-      </c>
-      <c r="J68" t="s">
-        <v>455</v>
+      <c r="I68" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N68" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s">
-        <v>458</v>
-      </c>
-      <c r="D69" t="s">
-        <v>459</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69" s="5">
-        <v>2</v>
-      </c>
-      <c r="G69" t="s">
-        <v>460</v>
-      </c>
-      <c r="H69" t="s">
+        <v>418</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I69" t="s">
-        <v>460</v>
-      </c>
-      <c r="J69" t="s">
-        <v>461</v>
+      <c r="I69" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N69" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s">
-        <v>464</v>
-      </c>
-      <c r="D70" t="s">
-        <v>465</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70" s="5">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>466</v>
-      </c>
-      <c r="H70" t="s">
+        <v>418</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I70" t="s">
-        <v>466</v>
-      </c>
-      <c r="J70" t="s">
-        <v>467</v>
+      <c r="I70" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N70" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s">
-        <v>470</v>
-      </c>
-      <c r="D71" t="s">
-        <v>471</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71" s="5">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>472</v>
-      </c>
-      <c r="H71" t="s">
+        <v>418</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I71" t="s">
-        <v>472</v>
-      </c>
-      <c r="J71" t="s">
-        <v>473</v>
+      <c r="I71" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N71" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s">
-        <v>476</v>
-      </c>
-      <c r="D72" t="s">
-        <v>477</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" s="5">
-        <v>2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>478</v>
-      </c>
-      <c r="H72" t="s">
+        <v>418</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I72" t="s">
-        <v>478</v>
-      </c>
-      <c r="J72" t="s">
-        <v>479</v>
+      <c r="I72" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N72" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s">
-        <v>482</v>
-      </c>
-      <c r="D73" t="s">
-        <v>483</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73" s="5">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>484</v>
-      </c>
-      <c r="H73" t="s">
+        <v>418</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I73" t="s">
-        <v>484</v>
-      </c>
-      <c r="J73" t="s">
-        <v>485</v>
+      <c r="I73" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N73" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s">
-        <v>488</v>
-      </c>
-      <c r="D74" t="s">
-        <v>489</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74" s="5">
-        <v>2</v>
-      </c>
-      <c r="G74" t="s">
-        <v>490</v>
-      </c>
-      <c r="H74" t="s">
+        <v>418</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I74" t="s">
-        <v>490</v>
-      </c>
-      <c r="J74" t="s">
-        <v>491</v>
+      <c r="I74" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N74" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:14">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s">
-        <v>494</v>
-      </c>
-      <c r="D75" t="s">
-        <v>495</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75" s="5">
-        <v>2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>496</v>
-      </c>
-      <c r="H75" t="s">
+        <v>418</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I75" t="s">
-        <v>496</v>
-      </c>
-      <c r="J75" t="s">
-        <v>497</v>
+      <c r="I75" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N75" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" ht="24" customHeight="1" spans="3:15">
-      <c r="C76" t="s">
-        <v>500</v>
-      </c>
-      <c r="D76" t="s">
-        <v>501</v>
-      </c>
-      <c r="E76">
+        <v>418</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:15">
+      <c r="C76" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E76" s="1">
         <v>3</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>3</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>0</v>
       </c>
-      <c r="H76"/>
-      <c r="I76">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1">
         <v>0</v>
       </c>
-      <c r="K76" t="s">
-        <v>502</v>
+      <c r="K76" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N76" t="s">
-        <v>504</v>
-      </c>
-      <c r="O76"/>
-    </row>
-    <row r="77" ht="24" customHeight="1" spans="3:15">
-      <c r="C77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D77" t="s">
-        <v>506</v>
-      </c>
-      <c r="E77">
+        <v>418</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" customHeight="1" spans="3:15">
+      <c r="C77" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E77" s="1">
         <v>3</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>3</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>0</v>
       </c>
-      <c r="H77"/>
-      <c r="I77">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
         <v>0</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="K77"/>
+      <c r="K77" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="L77" s="9" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N77" t="s">
-        <v>508</v>
-      </c>
-      <c r="O77"/>
-    </row>
-    <row r="78" ht="24" customHeight="1" spans="3:15">
-      <c r="C78" t="s">
-        <v>509</v>
-      </c>
-      <c r="D78" t="s">
-        <v>510</v>
-      </c>
-      <c r="E78">
+        <v>418</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" customHeight="1" spans="3:15">
+      <c r="C78" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E78" s="1">
         <v>3</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>3</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="H78"/>
-      <c r="I78">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1">
         <v>0</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K78"/>
+      <c r="K78" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="L78" s="9" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N78" t="s">
-        <v>512</v>
-      </c>
-      <c r="O78"/>
-    </row>
-    <row r="79" ht="24" customHeight="1" spans="3:15">
-      <c r="C79" t="s">
-        <v>513</v>
-      </c>
-      <c r="D79" t="s">
-        <v>514</v>
-      </c>
-      <c r="E79">
+        <v>418</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" customHeight="1" spans="3:15">
+      <c r="C79" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E79" s="1">
         <v>3</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>3</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>0</v>
       </c>
-      <c r="H79"/>
-      <c r="I79">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1">
         <v>0</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K79"/>
+      <c r="K79" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="L79" s="9" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N79" t="s">
-        <v>516</v>
-      </c>
-      <c r="O79"/>
-    </row>
-    <row r="80" ht="24" customHeight="1" spans="3:15">
-      <c r="C80" t="s">
-        <v>517</v>
-      </c>
-      <c r="D80" t="s">
-        <v>518</v>
-      </c>
-      <c r="E80">
+        <v>418</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" customHeight="1" spans="3:15">
+      <c r="C80" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E80" s="1">
         <v>3</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>3</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80"/>
-      <c r="I80">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1">
         <v>0</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80"/>
+      <c r="K80" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="L80" s="9" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N80" t="s">
-        <v>520</v>
-      </c>
-      <c r="O80"/>
+        <v>418</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="O80" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1253,25 +1253,25 @@
     <t>509</t>
   </si>
   <si>
+    <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
+  </si>
+  <si>
+    <t>10049</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>幻影棺材</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
     <t>专属5-6</t>
-  </si>
-  <si>
-    <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
-  </si>
-  <si>
-    <t>10049</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>幻影棺材</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>519</t>
   </si>
   <si>
     <t>200510,300010,300020,300030,300040,300050,300060,300070,300080,102,503</t>
@@ -2401,16 +2401,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2773,155 +2771,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O80"/>
+  <dimension ref="C3:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="87.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="74.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="45.25" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="87.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="74.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="45.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:15">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="3:15">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="3:15">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:15">
-      <c r="C6" s="3" t="s">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:14">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1">
@@ -2930,35 +2928,33 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" customHeight="1" spans="3:15">
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="3:14">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1">
@@ -2967,37 +2963,36 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" customHeight="1" spans="3:15">
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="3:14">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1">
@@ -3006,35 +3001,33 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" customHeight="1" spans="3:15">
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="3:14">
+      <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="1">
@@ -3043,37 +3036,36 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" customHeight="1" spans="3:15">
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="3:14">
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1">
@@ -3082,35 +3074,33 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" customHeight="1" spans="3:15">
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="3:14">
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="1">
@@ -3119,35 +3109,33 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" customHeight="1" spans="3:15">
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="3:14">
+      <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="1">
@@ -3156,37 +3144,36 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" customHeight="1" spans="3:15">
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="3:14">
+      <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="1">
@@ -3195,35 +3182,33 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" customHeight="1" spans="3:15">
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="3:14">
+      <c r="C14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="1">
@@ -3232,35 +3217,33 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" customHeight="1" spans="3:15">
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="3:14">
+      <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="1">
@@ -3269,35 +3252,33 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" customHeight="1" spans="3:15">
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="3:14">
+      <c r="C16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="1">
@@ -3306,37 +3287,36 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" customHeight="1" spans="3:15">
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="3:14">
+      <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="1">
@@ -3345,35 +3325,33 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" customHeight="1" spans="3:15">
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="3:14">
+      <c r="C18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="1">
@@ -3382,35 +3360,33 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" customHeight="1" spans="3:15">
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="3:14">
+      <c r="C19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="1">
@@ -3419,35 +3395,33 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:15">
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="3:14">
+      <c r="C20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E20" s="1">
@@ -3456,37 +3430,36 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" customHeight="1" spans="3:15">
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="3:14">
+      <c r="C21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="1">
@@ -3495,35 +3468,33 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" customHeight="1" spans="3:15">
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="3:14">
+      <c r="C22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="1">
@@ -3532,35 +3503,33 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:15">
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="3:14">
+      <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E23" s="1">
@@ -3569,35 +3538,33 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:15">
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="24" customHeight="1" spans="3:14">
+      <c r="C24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E24" s="1">
@@ -3606,35 +3573,33 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:15">
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="25" customHeight="1" spans="3:14">
+      <c r="C25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E25" s="1">
@@ -3643,35 +3608,33 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:15">
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="26" customHeight="1" spans="3:14">
+      <c r="C26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E26" s="1">
@@ -3680,37 +3643,36 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:15">
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="27" customHeight="1" spans="3:14">
+      <c r="C27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E27" s="1">
@@ -3719,35 +3681,33 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" customHeight="1" spans="3:15">
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="28" customHeight="1" spans="3:14">
+      <c r="C28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E28" s="1">
@@ -3756,35 +3716,33 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" customHeight="1" spans="3:15">
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="29" customHeight="1" spans="3:14">
+      <c r="C29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E29" s="1">
@@ -3793,35 +3751,33 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" customHeight="1" spans="3:15">
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="3:14">
+      <c r="C30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="1">
@@ -3830,35 +3786,33 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" customHeight="1" spans="3:15">
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="31" customHeight="1" spans="3:14">
+      <c r="C31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E31" s="1">
@@ -3867,35 +3821,33 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" customHeight="1" spans="3:15">
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="3:14">
+      <c r="C32" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="1">
@@ -3904,35 +3856,33 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" customHeight="1" spans="3:15">
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="33" customHeight="1" spans="3:14">
+      <c r="C33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E33" s="1">
@@ -3941,35 +3891,33 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" customHeight="1" spans="3:15">
-      <c r="C34" s="3" t="s">
+    </row>
+    <row r="34" customHeight="1" spans="3:14">
+      <c r="C34" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E34" s="1">
@@ -3978,35 +3926,33 @@
       <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" customHeight="1" spans="3:15">
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="35" customHeight="1" spans="3:14">
+      <c r="C35" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E35" s="1">
@@ -4015,35 +3961,33 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" customHeight="1" spans="3:15">
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="36" customHeight="1" spans="3:14">
+      <c r="C36" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E36" s="1">
@@ -4052,35 +3996,33 @@
       <c r="F36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" customHeight="1" spans="3:15">
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="3:14">
+      <c r="C37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E37" s="1">
@@ -4089,35 +4031,33 @@
       <c r="F37" s="1">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" customHeight="1" spans="3:15">
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="3:14">
+      <c r="C38" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E38" s="1">
@@ -4126,35 +4066,33 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" customHeight="1" spans="3:15">
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="3:14">
+      <c r="C39" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E39" s="1">
@@ -4163,35 +4101,33 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" customHeight="1" spans="3:15">
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="40" customHeight="1" spans="3:14">
+      <c r="C40" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E40" s="1">
@@ -4200,1399 +4136,1327 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" customHeight="1" spans="3:15">
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="41" customHeight="1" spans="3:14">
+      <c r="C41" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="3">
-        <v>2</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" customHeight="1" spans="3:15">
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="42" customHeight="1" spans="3:14">
+      <c r="C42" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="3">
-        <v>2</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" customHeight="1" spans="3:15">
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="43" customHeight="1" spans="3:14">
+      <c r="C43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="F43" s="3">
-        <v>2</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" customHeight="1" spans="3:15">
-      <c r="C44" s="3" t="s">
+    </row>
+    <row r="44" customHeight="1" spans="3:14">
+      <c r="C44" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" customHeight="1" spans="3:15">
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="45" customHeight="1" spans="3:14">
+      <c r="C45" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="3">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C46" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C47" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="3">
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C48" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>327</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
-      <c r="F48" s="3">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C49" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="F49" s="3">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C50" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
-      <c r="F50" s="3">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C51" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
-      <c r="F51" s="3">
-        <v>2</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C52" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C53" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="3">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C54" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
-      <c r="F54" s="3">
-        <v>2</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C55" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
-      <c r="F55" s="3">
-        <v>2</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="M55" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="N55" s="3" t="s">
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C56" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E56" s="1">
-        <v>2</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="K56" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="M56" s="8" t="s">
+      <c r="I57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M57" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="N57" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="M57" s="8" t="s">
+      <c r="I58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="N58" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="M58" s="8" t="s">
+      <c r="I59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="N59" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="M59" s="8" t="s">
+      <c r="I60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="M60" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H60" s="3" t="s">
+      <c r="N60" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C61" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E61" s="1">
-        <v>2</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2</v>
-      </c>
-      <c r="G61" s="6" t="s">
+      <c r="I61" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="J61" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C62" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="I62" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M62" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="H62" s="6" t="s">
+      <c r="N62" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C63" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="M62" s="9" t="s">
+      <c r="I63" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N62" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E63" s="1">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="H63" s="6" t="s">
+      <c r="N63" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C64" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="I64" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M64" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N63" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3">
-        <v>2</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="H64" s="6" t="s">
+      <c r="N64" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C65" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="I65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N64" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E65" s="1">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3">
-        <v>2</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="H65" s="6" t="s">
+      <c r="N65" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C66" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="M65" s="9" t="s">
+      <c r="I66" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M66" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N65" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E66" s="1">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H66" s="3" t="s">
+      <c r="N66" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C67" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="I67" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E67" s="1">
-        <v>2</v>
-      </c>
-      <c r="F67" s="3">
-        <v>2</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H67" s="3" t="s">
+      <c r="N67" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C68" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="M67" s="9" t="s">
+      <c r="I68" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M68" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N67" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E68" s="1">
-        <v>2</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="H68" s="3" t="s">
+      <c r="N68" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C69" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="M68" s="9" t="s">
+      <c r="I69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>2</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="H69" s="3" t="s">
+      <c r="N69" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C70" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="I70" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="M70" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E70" s="1">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H70" s="3" t="s">
+      <c r="N70" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C71" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="M70" s="9" t="s">
+      <c r="I71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E71" s="1">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>2</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H71" s="3" t="s">
+      <c r="N71" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C72" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="M71" s="9" t="s">
+      <c r="I72" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E72" s="1">
-        <v>2</v>
-      </c>
-      <c r="F72" s="3">
-        <v>2</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="N72" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C73" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="M72" s="9" t="s">
+      <c r="I73" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E73" s="1">
-        <v>2</v>
-      </c>
-      <c r="F73" s="3">
-        <v>2</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H73" s="3" t="s">
+      <c r="N73" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C74" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="I74" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N73" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="E74" s="1">
-        <v>2</v>
-      </c>
-      <c r="F74" s="3">
-        <v>2</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="N74" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C75" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="I75" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N74" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E75" s="1">
-        <v>2</v>
-      </c>
-      <c r="F75" s="3">
-        <v>2</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="N75" s="3" t="s">
+      <c r="N75" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="3:15">
-      <c r="C76" s="3" t="s">
+    <row r="76" customHeight="1" spans="3:14">
+      <c r="C76" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>519</v>
       </c>
       <c r="E76" s="1">
@@ -5604,32 +5468,30 @@
       <c r="G76" s="1">
         <v>0</v>
       </c>
-      <c r="H76" s="1"/>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L76" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" customHeight="1" spans="3:15">
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="77" customHeight="1" spans="3:14">
+      <c r="C77" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>524</v>
       </c>
       <c r="E77" s="1">
@@ -5641,32 +5503,30 @@
       <c r="G77" s="1">
         <v>0</v>
       </c>
-      <c r="H77" s="1"/>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="N77" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" customHeight="1" spans="3:15">
-      <c r="C78" s="3" t="s">
+    </row>
+    <row r="78" customHeight="1" spans="3:14">
+      <c r="C78" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>529</v>
       </c>
       <c r="E78" s="1">
@@ -5678,32 +5538,30 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="H78" s="1"/>
       <c r="I78" s="1">
         <v>0</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="M78" s="9" t="s">
+      <c r="M78" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="N78" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" customHeight="1" spans="3:15">
-      <c r="C79" s="3" t="s">
+    </row>
+    <row r="79" customHeight="1" spans="3:14">
+      <c r="C79" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>534</v>
       </c>
       <c r="E79" s="1">
@@ -5715,32 +5573,30 @@
       <c r="G79" s="1">
         <v>0</v>
       </c>
-      <c r="H79" s="1"/>
       <c r="I79" s="1">
         <v>0</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="M79" s="9" t="s">
+      <c r="M79" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" customHeight="1" spans="3:15">
-      <c r="C80" s="3" t="s">
+    </row>
+    <row r="80" customHeight="1" spans="3:14">
+      <c r="C80" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>539</v>
       </c>
       <c r="E80" s="1">
@@ -5752,26 +5608,24 @@
       <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80" s="1"/>
       <c r="I80" s="1">
         <v>0</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="M80" s="9" t="s">
+      <c r="M80" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N80" s="3" t="s">
+      <c r="N80" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="O80" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="569">
   <si>
     <t>_Id</t>
   </si>
@@ -1694,7 +1694,7 @@
     <t>红装,梦魇鸡爪</t>
   </si>
   <si>
-    <t>200750,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+    <t>200750,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504</t>
   </si>
   <si>
     <t>10070</t>
@@ -1709,7 +1709,7 @@
     <t>梦魇鹿茸</t>
   </si>
   <si>
-    <t>200751,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+    <t>200751,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504</t>
   </si>
   <si>
     <t>10071</t>
@@ -1724,7 +1724,7 @@
     <t>梦魇草帽</t>
   </si>
   <si>
-    <t>200752,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+    <t>200752,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504</t>
   </si>
   <si>
     <t>10072</t>
@@ -1739,7 +1739,7 @@
     <t>梦魇猫爪</t>
   </si>
   <si>
-    <t>200753,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+    <t>200753,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504</t>
   </si>
   <si>
     <t>10073</t>
@@ -1754,10 +1754,88 @@
     <t>梦魇花朵</t>
   </si>
   <si>
-    <t>200754,300010,300020,300030,300040,300050,300060,300070,300080,300090,102,504</t>
+    <t>200754,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504</t>
   </si>
   <si>
     <t>10074</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>噩梦洞穴</t>
+  </si>
+  <si>
+    <t>梦魇冰晶</t>
+  </si>
+  <si>
+    <t>200800,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210005</t>
+  </si>
+  <si>
+    <t>10,500,500,500,1250,2500,2500,5000,100000,200000,1000,18000,300000</t>
+  </si>
+  <si>
+    <t>10075</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>噩梦骷髅洞</t>
+  </si>
+  <si>
+    <t>梦魇蝠翼</t>
+  </si>
+  <si>
+    <t>200801,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210006</t>
+  </si>
+  <si>
+    <t>10076</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>噩梦通道</t>
+  </si>
+  <si>
+    <t>梦魇魂火</t>
+  </si>
+  <si>
+    <t>200802,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210007</t>
+  </si>
+  <si>
+    <t>10077</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>噩梦尸洞</t>
+  </si>
+  <si>
+    <t>梦魇腐肉</t>
+  </si>
+  <si>
+    <t>200803,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210008</t>
+  </si>
+  <si>
+    <t>10078</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>噩梦蛇谷</t>
+  </si>
+  <si>
+    <t>梦魇蛇胆</t>
+  </si>
+  <si>
+    <t>200804,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210009</t>
+  </si>
+  <si>
+    <t>10079</t>
   </si>
 </sst>
 </file>
@@ -2771,14 +2849,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O80"/>
+  <dimension ref="C3:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="L64" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -5627,12 +5705,187 @@
         <v>542</v>
       </c>
     </row>
+    <row r="81" customHeight="1" spans="3:14">
+      <c r="C81" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E81" s="1">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:14">
+      <c r="C82" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:14">
+      <c r="C83" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:14">
+      <c r="C84" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:14">
+      <c r="C85" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C80 C81:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C85 C86:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -2856,7 +2856,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="570">
   <si>
     <t>_Id</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Memo</t>
+  </si>
+  <si>
+    <t>DropLevel</t>
   </si>
   <si>
     <t>地图Id掉落</t>
@@ -2014,12 +2017,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2849,14 +2852,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O85"/>
+  <dimension ref="C3:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="L64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="L60" sqref="L6:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2868,15 +2871,15 @@
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="87.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="74.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="45.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="14.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="87.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="74.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="45.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:15">
+    <row r="3" customHeight="1" spans="3:16">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2910,14 +2913,17 @@
       <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="3:15">
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:16">
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -2929,76 +2935,82 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="3:15">
+      <c r="N4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:16">
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:14">
+        <v>22</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:15">
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -3007,19 +3019,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>28</v>
@@ -3027,13 +3039,16 @@
       <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:14">
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:15">
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -3042,22 +3057,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>37</v>
@@ -3065,13 +3080,16 @@
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:14">
+      <c r="O7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:15">
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -3080,33 +3098,36 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:14">
+        <v>38</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:15">
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -3115,22 +3136,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>53</v>
@@ -3138,13 +3159,16 @@
       <c r="N9" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:14">
+      <c r="O9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:15">
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3153,33 +3177,36 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:14">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:15">
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3188,33 +3215,36 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:14">
+        <v>54</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:15">
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -3223,22 +3253,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>76</v>
@@ -3246,13 +3276,16 @@
       <c r="N12" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:14">
+      <c r="O12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:15">
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -3261,33 +3294,36 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:14">
+        <v>77</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:15">
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3296,33 +3332,36 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:14">
+        <v>77</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:15">
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -3331,33 +3370,36 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:14">
+        <v>77</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:15">
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -3366,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>106</v>
@@ -3389,13 +3431,16 @@
       <c r="N16" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:14">
+      <c r="O16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:15">
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -3404,33 +3449,36 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:14">
+        <v>107</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:15">
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3439,33 +3487,36 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:14">
+        <v>107</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:15">
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -3474,33 +3525,36 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:14">
+        <v>107</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:15">
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3509,22 +3563,22 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>136</v>
@@ -3532,13 +3586,16 @@
       <c r="N20" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:14">
+      <c r="O20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:15">
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3547,33 +3604,36 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:14">
+        <v>137</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:15">
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3582,33 +3642,36 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:14">
+        <v>137</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:15">
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3617,33 +3680,36 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:14">
+        <v>137</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:15">
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3652,33 +3718,36 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:14">
+        <v>137</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:15">
       <c r="C25" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3687,33 +3756,36 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:14">
+        <v>137</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:15">
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3722,22 +3794,22 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>180</v>
@@ -3745,13 +3817,16 @@
       <c r="N26" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:14">
+      <c r="O26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:15">
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -3760,33 +3835,36 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:15">
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3795,33 +3873,36 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:15">
       <c r="C29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3830,33 +3911,36 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:15">
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3865,69 +3949,75 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:15">
+      <c r="C31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:15">
+      <c r="C32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:14">
-      <c r="C31" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:14">
-      <c r="C32" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -3935,33 +4025,36 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:15">
       <c r="C33" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3970,33 +4063,36 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:15">
       <c r="C34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -4005,33 +4101,36 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:15">
       <c r="C35" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -4040,33 +4139,36 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:15">
       <c r="C36" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -4075,33 +4177,36 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:15">
       <c r="C37" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -4110,33 +4215,36 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:15">
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4145,33 +4253,36 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:15">
       <c r="C39" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -4180,33 +4291,36 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:15">
       <c r="C40" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -4215,33 +4329,36 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:14">
+        <v>181</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:15">
       <c r="C41" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4250,22 +4367,22 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>286</v>
@@ -4273,13 +4390,16 @@
       <c r="N41" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:14">
+      <c r="O41" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:15">
       <c r="C42" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -4288,33 +4408,36 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:14">
+        <v>287</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:15">
       <c r="C43" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -4323,33 +4446,36 @@
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:14">
+        <v>287</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:15">
       <c r="C44" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -4358,33 +4484,36 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:14">
+        <v>287</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:15">
       <c r="C45" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -4393,33 +4522,36 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:14">
+        <v>287</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C46" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -4428,36 +4560,39 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O46" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C47" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -4466,33 +4601,36 @@
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J47" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="M47" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N47" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N47" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C48" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -4501,33 +4639,36 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="M48" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N48" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N48" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C49" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -4536,33 +4677,36 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="M49" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N49" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N49" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C50" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -4571,33 +4715,36 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="M50" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N50" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N50" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C51" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4606,36 +4753,39 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O51" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C52" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4644,33 +4794,36 @@
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="M52" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N52" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N52" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C53" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4679,33 +4832,36 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="M53" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N53" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N53" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C54" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -4714,33 +4870,36 @@
         <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="M54" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N54" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N54" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C55" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -4749,33 +4908,36 @@
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="M55" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N55" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N55" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C56" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -4784,36 +4946,39 @@
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="6" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O56" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C57" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -4822,36 +4987,39 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="M57" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N57" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N57" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C58" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -4860,36 +5028,39 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="M58" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N58" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N58" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C59" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -4898,36 +5069,39 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="M59" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N59" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N59" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C60" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -4936,36 +5110,39 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="M60" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N60" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N60" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C61" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -4974,36 +5151,39 @@
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="L61" s="7" t="s">
         <v>417</v>
+      </c>
+      <c r="L61" s="1">
+        <v>600</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="N61" s="7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O61" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C62" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -5012,36 +5192,39 @@
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="L62" s="7" t="s">
         <v>425</v>
       </c>
+      <c r="L62" s="1">
+        <v>600</v>
+      </c>
       <c r="M62" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N62" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N62" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C63" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -5050,36 +5233,39 @@
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="L63" s="7" t="s">
         <v>432</v>
       </c>
+      <c r="L63" s="1">
+        <v>600</v>
+      </c>
       <c r="M63" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N63" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N63" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C64" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -5088,36 +5274,39 @@
         <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="L64" s="7" t="s">
         <v>439</v>
       </c>
+      <c r="L64" s="1">
+        <v>600</v>
+      </c>
       <c r="M64" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N64" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N64" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C65" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -5126,36 +5315,39 @@
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="L65" s="7" t="s">
         <v>446</v>
       </c>
+      <c r="L65" s="1">
+        <v>600</v>
+      </c>
       <c r="M65" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N65" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N65" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C66" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -5164,36 +5356,39 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="L66" s="7" t="s">
         <v>453</v>
       </c>
+      <c r="L66" s="1">
+        <v>650</v>
+      </c>
       <c r="M66" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N66" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N66" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C67" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -5202,36 +5397,39 @@
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="L67" s="7" t="s">
         <v>460</v>
       </c>
+      <c r="L67" s="1">
+        <v>650</v>
+      </c>
       <c r="M67" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N67" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N67" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C68" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -5240,36 +5438,39 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="L68" s="7" t="s">
         <v>467</v>
       </c>
+      <c r="L68" s="1">
+        <v>650</v>
+      </c>
       <c r="M68" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N68" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N68" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C69" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -5278,36 +5479,39 @@
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="L69" s="7" t="s">
         <v>474</v>
       </c>
+      <c r="L69" s="1">
+        <v>650</v>
+      </c>
       <c r="M69" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N69" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N69" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C70" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -5316,36 +5520,39 @@
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L70" s="7" t="s">
         <v>481</v>
       </c>
+      <c r="L70" s="1">
+        <v>650</v>
+      </c>
       <c r="M70" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N70" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N70" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C71" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -5354,36 +5561,39 @@
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="L71" s="7" t="s">
         <v>488</v>
       </c>
+      <c r="L71" s="1">
+        <v>700</v>
+      </c>
       <c r="M71" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N71" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N71" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C72" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -5392,36 +5602,39 @@
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="L72" s="7" t="s">
         <v>495</v>
       </c>
+      <c r="L72" s="1">
+        <v>700</v>
+      </c>
       <c r="M72" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N72" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N72" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C73" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
@@ -5430,36 +5643,39 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L73" s="7" t="s">
         <v>502</v>
       </c>
+      <c r="L73" s="1">
+        <v>700</v>
+      </c>
       <c r="M73" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N73" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N73" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C74" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -5468,36 +5684,39 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="L74" s="7" t="s">
         <v>509</v>
       </c>
+      <c r="L74" s="1">
+        <v>700</v>
+      </c>
       <c r="M74" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N74" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="N74" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C75" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
@@ -5506,36 +5725,39 @@
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="L75" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="L75" s="1">
+        <v>700</v>
+      </c>
       <c r="M75" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N75" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:14">
+      <c r="N75" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:15">
       <c r="C76" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -5553,24 +5775,27 @@
         <v>0</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="L76" s="7" t="s">
         <v>521</v>
       </c>
+      <c r="L76" s="1">
+        <v>750</v>
+      </c>
       <c r="M76" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N76" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:14">
+      <c r="N76" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:15">
       <c r="C77" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -5588,24 +5813,27 @@
         <v>0</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="L77" s="7" t="s">
         <v>526</v>
       </c>
+      <c r="L77" s="1">
+        <v>750</v>
+      </c>
       <c r="M77" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N77" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:14">
+      <c r="N77" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:15">
       <c r="C78" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -5623,24 +5851,27 @@
         <v>0</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="L78" s="7" t="s">
         <v>531</v>
       </c>
+      <c r="L78" s="1">
+        <v>750</v>
+      </c>
       <c r="M78" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N78" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:14">
+      <c r="N78" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:15">
       <c r="C79" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -5658,24 +5889,27 @@
         <v>0</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L79" s="7" t="s">
         <v>536</v>
       </c>
+      <c r="L79" s="1">
+        <v>750</v>
+      </c>
       <c r="M79" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N79" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:14">
+      <c r="N79" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:15">
       <c r="C80" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -5693,24 +5927,27 @@
         <v>0</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="L80" s="7" t="s">
         <v>541</v>
       </c>
+      <c r="L80" s="1">
+        <v>750</v>
+      </c>
       <c r="M80" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N80" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:14">
+      <c r="N80" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:15">
       <c r="C81" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -5728,24 +5965,27 @@
         <v>0</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="L81" s="7" t="s">
         <v>546</v>
+      </c>
+      <c r="L81" s="1">
+        <v>800</v>
       </c>
       <c r="M81" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N81" s="7" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:14">
+      <c r="O81" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:15">
       <c r="C82" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -5763,24 +6003,27 @@
         <v>0</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="L82" s="7" t="s">
         <v>552</v>
       </c>
+      <c r="L82" s="1">
+        <v>800</v>
+      </c>
       <c r="M82" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="N82" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:14">
+      <c r="N82" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:15">
       <c r="C83" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -5798,24 +6041,27 @@
         <v>0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="L83" s="7" t="s">
         <v>557</v>
       </c>
+      <c r="L83" s="1">
+        <v>800</v>
+      </c>
       <c r="M83" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="N83" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:14">
+      <c r="N83" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:15">
       <c r="C84" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -5833,24 +6079,27 @@
         <v>0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="L84" s="7" t="s">
         <v>562</v>
       </c>
+      <c r="L84" s="1">
+        <v>800</v>
+      </c>
       <c r="M84" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="N84" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:14">
+      <c r="N84" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:15">
       <c r="C85" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -5868,16 +6117,19 @@
         <v>0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="L85" s="7" t="s">
         <v>567</v>
       </c>
+      <c r="L85" s="1">
+        <v>800</v>
+      </c>
       <c r="M85" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="N85" s="1" t="s">
         <v>568</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="595">
   <si>
     <t>_Id</t>
   </si>
@@ -1839,6 +1839,81 @@
   </si>
   <si>
     <t>10079</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>噩梦土城外</t>
+  </si>
+  <si>
+    <t>梦魇狼爪</t>
+  </si>
+  <si>
+    <t>200850,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210010</t>
+  </si>
+  <si>
+    <t>10080</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>噩梦土城</t>
+  </si>
+  <si>
+    <t>梦魇虫皮</t>
+  </si>
+  <si>
+    <t>200851,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210011</t>
+  </si>
+  <si>
+    <t>10081</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>噩梦龙城外</t>
+  </si>
+  <si>
+    <t>梦魇鹰羽</t>
+  </si>
+  <si>
+    <t>200852,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210012</t>
+  </si>
+  <si>
+    <t>10082</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>噩梦龙城</t>
+  </si>
+  <si>
+    <t>梦魇虫角</t>
+  </si>
+  <si>
+    <t>200853,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210013</t>
+  </si>
+  <si>
+    <t>10083</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>噩梦圣域</t>
+  </si>
+  <si>
+    <t>梦魇蜈膏</t>
+  </si>
+  <si>
+    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210014</t>
+  </si>
+  <si>
+    <t>10084</t>
   </si>
 </sst>
 </file>
@@ -2852,14 +2927,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P85"/>
+  <dimension ref="C3:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L60" sqref="L6:L60"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6132,12 +6207,207 @@
         <v>569</v>
       </c>
     </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C86" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L86" s="1">
+        <v>850</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C87" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <v>3</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L87" s="1">
+        <v>850</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C88" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L88" s="1">
+        <v>850</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C89" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L89" s="1">
+        <v>850</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C90" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L90" s="1">
+        <v>850</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C85 C86:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C84 C85:C90 C91:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="616">
   <si>
     <t>_Id</t>
   </si>
@@ -1914,6 +1914,69 @@
   </si>
   <si>
     <t>10084</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>噩梦棺材</t>
+  </si>
+  <si>
+    <t>噩梦</t>
+  </si>
+  <si>
+    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210015</t>
+  </si>
+  <si>
+    <t>10085</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>噩梦一线天</t>
+  </si>
+  <si>
+    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210016</t>
+  </si>
+  <si>
+    <t>10086</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>噩梦石墓</t>
+  </si>
+  <si>
+    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210017</t>
+  </si>
+  <si>
+    <t>10087</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>噩梦猪洞</t>
+  </si>
+  <si>
+    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210018</t>
+  </si>
+  <si>
+    <t>10088</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>噩梦桃源</t>
+  </si>
+  <si>
+    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+  </si>
+  <si>
+    <t>10089</t>
   </si>
 </sst>
 </file>
@@ -2092,12 +2155,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2927,14 +2990,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P90"/>
+  <dimension ref="C3:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomRight" activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6223,7 +6286,6 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
-      <c r="H86" s="1"/>
       <c r="I86" s="1">
         <v>0</v>
       </c>
@@ -6262,7 +6324,6 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-      <c r="H87" s="1"/>
       <c r="I87" s="1">
         <v>0</v>
       </c>
@@ -6301,7 +6362,6 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="H88" s="1"/>
       <c r="I88" s="1">
         <v>0</v>
       </c>
@@ -6340,7 +6400,6 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="1"/>
       <c r="I89" s="1">
         <v>0</v>
       </c>
@@ -6379,7 +6438,9 @@
       <c r="G90" s="1">
         <v>0</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
@@ -6402,12 +6463,217 @@
         <v>594</v>
       </c>
     </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C91" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L91" s="1">
+        <v>900</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C92" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>3</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L92" s="1">
+        <v>900</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C93" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L93" s="1">
+        <v>900</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C94" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L94" s="1">
+        <v>900</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C95" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L95" s="1">
+        <v>900</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C84 C85:C90 C91:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C84 C85:C89 C90:C95 C96:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1925,7 +1925,7 @@
     <t>噩梦</t>
   </si>
   <si>
-    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210015</t>
+    <t>200900,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210015</t>
   </si>
   <si>
     <t>10085</t>
@@ -1937,7 +1937,7 @@
     <t>噩梦一线天</t>
   </si>
   <si>
-    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210016</t>
+    <t>200901,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210016</t>
   </si>
   <si>
     <t>10086</t>
@@ -1949,7 +1949,7 @@
     <t>噩梦石墓</t>
   </si>
   <si>
-    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210017</t>
+    <t>200902,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210017</t>
   </si>
   <si>
     <t>10087</t>
@@ -1961,7 +1961,7 @@
     <t>噩梦猪洞</t>
   </si>
   <si>
-    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210018</t>
+    <t>200903,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210018</t>
   </si>
   <si>
     <t>10088</t>
@@ -1973,7 +1973,7 @@
     <t>噩梦桃源</t>
   </si>
   <si>
-    <t>200854,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+    <t>200904,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
   </si>
   <si>
     <t>10089</t>
@@ -2993,11 +2993,11 @@
   <dimension ref="C3:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N99" sqref="N99"/>
+      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="620">
   <si>
     <t>_Id</t>
   </si>
@@ -1922,7 +1922,7 @@
     <t>噩梦棺材</t>
   </si>
   <si>
-    <t>噩梦</t>
+    <t>梦魇钳爪</t>
   </si>
   <si>
     <t>200900,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210015</t>
@@ -1937,6 +1937,9 @@
     <t>噩梦一线天</t>
   </si>
   <si>
+    <t>梦魇龙皮</t>
+  </si>
+  <si>
     <t>200901,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210016</t>
   </si>
   <si>
@@ -1949,6 +1952,9 @@
     <t>噩梦石墓</t>
   </si>
   <si>
+    <t>梦魇猪皮</t>
+  </si>
+  <si>
     <t>200902,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210017</t>
   </si>
   <si>
@@ -1961,6 +1967,9 @@
     <t>噩梦猪洞</t>
   </si>
   <si>
+    <t>梦魇猪心</t>
+  </si>
+  <si>
     <t>200903,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210018</t>
   </si>
   <si>
@@ -1971,6 +1980,9 @@
   </si>
   <si>
     <t>噩梦桃源</t>
+  </si>
+  <si>
+    <t>梦魇蝎皮</t>
   </si>
   <si>
     <t>200904,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
@@ -2993,11 +3005,11 @@
   <dimension ref="C3:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
+      <selection pane="bottomRight" activeCell="K91" sqref="K91:K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6530,27 +6542,27 @@
         <v>0</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L92" s="1">
         <v>900</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N92" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C93" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -6571,27 +6583,27 @@
         <v>0</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="L93" s="1">
         <v>900</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N93" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C94" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -6612,27 +6624,27 @@
         <v>0</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="L94" s="1">
         <v>900</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C95" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -6653,19 +6665,19 @@
         <v>0</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="L95" s="1">
         <v>900</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="N95" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="621">
   <si>
     <t>_Id</t>
   </si>
@@ -1916,13 +1916,16 @@
     <t>10084</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>1085</t>
   </si>
   <si>
     <t>噩梦棺材</t>
   </si>
   <si>
-    <t>梦魇钳爪</t>
+    <t>梦魇虫心</t>
   </si>
   <si>
     <t>200900,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210015</t>
@@ -3002,7 +3005,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P95"/>
+  <dimension ref="A3:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
@@ -6475,12 +6478,18 @@
         <v>594</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:15">
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A91" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -6501,27 +6510,33 @@
         <v>0</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L91" s="1">
         <v>900</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N91" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A92" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="C92" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -6542,27 +6557,33 @@
         <v>0</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L92" s="1">
         <v>900</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N92" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A93" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -6583,27 +6604,33 @@
         <v>0</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L93" s="1">
         <v>900</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N93" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A94" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="C94" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -6624,27 +6651,33 @@
         <v>0</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L94" s="1">
         <v>900</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A95" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -6665,19 +6698,19 @@
         <v>0</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L95" s="1">
         <v>900</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N95" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="620">
   <si>
     <t>_Id</t>
   </si>
@@ -1914,9 +1914,6 @@
   </si>
   <si>
     <t>10084</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>1085</t>
@@ -3005,14 +3002,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P95"/>
+  <dimension ref="C3:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91:K95"/>
+      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6478,18 +6475,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A91" s="1" t="s">
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C91" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -6510,33 +6501,27 @@
         <v>0</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L91" s="1">
         <v>900</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N91" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O91" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C92" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A92" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -6557,33 +6542,27 @@
         <v>0</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L92" s="1">
         <v>900</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N92" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O92" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C93" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A93" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -6604,33 +6583,27 @@
         <v>0</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L93" s="1">
         <v>900</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N93" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O93" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C94" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A94" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -6651,33 +6624,27 @@
         <v>0</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L94" s="1">
         <v>900</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O94" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C95" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A95" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -6698,19 +6665,19 @@
         <v>0</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L95" s="1">
         <v>900</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N95" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="646">
   <si>
     <t>_Id</t>
   </si>
@@ -1989,6 +1989,84 @@
   </si>
   <si>
     <t>10089</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>噩梦沃玛禁地</t>
+  </si>
+  <si>
+    <t>梦魇宝甲</t>
+  </si>
+  <si>
+    <t>200950,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+  </si>
+  <si>
+    <t>10090</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>噩梦沃玛大殿</t>
+  </si>
+  <si>
+    <t>梦魇号角</t>
+  </si>
+  <si>
+    <t>200951,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+  </si>
+  <si>
+    <t>10091</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>噩梦祖玛禁地</t>
+  </si>
+  <si>
+    <t>梦魇头像</t>
+  </si>
+  <si>
+    <t>200952,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+  </si>
+  <si>
+    <t>10092</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>噩梦祖玛大殿</t>
+  </si>
+  <si>
+    <t>梦魇雕像</t>
+  </si>
+  <si>
+    <t>200953,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+  </si>
+  <si>
+    <t>10093</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>噩梦封魔殿</t>
+  </si>
+  <si>
+    <t>梦魇虹魔</t>
+  </si>
+  <si>
+    <t>200954,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+  </si>
+  <si>
+    <t>10094</t>
   </si>
 </sst>
 </file>
@@ -3002,14 +3080,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P95"/>
+  <dimension ref="A3:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6680,12 +6758,247 @@
         <v>619</v>
       </c>
     </row>
+    <row r="96" customHeight="1" spans="1:15">
+      <c r="A96" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L96" s="1">
+        <v>950</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:15">
+      <c r="A97" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L97" s="1">
+        <v>950</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:15">
+      <c r="A98" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="L98" s="1">
+        <v>950</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:15">
+      <c r="A99" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="L99" s="1">
+        <v>950</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:15">
+      <c r="A100" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L100" s="1">
+        <v>950</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C84 C85:C89 C90:C95 C96:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C84 C85:C89 C90:C94 C95:C100 C101:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="645">
   <si>
     <t>_Id</t>
   </si>
@@ -1989,9 +1989,6 @@
   </si>
   <si>
     <t>10089</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>1090</t>
@@ -3080,14 +3077,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P100"/>
+  <dimension ref="C3:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="M78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6758,18 +6755,12 @@
         <v>619</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:15">
-      <c r="A96" s="1" t="s">
+    <row r="96" customHeight="1" spans="3:15">
+      <c r="C96" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -6790,33 +6781,27 @@
         <v>0</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L96" s="1">
         <v>950</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O96" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:15">
+      <c r="C97" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:15">
-      <c r="A97" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
@@ -6837,33 +6822,27 @@
         <v>0</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L97" s="1">
         <v>950</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O97" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:15">
+      <c r="C98" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:15">
-      <c r="A98" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -6884,33 +6863,27 @@
         <v>0</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L98" s="1">
         <v>950</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N98" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O98" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:15">
+      <c r="C99" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:15">
-      <c r="A99" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -6931,33 +6904,27 @@
         <v>0</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L99" s="1">
         <v>950</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O99" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:15">
+      <c r="C100" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:15">
-      <c r="A100" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -6978,19 +6945,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L100" s="1">
         <v>950</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N100" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -2000,7 +2000,7 @@
     <t>梦魇宝甲</t>
   </si>
   <si>
-    <t>200950,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+    <t>200950,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210020</t>
   </si>
   <si>
     <t>10090</t>
@@ -2015,7 +2015,7 @@
     <t>梦魇号角</t>
   </si>
   <si>
-    <t>200951,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+    <t>200951,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210021</t>
   </si>
   <si>
     <t>10091</t>
@@ -2030,7 +2030,7 @@
     <t>梦魇头像</t>
   </si>
   <si>
-    <t>200952,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+    <t>200952,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210022</t>
   </si>
   <si>
     <t>10092</t>
@@ -2045,7 +2045,7 @@
     <t>梦魇雕像</t>
   </si>
   <si>
-    <t>200953,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+    <t>200953,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210023</t>
   </si>
   <si>
     <t>10093</t>
@@ -2060,7 +2060,7 @@
     <t>梦魇虹魔</t>
   </si>
   <si>
-    <t>200954,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210019</t>
+    <t>200954,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
   </si>
   <si>
     <t>10094</t>
@@ -3084,7 +3084,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96:B100"/>
+      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -1997,7 +1997,7 @@
     <t>噩梦沃玛禁地</t>
   </si>
   <si>
-    <t>梦魇宝甲</t>
+    <t>噩梦宝甲</t>
   </si>
   <si>
     <t>200950,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210020</t>
@@ -2012,7 +2012,7 @@
     <t>噩梦沃玛大殿</t>
   </si>
   <si>
-    <t>梦魇号角</t>
+    <t>噩梦号角</t>
   </si>
   <si>
     <t>200951,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210021</t>
@@ -2027,7 +2027,7 @@
     <t>噩梦祖玛禁地</t>
   </si>
   <si>
-    <t>梦魇头像</t>
+    <t>噩梦雕像</t>
   </si>
   <si>
     <t>200952,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210022</t>
@@ -2042,7 +2042,7 @@
     <t>噩梦祖玛大殿</t>
   </si>
   <si>
-    <t>梦魇雕像</t>
+    <t>噩梦权杖</t>
   </si>
   <si>
     <t>200953,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210023</t>
@@ -2057,7 +2057,7 @@
     <t>噩梦封魔殿</t>
   </si>
   <si>
-    <t>梦魇虹魔</t>
+    <t>噩梦獠牙</t>
   </si>
   <si>
     <t>200954,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
@@ -3080,11 +3080,11 @@
   <dimension ref="C3:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
+      <selection pane="bottomRight" activeCell="K96" sqref="K96:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="663">
   <si>
     <t>_Id</t>
   </si>
@@ -2064,6 +2064,60 @@
   </si>
   <si>
     <t>10094</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>噩梦树心</t>
+  </si>
+  <si>
+    <t>201001,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+  </si>
+  <si>
+    <t>10095</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>噩梦魔心</t>
+  </si>
+  <si>
+    <t>201002,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>噩梦尸心</t>
+  </si>
+  <si>
+    <t>201003,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+  </si>
+  <si>
+    <t>10097</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>噩梦法杖</t>
+  </si>
+  <si>
+    <t>201004,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+  </si>
+  <si>
+    <t>10098</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>10099</t>
   </si>
 </sst>
 </file>
@@ -3077,14 +3131,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P100"/>
+  <dimension ref="C3:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M84" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K96" sqref="K96:K100"/>
+      <selection pane="bottomRight" activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6960,12 +7014,217 @@
         <v>644</v>
       </c>
     </row>
+    <row r="101" customHeight="1" spans="3:15">
+      <c r="C101" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:15">
+      <c r="C102" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:15">
+      <c r="C103" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:15">
+      <c r="C104" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:15">
+      <c r="C105" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 C6:C74 C75:C79 C80:C84 C85:C89 C90:C94 C95:C100 C101:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C99 C100:C105 C106:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="664">
   <si>
     <t>_Id</t>
   </si>
@@ -2072,7 +2072,7 @@
     <t>噩梦树心</t>
   </si>
   <si>
-    <t>201001,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+    <t>201001,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210025</t>
   </si>
   <si>
     <t>10095</t>
@@ -2084,7 +2084,7 @@
     <t>噩梦魔心</t>
   </si>
   <si>
-    <t>201002,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+    <t>201002,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210026</t>
   </si>
   <si>
     <t>10096</t>
@@ -2096,7 +2096,7 @@
     <t>噩梦尸心</t>
   </si>
   <si>
-    <t>201003,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+    <t>201003,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210027</t>
   </si>
   <si>
     <t>10097</t>
@@ -2108,13 +2108,16 @@
     <t>噩梦法杖</t>
   </si>
   <si>
-    <t>201004,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+    <t>201004,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210028</t>
   </si>
   <si>
     <t>10098</t>
   </si>
   <si>
     <t>1099</t>
+  </si>
+  <si>
+    <t>201004,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210029</t>
   </si>
   <si>
     <t>10099</t>
@@ -3138,7 +3141,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N109" sqref="N109"/>
+      <selection pane="bottomRight" activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7210,13 +7213,13 @@
         <v>1000</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N105" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -7224,7 +7227,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C99 C100:C105 C106:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="670">
   <si>
     <t>_Id</t>
   </si>
@@ -2042,79 +2042,97 @@
     <t>噩梦祖玛大殿</t>
   </si>
   <si>
+    <t>噩梦神像</t>
+  </si>
+  <si>
+    <t>200953,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210023</t>
+  </si>
+  <si>
+    <t>10093</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>噩梦封魔殿</t>
+  </si>
+  <si>
+    <t>噩梦獠牙</t>
+  </si>
+  <si>
+    <t>200954,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
+  </si>
+  <si>
+    <t>10094</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>噩梦烈焰</t>
+  </si>
+  <si>
+    <t>噩梦树心</t>
+  </si>
+  <si>
+    <t>201000,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210025</t>
+  </si>
+  <si>
+    <t>10095</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>噩梦封魔</t>
+  </si>
+  <si>
+    <t>噩梦魔心</t>
+  </si>
+  <si>
+    <t>201001,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210026</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>噩梦尸魔</t>
+  </si>
+  <si>
+    <t>噩梦尸心</t>
+  </si>
+  <si>
+    <t>201002,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210027</t>
+  </si>
+  <si>
+    <t>10097</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>噩梦骨魔</t>
+  </si>
+  <si>
+    <t>噩梦法杖</t>
+  </si>
+  <si>
+    <t>201003,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210028</t>
+  </si>
+  <si>
+    <t>10098</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>噩梦牛魔</t>
+  </si>
+  <si>
     <t>噩梦权杖</t>
-  </si>
-  <si>
-    <t>200953,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210023</t>
-  </si>
-  <si>
-    <t>10093</t>
-  </si>
-  <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>噩梦封魔殿</t>
-  </si>
-  <si>
-    <t>噩梦獠牙</t>
-  </si>
-  <si>
-    <t>200954,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210024</t>
-  </si>
-  <si>
-    <t>10094</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>噩梦树心</t>
-  </si>
-  <si>
-    <t>201001,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210025</t>
-  </si>
-  <si>
-    <t>10095</t>
-  </si>
-  <si>
-    <t>1096</t>
-  </si>
-  <si>
-    <t>噩梦魔心</t>
-  </si>
-  <si>
-    <t>201002,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210026</t>
-  </si>
-  <si>
-    <t>10096</t>
-  </si>
-  <si>
-    <t>1097</t>
-  </si>
-  <si>
-    <t>噩梦尸心</t>
-  </si>
-  <si>
-    <t>201003,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210027</t>
-  </si>
-  <si>
-    <t>10097</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>噩梦法杖</t>
-  </si>
-  <si>
-    <t>201004,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210028</t>
-  </si>
-  <si>
-    <t>10098</t>
-  </si>
-  <si>
-    <t>1099</t>
   </si>
   <si>
     <t>201004,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210029</t>
@@ -3137,11 +3155,11 @@
   <dimension ref="C3:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G82" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M106" sqref="M106"/>
+      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7022,7 +7040,7 @@
         <v>645</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>450</v>
+        <v>646</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -7043,27 +7061,27 @@
         <v>0</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L101" s="1">
         <v>1000</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:15">
       <c r="C102" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>457</v>
+        <v>651</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -7084,27 +7102,27 @@
         <v>0</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L102" s="1">
         <v>1000</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N102" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:15">
       <c r="C103" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>464</v>
+        <v>656</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -7125,27 +7143,27 @@
         <v>0</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L103" s="1">
         <v>1000</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="N103" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="3:15">
       <c r="C104" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>471</v>
+        <v>661</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -7166,27 +7184,27 @@
         <v>0</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="L104" s="1">
         <v>1000</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="N104" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:15">
       <c r="C105" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>478</v>
+        <v>666</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -7207,19 +7225,19 @@
         <v>0</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="L105" s="1">
         <v>1000</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="N105" s="7" t="s">
         <v>548</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="700">
   <si>
     <t>_Id</t>
   </si>
@@ -1694,6 +1694,9 @@
     <t>噩梦小村</t>
   </si>
   <si>
+    <t>750-1</t>
+  </si>
+  <si>
     <t>红装,梦魇鸡爪</t>
   </si>
   <si>
@@ -1709,6 +1712,9 @@
     <t>噩梦村外</t>
   </si>
   <si>
+    <t>750-2</t>
+  </si>
+  <si>
     <t>梦魇鹿茸</t>
   </si>
   <si>
@@ -1724,6 +1730,9 @@
     <t>噩梦城外</t>
   </si>
   <si>
+    <t>750-3</t>
+  </si>
+  <si>
     <t>梦魇草帽</t>
   </si>
   <si>
@@ -1739,6 +1748,9 @@
     <t>噩梦老城</t>
   </si>
   <si>
+    <t>750-4</t>
+  </si>
+  <si>
     <t>梦魇猫爪</t>
   </si>
   <si>
@@ -1754,6 +1766,9 @@
     <t>噩梦森林</t>
   </si>
   <si>
+    <t>750-5</t>
+  </si>
+  <si>
     <t>梦魇花朵</t>
   </si>
   <si>
@@ -1769,6 +1784,9 @@
     <t>噩梦洞穴</t>
   </si>
   <si>
+    <t>800-1</t>
+  </si>
+  <si>
     <t>梦魇冰晶</t>
   </si>
   <si>
@@ -1787,6 +1805,9 @@
     <t>噩梦骷髅洞</t>
   </si>
   <si>
+    <t>800-2</t>
+  </si>
+  <si>
     <t>梦魇蝠翼</t>
   </si>
   <si>
@@ -1802,6 +1823,9 @@
     <t>噩梦通道</t>
   </si>
   <si>
+    <t>800-3</t>
+  </si>
+  <si>
     <t>梦魇魂火</t>
   </si>
   <si>
@@ -1817,6 +1841,9 @@
     <t>噩梦尸洞</t>
   </si>
   <si>
+    <t>800-4</t>
+  </si>
+  <si>
     <t>梦魇腐肉</t>
   </si>
   <si>
@@ -1832,6 +1859,9 @@
     <t>噩梦蛇谷</t>
   </si>
   <si>
+    <t>800-5</t>
+  </si>
+  <si>
     <t>梦魇蛇胆</t>
   </si>
   <si>
@@ -1847,6 +1877,9 @@
     <t>噩梦土城外</t>
   </si>
   <si>
+    <t>850-1</t>
+  </si>
+  <si>
     <t>梦魇狼爪</t>
   </si>
   <si>
@@ -1862,6 +1895,9 @@
     <t>噩梦土城</t>
   </si>
   <si>
+    <t>850-2</t>
+  </si>
+  <si>
     <t>梦魇虫皮</t>
   </si>
   <si>
@@ -1877,6 +1913,9 @@
     <t>噩梦龙城外</t>
   </si>
   <si>
+    <t>850-3</t>
+  </si>
+  <si>
     <t>梦魇鹰羽</t>
   </si>
   <si>
@@ -1892,6 +1931,9 @@
     <t>噩梦龙城</t>
   </si>
   <si>
+    <t>850-4</t>
+  </si>
+  <si>
     <t>梦魇虫角</t>
   </si>
   <si>
@@ -1907,6 +1949,9 @@
     <t>噩梦圣域</t>
   </si>
   <si>
+    <t>850-5</t>
+  </si>
+  <si>
     <t>梦魇蜈膏</t>
   </si>
   <si>
@@ -1922,6 +1967,9 @@
     <t>噩梦棺材</t>
   </si>
   <si>
+    <t>900-1</t>
+  </si>
+  <si>
     <t>梦魇虫心</t>
   </si>
   <si>
@@ -1937,6 +1985,9 @@
     <t>噩梦一线天</t>
   </si>
   <si>
+    <t>900-2</t>
+  </si>
+  <si>
     <t>梦魇龙皮</t>
   </si>
   <si>
@@ -1952,6 +2003,9 @@
     <t>噩梦石墓</t>
   </si>
   <si>
+    <t>900-3</t>
+  </si>
+  <si>
     <t>梦魇猪皮</t>
   </si>
   <si>
@@ -1967,6 +2021,9 @@
     <t>噩梦猪洞</t>
   </si>
   <si>
+    <t>900-4</t>
+  </si>
+  <si>
     <t>梦魇猪心</t>
   </si>
   <si>
@@ -1982,6 +2039,9 @@
     <t>噩梦桃源</t>
   </si>
   <si>
+    <t>900-5</t>
+  </si>
+  <si>
     <t>梦魇蝎皮</t>
   </si>
   <si>
@@ -1997,6 +2057,9 @@
     <t>噩梦沃玛禁地</t>
   </si>
   <si>
+    <t>950-1</t>
+  </si>
+  <si>
     <t>噩梦宝甲</t>
   </si>
   <si>
@@ -2012,6 +2075,9 @@
     <t>噩梦沃玛大殿</t>
   </si>
   <si>
+    <t>950-2</t>
+  </si>
+  <si>
     <t>噩梦号角</t>
   </si>
   <si>
@@ -2027,6 +2093,9 @@
     <t>噩梦祖玛禁地</t>
   </si>
   <si>
+    <t>950-3</t>
+  </si>
+  <si>
     <t>噩梦雕像</t>
   </si>
   <si>
@@ -2042,6 +2111,9 @@
     <t>噩梦祖玛大殿</t>
   </si>
   <si>
+    <t>950-4</t>
+  </si>
+  <si>
     <t>噩梦神像</t>
   </si>
   <si>
@@ -2057,6 +2129,9 @@
     <t>噩梦封魔殿</t>
   </si>
   <si>
+    <t>950-5</t>
+  </si>
+  <si>
     <t>噩梦獠牙</t>
   </si>
   <si>
@@ -2072,6 +2147,9 @@
     <t>噩梦烈焰</t>
   </si>
   <si>
+    <t>1000-1</t>
+  </si>
+  <si>
     <t>噩梦树心</t>
   </si>
   <si>
@@ -2087,6 +2165,9 @@
     <t>噩梦封魔</t>
   </si>
   <si>
+    <t>1000-2</t>
+  </si>
+  <si>
     <t>噩梦魔心</t>
   </si>
   <si>
@@ -2102,6 +2183,9 @@
     <t>噩梦尸魔</t>
   </si>
   <si>
+    <t>1000-3</t>
+  </si>
+  <si>
     <t>噩梦尸心</t>
   </si>
   <si>
@@ -2117,6 +2201,9 @@
     <t>噩梦骨魔</t>
   </si>
   <si>
+    <t>1000-4</t>
+  </si>
+  <si>
     <t>噩梦法杖</t>
   </si>
   <si>
@@ -2130,6 +2217,9 @@
   </si>
   <si>
     <t>噩梦牛魔</t>
+  </si>
+  <si>
+    <t>1000-5</t>
   </si>
   <si>
     <t>噩梦权杖</t>
@@ -3155,11 +3245,11 @@
   <dimension ref="C3:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3277,7 +3367,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>22</v>
@@ -6065,8 +6155,8 @@
       <c r="F76" s="1">
         <v>3</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
+      <c r="G76" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -6075,27 +6165,27 @@
         <v>0</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L76" s="1">
         <v>750</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N76" s="7" t="s">
         <v>419</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:15">
       <c r="C77" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -6103,8 +6193,8 @@
       <c r="F77" s="1">
         <v>3</v>
       </c>
-      <c r="G77" s="1">
-        <v>0</v>
+      <c r="G77" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -6113,27 +6203,27 @@
         <v>0</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L77" s="1">
         <v>750</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>419</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:15">
       <c r="C78" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -6141,8 +6231,8 @@
       <c r="F78" s="1">
         <v>3</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
+      <c r="G78" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -6151,27 +6241,27 @@
         <v>0</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L78" s="1">
         <v>750</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N78" s="7" t="s">
         <v>419</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:15">
       <c r="C79" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -6179,8 +6269,8 @@
       <c r="F79" s="1">
         <v>3</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
+      <c r="G79" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -6189,27 +6279,27 @@
         <v>0</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L79" s="1">
         <v>750</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N79" s="7" t="s">
         <v>419</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:15">
       <c r="C80" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -6217,8 +6307,8 @@
       <c r="F80" s="1">
         <v>3</v>
       </c>
-      <c r="G80" s="1">
-        <v>0</v>
+      <c r="G80" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -6227,27 +6317,27 @@
         <v>0</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L80" s="1">
         <v>750</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="N80" s="7" t="s">
         <v>419</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:15">
       <c r="C81" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -6255,8 +6345,8 @@
       <c r="F81" s="1">
         <v>3</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
+      <c r="G81" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -6265,27 +6355,27 @@
         <v>0</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L81" s="1">
         <v>800</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:15">
       <c r="C82" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -6293,8 +6383,8 @@
       <c r="F82" s="1">
         <v>3</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
+      <c r="G82" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -6303,27 +6393,27 @@
         <v>0</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="L82" s="1">
         <v>800</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:15">
       <c r="C83" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -6331,8 +6421,8 @@
       <c r="F83" s="1">
         <v>3</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
+      <c r="G83" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -6341,27 +6431,27 @@
         <v>0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L83" s="1">
         <v>800</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:15">
       <c r="C84" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -6369,8 +6459,8 @@
       <c r="F84" s="1">
         <v>3</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
+      <c r="G84" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -6379,27 +6469,27 @@
         <v>0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L84" s="1">
         <v>800</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:15">
       <c r="C85" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -6407,8 +6497,8 @@
       <c r="F85" s="1">
         <v>3</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
+      <c r="G85" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -6417,27 +6507,27 @@
         <v>0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L85" s="1">
         <v>800</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C86" s="1" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
@@ -6445,8 +6535,8 @@
       <c r="F86" s="1">
         <v>3</v>
       </c>
-      <c r="G86" s="1">
-        <v>0</v>
+      <c r="G86" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -6455,27 +6545,27 @@
         <v>0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="L86" s="1">
         <v>850</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C87" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -6483,8 +6573,8 @@
       <c r="F87" s="1">
         <v>3</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
+      <c r="G87" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -6493,27 +6583,27 @@
         <v>0</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="L87" s="1">
         <v>850</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C88" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -6521,8 +6611,8 @@
       <c r="F88" s="1">
         <v>3</v>
       </c>
-      <c r="G88" s="1">
-        <v>0</v>
+      <c r="G88" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -6531,27 +6621,27 @@
         <v>0</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="L88" s="1">
         <v>850</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C89" s="1" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
@@ -6559,8 +6649,8 @@
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="1">
-        <v>0</v>
+      <c r="G89" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
@@ -6569,27 +6659,27 @@
         <v>0</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L89" s="1">
         <v>850</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C90" s="1" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="E90" s="1">
         <v>3</v>
@@ -6597,8 +6687,8 @@
       <c r="F90" s="1">
         <v>3</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
+      <c r="G90" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
@@ -6610,27 +6700,27 @@
         <v>0</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="L90" s="1">
         <v>850</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C91" s="1" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -6638,8 +6728,8 @@
       <c r="F91" s="1">
         <v>3</v>
       </c>
-      <c r="G91" s="1">
-        <v>0</v>
+      <c r="G91" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -6651,27 +6741,27 @@
         <v>0</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="L91" s="1">
         <v>900</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C92" s="1" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -6679,8 +6769,8 @@
       <c r="F92" s="1">
         <v>3</v>
       </c>
-      <c r="G92" s="1">
-        <v>0</v>
+      <c r="G92" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -6692,27 +6782,27 @@
         <v>0</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="L92" s="1">
         <v>900</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C93" s="1" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -6720,8 +6810,8 @@
       <c r="F93" s="1">
         <v>3</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
+      <c r="G93" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -6733,27 +6823,27 @@
         <v>0</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="L93" s="1">
         <v>900</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C94" s="1" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -6761,8 +6851,8 @@
       <c r="F94" s="1">
         <v>3</v>
       </c>
-      <c r="G94" s="1">
-        <v>0</v>
+      <c r="G94" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -6774,27 +6864,27 @@
         <v>0</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="L94" s="1">
         <v>900</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C95" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -6802,8 +6892,8 @@
       <c r="F95" s="1">
         <v>3</v>
       </c>
-      <c r="G95" s="1">
-        <v>0</v>
+      <c r="G95" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
@@ -6815,27 +6905,27 @@
         <v>0</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="L95" s="1">
         <v>900</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:15">
       <c r="C96" s="1" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -6843,8 +6933,8 @@
       <c r="F96" s="1">
         <v>3</v>
       </c>
-      <c r="G96" s="1">
-        <v>0</v>
+      <c r="G96" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
@@ -6856,27 +6946,27 @@
         <v>0</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="L96" s="1">
         <v>950</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="3:15">
       <c r="C97" s="1" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
@@ -6884,8 +6974,8 @@
       <c r="F97" s="1">
         <v>3</v>
       </c>
-      <c r="G97" s="1">
-        <v>0</v>
+      <c r="G97" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -6897,27 +6987,27 @@
         <v>0</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="L97" s="1">
         <v>950</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="3:15">
       <c r="C98" s="1" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -6925,8 +7015,8 @@
       <c r="F98" s="1">
         <v>3</v>
       </c>
-      <c r="G98" s="1">
-        <v>0</v>
+      <c r="G98" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -6938,27 +7028,27 @@
         <v>0</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="L98" s="1">
         <v>950</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="3:15">
       <c r="C99" s="1" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -6966,8 +7056,8 @@
       <c r="F99" s="1">
         <v>3</v>
       </c>
-      <c r="G99" s="1">
-        <v>0</v>
+      <c r="G99" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -6979,27 +7069,27 @@
         <v>0</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="L99" s="1">
         <v>950</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:15">
       <c r="C100" s="1" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -7007,8 +7097,8 @@
       <c r="F100" s="1">
         <v>3</v>
       </c>
-      <c r="G100" s="1">
-        <v>0</v>
+      <c r="G100" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -7020,27 +7110,27 @@
         <v>0</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="L100" s="1">
         <v>950</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:15">
       <c r="C101" s="1" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -7048,8 +7138,8 @@
       <c r="F101" s="1">
         <v>3</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
+      <c r="G101" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -7061,27 +7151,27 @@
         <v>0</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="L101" s="1">
         <v>1000</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:15">
       <c r="C102" s="1" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -7089,8 +7179,8 @@
       <c r="F102" s="1">
         <v>3</v>
       </c>
-      <c r="G102" s="1">
-        <v>0</v>
+      <c r="G102" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -7102,27 +7192,27 @@
         <v>0</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="L102" s="1">
         <v>1000</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:15">
       <c r="C103" s="1" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -7130,8 +7220,8 @@
       <c r="F103" s="1">
         <v>3</v>
       </c>
-      <c r="G103" s="1">
-        <v>0</v>
+      <c r="G103" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -7143,27 +7233,27 @@
         <v>0</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="L103" s="1">
         <v>1000</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="3:15">
       <c r="C104" s="1" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -7171,8 +7261,8 @@
       <c r="F104" s="1">
         <v>3</v>
       </c>
-      <c r="G104" s="1">
-        <v>0</v>
+      <c r="G104" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
@@ -7184,27 +7274,27 @@
         <v>0</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="L104" s="1">
         <v>1000</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:15">
       <c r="C105" s="1" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -7212,8 +7302,8 @@
       <c r="F105" s="1">
         <v>3</v>
       </c>
-      <c r="G105" s="1">
-        <v>0</v>
+      <c r="G105" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -7225,19 +7315,19 @@
         <v>0</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="L105" s="1">
         <v>1000</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="726">
   <si>
     <t>_Id</t>
   </si>
@@ -2229,6 +2229,84 @@
   </si>
   <si>
     <t>10099</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>噩梦峡谷</t>
+  </si>
+  <si>
+    <t>1050-1</t>
+  </si>
+  <si>
+    <t>201050,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210030</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>噩梦祭坛</t>
+  </si>
+  <si>
+    <t>1050-2</t>
+  </si>
+  <si>
+    <t>201051,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210031</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>噩梦魔巢</t>
+  </si>
+  <si>
+    <t>1050-3</t>
+  </si>
+  <si>
+    <t>201052,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210032</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>噩梦魔龙</t>
+  </si>
+  <si>
+    <t>1050-4</t>
+  </si>
+  <si>
+    <t>201053,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210033</t>
+  </si>
+  <si>
+    <t>10103</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>噩梦火龙</t>
+  </si>
+  <si>
+    <t>1050-5</t>
+  </si>
+  <si>
+    <t>201054,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210034</t>
+  </si>
+  <si>
+    <t>10104</t>
   </si>
 </sst>
 </file>
@@ -3242,14 +3320,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P105"/>
+  <dimension ref="A3:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7330,12 +7408,247 @@
         <v>699</v>
       </c>
     </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A106" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1050</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A107" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1050</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A108" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1050</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A109" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1050</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A110" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1050</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="N110" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C104 C105:C110 C111:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="730">
   <si>
     <t>_Id</t>
   </si>
@@ -2231,9 +2231,6 @@
     <t>10099</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>1100</t>
   </si>
   <si>
@@ -2243,6 +2240,9 @@
     <t>1050-1</t>
   </si>
   <si>
+    <t>噩梦战锤</t>
+  </si>
+  <si>
     <t>201050,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210030</t>
   </si>
   <si>
@@ -2258,6 +2258,9 @@
     <t>1050-2</t>
   </si>
   <si>
+    <t>噩梦血核</t>
+  </si>
+  <si>
     <t>201051,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210031</t>
   </si>
   <si>
@@ -2273,6 +2276,9 @@
     <t>1050-3</t>
   </si>
   <si>
+    <t>噩梦魔核</t>
+  </si>
+  <si>
     <t>201052,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210032</t>
   </si>
   <si>
@@ -2288,6 +2294,9 @@
     <t>1050-4</t>
   </si>
   <si>
+    <t>噩梦龙甲</t>
+  </si>
+  <si>
     <t>201053,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210033</t>
   </si>
   <si>
@@ -2301,6 +2310,9 @@
   </si>
   <si>
     <t>1050-5</t>
+  </si>
+  <si>
+    <t>噩梦龙爪</t>
   </si>
   <si>
     <t>201054,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210034</t>
@@ -3320,14 +3332,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P110"/>
+  <dimension ref="C3:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M117" sqref="M117"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7408,39 +7420,33 @@
         <v>699</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A106" s="1" t="s">
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C106" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-      <c r="F106" s="1">
-        <v>2</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1">
-        <v>0</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="L106" s="1">
         <v>1050</v>
@@ -7455,13 +7461,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A107" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>700</v>
-      </c>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C107" s="1" t="s">
         <v>706</v>
       </c>
@@ -7487,33 +7487,27 @@
         <v>0</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>495</v>
+        <v>709</v>
       </c>
       <c r="L107" s="1">
         <v>1050</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N107" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A108" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>700</v>
-      </c>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C108" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
@@ -7522,7 +7516,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -7534,33 +7528,27 @@
         <v>0</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>502</v>
+        <v>715</v>
       </c>
       <c r="L108" s="1">
         <v>1050</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="N108" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A109" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>700</v>
-      </c>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C109" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E109" s="1">
         <v>2</v>
@@ -7569,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -7581,33 +7569,27 @@
         <v>0</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>509</v>
+        <v>721</v>
       </c>
       <c r="L109" s="1">
         <v>1050</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N109" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A110" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>700</v>
-      </c>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C110" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E110" s="1">
         <v>2</v>
@@ -7616,7 +7598,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
@@ -7628,19 +7610,19 @@
         <v>0</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="L110" s="1">
         <v>1050</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="N110" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -7648,7 +7630,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C104 C105:C110 C111:C1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C1048576" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="731">
   <si>
     <t>_Id</t>
   </si>
@@ -2229,6 +2229,9 @@
   </si>
   <si>
     <t>10099</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>1100</t>
@@ -3332,14 +3335,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P110"/>
+  <dimension ref="A3:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
+      <selection pane="bottomRight" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7420,12 +7423,18 @@
         <v>699</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:15">
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A106" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -7434,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -7446,27 +7455,33 @@
         <v>0</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L106" s="1">
         <v>1050</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N106" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A107" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
@@ -7475,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -7487,27 +7502,33 @@
         <v>0</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L107" s="1">
         <v>1050</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N107" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A108" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
@@ -7516,7 +7537,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -7528,27 +7549,33 @@
         <v>0</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L108" s="1">
         <v>1050</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N108" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A109" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E109" s="1">
         <v>2</v>
@@ -7557,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -7569,27 +7596,33 @@
         <v>0</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L109" s="1">
         <v>1050</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N109" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A110" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E110" s="1">
         <v>2</v>
@@ -7598,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
@@ -7610,19 +7643,19 @@
         <v>0</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L110" s="1">
         <v>1050</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N110" s="7" t="s">
         <v>554</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -30,79 +30,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
-    <author>nugua</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填写不同位置对应的地图ID，格式为 位置：地图ID，多个之间逗号
-地图位置对应为 以中心点为0，周围12345678 共8个位置</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>nugua:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最小等级，最大等级
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>nugua:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最小等级，最大等级
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="775">
   <si>
     <t>_Id</t>
   </si>
@@ -146,15 +76,6 @@
     <t>进入等级要求</t>
   </si>
   <si>
-    <t>周围地图ID</t>
-  </si>
-  <si>
-    <t>怪物最小等级</t>
-  </si>
-  <si>
-    <t>怪物最大等级</t>
-  </si>
-  <si>
     <t>Memo</t>
   </si>
   <si>
@@ -176,15 +97,6 @@
     <t>LevelRequired</t>
   </si>
   <si>
-    <t>MapAfter</t>
-  </si>
-  <si>
-    <t>MonsterLevelMin</t>
-  </si>
-  <si>
-    <t>MonsterLevelMax</t>
-  </si>
-  <si>
     <t>DropIdList</t>
   </si>
   <si>
@@ -209,12 +121,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>0,0,1001,0</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>200010,300010,101</t>
   </si>
   <si>
@@ -233,12 +139,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>1000,0,1004,1002</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>2阶技能</t>
   </si>
   <si>
@@ -260,12 +160,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>0,1001,1003,0</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>200030,300010,300020,101</t>
   </si>
   <si>
@@ -281,12 +175,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>1002,1004,0,0</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>3阶技能</t>
   </si>
   <si>
@@ -308,12 +196,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>1001,0,1005,1003</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>200050,300010,300020,300030,101</t>
   </si>
   <si>
@@ -329,12 +211,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>1004,1006,1008,0</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>200060,300010,300020,300030,101</t>
   </si>
   <si>
@@ -350,12 +226,6 @@
     <t>70</t>
   </si>
   <si>
-    <t>0,0,1007,1005</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>4阶技能</t>
   </si>
   <si>
@@ -377,12 +247,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>1006,0,0,1008</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>200080,300010,300020,300030,300040,101</t>
   </si>
   <si>
@@ -398,12 +262,6 @@
     <t>90</t>
   </si>
   <si>
-    <t>1005,1007,1011,1009</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>200090,300010,300020,300030,300040,101</t>
   </si>
   <si>
@@ -419,12 +277,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>0,1008,1010,0</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>200100,300010,300020,300030,300040,101</t>
   </si>
   <si>
@@ -440,12 +292,6 @@
     <t>110</t>
   </si>
   <si>
-    <t>1009,1011,0,0</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>5阶技能</t>
   </si>
   <si>
@@ -467,12 +313,6 @@
     <t>120</t>
   </si>
   <si>
-    <t>1008,0,1012,1010</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
     <t>200120,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
@@ -488,12 +328,6 @@
     <t>130</t>
   </si>
   <si>
-    <t>1011,0,1013,0</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>200130,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
@@ -509,12 +343,6 @@
     <t>140</t>
   </si>
   <si>
-    <t>1012,0,0,1014</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>200140,300010,300020,300030,300040,300050,101</t>
   </si>
   <si>
@@ -530,12 +358,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>0,1013,0,1015</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>6阶技能</t>
   </si>
   <si>
@@ -557,12 +379,6 @@
     <t>160</t>
   </si>
   <si>
-    <t>0,1014,1016,0</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>200160,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
@@ -578,12 +394,6 @@
     <t>170</t>
   </si>
   <si>
-    <t>1015,0,1017,0</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
     <t>200170,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
@@ -599,12 +409,6 @@
     <t>180</t>
   </si>
   <si>
-    <t>1016,0,1018,0</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
     <t>200180,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
@@ -620,12 +424,6 @@
     <t>190</t>
   </si>
   <si>
-    <t>1017,1019,0,0</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>200190,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
@@ -641,12 +439,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>0,1020,0,1018</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
     <t>200200,300010,300020,300030,300040,300050,300060,101</t>
   </si>
   <si>
@@ -662,12 +454,6 @@
     <t>210</t>
   </si>
   <si>
-    <t>0,1021,0,1019</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>7阶技能</t>
   </si>
   <si>
@@ -689,12 +475,6 @@
     <t>220</t>
   </si>
   <si>
-    <t>0,0,1022,1020</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
     <t>200220,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -710,12 +490,6 @@
     <t>230</t>
   </si>
   <si>
-    <t>1021,0,1023,0</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
     <t>200230,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -731,12 +505,6 @@
     <t>240</t>
   </si>
   <si>
-    <t>1022,0,0,1024</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
     <t>200240,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -752,12 +520,6 @@
     <t>250</t>
   </si>
   <si>
-    <t>0,1023,1025,0</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
     <t>200250,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -773,12 +535,6 @@
     <t>260</t>
   </si>
   <si>
-    <t>1024,0,0,1026</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
     <t>200260,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -791,12 +547,6 @@
     <t>270</t>
   </si>
   <si>
-    <t>0,1025,1027,0</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
     <t>200270,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -812,12 +562,6 @@
     <t>280</t>
   </si>
   <si>
-    <t>1026,0,1028,0</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
     <t>200280,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -833,12 +577,6 @@
     <t>290</t>
   </si>
   <si>
-    <t>1027,0,0,1029</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
     <t>200290,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -854,12 +592,6 @@
     <t>300</t>
   </si>
   <si>
-    <t>0,1028,1030,0</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
     <t>200300,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -875,12 +607,6 @@
     <t>310</t>
   </si>
   <si>
-    <t>1029,0,1031,0</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
     <t>200310,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -896,12 +622,6 @@
     <t>320</t>
   </si>
   <si>
-    <t>1030,0,1032,0</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
     <t>200320,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -917,12 +637,6 @@
     <t>330</t>
   </si>
   <si>
-    <t>1031,0,1033,0</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
     <t>200330,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -938,12 +652,6 @@
     <t>340</t>
   </si>
   <si>
-    <t>1032,0,1034,0</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
     <t>200340,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -959,12 +667,6 @@
     <t>350</t>
   </si>
   <si>
-    <t>1033,0,0,0</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
     <t>200350,300010,300020,300030,300040,300050,300060,300070,101</t>
   </si>
   <si>
@@ -980,12 +682,6 @@
     <t>360</t>
   </si>
   <si>
-    <t>0,0,0,0</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
     <t>8阶技能</t>
   </si>
   <si>
@@ -1007,9 +703,6 @@
     <t>370</t>
   </si>
   <si>
-    <t>379</t>
-  </si>
-  <si>
     <t>200370,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
@@ -1025,9 +718,6 @@
     <t>380</t>
   </si>
   <si>
-    <t>389</t>
-  </si>
-  <si>
     <t>200380,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
@@ -1043,9 +733,6 @@
     <t>390</t>
   </si>
   <si>
-    <t>399</t>
-  </si>
-  <si>
     <t>200390,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
@@ -1061,9 +748,6 @@
     <t>400</t>
   </si>
   <si>
-    <t>409</t>
-  </si>
-  <si>
     <t>200400,300010,300020,300030,300040,300050,300060,300070,300080,102</t>
   </si>
   <si>
@@ -1079,9 +763,6 @@
     <t>410</t>
   </si>
   <si>
-    <t>419</t>
-  </si>
-  <si>
     <t>专属1-2</t>
   </si>
   <si>
@@ -1103,9 +784,6 @@
     <t>420</t>
   </si>
   <si>
-    <t>429</t>
-  </si>
-  <si>
     <t>200420,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
@@ -1121,9 +799,6 @@
     <t>430</t>
   </si>
   <si>
-    <t>439</t>
-  </si>
-  <si>
     <t>200430,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
@@ -1139,9 +814,6 @@
     <t>440</t>
   </si>
   <si>
-    <t>449</t>
-  </si>
-  <si>
     <t>200440,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
@@ -1157,9 +829,6 @@
     <t>450</t>
   </si>
   <si>
-    <t>459</t>
-  </si>
-  <si>
     <t>200450,300010,300020,300030,300040,300050,300060,300070,300080,102,501</t>
   </si>
   <si>
@@ -1175,9 +844,6 @@
     <t>460</t>
   </si>
   <si>
-    <t>469</t>
-  </si>
-  <si>
     <t>专属3-4</t>
   </si>
   <si>
@@ -1199,9 +865,6 @@
     <t>470</t>
   </si>
   <si>
-    <t>479</t>
-  </si>
-  <si>
     <t>200470,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
@@ -1217,9 +880,6 @@
     <t>480</t>
   </si>
   <si>
-    <t>489</t>
-  </si>
-  <si>
     <t>200480,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
@@ -1235,9 +895,6 @@
     <t>490</t>
   </si>
   <si>
-    <t>499</t>
-  </si>
-  <si>
     <t>200490,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
@@ -1253,9 +910,6 @@
     <t>500</t>
   </si>
   <si>
-    <t>509</t>
-  </si>
-  <si>
     <t>200500,300010,300020,300030,300040,300050,300060,300070,300080,102,502</t>
   </si>
   <si>
@@ -1271,9 +925,6 @@
     <t>510</t>
   </si>
   <si>
-    <t>519</t>
-  </si>
-  <si>
     <t>专属5-6</t>
   </si>
   <si>
@@ -1295,9 +946,6 @@
     <t>520</t>
   </si>
   <si>
-    <t>529</t>
-  </si>
-  <si>
     <t>触龙之心</t>
   </si>
   <si>
@@ -1316,9 +964,6 @@
     <t>530</t>
   </si>
   <si>
-    <t>539</t>
-  </si>
-  <si>
     <t>白猪之心</t>
   </si>
   <si>
@@ -1337,9 +982,6 @@
     <t>540</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
     <t>猪王之心</t>
   </si>
   <si>
@@ -1358,9 +1000,6 @@
     <t>550</t>
   </si>
   <si>
-    <t>559</t>
-  </si>
-  <si>
     <t>蝎王宝甲</t>
   </si>
   <si>
@@ -1379,9 +1018,6 @@
     <t>560</t>
   </si>
   <si>
-    <t>569</t>
-  </si>
-  <si>
     <t>9阶技能,沃玛宝甲</t>
   </si>
   <si>
@@ -1403,9 +1039,6 @@
     <t>570</t>
   </si>
   <si>
-    <t>579</t>
-  </si>
-  <si>
     <t>沃玛号角</t>
   </si>
   <si>
@@ -1424,9 +1057,6 @@
     <t>580</t>
   </si>
   <si>
-    <t>589</t>
-  </si>
-  <si>
     <t>祖玛头像</t>
   </si>
   <si>
@@ -1445,9 +1075,6 @@
     <t>590</t>
   </si>
   <si>
-    <t>599</t>
-  </si>
-  <si>
     <t>祖玛号角</t>
   </si>
   <si>
@@ -1466,9 +1093,6 @@
     <t>600</t>
   </si>
   <si>
-    <t>609</t>
-  </si>
-  <si>
     <t>虹猪宝甲</t>
   </si>
   <si>
@@ -1487,9 +1111,6 @@
     <t>610</t>
   </si>
   <si>
-    <t>619</t>
-  </si>
-  <si>
     <t>树妖之心</t>
   </si>
   <si>
@@ -1508,9 +1129,6 @@
     <t>620</t>
   </si>
   <si>
-    <t>629</t>
-  </si>
-  <si>
     <t>虹魔之心</t>
   </si>
   <si>
@@ -1529,9 +1147,6 @@
     <t>630</t>
   </si>
   <si>
-    <t>639</t>
-  </si>
-  <si>
     <t>尸王之心</t>
   </si>
   <si>
@@ -1550,9 +1165,6 @@
     <t>640</t>
   </si>
   <si>
-    <t>649</t>
-  </si>
-  <si>
     <t>黄泉法杖</t>
   </si>
   <si>
@@ -1571,9 +1183,6 @@
     <t>650</t>
   </si>
   <si>
-    <t>659</t>
-  </si>
-  <si>
     <t>牛魔权杖</t>
   </si>
   <si>
@@ -1592,9 +1201,6 @@
     <t>660</t>
   </si>
   <si>
-    <t>669</t>
-  </si>
-  <si>
     <t>金刚战锤</t>
   </si>
   <si>
@@ -1613,9 +1219,6 @@
     <t>670</t>
   </si>
   <si>
-    <t>679</t>
-  </si>
-  <si>
     <t>巨人之心</t>
   </si>
   <si>
@@ -1634,9 +1237,6 @@
     <t>680</t>
   </si>
   <si>
-    <t>689</t>
-  </si>
-  <si>
     <t>恶魔之心</t>
   </si>
   <si>
@@ -1655,9 +1255,6 @@
     <t>690</t>
   </si>
   <si>
-    <t>699</t>
-  </si>
-  <si>
     <t>魔龙宝甲</t>
   </si>
   <si>
@@ -1676,9 +1273,6 @@
     <t>700</t>
   </si>
   <si>
-    <t>709</t>
-  </si>
-  <si>
     <t>龙神利爪</t>
   </si>
   <si>
@@ -2231,9 +1825,6 @@
     <t>10099</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>1100</t>
   </si>
   <si>
@@ -2322,6 +1913,477 @@
   </si>
   <si>
     <t>10104</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>地狱小村</t>
+  </si>
+  <si>
+    <t>1100-1</t>
+  </si>
+  <si>
+    <t>金装</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210035</t>
+  </si>
+  <si>
+    <t>10,2500,1000,18000,300000</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱村外</t>
+  </si>
+  <si>
+    <t>1100-2</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210036</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱城外</t>
+  </si>
+  <si>
+    <t>1100-3</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210037</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱老城</t>
+  </si>
+  <si>
+    <t>1100-4</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210038</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱森林</t>
+  </si>
+  <si>
+    <t>1100-5</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210039</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱洞穴</t>
+  </si>
+  <si>
+    <t>1150-1</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210040</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱骷髅洞</t>
+  </si>
+  <si>
+    <t>1150-2</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210041</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱通道</t>
+  </si>
+  <si>
+    <t>1150-3</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210042</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱尸洞</t>
+  </si>
+  <si>
+    <t>1150-4</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210043</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱蛇谷</t>
+  </si>
+  <si>
+    <t>1150-5</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210044</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱土城外</t>
+  </si>
+  <si>
+    <t>1200-1</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210045</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>地狱土城</t>
+  </si>
+  <si>
+    <t>1200-2</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210046</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>地狱龙城外</t>
+  </si>
+  <si>
+    <t>1200-3</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210047</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>地狱龙城</t>
+  </si>
+  <si>
+    <t>1200-4</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210048</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>地狱圣域</t>
+  </si>
+  <si>
+    <t>1200-5</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210049</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>地狱棺材</t>
+  </si>
+  <si>
+    <t>1250-1</t>
+  </si>
+  <si>
+    <t>202004,300091,104,504,210050</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>地狱一线天</t>
+  </si>
+  <si>
+    <t>1250-2</t>
+  </si>
+  <si>
+    <t>202004,300091,104,504,210051</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>地狱石墓</t>
+  </si>
+  <si>
+    <t>1250-3</t>
+  </si>
+  <si>
+    <t>202004,300091,104,504,210052</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>地狱猪洞</t>
+  </si>
+  <si>
+    <t>1250-4</t>
+  </si>
+  <si>
+    <t>202004,300091,104,504,210053</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>地狱桃源</t>
+  </si>
+  <si>
+    <t>1250-5</t>
+  </si>
+  <si>
+    <t>202004,300091,104,504,210054</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>地狱沃玛禁地</t>
+  </si>
+  <si>
+    <t>1300-1</t>
+  </si>
+  <si>
+    <t>地狱宝甲</t>
+  </si>
+  <si>
+    <t>202005,300091,104,504,210055</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>地狱沃玛大殿</t>
+  </si>
+  <si>
+    <t>1300-2</t>
+  </si>
+  <si>
+    <t>地狱号角</t>
+  </si>
+  <si>
+    <t>202005,300091,104,504,210056</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>地狱祖玛禁地</t>
+  </si>
+  <si>
+    <t>1300-3</t>
+  </si>
+  <si>
+    <t>地狱雕像</t>
+  </si>
+  <si>
+    <t>202005,300091,104,504,210057</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>地狱祖玛大殿</t>
+  </si>
+  <si>
+    <t>1300-4</t>
+  </si>
+  <si>
+    <t>地狱神像</t>
+  </si>
+  <si>
+    <t>202005,300091,104,504,210058</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>地狱封魔殿</t>
+  </si>
+  <si>
+    <t>1300-5</t>
+  </si>
+  <si>
+    <t>地狱獠牙</t>
+  </si>
+  <si>
+    <t>202005,300091,104,504,210059</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+  </si>
+  <si>
+    <t>1350-1</t>
+  </si>
+  <si>
+    <t>地狱树心</t>
+  </si>
+  <si>
+    <t>202006,300091,104,504,210060</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>地狱封魔</t>
+  </si>
+  <si>
+    <t>1350-2</t>
+  </si>
+  <si>
+    <t>地狱魔心</t>
+  </si>
+  <si>
+    <t>202006,300091,104,504,210061</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>地狱尸魔</t>
+  </si>
+  <si>
+    <t>1350-3</t>
+  </si>
+  <si>
+    <t>地狱尸心</t>
+  </si>
+  <si>
+    <t>202006,300091,104,504,210062</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>地狱骨魔</t>
+  </si>
+  <si>
+    <t>1350-4</t>
+  </si>
+  <si>
+    <t>地狱法杖</t>
+  </si>
+  <si>
+    <t>202006,300091,104,504,210063</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>地狱牛魔</t>
+  </si>
+  <si>
+    <t>1350-5</t>
+  </si>
+  <si>
+    <t>地狱权杖</t>
+  </si>
+  <si>
+    <t>202006,300091,104,504,210064</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>地狱峡谷</t>
+  </si>
+  <si>
+    <t>1400-1</t>
+  </si>
+  <si>
+    <t>地狱战锤</t>
+  </si>
+  <si>
+    <t>202007,300091,104,504,210065</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>地狱祭坛</t>
+  </si>
+  <si>
+    <t>1400-2</t>
+  </si>
+  <si>
+    <t>地狱血核</t>
+  </si>
+  <si>
+    <t>202007,300091,104,504,210066</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>地狱魔巢</t>
+  </si>
+  <si>
+    <t>1400-3</t>
+  </si>
+  <si>
+    <t>地狱魔核</t>
+  </si>
+  <si>
+    <t>202007,300091,104,504,210067</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>地狱魔龙</t>
+  </si>
+  <si>
+    <t>1400-4</t>
+  </si>
+  <si>
+    <t>地狱龙甲</t>
+  </si>
+  <si>
+    <t>202007,300091,104,504,210068</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>地狱火龙</t>
+  </si>
+  <si>
+    <t>1400-5</t>
+  </si>
+  <si>
+    <t>地狱龙爪</t>
+  </si>
+  <si>
+    <t>202007,300091,104,504,210069</t>
   </si>
 </sst>
 </file>
@@ -3335,34 +3397,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P110"/>
+  <dimension ref="C3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B112" sqref="B112"/>
+      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="12" width="14.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="87.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="74.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="45.25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="65.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="50.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="3" customWidth="1"/>
+    <col min="13" max="13" width="45.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:16">
+    <row r="3" customHeight="1" spans="3:13">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3390,23 +3453,14 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:13">
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="3:16">
-      <c r="C4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -3418,82 +3472,64 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:13">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:12">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="3:16">
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:15">
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -3502,36 +3538,27 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:12">
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -3540,39 +3567,30 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:12">
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -3581,36 +3599,27 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -3619,39 +3628,30 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3660,36 +3660,27 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3698,36 +3689,27 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -3736,39 +3718,30 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -3777,36 +3750,27 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3815,36 +3779,27 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -3853,36 +3808,27 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -3891,39 +3837,30 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -3932,36 +3869,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3970,36 +3898,27 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -4008,36 +3927,27 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:12">
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -4046,39 +3956,30 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:12">
       <c r="C21" s="1" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -4087,36 +3988,27 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -4125,36 +4017,27 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:12">
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -4163,36 +4046,27 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:12">
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -4201,36 +4075,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -4239,36 +4104,27 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:12">
       <c r="C26" s="1" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -4277,39 +4133,30 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:12">
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -4318,36 +4165,27 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:12">
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -4356,36 +4194,27 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>194</v>
+        <v>143</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:12">
       <c r="C29" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -4394,36 +4223,27 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>201</v>
+        <v>148</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:12">
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -4432,36 +4252,27 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>208</v>
+        <v>153</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:12">
       <c r="C31" s="1" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -4470,36 +4281,27 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>215</v>
+        <v>158</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:12">
       <c r="C32" s="1" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -4508,36 +4310,27 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:12">
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -4546,36 +4339,27 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>228</v>
+        <v>167</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:12">
       <c r="C34" s="1" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -4584,36 +4368,27 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>235</v>
+        <v>172</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:12">
       <c r="C35" s="1" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -4622,36 +4397,27 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:12">
       <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -4660,36 +4426,27 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>249</v>
+        <v>182</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:12">
       <c r="C37" s="1" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -4698,36 +4455,27 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>256</v>
+        <v>187</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:12">
       <c r="C38" s="1" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4736,36 +4484,27 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>263</v>
+        <v>192</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:12">
       <c r="C39" s="1" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -4774,36 +4513,27 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>270</v>
+        <v>197</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:12">
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -4812,36 +4542,27 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>277</v>
+        <v>202</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:12">
       <c r="C41" s="1" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4850,39 +4571,30 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:12">
       <c r="C42" s="1" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -4891,36 +4603,27 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>292</v>
+        <v>214</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:12">
       <c r="C43" s="1" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -4929,36 +4632,27 @@
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>298</v>
+        <v>219</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:12">
       <c r="C44" s="1" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -4967,36 +4661,27 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>304</v>
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:12">
       <c r="C45" s="1" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -5005,36 +4690,27 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>310</v>
+        <v>229</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C46" s="1" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -5043,39 +4719,30 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>317</v>
+        <v>233</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C47" s="1" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -5084,36 +4751,27 @@
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>324</v>
+        <v>240</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C48" s="1" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -5122,36 +4780,27 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>330</v>
+        <v>245</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C49" s="1" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -5160,36 +4809,27 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>336</v>
+        <v>250</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C50" s="1" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -5198,36 +4838,27 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>342</v>
+        <v>255</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C51" s="1" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -5236,39 +4867,30 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>349</v>
+        <v>260</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C52" s="1" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -5277,36 +4899,27 @@
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>356</v>
+        <v>267</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C53" s="1" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -5315,36 +4928,27 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>362</v>
+        <v>272</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C54" s="1" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -5353,36 +4957,27 @@
         <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>368</v>
+        <v>277</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C55" s="1" t="s">
-        <v>371</v>
+        <v>280</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -5391,36 +4986,27 @@
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>374</v>
+      <c r="K55" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C56" s="1" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -5429,39 +5015,30 @@
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>381</v>
+        <v>287</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C57" s="1" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -5470,39 +5047,30 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>387</v>
+        <v>294</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>389</v>
+        <v>294</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C58" s="1" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -5511,39 +5079,30 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>396</v>
+        <v>300</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C59" s="1" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -5552,39 +5111,30 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>403</v>
+        <v>306</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C60" s="1" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -5593,39 +5143,30 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>410</v>
+        <v>312</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:12">
       <c r="C61" s="2" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -5634,39 +5175,30 @@
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L61" s="1">
+        <v>318</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I61" s="1">
         <v>600</v>
       </c>
-      <c r="M61" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J61" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:12">
       <c r="C62" s="2" t="s">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>422</v>
+        <v>324</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -5675,39 +5207,30 @@
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L62" s="1">
+        <v>325</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" s="1">
         <v>600</v>
       </c>
-      <c r="M62" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J62" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:12">
       <c r="C63" s="2" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -5716,39 +5239,30 @@
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="L63" s="1">
+        <v>331</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" s="1">
         <v>600</v>
       </c>
-      <c r="M63" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:12">
       <c r="C64" s="2" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -5757,39 +5271,30 @@
         <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="L64" s="1">
+        <v>337</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I64" s="1">
         <v>600</v>
       </c>
-      <c r="M64" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J64" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:12">
       <c r="C65" s="2" t="s">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -5798,39 +5303,30 @@
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="L65" s="1">
+        <v>343</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I65" s="1">
         <v>600</v>
       </c>
-      <c r="M65" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J65" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C66" s="1" t="s">
-        <v>449</v>
+        <v>347</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -5839,39 +5335,30 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="L66" s="1">
+        <v>350</v>
+      </c>
+      <c r="I66" s="1">
         <v>650</v>
       </c>
-      <c r="M66" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J66" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C67" s="1" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -5880,39 +5367,30 @@
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="L67" s="1">
+        <v>356</v>
+      </c>
+      <c r="I67" s="1">
         <v>650</v>
       </c>
-      <c r="M67" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J67" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C68" s="1" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -5921,39 +5399,30 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="L68" s="1">
+        <v>362</v>
+      </c>
+      <c r="I68" s="1">
         <v>650</v>
       </c>
-      <c r="M68" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J68" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C69" s="1" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>471</v>
+        <v>366</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -5962,39 +5431,30 @@
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>472</v>
+        <v>367</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="L69" s="1">
+        <v>368</v>
+      </c>
+      <c r="I69" s="1">
         <v>650</v>
       </c>
-      <c r="M69" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J69" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C70" s="1" t="s">
-        <v>477</v>
+        <v>371</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -6003,39 +5463,30 @@
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>479</v>
+        <v>373</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="L70" s="1">
+        <v>374</v>
+      </c>
+      <c r="I70" s="1">
         <v>650</v>
       </c>
-      <c r="M70" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="N70" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J70" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C71" s="1" t="s">
-        <v>484</v>
+        <v>377</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>485</v>
+        <v>378</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -6044,39 +5495,30 @@
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>486</v>
+        <v>379</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L71" s="1">
+        <v>380</v>
+      </c>
+      <c r="I71" s="1">
         <v>700</v>
       </c>
-      <c r="M71" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J71" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C72" s="1" t="s">
-        <v>491</v>
+        <v>383</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>492</v>
+        <v>384</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -6085,39 +5527,30 @@
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="L72" s="1">
+        <v>386</v>
+      </c>
+      <c r="I72" s="1">
         <v>700</v>
       </c>
-      <c r="M72" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="N72" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C73" s="1" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>499</v>
+        <v>390</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
@@ -6126,39 +5559,30 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="L73" s="1">
+        <v>392</v>
+      </c>
+      <c r="I73" s="1">
         <v>700</v>
       </c>
-      <c r="M73" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="N73" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J73" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C74" s="1" t="s">
-        <v>505</v>
+        <v>395</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>506</v>
+        <v>396</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -6167,39 +5591,30 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>507</v>
+        <v>397</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L74" s="1">
+        <v>398</v>
+      </c>
+      <c r="I74" s="1">
         <v>700</v>
       </c>
-      <c r="M74" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="N74" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J74" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C75" s="1" t="s">
-        <v>512</v>
+        <v>401</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>513</v>
+        <v>402</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
@@ -6208,39 +5623,30 @@
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>514</v>
+        <v>403</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L75" s="1">
+        <v>404</v>
+      </c>
+      <c r="I75" s="1">
         <v>700</v>
       </c>
-      <c r="M75" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:15">
+      <c r="J75" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:12">
       <c r="C76" s="1" t="s">
-        <v>519</v>
+        <v>407</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>520</v>
+        <v>408</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -6249,36 +5655,30 @@
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>521</v>
+        <v>409</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="L76" s="1">
         <v>750</v>
       </c>
-      <c r="M76" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:15">
+      <c r="J76" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:12">
       <c r="C77" s="1" t="s">
-        <v>525</v>
+        <v>413</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>526</v>
+        <v>414</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -6287,36 +5687,30 @@
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>527</v>
+        <v>415</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="L77" s="1">
         <v>750</v>
       </c>
-      <c r="M77" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="N77" s="7" t="s">
+      <c r="J77" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:12">
+      <c r="C78" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:15">
-      <c r="C78" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>532</v>
+        <v>420</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -6325,36 +5719,30 @@
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>533</v>
+        <v>421</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="L78" s="1">
         <v>750</v>
       </c>
-      <c r="M78" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:15">
+      <c r="J78" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:12">
       <c r="C79" s="1" t="s">
-        <v>537</v>
+        <v>425</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>538</v>
+        <v>426</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -6363,36 +5751,30 @@
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>539</v>
+        <v>427</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="L79" s="1">
         <v>750</v>
       </c>
-      <c r="M79" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:15">
+      <c r="J79" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:12">
       <c r="C80" s="1" t="s">
-        <v>543</v>
+        <v>431</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>544</v>
+        <v>432</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -6401,36 +5783,30 @@
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>545</v>
+        <v>433</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="L80" s="1">
         <v>750</v>
       </c>
-      <c r="M80" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:15">
+      <c r="J80" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:12">
       <c r="C81" s="1" t="s">
-        <v>549</v>
+        <v>437</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>550</v>
+        <v>438</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -6439,36 +5815,30 @@
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>551</v>
+        <v>439</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="I81" s="1">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="L81" s="1">
         <v>800</v>
       </c>
-      <c r="M81" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="N81" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:15">
+      <c r="J81" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:12">
       <c r="C82" s="1" t="s">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>557</v>
+        <v>445</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -6477,36 +5847,30 @@
         <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>558</v>
+        <v>446</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="L82" s="1">
         <v>800</v>
       </c>
-      <c r="M82" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:15">
+      <c r="J82" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:12">
       <c r="C83" s="1" t="s">
-        <v>562</v>
+        <v>450</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -6515,36 +5879,30 @@
         <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>564</v>
+        <v>452</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
-      </c>
-      <c r="J83" s="1">
-        <v>0</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="L83" s="1">
         <v>800</v>
       </c>
-      <c r="M83" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="N83" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:15">
+      <c r="J83" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:12">
       <c r="C84" s="1" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>569</v>
+        <v>457</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -6553,36 +5911,30 @@
         <v>3</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>570</v>
+        <v>458</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="L84" s="1">
         <v>800</v>
       </c>
-      <c r="M84" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:15">
+      <c r="J84" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:12">
       <c r="C85" s="1" t="s">
-        <v>574</v>
+        <v>462</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>575</v>
+        <v>463</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -6591,36 +5943,30 @@
         <v>3</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>576</v>
+        <v>464</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
-      </c>
-      <c r="J85" s="1">
-        <v>0</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L85" s="1">
         <v>800</v>
       </c>
-      <c r="M85" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J85" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C86" s="1" t="s">
-        <v>580</v>
+        <v>468</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>581</v>
+        <v>469</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
@@ -6629,36 +5975,30 @@
         <v>3</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>582</v>
+        <v>470</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="L86" s="1">
         <v>850</v>
       </c>
-      <c r="M86" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J86" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C87" s="1" t="s">
-        <v>586</v>
+        <v>474</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>587</v>
+        <v>475</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -6667,36 +6007,30 @@
         <v>3</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>588</v>
+        <v>476</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L87" s="1">
         <v>850</v>
       </c>
-      <c r="M87" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J87" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C88" s="1" t="s">
-        <v>592</v>
+        <v>480</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>593</v>
+        <v>481</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -6705,36 +6039,30 @@
         <v>3</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>594</v>
+        <v>482</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1">
-        <v>0</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="L88" s="1">
         <v>850</v>
       </c>
-      <c r="M88" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J88" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C89" s="1" t="s">
-        <v>598</v>
+        <v>486</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>599</v>
+        <v>487</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
@@ -6743,36 +6071,30 @@
         <v>3</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>600</v>
+        <v>488</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="L89" s="1">
         <v>850</v>
       </c>
-      <c r="M89" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="N89" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J89" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C90" s="1" t="s">
-        <v>604</v>
+        <v>492</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>605</v>
+        <v>493</v>
       </c>
       <c r="E90" s="1">
         <v>3</v>
@@ -6781,39 +6103,30 @@
         <v>3</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L90" s="1">
         <v>850</v>
       </c>
-      <c r="M90" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J90" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C91" s="1" t="s">
-        <v>610</v>
+        <v>498</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>611</v>
+        <v>499</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -6822,39 +6135,30 @@
         <v>3</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L91" s="1">
         <v>900</v>
       </c>
-      <c r="M91" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J91" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C92" s="1" t="s">
-        <v>616</v>
+        <v>504</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>617</v>
+        <v>505</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -6863,39 +6167,30 @@
         <v>3</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
+        <v>506</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1">
-        <v>0</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L92" s="1">
         <v>900</v>
       </c>
-      <c r="M92" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J92" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C93" s="1" t="s">
-        <v>622</v>
+        <v>510</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>623</v>
+        <v>511</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -6904,39 +6199,30 @@
         <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
-      </c>
-      <c r="J93" s="1">
-        <v>0</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L93" s="1">
         <v>900</v>
       </c>
-      <c r="M93" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J93" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C94" s="1" t="s">
-        <v>628</v>
+        <v>516</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>629</v>
+        <v>517</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -6945,39 +6231,30 @@
         <v>3</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0</v>
+        <v>518</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L94" s="1">
         <v>900</v>
       </c>
-      <c r="M94" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="J94" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C95" s="1" t="s">
-        <v>634</v>
+        <v>522</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>635</v>
+        <v>523</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -6986,39 +6263,30 @@
         <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
+        <v>524</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L95" s="1">
         <v>900</v>
       </c>
-      <c r="M95" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="N95" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:15">
+      <c r="J95" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:12">
       <c r="C96" s="1" t="s">
-        <v>640</v>
+        <v>528</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>641</v>
+        <v>529</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -7027,39 +6295,30 @@
         <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
+        <v>530</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1">
-        <v>0</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L96" s="1">
         <v>950</v>
       </c>
-      <c r="M96" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:15">
+      <c r="J96" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:12">
       <c r="C97" s="1" t="s">
-        <v>646</v>
+        <v>534</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>647</v>
+        <v>535</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
@@ -7068,39 +6327,30 @@
         <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
+        <v>536</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>0</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L97" s="1">
         <v>950</v>
       </c>
-      <c r="M97" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="N97" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:15">
+      <c r="J97" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:12">
       <c r="C98" s="1" t="s">
-        <v>652</v>
+        <v>540</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>653</v>
+        <v>541</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -7109,39 +6359,30 @@
         <v>3</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
+        <v>542</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="L98" s="1">
         <v>950</v>
       </c>
-      <c r="M98" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="N98" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:15">
+      <c r="J98" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:12">
       <c r="C99" s="1" t="s">
-        <v>658</v>
+        <v>546</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>659</v>
+        <v>547</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -7150,39 +6391,30 @@
         <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
+        <v>548</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="L99" s="1">
         <v>950</v>
       </c>
-      <c r="M99" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="N99" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:15">
+      <c r="J99" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:12">
       <c r="C100" s="1" t="s">
-        <v>664</v>
+        <v>552</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>665</v>
+        <v>553</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -7191,39 +6423,30 @@
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="L100" s="1">
         <v>950</v>
       </c>
-      <c r="M100" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="N100" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:15">
+      <c r="J100" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:12">
       <c r="C101" s="1" t="s">
-        <v>670</v>
+        <v>558</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>671</v>
+        <v>559</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -7232,39 +6455,30 @@
         <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1">
-        <v>0</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="L101" s="1">
         <v>1000</v>
       </c>
-      <c r="M101" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="N101" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:15">
+      <c r="J101" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:12">
       <c r="C102" s="1" t="s">
-        <v>676</v>
+        <v>564</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>677</v>
+        <v>565</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -7273,39 +6487,30 @@
         <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
+        <v>566</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
-      </c>
-      <c r="J102" s="1">
-        <v>0</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="L102" s="1">
         <v>1000</v>
       </c>
-      <c r="M102" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="N102" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:15">
+      <c r="J102" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:12">
       <c r="C103" s="1" t="s">
-        <v>682</v>
+        <v>570</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>683</v>
+        <v>571</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -7314,39 +6519,30 @@
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
+        <v>572</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1">
-        <v>0</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L103" s="1">
         <v>1000</v>
       </c>
-      <c r="M103" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="N103" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:15">
+      <c r="J103" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:12">
       <c r="C104" s="1" t="s">
-        <v>688</v>
+        <v>576</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>689</v>
+        <v>577</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -7355,39 +6551,30 @@
         <v>3</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1">
-        <v>0</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="L104" s="1">
         <v>1000</v>
       </c>
-      <c r="M104" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="N104" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:15">
+      <c r="J104" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:12">
       <c r="C105" s="1" t="s">
-        <v>694</v>
+        <v>582</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>695</v>
+        <v>583</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -7396,271 +6583,1307 @@
         <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C106" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E106" s="1">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1050</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C107" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1050</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C108" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1050</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C109" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1050</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C110" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1050</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="3:12">
+      <c r="C111" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1">
+        <v>4</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="3:12">
+      <c r="C112" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E112" s="1">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1">
+        <v>4</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="3:12">
+      <c r="C113" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="3:12">
+      <c r="C114" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>4</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="3:12">
+      <c r="C115" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>4</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="3:12">
+      <c r="C116" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E116" s="1">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1">
+        <v>4</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="3:12">
+      <c r="C117" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1">
+        <v>4</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="3:12">
+      <c r="C118" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E118" s="1">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1">
+        <v>4</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="3:12">
+      <c r="C119" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1">
+        <v>4</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="3:12">
+      <c r="C120" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E120" s="1">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1">
+        <v>4</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C121" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1">
+        <v>4</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C122" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1">
+        <v>4</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C123" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1">
+        <v>4</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C124" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E124" s="1">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1">
+        <v>4</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C125" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1">
+        <v>4</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C126" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E126" s="1">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1">
+        <v>4</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C127" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E127" s="1">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1">
+        <v>4</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C128" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1">
+        <v>4</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C129" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1">
+        <v>4</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C130" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H105" s="1">
+      <c r="D130" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E130" s="1">
+        <v>4</v>
+      </c>
+      <c r="F130" s="1">
+        <v>4</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I130" s="1">
         <v>0</v>
       </c>
-      <c r="I105" s="1">
+      <c r="J130" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="3:12">
+      <c r="C131" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1">
+        <v>4</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="I131" s="1">
         <v>0</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J131" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="3:12">
+      <c r="C132" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1">
+        <v>4</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I132" s="1">
         <v>0</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="L105" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="N105" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A106" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-      <c r="F106" s="1">
-        <v>2</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="H106" s="1">
+      <c r="J132" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="3:12">
+      <c r="C133" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1">
+        <v>4</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="I133" s="1">
         <v>0</v>
       </c>
-      <c r="I106" s="1">
+      <c r="J133" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="3:12">
+      <c r="C134" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>4</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="I134" s="1">
         <v>0</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J134" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="3:12">
+      <c r="C135" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E135" s="1">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1">
+        <v>4</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="I135" s="1">
         <v>0</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1050</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="N106" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A107" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E107" s="1">
-        <v>2</v>
-      </c>
-      <c r="F107" s="1">
-        <v>2</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="H107" s="1">
+      <c r="J135" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="3:12">
+      <c r="C136" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E136" s="1">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1">
+        <v>4</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I136" s="1">
         <v>0</v>
       </c>
-      <c r="I107" s="1">
+      <c r="J136" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="3:12">
+      <c r="C137" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1">
+        <v>4</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I137" s="1">
         <v>0</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J137" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="3:12">
+      <c r="C138" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E138" s="1">
+        <v>4</v>
+      </c>
+      <c r="F138" s="1">
+        <v>4</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I138" s="1">
         <v>0</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="L107" s="1">
-        <v>1050</v>
-      </c>
-      <c r="M107" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="N107" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A108" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="E108" s="1">
-        <v>2</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H108" s="1">
+      <c r="J138" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="3:12">
+      <c r="C139" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E139" s="1">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1">
+        <v>4</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I139" s="1">
         <v>0</v>
       </c>
-      <c r="I108" s="1">
+      <c r="J139" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="3:12">
+      <c r="C140" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1">
+        <v>4</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I140" s="1">
         <v>0</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J140" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C141" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E141" s="1">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="I141" s="1">
         <v>0</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="L108" s="1">
-        <v>1050</v>
-      </c>
-      <c r="M108" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="N108" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A109" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E109" s="1">
-        <v>2</v>
-      </c>
-      <c r="F109" s="1">
-        <v>2</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="H109" s="1">
+      <c r="J141" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C142" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1">
+        <v>4</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I142" s="1">
         <v>0</v>
       </c>
-      <c r="I109" s="1">
+      <c r="J142" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C143" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E143" s="1">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1">
+        <v>4</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I143" s="1">
         <v>0</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J143" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C144" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E144" s="1">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1">
+        <v>4</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="I144" s="1">
         <v>0</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="L109" s="1">
-        <v>1050</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="N109" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A110" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E110" s="1">
-        <v>2</v>
-      </c>
-      <c r="F110" s="1">
-        <v>2</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="H110" s="1">
+      <c r="J144" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C145" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E145" s="1">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1">
+        <v>4</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="I145" s="1">
         <v>0</v>
       </c>
-      <c r="I110" s="1">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1">
-        <v>0</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="L110" s="1">
-        <v>1050</v>
-      </c>
-      <c r="M110" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="N110" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>730</v>
+      <c r="J145" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C1048576" errorStyle="warning">

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -1823,6 +1823,9 @@
   </si>
   <si>
     <t>10099</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>1100</t>
@@ -3397,14 +3400,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M145"/>
+  <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6601,12 +6604,18 @@
         <v>587</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
@@ -6615,30 +6624,36 @@
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I106" s="1">
         <v>1050</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -6647,30 +6662,36 @@
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I107" s="1">
         <v>1050</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A108" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -6679,30 +6700,36 @@
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I108" s="1">
         <v>1050</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A109" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -6711,30 +6738,36 @@
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I109" s="1">
         <v>1050</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -6743,30 +6776,36 @@
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I110" s="1">
         <v>1050</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="3:12">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C111" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
@@ -6775,30 +6814,36 @@
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="3:12">
+    <row r="112" customHeight="1" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
@@ -6807,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>416</v>
@@ -6816,21 +6861,27 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="3:12">
+    <row r="113" customHeight="1" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
@@ -6839,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>422</v>
@@ -6848,21 +6899,27 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="3:12">
+    <row r="114" customHeight="1" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
@@ -6871,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>428</v>
@@ -6880,21 +6937,27 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="3:12">
+    <row r="115" customHeight="1" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C115" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
@@ -6903,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>434</v>
@@ -6912,21 +6975,27 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="3:12">
+    <row r="116" customHeight="1" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
@@ -6935,7 +7004,7 @@
         <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>440</v>
@@ -6944,21 +7013,27 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="3:12">
+    <row r="117" customHeight="1" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
@@ -6967,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>447</v>
@@ -6976,21 +7051,27 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="3:12">
+    <row r="118" customHeight="1" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
@@ -6999,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>453</v>
@@ -7008,21 +7089,27 @@
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="3:12">
+    <row r="119" customHeight="1" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
@@ -7031,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>459</v>
@@ -7040,21 +7127,27 @@
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="3:12">
+    <row r="120" customHeight="1" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
@@ -7063,7 +7156,7 @@
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>465</v>
@@ -7072,21 +7165,27 @@
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
@@ -7095,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>471</v>
@@ -7104,21 +7203,27 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A122" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
@@ -7127,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>477</v>
@@ -7136,21 +7241,27 @@
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A123" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
@@ -7159,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>483</v>
@@ -7168,21 +7279,27 @@
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A124" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -7191,7 +7308,7 @@
         <v>4</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>489</v>
@@ -7200,21 +7317,27 @@
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A125" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
@@ -7223,7 +7346,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>495</v>
@@ -7232,21 +7355,27 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A126" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C126" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
@@ -7255,7 +7384,7 @@
         <v>4</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>501</v>
@@ -7264,21 +7393,27 @@
         <v>0</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A127" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
@@ -7287,7 +7422,7 @@
         <v>4</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>507</v>
@@ -7296,21 +7431,27 @@
         <v>0</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A128" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
@@ -7319,7 +7460,7 @@
         <v>4</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>513</v>
@@ -7328,21 +7469,27 @@
         <v>0</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A129" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
@@ -7351,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>519</v>
@@ -7360,21 +7507,27 @@
         <v>0</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A130" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C130" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
@@ -7383,7 +7536,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>525</v>
@@ -7392,21 +7545,27 @@
         <v>0</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="3:12">
+    <row r="131" customHeight="1" spans="1:12">
+      <c r="A131" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C131" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
@@ -7415,30 +7574,36 @@
         <v>4</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I131" s="1">
         <v>0</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="3:12">
+    <row r="132" customHeight="1" spans="1:12">
+      <c r="A132" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
@@ -7447,30 +7612,36 @@
         <v>4</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="3:12">
+    <row r="133" customHeight="1" spans="1:12">
+      <c r="A133" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
@@ -7479,30 +7650,36 @@
         <v>4</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="3:12">
+    <row r="134" customHeight="1" spans="1:12">
+      <c r="A134" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
@@ -7511,30 +7688,36 @@
         <v>4</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I134" s="1">
         <v>0</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="3:12">
+    <row r="135" customHeight="1" spans="1:12">
+      <c r="A135" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C135" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
@@ -7543,30 +7726,36 @@
         <v>4</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="3:12">
+    <row r="136" customHeight="1" spans="1:12">
+      <c r="A136" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C136" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
@@ -7575,30 +7764,36 @@
         <v>4</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="3:12">
+    <row r="137" customHeight="1" spans="1:12">
+      <c r="A137" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C137" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
@@ -7607,30 +7802,36 @@
         <v>4</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="3:12">
+    <row r="138" customHeight="1" spans="1:12">
+      <c r="A138" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C138" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
@@ -7639,30 +7840,36 @@
         <v>4</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="3:12">
+    <row r="139" customHeight="1" spans="1:12">
+      <c r="A139" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C139" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
@@ -7671,30 +7878,36 @@
         <v>4</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="3:12">
+    <row r="140" customHeight="1" spans="1:12">
+      <c r="A140" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C140" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
@@ -7703,30 +7916,36 @@
         <v>4</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A141" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C141" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
@@ -7735,30 +7954,36 @@
         <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A142" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C142" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
@@ -7767,30 +7992,36 @@
         <v>4</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A143" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C143" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
@@ -7799,30 +8030,36 @@
         <v>4</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A144" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C144" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
@@ -7831,30 +8068,36 @@
         <v>4</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A145" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C145" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
@@ -7863,22 +8106,22 @@
         <v>4</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I145" s="1">
         <v>0</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -1825,97 +1825,97 @@
     <t>10099</t>
   </si>
   <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>噩梦峡谷</t>
+  </si>
+  <si>
+    <t>1050-1</t>
+  </si>
+  <si>
+    <t>噩梦战锤</t>
+  </si>
+  <si>
+    <t>201050,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210030</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>噩梦祭坛</t>
+  </si>
+  <si>
+    <t>1050-2</t>
+  </si>
+  <si>
+    <t>噩梦血核</t>
+  </si>
+  <si>
+    <t>201051,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210031</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>噩梦魔巢</t>
+  </si>
+  <si>
+    <t>1050-3</t>
+  </si>
+  <si>
+    <t>噩梦魔核</t>
+  </si>
+  <si>
+    <t>201052,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210032</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>噩梦魔龙</t>
+  </si>
+  <si>
+    <t>1050-4</t>
+  </si>
+  <si>
+    <t>噩梦龙甲</t>
+  </si>
+  <si>
+    <t>201053,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210033</t>
+  </si>
+  <si>
+    <t>10103</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>噩梦火龙</t>
+  </si>
+  <si>
+    <t>1050-5</t>
+  </si>
+  <si>
+    <t>噩梦龙爪</t>
+  </si>
+  <si>
+    <t>201054,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210034</t>
+  </si>
+  <si>
+    <t>10104</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>噩梦峡谷</t>
-  </si>
-  <si>
-    <t>1050-1</t>
-  </si>
-  <si>
-    <t>噩梦战锤</t>
-  </si>
-  <si>
-    <t>201050,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210030</t>
-  </si>
-  <si>
-    <t>10100</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>噩梦祭坛</t>
-  </si>
-  <si>
-    <t>1050-2</t>
-  </si>
-  <si>
-    <t>噩梦血核</t>
-  </si>
-  <si>
-    <t>201051,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210031</t>
-  </si>
-  <si>
-    <t>10101</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>噩梦魔巢</t>
-  </si>
-  <si>
-    <t>1050-3</t>
-  </si>
-  <si>
-    <t>噩梦魔核</t>
-  </si>
-  <si>
-    <t>201052,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210032</t>
-  </si>
-  <si>
-    <t>10102</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>噩梦魔龙</t>
-  </si>
-  <si>
-    <t>1050-4</t>
-  </si>
-  <si>
-    <t>噩梦龙甲</t>
-  </si>
-  <si>
-    <t>201053,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210033</t>
-  </si>
-  <si>
-    <t>10103</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>噩梦火龙</t>
-  </si>
-  <si>
-    <t>1050-5</t>
-  </si>
-  <si>
-    <t>噩梦龙爪</t>
-  </si>
-  <si>
-    <t>201054,300010,300020,300030,300040,300050,300060,300070,300080,300090,103,504,210034</t>
-  </si>
-  <si>
-    <t>10104</t>
   </si>
   <si>
     <t>1105</t>
@@ -3403,11 +3403,11 @@
   <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106:B145"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6604,18 +6604,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A106" s="1" t="s">
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C106" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
@@ -6624,36 +6618,30 @@
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="I106" s="1">
         <v>1050</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L106" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C107" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A107" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -6662,36 +6650,30 @@
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="I107" s="1">
         <v>1050</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L107" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C108" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A108" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -6700,36 +6682,30 @@
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="I108" s="1">
         <v>1050</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C109" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A109" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -6738,36 +6714,30 @@
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="I109" s="1">
         <v>1050</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L109" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C110" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A110" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -6776,30 +6746,30 @@
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="I110" s="1">
         <v>1050</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>442</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>619</v>
@@ -6834,10 +6804,10 @@
     </row>
     <row r="112" customHeight="1" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>625</v>
@@ -6872,10 +6842,10 @@
     </row>
     <row r="113" customHeight="1" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>629</v>
@@ -6910,10 +6880,10 @@
     </row>
     <row r="114" customHeight="1" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>633</v>
@@ -6948,10 +6918,10 @@
     </row>
     <row r="115" customHeight="1" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>637</v>
@@ -6986,10 +6956,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>641</v>
@@ -7024,10 +6994,10 @@
     </row>
     <row r="117" customHeight="1" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>645</v>
@@ -7062,10 +7032,10 @@
     </row>
     <row r="118" customHeight="1" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>649</v>
@@ -7100,10 +7070,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>653</v>
@@ -7138,10 +7108,10 @@
     </row>
     <row r="120" customHeight="1" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>657</v>
@@ -7176,10 +7146,10 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>661</v>
@@ -7214,10 +7184,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>665</v>
@@ -7252,10 +7222,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>669</v>
@@ -7290,10 +7260,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>673</v>
@@ -7328,10 +7298,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>677</v>
@@ -7366,10 +7336,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>681</v>
@@ -7404,10 +7374,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>685</v>
@@ -7442,10 +7412,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>689</v>
@@ -7480,10 +7450,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>693</v>
@@ -7518,10 +7488,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>697</v>
@@ -7556,10 +7526,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>701</v>
@@ -7594,10 +7564,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>706</v>
@@ -7632,10 +7602,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>711</v>
@@ -7670,10 +7640,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>716</v>
@@ -7708,10 +7678,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>721</v>
@@ -7746,10 +7716,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>726</v>
@@ -7784,10 +7754,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>731</v>
@@ -7822,10 +7792,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>736</v>
@@ -7860,10 +7830,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>741</v>
@@ -7898,10 +7868,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>746</v>
@@ -7936,10 +7906,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>751</v>
@@ -7969,15 +7939,15 @@
         <v>624</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>756</v>
@@ -8007,15 +7977,15 @@
         <v>624</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>761</v>
@@ -8045,15 +8015,15 @@
         <v>624</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>766</v>
@@ -8083,15 +8053,15 @@
         <v>624</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>771</v>
@@ -8121,7 +8091,7 @@
         <v>624</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -1915,73 +1915,73 @@
     <t>10104</t>
   </si>
   <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>地狱小村</t>
+  </si>
+  <si>
+    <t>1100-1</t>
+  </si>
+  <si>
+    <t>金装</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210035</t>
+  </si>
+  <si>
+    <t>10,2500,1000,18000,300000</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱村外</t>
+  </si>
+  <si>
+    <t>1100-2</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210036</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱城外</t>
+  </si>
+  <si>
+    <t>1100-3</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210037</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱老城</t>
+  </si>
+  <si>
+    <t>1100-4</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210038</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱森林</t>
+  </si>
+  <si>
+    <t>1100-5</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210039</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>地狱小村</t>
-  </si>
-  <si>
-    <t>1100-1</t>
-  </si>
-  <si>
-    <t>金装</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210035</t>
-  </si>
-  <si>
-    <t>10,2500,1000,18000,300000</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>地狱村外</t>
-  </si>
-  <si>
-    <t>1100-2</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210036</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>地狱城外</t>
-  </si>
-  <si>
-    <t>1100-3</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210037</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>地狱老城</t>
-  </si>
-  <si>
-    <t>1100-4</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210038</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>地狱森林</t>
-  </si>
-  <si>
-    <t>1100-5</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210039</t>
   </si>
   <si>
     <t>1110</t>
@@ -3407,7 +3407,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106:B110"/>
+      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6764,18 +6764,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:12">
-      <c r="A111" s="1" t="s">
+    <row r="111" customHeight="1" spans="3:12">
+      <c r="C111" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
@@ -6784,36 +6778,30 @@
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:12">
-      <c r="A112" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="112" customHeight="1" spans="3:12">
       <c r="C112" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
@@ -6822,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>416</v>
@@ -6831,27 +6819,21 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:12">
-      <c r="A113" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="113" customHeight="1" spans="3:12">
       <c r="C113" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
@@ -6860,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>422</v>
@@ -6869,27 +6851,21 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:12">
-      <c r="A114" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="114" customHeight="1" spans="3:12">
       <c r="C114" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
@@ -6898,7 +6874,7 @@
         <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>428</v>
@@ -6907,27 +6883,21 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:12">
-      <c r="A115" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="115" customHeight="1" spans="3:12">
       <c r="C115" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
@@ -6936,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>434</v>
@@ -6945,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>436</v>
@@ -6956,10 +6926,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>641</v>
@@ -6986,7 +6956,7 @@
         <v>644</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>443</v>
@@ -6994,10 +6964,10 @@
     </row>
     <row r="117" customHeight="1" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>645</v>
@@ -7024,7 +6994,7 @@
         <v>648</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>449</v>
@@ -7032,10 +7002,10 @@
     </row>
     <row r="118" customHeight="1" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>649</v>
@@ -7062,7 +7032,7 @@
         <v>652</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>455</v>
@@ -7070,10 +7040,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>653</v>
@@ -7100,7 +7070,7 @@
         <v>656</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>461</v>
@@ -7108,10 +7078,10 @@
     </row>
     <row r="120" customHeight="1" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>657</v>
@@ -7138,7 +7108,7 @@
         <v>660</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>467</v>
@@ -7146,10 +7116,10 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>661</v>
@@ -7176,7 +7146,7 @@
         <v>664</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>473</v>
@@ -7184,10 +7154,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>665</v>
@@ -7214,7 +7184,7 @@
         <v>668</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>479</v>
@@ -7222,10 +7192,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>669</v>
@@ -7252,7 +7222,7 @@
         <v>672</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>485</v>
@@ -7260,10 +7230,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>673</v>
@@ -7290,7 +7260,7 @@
         <v>676</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>491</v>
@@ -7298,10 +7268,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>677</v>
@@ -7328,7 +7298,7 @@
         <v>680</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>497</v>
@@ -7336,10 +7306,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>681</v>
@@ -7366,7 +7336,7 @@
         <v>684</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>503</v>
@@ -7374,10 +7344,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>685</v>
@@ -7404,7 +7374,7 @@
         <v>688</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>509</v>
@@ -7412,10 +7382,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>689</v>
@@ -7442,7 +7412,7 @@
         <v>692</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>515</v>
@@ -7450,10 +7420,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>693</v>
@@ -7480,7 +7450,7 @@
         <v>696</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>521</v>
@@ -7488,10 +7458,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>697</v>
@@ -7518,7 +7488,7 @@
         <v>700</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>527</v>
@@ -7526,10 +7496,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>701</v>
@@ -7556,7 +7526,7 @@
         <v>705</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>533</v>
@@ -7564,10 +7534,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>706</v>
@@ -7594,7 +7564,7 @@
         <v>710</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>539</v>
@@ -7602,10 +7572,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>711</v>
@@ -7632,7 +7602,7 @@
         <v>715</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>545</v>
@@ -7640,10 +7610,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>716</v>
@@ -7670,7 +7640,7 @@
         <v>720</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>551</v>
@@ -7678,10 +7648,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>721</v>
@@ -7708,7 +7678,7 @@
         <v>725</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>557</v>
@@ -7716,10 +7686,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>726</v>
@@ -7746,7 +7716,7 @@
         <v>730</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>563</v>
@@ -7754,10 +7724,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>731</v>
@@ -7784,7 +7754,7 @@
         <v>735</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>569</v>
@@ -7792,10 +7762,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>736</v>
@@ -7822,7 +7792,7 @@
         <v>740</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>575</v>
@@ -7830,10 +7800,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>741</v>
@@ -7860,7 +7830,7 @@
         <v>745</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>581</v>
@@ -7868,10 +7838,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>746</v>
@@ -7898,7 +7868,7 @@
         <v>750</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>587</v>
@@ -7906,10 +7876,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>751</v>
@@ -7936,7 +7906,7 @@
         <v>755</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>593</v>
@@ -7944,10 +7914,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>756</v>
@@ -7974,7 +7944,7 @@
         <v>760</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>599</v>
@@ -7982,10 +7952,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>761</v>
@@ -8012,7 +7982,7 @@
         <v>765</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>605</v>
@@ -8020,10 +7990,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>766</v>
@@ -8050,7 +8020,7 @@
         <v>770</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>611</v>
@@ -8058,10 +8028,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>771</v>
@@ -8088,7 +8058,7 @@
         <v>775</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>617</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -1930,7 +1930,7 @@
     <t>202001,300091,104,504,210035</t>
   </si>
   <si>
-    <t>10,2500,1000,18000,300000</t>
+    <t>10,2500,1000,18000,600000</t>
   </si>
   <si>
     <t>1106</t>
@@ -3403,11 +3403,11 @@
   <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomRight" activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -1981,67 +1981,67 @@
     <t>202001,300091,104,504,210039</t>
   </si>
   <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱洞穴</t>
+  </si>
+  <si>
+    <t>1150-1</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210040</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱骷髅洞</t>
+  </si>
+  <si>
+    <t>1150-2</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210041</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱通道</t>
+  </si>
+  <si>
+    <t>1150-3</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210042</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱尸洞</t>
+  </si>
+  <si>
+    <t>1150-4</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210043</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱蛇谷</t>
+  </si>
+  <si>
+    <t>1150-5</t>
+  </si>
+  <si>
+    <t>202002,300091,104,504,210044</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱洞穴</t>
-  </si>
-  <si>
-    <t>1150-1</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210040</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱骷髅洞</t>
-  </si>
-  <si>
-    <t>1150-2</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210041</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱通道</t>
-  </si>
-  <si>
-    <t>1150-3</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210042</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱尸洞</t>
-  </si>
-  <si>
-    <t>1150-4</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210043</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱蛇谷</t>
-  </si>
-  <si>
-    <t>1150-5</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210044</t>
   </si>
   <si>
     <t>1115</t>
@@ -3407,7 +3407,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K119" sqref="K119"/>
+      <selection pane="bottomRight" activeCell="A116" sqref="A116:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6924,18 +6924,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:12">
-      <c r="A116" s="1" t="s">
+    <row r="116" customHeight="1" spans="3:12">
+      <c r="C116" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
@@ -6944,7 +6938,7 @@
         <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>440</v>
@@ -6953,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>623</v>
@@ -6962,18 +6956,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:12">
-      <c r="A117" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>640</v>
-      </c>
+    <row r="117" customHeight="1" spans="3:12">
       <c r="C117" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
@@ -6982,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>447</v>
@@ -6991,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>623</v>
@@ -7000,18 +6988,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:12">
-      <c r="A118" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>640</v>
-      </c>
+    <row r="118" customHeight="1" spans="3:12">
       <c r="C118" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
@@ -7020,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>453</v>
@@ -7029,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>623</v>
@@ -7038,18 +7020,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:12">
-      <c r="A119" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>640</v>
-      </c>
+    <row r="119" customHeight="1" spans="3:12">
       <c r="C119" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
@@ -7058,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>459</v>
@@ -7067,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>623</v>
@@ -7076,18 +7052,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:12">
-      <c r="A120" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>640</v>
-      </c>
+    <row r="120" customHeight="1" spans="3:12">
       <c r="C120" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
@@ -7096,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>465</v>
@@ -7105,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>623</v>
@@ -7116,10 +7086,10 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>661</v>
@@ -7154,10 +7124,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>665</v>
@@ -7192,10 +7162,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>669</v>
@@ -7230,10 +7200,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>673</v>
@@ -7268,10 +7238,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>677</v>
@@ -7306,10 +7276,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>681</v>
@@ -7344,10 +7314,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>685</v>
@@ -7382,10 +7352,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>689</v>
@@ -7420,10 +7390,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>693</v>
@@ -7458,10 +7428,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>697</v>
@@ -7496,10 +7466,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>701</v>
@@ -7534,10 +7504,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>706</v>
@@ -7572,10 +7542,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>711</v>
@@ -7610,10 +7580,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>716</v>
@@ -7648,10 +7618,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>721</v>
@@ -7686,10 +7656,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>726</v>
@@ -7724,10 +7694,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>731</v>
@@ -7762,10 +7732,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>736</v>
@@ -7800,10 +7770,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>741</v>
@@ -7838,10 +7808,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>746</v>
@@ -7876,10 +7846,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>751</v>
@@ -7914,10 +7884,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>756</v>
@@ -7952,10 +7922,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>761</v>
@@ -7990,10 +7960,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>766</v>
@@ -8028,10 +7998,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>771</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -2041,67 +2041,67 @@
     <t>202002,300091,104,504,210044</t>
   </si>
   <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱土城外</t>
+  </si>
+  <si>
+    <t>1200-1</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210045</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>地狱土城</t>
+  </si>
+  <si>
+    <t>1200-2</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210046</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>地狱龙城外</t>
+  </si>
+  <si>
+    <t>1200-3</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210047</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>地狱龙城</t>
+  </si>
+  <si>
+    <t>1200-4</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210048</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>地狱圣域</t>
+  </si>
+  <si>
+    <t>1200-5</t>
+  </si>
+  <si>
+    <t>202003,300091,104,504,210049</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱土城外</t>
-  </si>
-  <si>
-    <t>1200-1</t>
-  </si>
-  <si>
-    <t>202003,300091,104,504,210045</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>地狱土城</t>
-  </si>
-  <si>
-    <t>1200-2</t>
-  </si>
-  <si>
-    <t>202003,300091,104,504,210046</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>地狱龙城外</t>
-  </si>
-  <si>
-    <t>1200-3</t>
-  </si>
-  <si>
-    <t>202003,300091,104,504,210047</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>地狱龙城</t>
-  </si>
-  <si>
-    <t>1200-4</t>
-  </si>
-  <si>
-    <t>202003,300091,104,504,210048</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>地狱圣域</t>
-  </si>
-  <si>
-    <t>1200-5</t>
-  </si>
-  <si>
-    <t>202003,300091,104,504,210049</t>
   </si>
   <si>
     <t>1120</t>
@@ -3403,11 +3403,11 @@
   <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E109" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A116" sqref="A116:B120"/>
+      <selection pane="bottomRight" activeCell="A121" sqref="A121:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7084,18 +7084,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A121" s="1" t="s">
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C121" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
@@ -7104,7 +7098,7 @@
         <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>471</v>
@@ -7113,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>623</v>
@@ -7122,18 +7116,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A122" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>660</v>
-      </c>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C122" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
@@ -7142,7 +7130,7 @@
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>477</v>
@@ -7151,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>623</v>
@@ -7160,18 +7148,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A123" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>660</v>
-      </c>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C123" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
@@ -7180,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>483</v>
@@ -7189,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>623</v>
@@ -7198,18 +7180,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A124" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>660</v>
-      </c>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C124" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -7218,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>489</v>
@@ -7227,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>623</v>
@@ -7236,18 +7212,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A125" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>660</v>
-      </c>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C125" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
@@ -7256,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>495</v>
@@ -7265,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>623</v>
@@ -7276,10 +7246,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>681</v>
@@ -7314,10 +7284,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>685</v>
@@ -7352,10 +7322,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>689</v>
@@ -7390,10 +7360,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>693</v>
@@ -7428,10 +7398,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>697</v>
@@ -7466,10 +7436,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>701</v>
@@ -7504,10 +7474,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>706</v>
@@ -7542,10 +7512,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>711</v>
@@ -7580,10 +7550,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>716</v>
@@ -7618,10 +7588,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>721</v>
@@ -7656,10 +7626,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>726</v>
@@ -7694,10 +7664,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>731</v>
@@ -7732,10 +7702,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>736</v>
@@ -7770,10 +7740,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>741</v>
@@ -7808,10 +7778,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>746</v>
@@ -7846,10 +7816,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>751</v>
@@ -7884,10 +7854,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>756</v>
@@ -7922,10 +7892,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>761</v>
@@ -7960,10 +7930,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>766</v>
@@ -7998,10 +7968,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>771</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -1915,6 +1915,9 @@
     <t>10104</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>1105</t>
   </si>
   <si>
@@ -2099,9 +2102,6 @@
   </si>
   <si>
     <t>202003,300091,104,504,210049</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>1120</t>
@@ -2565,12 +2565,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3407,7 +3407,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A121" sqref="A121:B125"/>
+      <selection pane="bottomRight" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6764,12 +6764,18 @@
         <v>617</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="3:12">
+    <row r="111" customHeight="1" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C111" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
@@ -6778,30 +6784,36 @@
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="3:12">
+    <row r="112" customHeight="1" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
@@ -6810,7 +6822,7 @@
         <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>416</v>
@@ -6819,21 +6831,27 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="3:12">
+    <row r="113" customHeight="1" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
@@ -6842,7 +6860,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>422</v>
@@ -6851,21 +6869,27 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="3:12">
+    <row r="114" customHeight="1" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
@@ -6874,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>428</v>
@@ -6883,21 +6907,27 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="3:12">
+    <row r="115" customHeight="1" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C115" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
@@ -6906,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>434</v>
@@ -6915,21 +6945,27 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="3:12">
+    <row r="116" customHeight="1" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
@@ -6938,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>440</v>
@@ -6947,21 +6983,27 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="3:12">
+    <row r="117" customHeight="1" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
@@ -6970,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>447</v>
@@ -6979,21 +7021,27 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="3:12">
+    <row r="118" customHeight="1" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
@@ -7002,7 +7050,7 @@
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>453</v>
@@ -7011,21 +7059,27 @@
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="3:12">
+    <row r="119" customHeight="1" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
@@ -7034,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>459</v>
@@ -7043,21 +7097,27 @@
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="3:12">
+    <row r="120" customHeight="1" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
@@ -7066,7 +7126,7 @@
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>465</v>
@@ -7075,21 +7135,27 @@
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
@@ -7098,7 +7164,7 @@
         <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>471</v>
@@ -7107,21 +7173,27 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A122" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
@@ -7130,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>477</v>
@@ -7139,21 +7211,27 @@
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A123" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
@@ -7162,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>483</v>
@@ -7171,21 +7249,27 @@
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A124" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -7194,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>489</v>
@@ -7203,21 +7287,27 @@
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A125" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
@@ -7226,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>495</v>
@@ -7235,10 +7325,10 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>497</v>
@@ -7246,10 +7336,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>681</v>
@@ -7276,7 +7366,7 @@
         <v>684</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>503</v>
@@ -7284,10 +7374,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>685</v>
@@ -7314,7 +7404,7 @@
         <v>688</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>509</v>
@@ -7322,10 +7412,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>689</v>
@@ -7352,7 +7442,7 @@
         <v>692</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>515</v>
@@ -7360,10 +7450,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>693</v>
@@ -7390,7 +7480,7 @@
         <v>696</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>521</v>
@@ -7398,10 +7488,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>697</v>
@@ -7428,7 +7518,7 @@
         <v>700</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>527</v>
@@ -7436,10 +7526,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>701</v>
@@ -7466,7 +7556,7 @@
         <v>705</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>533</v>
@@ -7474,10 +7564,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>706</v>
@@ -7504,7 +7594,7 @@
         <v>710</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>539</v>
@@ -7512,10 +7602,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>711</v>
@@ -7542,7 +7632,7 @@
         <v>715</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>545</v>
@@ -7550,10 +7640,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>716</v>
@@ -7580,7 +7670,7 @@
         <v>720</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>551</v>
@@ -7588,10 +7678,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>721</v>
@@ -7618,7 +7708,7 @@
         <v>725</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>557</v>
@@ -7626,10 +7716,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>726</v>
@@ -7656,7 +7746,7 @@
         <v>730</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>563</v>
@@ -7664,10 +7754,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>731</v>
@@ -7694,7 +7784,7 @@
         <v>735</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>569</v>
@@ -7702,10 +7792,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>736</v>
@@ -7732,7 +7822,7 @@
         <v>740</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>575</v>
@@ -7740,10 +7830,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>741</v>
@@ -7770,7 +7860,7 @@
         <v>745</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>581</v>
@@ -7778,10 +7868,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>746</v>
@@ -7808,7 +7898,7 @@
         <v>750</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>587</v>
@@ -7816,10 +7906,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>751</v>
@@ -7846,7 +7936,7 @@
         <v>755</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>593</v>
@@ -7854,10 +7944,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>756</v>
@@ -7884,7 +7974,7 @@
         <v>760</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>599</v>
@@ -7892,10 +7982,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>761</v>
@@ -7922,7 +8012,7 @@
         <v>765</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>605</v>
@@ -7930,10 +8020,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>766</v>
@@ -7960,7 +8050,7 @@
         <v>770</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>611</v>
@@ -7968,10 +8058,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>771</v>
@@ -7998,7 +8088,7 @@
         <v>775</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>617</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="776">
   <si>
     <t>_Id</t>
   </si>
@@ -1915,73 +1915,73 @@
     <t>10104</t>
   </si>
   <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>地狱小村</t>
+  </si>
+  <si>
+    <t>1100-1</t>
+  </si>
+  <si>
+    <t>金装</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210035</t>
+  </si>
+  <si>
+    <t>10,2500,1000,18000,600000</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱村外</t>
+  </si>
+  <si>
+    <t>1100-2</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210036</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱城外</t>
+  </si>
+  <si>
+    <t>1100-3</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210037</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱老城</t>
+  </si>
+  <si>
+    <t>1100-4</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210038</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱森林</t>
+  </si>
+  <si>
+    <t>1100-5</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210039</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>地狱小村</t>
-  </si>
-  <si>
-    <t>1100-1</t>
-  </si>
-  <si>
-    <t>金装</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210035</t>
-  </si>
-  <si>
-    <t>10,2500,1000,18000,600000</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>地狱村外</t>
-  </si>
-  <si>
-    <t>1100-2</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210036</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>地狱城外</t>
-  </si>
-  <si>
-    <t>1100-3</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210037</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>地狱老城</t>
-  </si>
-  <si>
-    <t>1100-4</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210038</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>地狱森林</t>
-  </si>
-  <si>
-    <t>1100-5</t>
-  </si>
-  <si>
-    <t>202001,300091,104,504,210039</t>
   </si>
   <si>
     <t>1110</t>
@@ -2565,12 +2565,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3403,11 +3403,11 @@
   <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A122" sqref="A122"/>
+      <selection pane="bottomRight" activeCell="A111" sqref="A111:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6764,18 +6764,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:12">
-      <c r="A111" s="1" t="s">
+    <row r="111" customHeight="1" spans="3:12">
+      <c r="C111" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="E111" s="1">
         <v>4</v>
@@ -6784,36 +6778,30 @@
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:12">
-      <c r="A112" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="112" customHeight="1" spans="3:12">
       <c r="C112" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
@@ -6822,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>416</v>
@@ -6831,27 +6819,21 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:12">
-      <c r="A113" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="113" customHeight="1" spans="3:12">
       <c r="C113" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
@@ -6860,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>422</v>
@@ -6869,27 +6851,21 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:12">
-      <c r="A114" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="114" customHeight="1" spans="3:12">
       <c r="C114" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
@@ -6898,7 +6874,7 @@
         <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>428</v>
@@ -6907,27 +6883,21 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:12">
-      <c r="A115" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>618</v>
-      </c>
+    <row r="115" customHeight="1" spans="3:12">
       <c r="C115" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
@@ -6936,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>434</v>
@@ -6945,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>436</v>
@@ -6956,10 +6926,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>641</v>
@@ -6986,7 +6956,7 @@
         <v>644</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>443</v>
@@ -6994,10 +6964,10 @@
     </row>
     <row r="117" customHeight="1" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>645</v>
@@ -7024,7 +6994,7 @@
         <v>648</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>449</v>
@@ -7032,10 +7002,10 @@
     </row>
     <row r="118" customHeight="1" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>649</v>
@@ -7062,7 +7032,7 @@
         <v>652</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>455</v>
@@ -7070,10 +7040,10 @@
     </row>
     <row r="119" customHeight="1" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>653</v>
@@ -7100,7 +7070,7 @@
         <v>656</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>461</v>
@@ -7108,10 +7078,10 @@
     </row>
     <row r="120" customHeight="1" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>657</v>
@@ -7138,7 +7108,7 @@
         <v>660</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>467</v>
@@ -7146,10 +7116,10 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>661</v>
@@ -7176,7 +7146,7 @@
         <v>664</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>473</v>
@@ -7184,10 +7154,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>665</v>
@@ -7214,7 +7184,7 @@
         <v>668</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>479</v>
@@ -7222,10 +7192,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>669</v>
@@ -7252,7 +7222,7 @@
         <v>672</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>485</v>
@@ -7260,10 +7230,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>673</v>
@@ -7290,7 +7260,7 @@
         <v>676</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>491</v>
@@ -7298,10 +7268,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>677</v>
@@ -7328,7 +7298,7 @@
         <v>680</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>497</v>
@@ -7336,10 +7306,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>681</v>
@@ -7366,7 +7336,7 @@
         <v>684</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>503</v>
@@ -7374,10 +7344,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>685</v>
@@ -7404,7 +7374,7 @@
         <v>688</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>509</v>
@@ -7412,10 +7382,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>689</v>
@@ -7442,7 +7412,7 @@
         <v>692</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>515</v>
@@ -7450,10 +7420,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>693</v>
@@ -7480,7 +7450,7 @@
         <v>696</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>521</v>
@@ -7488,10 +7458,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>697</v>
@@ -7518,7 +7488,7 @@
         <v>700</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>527</v>
@@ -7526,10 +7496,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>701</v>
@@ -7556,7 +7526,7 @@
         <v>705</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>533</v>
@@ -7564,10 +7534,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>706</v>
@@ -7594,7 +7564,7 @@
         <v>710</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>539</v>
@@ -7602,10 +7572,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>711</v>
@@ -7632,7 +7602,7 @@
         <v>715</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>545</v>
@@ -7640,10 +7610,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>716</v>
@@ -7670,7 +7640,7 @@
         <v>720</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>551</v>
@@ -7678,10 +7648,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>721</v>
@@ -7708,7 +7678,7 @@
         <v>725</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>557</v>
@@ -7716,10 +7686,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>726</v>
@@ -7746,7 +7716,7 @@
         <v>730</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>563</v>
@@ -7754,10 +7724,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>731</v>
@@ -7784,7 +7754,7 @@
         <v>735</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>569</v>
@@ -7792,10 +7762,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>736</v>
@@ -7822,7 +7792,7 @@
         <v>740</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>575</v>
@@ -7830,10 +7800,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>741</v>
@@ -7860,7 +7830,7 @@
         <v>745</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>581</v>
@@ -7868,10 +7838,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>746</v>
@@ -7898,7 +7868,7 @@
         <v>750</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>587</v>
@@ -7906,10 +7876,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>751</v>
@@ -7936,7 +7906,7 @@
         <v>755</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>593</v>
@@ -7944,10 +7914,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>756</v>
@@ -7974,7 +7944,7 @@
         <v>760</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>599</v>
@@ -7982,10 +7952,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>761</v>
@@ -8012,7 +7982,7 @@
         <v>765</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>605</v>
@@ -8020,10 +7990,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>766</v>
@@ -8050,7 +8020,7 @@
         <v>770</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>611</v>
@@ -8058,10 +8028,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>771</v>
@@ -8088,7 +8058,7 @@
         <v>775</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>617</v>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="830">
   <si>
     <t>_Id</t>
   </si>
@@ -1933,6 +1933,9 @@
     <t>10,2500,1000,18000,600000</t>
   </si>
   <si>
+    <t>10105</t>
+  </si>
+  <si>
     <t>1106</t>
   </si>
   <si>
@@ -1942,9 +1945,15 @@
     <t>1100-2</t>
   </si>
   <si>
+    <t>地狱鹿茸</t>
+  </si>
+  <si>
     <t>202001,300091,104,504,210036</t>
   </si>
   <si>
+    <t>10106</t>
+  </si>
+  <si>
     <t>1107</t>
   </si>
   <si>
@@ -1954,9 +1963,15 @@
     <t>1100-3</t>
   </si>
   <si>
+    <t>地狱草帽</t>
+  </si>
+  <si>
     <t>202001,300091,104,504,210037</t>
   </si>
   <si>
+    <t>10107</t>
+  </si>
+  <si>
     <t>1108</t>
   </si>
   <si>
@@ -1966,9 +1981,15 @@
     <t>1100-4</t>
   </si>
   <si>
+    <t>地狱猫爪</t>
+  </si>
+  <si>
     <t>202001,300091,104,504,210038</t>
   </si>
   <si>
+    <t>10108</t>
+  </si>
+  <si>
     <t>1109</t>
   </si>
   <si>
@@ -1978,9 +1999,15 @@
     <t>1100-5</t>
   </si>
   <si>
+    <t>地狱花朵</t>
+  </si>
+  <si>
     <t>202001,300091,104,504,210039</t>
   </si>
   <si>
+    <t>10109</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -1993,9 +2020,15 @@
     <t>1150-1</t>
   </si>
   <si>
+    <t>地狱冰晶</t>
+  </si>
+  <si>
     <t>202002,300091,104,504,210040</t>
   </si>
   <si>
+    <t>10110</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
@@ -2005,9 +2038,15 @@
     <t>1150-2</t>
   </si>
   <si>
+    <t>地狱蝠翼</t>
+  </si>
+  <si>
     <t>202002,300091,104,504,210041</t>
   </si>
   <si>
+    <t>10111</t>
+  </si>
+  <si>
     <t>1112</t>
   </si>
   <si>
@@ -2017,9 +2056,15 @@
     <t>1150-3</t>
   </si>
   <si>
+    <t>地狱魂火</t>
+  </si>
+  <si>
     <t>202002,300091,104,504,210042</t>
   </si>
   <si>
+    <t>10112</t>
+  </si>
+  <si>
     <t>1113</t>
   </si>
   <si>
@@ -2029,9 +2074,15 @@
     <t>1150-4</t>
   </si>
   <si>
+    <t>地狱腐肉</t>
+  </si>
+  <si>
     <t>202002,300091,104,504,210043</t>
   </si>
   <si>
+    <t>10113</t>
+  </si>
+  <si>
     <t>1114</t>
   </si>
   <si>
@@ -2041,9 +2092,15 @@
     <t>1150-5</t>
   </si>
   <si>
+    <t>地狱蛇胆</t>
+  </si>
+  <si>
     <t>202002,300091,104,504,210044</t>
   </si>
   <si>
+    <t>10114</t>
+  </si>
+  <si>
     <t>1115</t>
   </si>
   <si>
@@ -2053,9 +2110,15 @@
     <t>1200-1</t>
   </si>
   <si>
+    <t>地狱狼爪</t>
+  </si>
+  <si>
     <t>202003,300091,104,504,210045</t>
   </si>
   <si>
+    <t>10115</t>
+  </si>
+  <si>
     <t>1116</t>
   </si>
   <si>
@@ -2065,9 +2128,15 @@
     <t>1200-2</t>
   </si>
   <si>
+    <t>地狱虫皮</t>
+  </si>
+  <si>
     <t>202003,300091,104,504,210046</t>
   </si>
   <si>
+    <t>10116</t>
+  </si>
+  <si>
     <t>1117</t>
   </si>
   <si>
@@ -2077,9 +2146,15 @@
     <t>1200-3</t>
   </si>
   <si>
+    <t>地狱鹰羽</t>
+  </si>
+  <si>
     <t>202003,300091,104,504,210047</t>
   </si>
   <si>
+    <t>10117</t>
+  </si>
+  <si>
     <t>1118</t>
   </si>
   <si>
@@ -2089,9 +2164,15 @@
     <t>1200-4</t>
   </si>
   <si>
+    <t>地狱虫角</t>
+  </si>
+  <si>
     <t>202003,300091,104,504,210048</t>
   </si>
   <si>
+    <t>10118</t>
+  </si>
+  <si>
     <t>1119</t>
   </si>
   <si>
@@ -2101,9 +2182,15 @@
     <t>1200-5</t>
   </si>
   <si>
+    <t>地狱蜈膏</t>
+  </si>
+  <si>
     <t>202003,300091,104,504,210049</t>
   </si>
   <si>
+    <t>10119</t>
+  </si>
+  <si>
     <t>1120</t>
   </si>
   <si>
@@ -2113,9 +2200,15 @@
     <t>1250-1</t>
   </si>
   <si>
+    <t>地狱虫心</t>
+  </si>
+  <si>
     <t>202004,300091,104,504,210050</t>
   </si>
   <si>
+    <t>10120</t>
+  </si>
+  <si>
     <t>1121</t>
   </si>
   <si>
@@ -2125,9 +2218,15 @@
     <t>1250-2</t>
   </si>
   <si>
+    <t>地狱龙皮</t>
+  </si>
+  <si>
     <t>202004,300091,104,504,210051</t>
   </si>
   <si>
+    <t>10121</t>
+  </si>
+  <si>
     <t>1122</t>
   </si>
   <si>
@@ -2137,9 +2236,15 @@
     <t>1250-3</t>
   </si>
   <si>
+    <t>地狱猪皮</t>
+  </si>
+  <si>
     <t>202004,300091,104,504,210052</t>
   </si>
   <si>
+    <t>10122</t>
+  </si>
+  <si>
     <t>1123</t>
   </si>
   <si>
@@ -2149,9 +2254,15 @@
     <t>1250-4</t>
   </si>
   <si>
+    <t>地狱猪心</t>
+  </si>
+  <si>
     <t>202004,300091,104,504,210053</t>
   </si>
   <si>
+    <t>10123</t>
+  </si>
+  <si>
     <t>1124</t>
   </si>
   <si>
@@ -2161,9 +2272,15 @@
     <t>1250-5</t>
   </si>
   <si>
+    <t>地狱蝎皮</t>
+  </si>
+  <si>
     <t>202004,300091,104,504,210054</t>
   </si>
   <si>
+    <t>10124</t>
+  </si>
+  <si>
     <t>1125</t>
   </si>
   <si>
@@ -2179,6 +2296,9 @@
     <t>202005,300091,104,504,210055</t>
   </si>
   <si>
+    <t>10125</t>
+  </si>
+  <si>
     <t>1126</t>
   </si>
   <si>
@@ -2194,6 +2314,9 @@
     <t>202005,300091,104,504,210056</t>
   </si>
   <si>
+    <t>10126</t>
+  </si>
+  <si>
     <t>1127</t>
   </si>
   <si>
@@ -2209,6 +2332,9 @@
     <t>202005,300091,104,504,210057</t>
   </si>
   <si>
+    <t>10127</t>
+  </si>
+  <si>
     <t>1128</t>
   </si>
   <si>
@@ -2224,6 +2350,9 @@
     <t>202005,300091,104,504,210058</t>
   </si>
   <si>
+    <t>10128</t>
+  </si>
+  <si>
     <t>1129</t>
   </si>
   <si>
@@ -2239,6 +2368,9 @@
     <t>202005,300091,104,504,210059</t>
   </si>
   <si>
+    <t>10129</t>
+  </si>
+  <si>
     <t>1130</t>
   </si>
   <si>
@@ -2254,6 +2386,9 @@
     <t>202006,300091,104,504,210060</t>
   </si>
   <si>
+    <t>10130</t>
+  </si>
+  <si>
     <t>1131</t>
   </si>
   <si>
@@ -2269,6 +2404,9 @@
     <t>202006,300091,104,504,210061</t>
   </si>
   <si>
+    <t>10131</t>
+  </si>
+  <si>
     <t>1132</t>
   </si>
   <si>
@@ -2284,6 +2422,9 @@
     <t>202006,300091,104,504,210062</t>
   </si>
   <si>
+    <t>10132</t>
+  </si>
+  <si>
     <t>1133</t>
   </si>
   <si>
@@ -2299,6 +2440,9 @@
     <t>202006,300091,104,504,210063</t>
   </si>
   <si>
+    <t>10133</t>
+  </si>
+  <si>
     <t>1134</t>
   </si>
   <si>
@@ -2314,6 +2458,9 @@
     <t>202006,300091,104,504,210064</t>
   </si>
   <si>
+    <t>10134</t>
+  </si>
+  <si>
     <t>1135</t>
   </si>
   <si>
@@ -2329,6 +2476,9 @@
     <t>202007,300091,104,504,210065</t>
   </si>
   <si>
+    <t>10135</t>
+  </si>
+  <si>
     <t>1136</t>
   </si>
   <si>
@@ -2344,6 +2494,9 @@
     <t>202007,300091,104,504,210066</t>
   </si>
   <si>
+    <t>10136</t>
+  </si>
+  <si>
     <t>1137</t>
   </si>
   <si>
@@ -2359,6 +2512,9 @@
     <t>202007,300091,104,504,210067</t>
   </si>
   <si>
+    <t>10137</t>
+  </si>
+  <si>
     <t>1138</t>
   </si>
   <si>
@@ -2374,6 +2530,9 @@
     <t>202007,300091,104,504,210068</t>
   </si>
   <si>
+    <t>10138</t>
+  </si>
+  <si>
     <t>1139</t>
   </si>
   <si>
@@ -2387,6 +2546,9 @@
   </si>
   <si>
     <t>202007,300091,104,504,210069</t>
+  </si>
+  <si>
+    <t>10139</t>
   </si>
 </sst>
 </file>
@@ -3403,11 +3565,11 @@
   <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E123" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111:B115"/>
+      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6793,15 +6955,15 @@
         <v>623</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>412</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="3:12">
       <c r="C112" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
@@ -6810,30 +6972,30 @@
         <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>416</v>
+        <v>628</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>418</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:12">
       <c r="C113" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
@@ -6842,30 +7004,30 @@
         <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>422</v>
+        <v>634</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>424</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:12">
       <c r="C114" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
@@ -6874,30 +7036,30 @@
         <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>428</v>
+        <v>640</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>430</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="3:12">
       <c r="C115" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
@@ -6906,36 +7068,36 @@
         <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>434</v>
+        <v>646</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>436</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
@@ -6944,36 +7106,36 @@
         <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>440</v>
+        <v>653</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>443</v>
+        <v>655</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
@@ -6982,36 +7144,36 @@
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>447</v>
+        <v>659</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>449</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
@@ -7020,36 +7182,36 @@
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>453</v>
+        <v>665</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>455</v>
+        <v>667</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
@@ -7058,36 +7220,36 @@
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>459</v>
+        <v>671</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>461</v>
+        <v>673</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
@@ -7096,36 +7258,36 @@
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>465</v>
+        <v>677</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
@@ -7134,36 +7296,36 @@
         <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>471</v>
+        <v>683</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>473</v>
+        <v>685</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
@@ -7172,36 +7334,36 @@
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>477</v>
+        <v>689</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>479</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
@@ -7210,36 +7372,36 @@
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>483</v>
+        <v>695</v>
       </c>
       <c r="I123" s="1">
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>485</v>
+        <v>697</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -7248,36 +7410,36 @@
         <v>4</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>489</v>
+        <v>701</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>491</v>
+        <v>703</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
@@ -7286,36 +7448,36 @@
         <v>4</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>495</v>
+        <v>707</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>497</v>
+        <v>709</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
@@ -7324,36 +7486,36 @@
         <v>4</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>501</v>
+        <v>713</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>503</v>
+        <v>715</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
@@ -7362,36 +7524,36 @@
         <v>4</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>507</v>
+        <v>719</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>509</v>
+        <v>721</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
@@ -7400,36 +7562,36 @@
         <v>4</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>513</v>
+        <v>725</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>515</v>
+        <v>727</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>694</v>
+        <v>729</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
@@ -7438,36 +7600,36 @@
         <v>4</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>519</v>
+        <v>731</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>521</v>
+        <v>733</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
@@ -7476,36 +7638,36 @@
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>525</v>
+        <v>737</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>527</v>
+        <v>739</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
@@ -7514,36 +7676,36 @@
         <v>4</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="I131" s="1">
         <v>0</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>533</v>
+        <v>745</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
@@ -7552,36 +7714,36 @@
         <v>4</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>709</v>
+        <v>749</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>539</v>
+        <v>751</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
@@ -7590,36 +7752,36 @@
         <v>4</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>545</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
@@ -7628,36 +7790,36 @@
         <v>4</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="I134" s="1">
         <v>0</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="K134" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>551</v>
+        <v>763</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
@@ -7666,36 +7828,36 @@
         <v>4</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="K135" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>557</v>
+        <v>769</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>726</v>
+        <v>770</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>727</v>
+        <v>771</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
@@ -7704,36 +7866,36 @@
         <v>4</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="K136" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>563</v>
+        <v>775</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
@@ -7742,36 +7904,36 @@
         <v>4</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>569</v>
+        <v>781</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>736</v>
+        <v>782</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
@@ -7780,36 +7942,36 @@
         <v>4</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
       <c r="K138" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>575</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>741</v>
+        <v>788</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>742</v>
+        <v>789</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
@@ -7818,36 +7980,36 @@
         <v>4</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>745</v>
+        <v>792</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>581</v>
+        <v>793</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>746</v>
+        <v>794</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>747</v>
+        <v>795</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
@@ -7856,36 +8018,36 @@
         <v>4</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="K140" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>587</v>
+        <v>799</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>751</v>
+        <v>800</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>752</v>
+        <v>801</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
@@ -7894,36 +8056,36 @@
         <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>754</v>
+        <v>803</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>755</v>
+        <v>804</v>
       </c>
       <c r="K141" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>593</v>
+        <v>805</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>757</v>
+        <v>807</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
@@ -7932,36 +8094,36 @@
         <v>4</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>758</v>
+        <v>808</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>759</v>
+        <v>809</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="K142" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>599</v>
+        <v>811</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>761</v>
+        <v>812</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
@@ -7970,36 +8132,36 @@
         <v>4</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>765</v>
+        <v>816</v>
       </c>
       <c r="K143" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>605</v>
+        <v>817</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>766</v>
+        <v>818</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>767</v>
+        <v>819</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
@@ -8008,36 +8170,36 @@
         <v>4</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="K144" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>611</v>
+        <v>823</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>772</v>
+        <v>825</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
@@ -8046,22 +8208,22 @@
         <v>4</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="I145" s="1">
         <v>0</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>775</v>
+        <v>828</v>
       </c>
       <c r="K145" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>617</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="830">
   <si>
     <t>_Id</t>
   </si>
@@ -2008,97 +2008,97 @@
     <t>10109</t>
   </si>
   <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱洞穴</t>
+  </si>
+  <si>
+    <t>1150-1</t>
+  </si>
+  <si>
+    <t>地狱冰晶</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210040</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱骷髅洞</t>
+  </si>
+  <si>
+    <t>1150-2</t>
+  </si>
+  <si>
+    <t>地狱蝠翼</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210041</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱通道</t>
+  </si>
+  <si>
+    <t>1150-3</t>
+  </si>
+  <si>
+    <t>地狱魂火</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210042</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱尸洞</t>
+  </si>
+  <si>
+    <t>1150-4</t>
+  </si>
+  <si>
+    <t>地狱腐肉</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210043</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱蛇谷</t>
+  </si>
+  <si>
+    <t>1150-5</t>
+  </si>
+  <si>
+    <t>地狱蛇胆</t>
+  </si>
+  <si>
+    <t>202001,300091,104,504,210044</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱洞穴</t>
-  </si>
-  <si>
-    <t>1150-1</t>
-  </si>
-  <si>
-    <t>地狱冰晶</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210040</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱骷髅洞</t>
-  </si>
-  <si>
-    <t>1150-2</t>
-  </si>
-  <si>
-    <t>地狱蝠翼</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210041</t>
-  </si>
-  <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱通道</t>
-  </si>
-  <si>
-    <t>1150-3</t>
-  </si>
-  <si>
-    <t>地狱魂火</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210042</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱尸洞</t>
-  </si>
-  <si>
-    <t>1150-4</t>
-  </si>
-  <si>
-    <t>地狱腐肉</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210043</t>
-  </si>
-  <si>
-    <t>10113</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱蛇谷</t>
-  </si>
-  <si>
-    <t>1150-5</t>
-  </si>
-  <si>
-    <t>地狱蛇胆</t>
-  </si>
-  <si>
-    <t>202002,300091,104,504,210044</t>
-  </si>
-  <si>
-    <t>10114</t>
   </si>
   <si>
     <t>1115</t>
@@ -3565,11 +3565,11 @@
   <dimension ref="A3:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
+      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7086,18 +7086,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:12">
-      <c r="A116" s="1" t="s">
+    <row r="116" customHeight="1" spans="3:12">
+      <c r="C116" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
@@ -7106,36 +7100,30 @@
         <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L116" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="3:12">
+      <c r="C117" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:12">
-      <c r="A117" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
@@ -7144,36 +7132,30 @@
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L117" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="3:12">
+      <c r="C118" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:12">
-      <c r="A118" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
@@ -7182,36 +7164,30 @@
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L118" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="3:12">
+      <c r="C119" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:12">
-      <c r="A119" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
@@ -7220,36 +7196,30 @@
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L119" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="3:12">
+      <c r="C120" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:12">
-      <c r="A120" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
@@ -7258,30 +7228,30 @@
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>623</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>680</v>
@@ -7316,10 +7286,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>686</v>
@@ -7354,10 +7324,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>692</v>
@@ -7392,10 +7362,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>698</v>
@@ -7430,10 +7400,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>704</v>
@@ -7468,10 +7438,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>710</v>
@@ -7506,10 +7476,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>716</v>
@@ -7544,10 +7514,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>722</v>
@@ -7582,10 +7552,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>728</v>
@@ -7620,10 +7590,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>734</v>
@@ -7658,10 +7628,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>740</v>
@@ -7696,10 +7666,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>746</v>
@@ -7734,10 +7704,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>752</v>
@@ -7772,10 +7742,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>758</v>
@@ -7810,10 +7780,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>764</v>
@@ -7848,10 +7818,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>770</v>
@@ -7886,10 +7856,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>776</v>
@@ -7924,10 +7894,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>782</v>
@@ -7962,10 +7932,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>788</v>
@@ -8000,10 +7970,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>794</v>
@@ -8038,10 +8008,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>800</v>
@@ -8076,10 +8046,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>806</v>
@@ -8114,10 +8084,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>812</v>
@@ -8152,10 +8122,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>818</v>
@@ -8190,10 +8160,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>824</v>
